--- a/09_project/06_picDot/dotPicMineCraft.xlsx
+++ b/09_project/06_picDot/dotPicMineCraft.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+  <si>
+    <t>powered by chyijiunn</t>
+  </si>
   <si>
     <t>WOOL:</t>
   </si>
@@ -310,7 +313,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m-d"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -321,17 +324,39 @@
       <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font/>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1C232"/>
+        <bgColor rgb="FFF1C232"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -346,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -356,14 +381,35 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -716,1011 +762,1147 @@
         <f t="shared" ref="A2:A25" si="3">A3+1</f>
         <v>25</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="1">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="1">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="1">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="1">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="1">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="1">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="6">
         <v>1.0</v>
       </c>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
+      <c r="P10" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="1">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="2">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="8">
         <v>1.0</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="Q11" s="8">
         <v>1.0</v>
       </c>
-      <c r="Q11" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="6">
         <v>1.0</v>
       </c>
-      <c r="P12" s="2">
+      <c r="O12" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="P12" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="R12" s="6">
         <v>1.0</v>
       </c>
-      <c r="Q12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="2">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="8">
         <v>1.0</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="P13" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="R13" s="8">
         <v>1.0</v>
       </c>
-      <c r="P13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="R13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="1">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="6">
         <v>1.0</v>
       </c>
-      <c r="O14" s="2">
+      <c r="N14" s="8">
         <v>1.0</v>
       </c>
-      <c r="P14" s="2">
+      <c r="O14" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="P14" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="R14" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="S14" s="6">
         <v>1.0</v>
       </c>
-      <c r="Q14" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="R14" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="6">
         <v>1.0</v>
       </c>
-      <c r="N15" s="2">
+      <c r="I15" s="6">
         <v>1.0</v>
       </c>
-      <c r="O15" s="2">
+      <c r="J15" s="6">
         <v>1.0</v>
       </c>
-      <c r="P15" s="2">
+      <c r="K15" s="6">
         <v>1.0</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="L15" s="6">
         <v>1.0</v>
       </c>
-      <c r="R15" s="2">
+      <c r="M15" s="8">
         <v>1.0</v>
       </c>
-      <c r="S15" s="2">
+      <c r="N15" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="P15" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="R15" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="S15" s="8">
         <v>1.0</v>
       </c>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
+      <c r="T15" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="U15" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="V15" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="W15" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="X15" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="8">
         <v>1.0</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="K16" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="N16" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="P16" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="R16" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="S16" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="T16" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="U16" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="V16" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="W16" s="8">
         <v>1.0</v>
       </c>
-      <c r="J16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="N16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="P16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="R16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="S16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="T16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="V16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="W16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="X16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="8">
         <v>1.0</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="L17" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="M17" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="N17" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="P17" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="R17" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="S17" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="T17" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="U17" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="V17" s="8">
         <v>1.0</v>
       </c>
-      <c r="K17" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="L17" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="O17" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="P17" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="R17" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="S17" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="T17" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U17" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="V17" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="W17" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="8">
         <v>1.0</v>
       </c>
-      <c r="K18" s="2">
+      <c r="L18" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="M18" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="N18" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="P18" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="R18" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="S18" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="T18" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="U18" s="8">
         <v>1.0</v>
       </c>
-      <c r="L18" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="M18" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="O18" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="P18" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="R18" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="S18" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="T18" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U18" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="V18" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="8">
         <v>1.0</v>
       </c>
-      <c r="L19" s="2">
+      <c r="M19" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="P19" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="R19" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="S19" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="T19" s="8">
         <v>1.0</v>
       </c>
-      <c r="M19" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="O19" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="P19" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="R19" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="S19" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="T19" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U19" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="1">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="8">
         <v>1.0</v>
       </c>
-      <c r="M20" s="2">
+      <c r="N20" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="P20" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="R20" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="S20" s="8">
         <v>1.0</v>
       </c>
-      <c r="N20" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O20" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="P20" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="R20" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="S20" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="T20" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="6">
         <v>1.0</v>
       </c>
-      <c r="N21" s="2">
+      <c r="M21" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="O21" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="P21" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="R21" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="S21" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="T21" s="6">
         <v>1.0</v>
       </c>
-      <c r="O21" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="P21" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="R21" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="S21" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="1">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="6">
         <v>1.0</v>
       </c>
-      <c r="M22" s="2">
+      <c r="L22" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="M22" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="O22" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="P22" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="R22" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="S22" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="T22" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="U22" s="6">
         <v>1.0</v>
       </c>
-      <c r="N22" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O22" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="P22" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="R22" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="S22" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="T22" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="1">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="6">
         <v>1.0</v>
       </c>
-      <c r="L23" s="2">
+      <c r="K23" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="L23" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="M23" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="N23" s="8">
         <v>1.0</v>
       </c>
-      <c r="M23" s="2">
+      <c r="O23" s="8">
         <v>1.0</v>
       </c>
-      <c r="N23" s="2">
+      <c r="P23" s="8">
         <v>1.0</v>
       </c>
-      <c r="O23" s="2">
+      <c r="Q23" s="8">
         <v>1.0</v>
       </c>
-      <c r="P23" s="2">
+      <c r="R23" s="8">
         <v>1.0</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="S23" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="T23" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="U23" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="V23" s="6">
         <v>1.0</v>
       </c>
-      <c r="R23" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="S23" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="T23" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U23" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="1">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="2">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="6">
         <v>1.0</v>
       </c>
-      <c r="K24" s="2">
+      <c r="J24" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="K24" s="8">
         <v>1.0</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="8">
         <v>1.0</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="8">
         <v>1.0</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="8">
         <v>1.0</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="8">
         <v>1.0</v>
       </c>
-      <c r="P24" s="2">
+      <c r="S24" s="8">
         <v>1.0</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="T24" s="8">
         <v>1.0</v>
       </c>
-      <c r="R24" s="2">
+      <c r="U24" s="8">
         <v>1.0</v>
       </c>
-      <c r="S24" s="2">
+      <c r="V24" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="W24" s="6">
         <v>1.0</v>
       </c>
-      <c r="T24" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U24" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="V24" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
     </row>
     <row r="25">
       <c r="A25" s="1">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="2">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="6">
         <v>1.0</v>
       </c>
-      <c r="J25" s="2">
+      <c r="I25" s="8">
         <v>1.0</v>
       </c>
-      <c r="K25" s="2">
+      <c r="J25" s="8">
         <v>1.0</v>
       </c>
-      <c r="L25" s="2">
+      <c r="K25" s="8">
         <v>1.0</v>
       </c>
-      <c r="M25" s="2">
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="8">
         <v>1.0</v>
       </c>
-      <c r="N25" s="2">
+      <c r="V25" s="8">
         <v>1.0</v>
       </c>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="2">
+      <c r="W25" s="8">
         <v>1.0</v>
       </c>
-      <c r="S25" s="2">
+      <c r="X25" s="6">
         <v>1.0</v>
       </c>
-      <c r="T25" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U25" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="V25" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="W25" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
     </row>
     <row r="26">
       <c r="A26" s="2">
         <v>1.0</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I26" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="K26" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="V26" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="W26" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="X26" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
     </row>
     <row r="27">
       <c r="A27" s="2">
@@ -32058,116 +32240,116 @@
         <f t="shared" ref="A2:A25" si="3">A3+1</f>
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="str">
-        <f>if(fig!B2=1,B1&amp;","&amp;$A2,"")</f>
+      <c r="B2" s="11" t="str">
+        <f>if(ISBLANK(fig!B2),"",B1&amp;","&amp;$A2&amp;","&amp;fig!B2)</f>
         <v/>
       </c>
-      <c r="C2" s="2" t="str">
-        <f>if(fig!C2=1,C1&amp;","&amp;$A2,"")</f>
+      <c r="C2" s="11" t="str">
+        <f>if(ISBLANK(fig!C2),"",C1&amp;","&amp;$A2&amp;","&amp;fig!C2)</f>
         <v/>
       </c>
-      <c r="D2" s="2" t="str">
-        <f>if(fig!D2=1,D1&amp;","&amp;$A2,"")</f>
+      <c r="D2" s="11" t="str">
+        <f>if(ISBLANK(fig!D2),"",D1&amp;","&amp;$A2&amp;","&amp;fig!D2)</f>
         <v/>
       </c>
-      <c r="E2" s="2" t="str">
-        <f>if(fig!E2=1,E1&amp;","&amp;$A2,"")</f>
+      <c r="E2" s="11" t="str">
+        <f>if(ISBLANK(fig!E2),"",E1&amp;","&amp;$A2&amp;","&amp;fig!E2)</f>
         <v/>
       </c>
-      <c r="F2" s="2" t="str">
-        <f>if(fig!F2=1,F1&amp;","&amp;$A2,"")</f>
+      <c r="F2" s="11" t="str">
+        <f>if(ISBLANK(fig!F2),"",F1&amp;","&amp;$A2&amp;","&amp;fig!F2)</f>
         <v/>
       </c>
-      <c r="G2" s="2" t="str">
-        <f>if(fig!G2=1,G1&amp;","&amp;$A2,"")</f>
+      <c r="G2" s="11" t="str">
+        <f>if(ISBLANK(fig!G2),"",G1&amp;","&amp;$A2&amp;","&amp;fig!G2)</f>
         <v/>
       </c>
-      <c r="H2" s="2" t="str">
-        <f>if(fig!H2=1,H1&amp;","&amp;$A2,"")</f>
+      <c r="H2" s="11" t="str">
+        <f>if(ISBLANK(fig!H2),"",H1&amp;","&amp;$A2&amp;","&amp;fig!H2)</f>
         <v/>
       </c>
-      <c r="I2" s="2" t="str">
-        <f>if(fig!I2=1,I1&amp;","&amp;$A2,"")</f>
+      <c r="I2" s="11" t="str">
+        <f>if(ISBLANK(fig!I2),"",I1&amp;","&amp;$A2&amp;","&amp;fig!I2)</f>
         <v/>
       </c>
-      <c r="J2" s="2" t="str">
-        <f>if(fig!J2=1,J1&amp;","&amp;$A2,"")</f>
+      <c r="J2" s="11" t="str">
+        <f>if(ISBLANK(fig!J2),"",J1&amp;","&amp;$A2&amp;","&amp;fig!J2)</f>
         <v/>
       </c>
-      <c r="K2" s="2" t="str">
-        <f>if(fig!K2=1,K1&amp;","&amp;$A2,"")</f>
+      <c r="K2" s="11" t="str">
+        <f>if(ISBLANK(fig!K2),"",K1&amp;","&amp;$A2&amp;","&amp;fig!K2)</f>
         <v/>
       </c>
-      <c r="L2" s="2" t="str">
-        <f>if(fig!L2=1,L1&amp;","&amp;$A2,"")</f>
+      <c r="L2" s="11" t="str">
+        <f>if(ISBLANK(fig!L2),"",L1&amp;","&amp;$A2&amp;","&amp;fig!L2)</f>
         <v/>
       </c>
-      <c r="M2" s="2" t="str">
-        <f>if(fig!M2=1,M1&amp;","&amp;$A2,"")</f>
+      <c r="M2" s="11" t="str">
+        <f>if(ISBLANK(fig!M2),"",M1&amp;","&amp;$A2&amp;","&amp;fig!M2)</f>
         <v/>
       </c>
-      <c r="N2" s="2" t="str">
-        <f>if(fig!N2=1,N1&amp;","&amp;$A2,"")</f>
+      <c r="N2" s="11" t="str">
+        <f>if(ISBLANK(fig!N2),"",N1&amp;","&amp;$A2&amp;","&amp;fig!N2)</f>
         <v/>
       </c>
-      <c r="O2" s="2" t="str">
-        <f>if(fig!O2=1,O1&amp;","&amp;$A2,"")</f>
+      <c r="O2" s="11" t="str">
+        <f>if(ISBLANK(fig!O2),"",O1&amp;","&amp;$A2&amp;","&amp;fig!O2)</f>
         <v/>
       </c>
-      <c r="P2" s="2" t="str">
-        <f>if(fig!P2=1,P1&amp;","&amp;$A2,"")</f>
+      <c r="P2" s="11" t="str">
+        <f>if(ISBLANK(fig!P2),"",P1&amp;","&amp;$A2&amp;","&amp;fig!P2)</f>
         <v/>
       </c>
-      <c r="Q2" s="2" t="str">
-        <f>if(fig!Q2=1,Q1&amp;","&amp;$A2,"")</f>
+      <c r="Q2" s="11" t="str">
+        <f>if(ISBLANK(fig!Q2),"",Q1&amp;","&amp;$A2&amp;","&amp;fig!Q2)</f>
         <v/>
       </c>
-      <c r="R2" s="2" t="str">
-        <f>if(fig!R2=1,R1&amp;","&amp;$A2,"")</f>
+      <c r="R2" s="11" t="str">
+        <f>if(ISBLANK(fig!R2),"",R1&amp;","&amp;$A2&amp;","&amp;fig!R2)</f>
         <v/>
       </c>
-      <c r="S2" s="2" t="str">
-        <f>if(fig!S2=1,S1&amp;","&amp;$A2,"")</f>
+      <c r="S2" s="11" t="str">
+        <f>if(ISBLANK(fig!S2),"",S1&amp;","&amp;$A2&amp;","&amp;fig!S2)</f>
         <v/>
       </c>
-      <c r="T2" s="2" t="str">
-        <f>if(fig!T2=1,T1&amp;","&amp;$A2,"")</f>
+      <c r="T2" s="11" t="str">
+        <f>if(ISBLANK(fig!T2),"",T1&amp;","&amp;$A2&amp;","&amp;fig!T2)</f>
         <v/>
       </c>
-      <c r="U2" s="2" t="str">
-        <f>if(fig!U2=1,U1&amp;","&amp;$A2,"")</f>
+      <c r="U2" s="11" t="str">
+        <f>if(ISBLANK(fig!U2),"",U1&amp;","&amp;$A2&amp;","&amp;fig!U2)</f>
         <v/>
       </c>
-      <c r="V2" s="2" t="str">
-        <f>if(fig!V2=1,V1&amp;","&amp;$A2,"")</f>
+      <c r="V2" s="11" t="str">
+        <f>if(ISBLANK(fig!V2),"",V1&amp;","&amp;$A2&amp;","&amp;fig!V2)</f>
         <v/>
       </c>
-      <c r="W2" s="2" t="str">
-        <f>if(fig!W2=1,W1&amp;","&amp;$A2,"")</f>
+      <c r="W2" s="11" t="str">
+        <f>if(ISBLANK(fig!W2),"",W1&amp;","&amp;$A2&amp;","&amp;fig!W2)</f>
         <v/>
       </c>
-      <c r="X2" s="2" t="str">
-        <f>if(fig!X2=1,X1&amp;","&amp;$A2,"")</f>
+      <c r="X2" s="11" t="str">
+        <f>if(ISBLANK(fig!X2),"",X1&amp;","&amp;$A2&amp;","&amp;fig!X2)</f>
         <v/>
       </c>
-      <c r="Y2" s="2" t="str">
-        <f>if(fig!Y2=1,Y1&amp;","&amp;$A2,"")</f>
+      <c r="Y2" s="11" t="str">
+        <f>if(ISBLANK(fig!Y2),"",Y1&amp;","&amp;$A2&amp;","&amp;fig!Y2)</f>
         <v/>
       </c>
-      <c r="Z2" s="2" t="str">
-        <f>if(fig!Z2=1,Z1&amp;","&amp;$A2,"")</f>
+      <c r="Z2" s="11" t="str">
+        <f>if(ISBLANK(fig!Z2),"",Z1&amp;","&amp;$A2&amp;","&amp;fig!Z2)</f>
         <v/>
       </c>
-      <c r="AA2" s="2" t="str">
-        <f>if(fig!AA2=1,AA1&amp;","&amp;$A2,"")</f>
+      <c r="AA2" s="11" t="str">
+        <f>if(ISBLANK(fig!AA2),"",AA1&amp;","&amp;$A2&amp;","&amp;fig!AA2)</f>
         <v/>
       </c>
-      <c r="AB2" s="2" t="str">
-        <f>if(fig!AB2=1,AB1&amp;","&amp;$A2,"")</f>
+      <c r="AB2" s="11" t="str">
+        <f>if(ISBLANK(fig!AB2),"",AB1&amp;","&amp;$A2&amp;","&amp;fig!AB2)</f>
         <v/>
       </c>
-      <c r="AC2" s="2" t="str">
-        <f>if(fig!AC2=1,AC1&amp;","&amp;$A2,"")</f>
+      <c r="AC2" s="11" t="str">
+        <f>if(ISBLANK(fig!AC2),"",AC1&amp;","&amp;$A2&amp;","&amp;fig!AC2)</f>
         <v/>
       </c>
     </row>
@@ -32176,116 +32358,116 @@
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="str">
-        <f>if(fig!B3=1,B1&amp;","&amp;$A3,"")</f>
+      <c r="B3" s="11" t="str">
+        <f>if(ISBLANK(fig!B3),"",B1&amp;","&amp;$A3&amp;","&amp;fig!B3)</f>
         <v/>
       </c>
-      <c r="C3" s="2" t="str">
-        <f>if(fig!C3=1,C1&amp;","&amp;$A3,"")</f>
+      <c r="C3" s="11" t="str">
+        <f>if(ISBLANK(fig!C3),"",C1&amp;","&amp;$A3&amp;","&amp;fig!C3)</f>
         <v/>
       </c>
-      <c r="D3" s="2" t="str">
-        <f>if(fig!D3=1,D1&amp;","&amp;$A3,"")</f>
+      <c r="D3" s="11" t="str">
+        <f>if(ISBLANK(fig!D3),"",D1&amp;","&amp;$A3&amp;","&amp;fig!D3)</f>
         <v/>
       </c>
-      <c r="E3" s="2" t="str">
-        <f>if(fig!E3=1,E1&amp;","&amp;$A3,"")</f>
+      <c r="E3" s="11" t="str">
+        <f>if(ISBLANK(fig!E3),"",E1&amp;","&amp;$A3&amp;","&amp;fig!E3)</f>
         <v/>
       </c>
-      <c r="F3" s="2" t="str">
-        <f>if(fig!F3=1,F1&amp;","&amp;$A3,"")</f>
+      <c r="F3" s="11" t="str">
+        <f>if(ISBLANK(fig!F3),"",F1&amp;","&amp;$A3&amp;","&amp;fig!F3)</f>
         <v/>
       </c>
-      <c r="G3" s="2" t="str">
-        <f>if(fig!G3=1,G1&amp;","&amp;$A3,"")</f>
+      <c r="G3" s="11" t="str">
+        <f>if(ISBLANK(fig!G3),"",G1&amp;","&amp;$A3&amp;","&amp;fig!G3)</f>
         <v/>
       </c>
-      <c r="H3" s="2" t="str">
-        <f>if(fig!H3=1,H1&amp;","&amp;$A3,"")</f>
+      <c r="H3" s="11" t="str">
+        <f>if(ISBLANK(fig!H3),"",H1&amp;","&amp;$A3&amp;","&amp;fig!H3)</f>
         <v/>
       </c>
-      <c r="I3" s="2" t="str">
-        <f>if(fig!I3=1,I1&amp;","&amp;$A3,"")</f>
+      <c r="I3" s="11" t="str">
+        <f>if(ISBLANK(fig!I3),"",I1&amp;","&amp;$A3&amp;","&amp;fig!I3)</f>
         <v/>
       </c>
-      <c r="J3" s="2" t="str">
-        <f>if(fig!J3=1,J1&amp;","&amp;$A3,"")</f>
+      <c r="J3" s="11" t="str">
+        <f>if(ISBLANK(fig!J3),"",J1&amp;","&amp;$A3&amp;","&amp;fig!J3)</f>
         <v/>
       </c>
-      <c r="K3" s="2" t="str">
-        <f>if(fig!K3=1,K1&amp;","&amp;$A3,"")</f>
+      <c r="K3" s="11" t="str">
+        <f>if(ISBLANK(fig!K3),"",K1&amp;","&amp;$A3&amp;","&amp;fig!K3)</f>
         <v/>
       </c>
-      <c r="L3" s="2" t="str">
-        <f>if(fig!L3=1,L1&amp;","&amp;$A3,"")</f>
+      <c r="L3" s="11" t="str">
+        <f>if(ISBLANK(fig!L3),"",L1&amp;","&amp;$A3&amp;","&amp;fig!L3)</f>
         <v/>
       </c>
-      <c r="M3" s="2" t="str">
-        <f>if(fig!M3=1,M1&amp;","&amp;$A3,"")</f>
+      <c r="M3" s="11" t="str">
+        <f>if(ISBLANK(fig!M3),"",M1&amp;","&amp;$A3&amp;","&amp;fig!M3)</f>
         <v/>
       </c>
-      <c r="N3" s="2" t="str">
-        <f>if(fig!N3=1,N1&amp;","&amp;$A3,"")</f>
+      <c r="N3" s="11" t="str">
+        <f>if(ISBLANK(fig!N3),"",N1&amp;","&amp;$A3&amp;","&amp;fig!N3)</f>
         <v/>
       </c>
-      <c r="O3" s="2" t="str">
-        <f>if(fig!O3=1,O1&amp;","&amp;$A3,"")</f>
+      <c r="O3" s="11" t="str">
+        <f>if(ISBLANK(fig!O3),"",O1&amp;","&amp;$A3&amp;","&amp;fig!O3)</f>
         <v/>
       </c>
-      <c r="P3" s="2" t="str">
-        <f>if(fig!P3=1,P1&amp;","&amp;$A3,"")</f>
+      <c r="P3" s="11" t="str">
+        <f>if(ISBLANK(fig!P3),"",P1&amp;","&amp;$A3&amp;","&amp;fig!P3)</f>
         <v/>
       </c>
-      <c r="Q3" s="2" t="str">
-        <f>if(fig!Q3=1,Q1&amp;","&amp;$A3,"")</f>
+      <c r="Q3" s="11" t="str">
+        <f>if(ISBLANK(fig!Q3),"",Q1&amp;","&amp;$A3&amp;","&amp;fig!Q3)</f>
         <v/>
       </c>
-      <c r="R3" s="2" t="str">
-        <f>if(fig!R3=1,R1&amp;","&amp;$A3,"")</f>
+      <c r="R3" s="11" t="str">
+        <f>if(ISBLANK(fig!R3),"",R1&amp;","&amp;$A3&amp;","&amp;fig!R3)</f>
         <v/>
       </c>
-      <c r="S3" s="2" t="str">
-        <f>if(fig!S3=1,S1&amp;","&amp;$A3,"")</f>
+      <c r="S3" s="11" t="str">
+        <f>if(ISBLANK(fig!S3),"",S1&amp;","&amp;$A3&amp;","&amp;fig!S3)</f>
         <v/>
       </c>
-      <c r="T3" s="2" t="str">
-        <f>if(fig!T3=1,T1&amp;","&amp;$A3,"")</f>
+      <c r="T3" s="11" t="str">
+        <f>if(ISBLANK(fig!T3),"",T1&amp;","&amp;$A3&amp;","&amp;fig!T3)</f>
         <v/>
       </c>
-      <c r="U3" s="2" t="str">
-        <f>if(fig!U3=1,U1&amp;","&amp;$A3,"")</f>
+      <c r="U3" s="11" t="str">
+        <f>if(ISBLANK(fig!U3),"",U1&amp;","&amp;$A3&amp;","&amp;fig!U3)</f>
         <v/>
       </c>
-      <c r="V3" s="2" t="str">
-        <f>if(fig!V3=1,V1&amp;","&amp;$A3,"")</f>
+      <c r="V3" s="11" t="str">
+        <f>if(ISBLANK(fig!V3),"",V1&amp;","&amp;$A3&amp;","&amp;fig!V3)</f>
         <v/>
       </c>
-      <c r="W3" s="2" t="str">
-        <f>if(fig!W3=1,W1&amp;","&amp;$A3,"")</f>
+      <c r="W3" s="11" t="str">
+        <f>if(ISBLANK(fig!W3),"",W1&amp;","&amp;$A3&amp;","&amp;fig!W3)</f>
         <v/>
       </c>
-      <c r="X3" s="2" t="str">
-        <f>if(fig!X3=1,X1&amp;","&amp;$A3,"")</f>
+      <c r="X3" s="11" t="str">
+        <f>if(ISBLANK(fig!X3),"",X1&amp;","&amp;$A3&amp;","&amp;fig!X3)</f>
         <v/>
       </c>
-      <c r="Y3" s="2" t="str">
-        <f>if(fig!Y3=1,Y1&amp;","&amp;$A3,"")</f>
+      <c r="Y3" s="11" t="str">
+        <f>if(ISBLANK(fig!Y3),"",Y1&amp;","&amp;$A3&amp;","&amp;fig!Y3)</f>
         <v/>
       </c>
-      <c r="Z3" s="2" t="str">
-        <f>if(fig!Z3=1,Z1&amp;","&amp;$A3,"")</f>
+      <c r="Z3" s="11" t="str">
+        <f>if(ISBLANK(fig!Z3),"",Z1&amp;","&amp;$A3&amp;","&amp;fig!Z3)</f>
         <v/>
       </c>
-      <c r="AA3" s="2" t="str">
-        <f>if(fig!AA3=1,AA1&amp;","&amp;$A3,"")</f>
+      <c r="AA3" s="11" t="str">
+        <f>if(ISBLANK(fig!AA3),"",AA1&amp;","&amp;$A3&amp;","&amp;fig!AA3)</f>
         <v/>
       </c>
-      <c r="AB3" s="2" t="str">
-        <f>if(fig!AB3=1,AB1&amp;","&amp;$A3,"")</f>
+      <c r="AB3" s="11" t="str">
+        <f>if(ISBLANK(fig!AB3),"",AB1&amp;","&amp;$A3&amp;","&amp;fig!AB3)</f>
         <v/>
       </c>
-      <c r="AC3" s="2" t="str">
-        <f>if(fig!AC3=1,AC1&amp;","&amp;$A3,"")</f>
+      <c r="AC3" s="11" t="str">
+        <f>if(ISBLANK(fig!AC3),"",AC1&amp;","&amp;$A3&amp;","&amp;fig!AC3)</f>
         <v/>
       </c>
     </row>
@@ -32294,116 +32476,116 @@
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="B4" s="2" t="str">
-        <f>if(fig!B4=1,B1&amp;","&amp;$A4,"")</f>
+      <c r="B4" s="11" t="str">
+        <f>if(ISBLANK(fig!B4),"",B1&amp;","&amp;$A4&amp;","&amp;fig!B4)</f>
         <v/>
       </c>
-      <c r="C4" s="2" t="str">
-        <f>if(fig!C4=1,C1&amp;","&amp;$A4,"")</f>
+      <c r="C4" s="11" t="str">
+        <f>if(ISBLANK(fig!C4),"",C1&amp;","&amp;$A4&amp;","&amp;fig!C4)</f>
         <v/>
       </c>
-      <c r="D4" s="2" t="str">
-        <f>if(fig!D4=1,D1&amp;","&amp;$A4,"")</f>
+      <c r="D4" s="11" t="str">
+        <f>if(ISBLANK(fig!D4),"",D1&amp;","&amp;$A4&amp;","&amp;fig!D4)</f>
         <v/>
       </c>
-      <c r="E4" s="2" t="str">
-        <f>if(fig!E4=1,E1&amp;","&amp;$A4,"")</f>
+      <c r="E4" s="11" t="str">
+        <f>if(ISBLANK(fig!E4),"",E1&amp;","&amp;$A4&amp;","&amp;fig!E4)</f>
         <v/>
       </c>
-      <c r="F4" s="2" t="str">
-        <f>if(fig!F4=1,F1&amp;","&amp;$A4,"")</f>
+      <c r="F4" s="11" t="str">
+        <f>if(ISBLANK(fig!F4),"",F1&amp;","&amp;$A4&amp;","&amp;fig!F4)</f>
         <v/>
       </c>
-      <c r="G4" s="2" t="str">
-        <f>if(fig!G4=1,G1&amp;","&amp;$A4,"")</f>
+      <c r="G4" s="11" t="str">
+        <f>if(ISBLANK(fig!G4),"",G1&amp;","&amp;$A4&amp;","&amp;fig!G4)</f>
         <v/>
       </c>
-      <c r="H4" s="2" t="str">
-        <f>if(fig!H4=1,H1&amp;","&amp;$A4,"")</f>
+      <c r="H4" s="11" t="str">
+        <f>if(ISBLANK(fig!H4),"",H1&amp;","&amp;$A4&amp;","&amp;fig!H4)</f>
         <v/>
       </c>
-      <c r="I4" s="2" t="str">
-        <f>if(fig!I4=1,I1&amp;","&amp;$A4,"")</f>
+      <c r="I4" s="11" t="str">
+        <f>if(ISBLANK(fig!I4),"",I1&amp;","&amp;$A4&amp;","&amp;fig!I4)</f>
         <v/>
       </c>
-      <c r="J4" s="2" t="str">
-        <f>if(fig!J4=1,J1&amp;","&amp;$A4,"")</f>
+      <c r="J4" s="11" t="str">
+        <f>if(ISBLANK(fig!J4),"",J1&amp;","&amp;$A4&amp;","&amp;fig!J4)</f>
         <v/>
       </c>
-      <c r="K4" s="2" t="str">
-        <f>if(fig!K4=1,K1&amp;","&amp;$A4,"")</f>
+      <c r="K4" s="11" t="str">
+        <f>if(ISBLANK(fig!K4),"",K1&amp;","&amp;$A4&amp;","&amp;fig!K4)</f>
         <v/>
       </c>
-      <c r="L4" s="2" t="str">
-        <f>if(fig!L4=1,L1&amp;","&amp;$A4,"")</f>
+      <c r="L4" s="11" t="str">
+        <f>if(ISBLANK(fig!L4),"",L1&amp;","&amp;$A4&amp;","&amp;fig!L4)</f>
         <v/>
       </c>
-      <c r="M4" s="2" t="str">
-        <f>if(fig!M4=1,M1&amp;","&amp;$A4,"")</f>
+      <c r="M4" s="11" t="str">
+        <f>if(ISBLANK(fig!M4),"",M1&amp;","&amp;$A4&amp;","&amp;fig!M4)</f>
         <v/>
       </c>
-      <c r="N4" s="2" t="str">
-        <f>if(fig!N4=1,N1&amp;","&amp;$A4,"")</f>
+      <c r="N4" s="11" t="str">
+        <f>if(ISBLANK(fig!N4),"",N1&amp;","&amp;$A4&amp;","&amp;fig!N4)</f>
         <v/>
       </c>
-      <c r="O4" s="2" t="str">
-        <f>if(fig!O4=1,O1&amp;","&amp;$A4,"")</f>
+      <c r="O4" s="11" t="str">
+        <f>if(ISBLANK(fig!O4),"",O1&amp;","&amp;$A4&amp;","&amp;fig!O4)</f>
         <v/>
       </c>
-      <c r="P4" s="2" t="str">
-        <f>if(fig!P4=1,P1&amp;","&amp;$A4,"")</f>
+      <c r="P4" s="11" t="str">
+        <f>if(ISBLANK(fig!P4),"",P1&amp;","&amp;$A4&amp;","&amp;fig!P4)</f>
         <v/>
       </c>
-      <c r="Q4" s="2" t="str">
-        <f>if(fig!Q4=1,Q1&amp;","&amp;$A4,"")</f>
+      <c r="Q4" s="11" t="str">
+        <f>if(ISBLANK(fig!Q4),"",Q1&amp;","&amp;$A4&amp;","&amp;fig!Q4)</f>
         <v/>
       </c>
-      <c r="R4" s="2" t="str">
-        <f>if(fig!R4=1,R1&amp;","&amp;$A4,"")</f>
+      <c r="R4" s="11" t="str">
+        <f>if(ISBLANK(fig!R4),"",R1&amp;","&amp;$A4&amp;","&amp;fig!R4)</f>
         <v/>
       </c>
-      <c r="S4" s="2" t="str">
-        <f>if(fig!S4=1,S1&amp;","&amp;$A4,"")</f>
+      <c r="S4" s="11" t="str">
+        <f>if(ISBLANK(fig!S4),"",S1&amp;","&amp;$A4&amp;","&amp;fig!S4)</f>
         <v/>
       </c>
-      <c r="T4" s="2" t="str">
-        <f>if(fig!T4=1,T1&amp;","&amp;$A4,"")</f>
+      <c r="T4" s="11" t="str">
+        <f>if(ISBLANK(fig!T4),"",T1&amp;","&amp;$A4&amp;","&amp;fig!T4)</f>
         <v/>
       </c>
-      <c r="U4" s="2" t="str">
-        <f>if(fig!U4=1,U1&amp;","&amp;$A4,"")</f>
+      <c r="U4" s="11" t="str">
+        <f>if(ISBLANK(fig!U4),"",U1&amp;","&amp;$A4&amp;","&amp;fig!U4)</f>
         <v/>
       </c>
-      <c r="V4" s="2" t="str">
-        <f>if(fig!V4=1,V1&amp;","&amp;$A4,"")</f>
+      <c r="V4" s="11" t="str">
+        <f>if(ISBLANK(fig!V4),"",V1&amp;","&amp;$A4&amp;","&amp;fig!V4)</f>
         <v/>
       </c>
-      <c r="W4" s="2" t="str">
-        <f>if(fig!W4=1,W1&amp;","&amp;$A4,"")</f>
+      <c r="W4" s="11" t="str">
+        <f>if(ISBLANK(fig!W4),"",W1&amp;","&amp;$A4&amp;","&amp;fig!W4)</f>
         <v/>
       </c>
-      <c r="X4" s="2" t="str">
-        <f>if(fig!X4=1,X1&amp;","&amp;$A4,"")</f>
+      <c r="X4" s="11" t="str">
+        <f>if(ISBLANK(fig!X4),"",X1&amp;","&amp;$A4&amp;","&amp;fig!X4)</f>
         <v/>
       </c>
-      <c r="Y4" s="2" t="str">
-        <f>if(fig!Y4=1,Y1&amp;","&amp;$A4,"")</f>
+      <c r="Y4" s="11" t="str">
+        <f>if(ISBLANK(fig!Y4),"",Y1&amp;","&amp;$A4&amp;","&amp;fig!Y4)</f>
         <v/>
       </c>
-      <c r="Z4" s="2" t="str">
-        <f>if(fig!Z4=1,Z1&amp;","&amp;$A4,"")</f>
+      <c r="Z4" s="11" t="str">
+        <f>if(ISBLANK(fig!Z4),"",Z1&amp;","&amp;$A4&amp;","&amp;fig!Z4)</f>
         <v/>
       </c>
-      <c r="AA4" s="2" t="str">
-        <f>if(fig!AA4=1,AA1&amp;","&amp;$A4,"")</f>
+      <c r="AA4" s="11" t="str">
+        <f>if(ISBLANK(fig!AA4),"",AA1&amp;","&amp;$A4&amp;","&amp;fig!AA4)</f>
         <v/>
       </c>
-      <c r="AB4" s="2" t="str">
-        <f>if(fig!AB4=1,AB1&amp;","&amp;$A4,"")</f>
+      <c r="AB4" s="11" t="str">
+        <f>if(ISBLANK(fig!AB4),"",AB1&amp;","&amp;$A4&amp;","&amp;fig!AB4)</f>
         <v/>
       </c>
-      <c r="AC4" s="2" t="str">
-        <f>if(fig!AC4=1,AC1&amp;","&amp;$A4,"")</f>
+      <c r="AC4" s="11" t="str">
+        <f>if(ISBLANK(fig!AC4),"",AC1&amp;","&amp;$A4&amp;","&amp;fig!AC4)</f>
         <v/>
       </c>
     </row>
@@ -32412,116 +32594,116 @@
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="B5" s="2" t="str">
-        <f>if(fig!B5=1,B1&amp;","&amp;$A5,"")</f>
+      <c r="B5" s="11" t="str">
+        <f>if(ISBLANK(fig!B5),"",B1&amp;","&amp;$A5&amp;","&amp;fig!B5)</f>
         <v/>
       </c>
-      <c r="C5" s="2" t="str">
-        <f>if(fig!C5=1,C1&amp;","&amp;$A5,"")</f>
+      <c r="C5" s="11" t="str">
+        <f>if(ISBLANK(fig!C5),"",C1&amp;","&amp;$A5&amp;","&amp;fig!C5)</f>
         <v/>
       </c>
-      <c r="D5" s="2" t="str">
-        <f>if(fig!D5=1,D1&amp;","&amp;$A5,"")</f>
+      <c r="D5" s="11" t="str">
+        <f>if(ISBLANK(fig!D5),"",D1&amp;","&amp;$A5&amp;","&amp;fig!D5)</f>
         <v/>
       </c>
-      <c r="E5" s="2" t="str">
-        <f>if(fig!E5=1,E1&amp;","&amp;$A5,"")</f>
+      <c r="E5" s="11" t="str">
+        <f>if(ISBLANK(fig!E5),"",E1&amp;","&amp;$A5&amp;","&amp;fig!E5)</f>
         <v/>
       </c>
-      <c r="F5" s="2" t="str">
-        <f>if(fig!F5=1,F1&amp;","&amp;$A5,"")</f>
+      <c r="F5" s="11" t="str">
+        <f>if(ISBLANK(fig!F5),"",F1&amp;","&amp;$A5&amp;","&amp;fig!F5)</f>
         <v/>
       </c>
-      <c r="G5" s="2" t="str">
-        <f>if(fig!G5=1,G1&amp;","&amp;$A5,"")</f>
+      <c r="G5" s="11" t="str">
+        <f>if(ISBLANK(fig!G5),"",G1&amp;","&amp;$A5&amp;","&amp;fig!G5)</f>
         <v/>
       </c>
-      <c r="H5" s="2" t="str">
-        <f>if(fig!H5=1,H1&amp;","&amp;$A5,"")</f>
+      <c r="H5" s="11" t="str">
+        <f>if(ISBLANK(fig!H5),"",H1&amp;","&amp;$A5&amp;","&amp;fig!H5)</f>
         <v/>
       </c>
-      <c r="I5" s="2" t="str">
-        <f>if(fig!I5=1,I1&amp;","&amp;$A5,"")</f>
+      <c r="I5" s="11" t="str">
+        <f>if(ISBLANK(fig!I5),"",I1&amp;","&amp;$A5&amp;","&amp;fig!I5)</f>
         <v/>
       </c>
-      <c r="J5" s="2" t="str">
-        <f>if(fig!J5=1,J1&amp;","&amp;$A5,"")</f>
+      <c r="J5" s="11" t="str">
+        <f>if(ISBLANK(fig!J5),"",J1&amp;","&amp;$A5&amp;","&amp;fig!J5)</f>
         <v/>
       </c>
-      <c r="K5" s="2" t="str">
-        <f>if(fig!K5=1,K1&amp;","&amp;$A5,"")</f>
+      <c r="K5" s="11" t="str">
+        <f>if(ISBLANK(fig!K5),"",K1&amp;","&amp;$A5&amp;","&amp;fig!K5)</f>
         <v/>
       </c>
-      <c r="L5" s="2" t="str">
-        <f>if(fig!L5=1,L1&amp;","&amp;$A5,"")</f>
+      <c r="L5" s="11" t="str">
+        <f>if(ISBLANK(fig!L5),"",L1&amp;","&amp;$A5&amp;","&amp;fig!L5)</f>
         <v/>
       </c>
-      <c r="M5" s="2" t="str">
-        <f>if(fig!M5=1,M1&amp;","&amp;$A5,"")</f>
+      <c r="M5" s="11" t="str">
+        <f>if(ISBLANK(fig!M5),"",M1&amp;","&amp;$A5&amp;","&amp;fig!M5)</f>
         <v/>
       </c>
-      <c r="N5" s="2" t="str">
-        <f>if(fig!N5=1,N1&amp;","&amp;$A5,"")</f>
+      <c r="N5" s="11" t="str">
+        <f>if(ISBLANK(fig!N5),"",N1&amp;","&amp;$A5&amp;","&amp;fig!N5)</f>
         <v/>
       </c>
-      <c r="O5" s="2" t="str">
-        <f>if(fig!O5=1,O1&amp;","&amp;$A5,"")</f>
+      <c r="O5" s="11" t="str">
+        <f>if(ISBLANK(fig!O5),"",O1&amp;","&amp;$A5&amp;","&amp;fig!O5)</f>
         <v/>
       </c>
-      <c r="P5" s="2" t="str">
-        <f>if(fig!P5=1,P1&amp;","&amp;$A5,"")</f>
+      <c r="P5" s="11" t="str">
+        <f>if(ISBLANK(fig!P5),"",P1&amp;","&amp;$A5&amp;","&amp;fig!P5)</f>
         <v/>
       </c>
-      <c r="Q5" s="2" t="str">
-        <f>if(fig!Q5=1,Q1&amp;","&amp;$A5,"")</f>
+      <c r="Q5" s="11" t="str">
+        <f>if(ISBLANK(fig!Q5),"",Q1&amp;","&amp;$A5&amp;","&amp;fig!Q5)</f>
         <v/>
       </c>
-      <c r="R5" s="2" t="str">
-        <f>if(fig!R5=1,R1&amp;","&amp;$A5,"")</f>
+      <c r="R5" s="11" t="str">
+        <f>if(ISBLANK(fig!R5),"",R1&amp;","&amp;$A5&amp;","&amp;fig!R5)</f>
         <v/>
       </c>
-      <c r="S5" s="2" t="str">
-        <f>if(fig!S5=1,S1&amp;","&amp;$A5,"")</f>
+      <c r="S5" s="11" t="str">
+        <f>if(ISBLANK(fig!S5),"",S1&amp;","&amp;$A5&amp;","&amp;fig!S5)</f>
         <v/>
       </c>
-      <c r="T5" s="2" t="str">
-        <f>if(fig!T5=1,T1&amp;","&amp;$A5,"")</f>
+      <c r="T5" s="11" t="str">
+        <f>if(ISBLANK(fig!T5),"",T1&amp;","&amp;$A5&amp;","&amp;fig!T5)</f>
         <v/>
       </c>
-      <c r="U5" s="2" t="str">
-        <f>if(fig!U5=1,U1&amp;","&amp;$A5,"")</f>
+      <c r="U5" s="11" t="str">
+        <f>if(ISBLANK(fig!U5),"",U1&amp;","&amp;$A5&amp;","&amp;fig!U5)</f>
         <v/>
       </c>
-      <c r="V5" s="2" t="str">
-        <f>if(fig!V5=1,V1&amp;","&amp;$A5,"")</f>
+      <c r="V5" s="11" t="str">
+        <f>if(ISBLANK(fig!V5),"",V1&amp;","&amp;$A5&amp;","&amp;fig!V5)</f>
         <v/>
       </c>
-      <c r="W5" s="2" t="str">
-        <f>if(fig!W5=1,W1&amp;","&amp;$A5,"")</f>
+      <c r="W5" s="11" t="str">
+        <f>if(ISBLANK(fig!W5),"",W1&amp;","&amp;$A5&amp;","&amp;fig!W5)</f>
         <v/>
       </c>
-      <c r="X5" s="2" t="str">
-        <f>if(fig!X5=1,X1&amp;","&amp;$A5,"")</f>
+      <c r="X5" s="11" t="str">
+        <f>if(ISBLANK(fig!X5),"",X1&amp;","&amp;$A5&amp;","&amp;fig!X5)</f>
         <v/>
       </c>
-      <c r="Y5" s="2" t="str">
-        <f>if(fig!Y5=1,Y1&amp;","&amp;$A5,"")</f>
+      <c r="Y5" s="11" t="str">
+        <f>if(ISBLANK(fig!Y5),"",Y1&amp;","&amp;$A5&amp;","&amp;fig!Y5)</f>
         <v/>
       </c>
-      <c r="Z5" s="2" t="str">
-        <f>if(fig!Z5=1,Z1&amp;","&amp;$A5,"")</f>
+      <c r="Z5" s="11" t="str">
+        <f>if(ISBLANK(fig!Z5),"",Z1&amp;","&amp;$A5&amp;","&amp;fig!Z5)</f>
         <v/>
       </c>
-      <c r="AA5" s="2" t="str">
-        <f>if(fig!AA5=1,AA1&amp;","&amp;$A5,"")</f>
+      <c r="AA5" s="11" t="str">
+        <f>if(ISBLANK(fig!AA5),"",AA1&amp;","&amp;$A5&amp;","&amp;fig!AA5)</f>
         <v/>
       </c>
-      <c r="AB5" s="2" t="str">
-        <f>if(fig!AB5=1,AB1&amp;","&amp;$A5,"")</f>
+      <c r="AB5" s="11" t="str">
+        <f>if(ISBLANK(fig!AB5),"",AB1&amp;","&amp;$A5&amp;","&amp;fig!AB5)</f>
         <v/>
       </c>
-      <c r="AC5" s="2" t="str">
-        <f>if(fig!AC5=1,AC1&amp;","&amp;$A5,"")</f>
+      <c r="AC5" s="11" t="str">
+        <f>if(ISBLANK(fig!AC5),"",AC1&amp;","&amp;$A5&amp;","&amp;fig!AC5)</f>
         <v/>
       </c>
     </row>
@@ -32530,116 +32712,116 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="str">
-        <f>if(fig!B6=1,B1&amp;","&amp;$A6,"")</f>
+      <c r="B6" s="11" t="str">
+        <f>if(ISBLANK(fig!B6),"",B1&amp;","&amp;$A6&amp;","&amp;fig!B6)</f>
         <v/>
       </c>
-      <c r="C6" s="2" t="str">
-        <f>if(fig!C6=1,C1&amp;","&amp;$A6,"")</f>
+      <c r="C6" s="11" t="str">
+        <f>if(ISBLANK(fig!C6),"",C1&amp;","&amp;$A6&amp;","&amp;fig!C6)</f>
         <v/>
       </c>
-      <c r="D6" s="2" t="str">
-        <f>if(fig!D6=1,D1&amp;","&amp;$A6,"")</f>
+      <c r="D6" s="11" t="str">
+        <f>if(ISBLANK(fig!D6),"",D1&amp;","&amp;$A6&amp;","&amp;fig!D6)</f>
         <v/>
       </c>
-      <c r="E6" s="2" t="str">
-        <f>if(fig!E6=1,E1&amp;","&amp;$A6,"")</f>
+      <c r="E6" s="11" t="str">
+        <f>if(ISBLANK(fig!E6),"",E1&amp;","&amp;$A6&amp;","&amp;fig!E6)</f>
         <v/>
       </c>
-      <c r="F6" s="2" t="str">
-        <f>if(fig!F6=1,F1&amp;","&amp;$A6,"")</f>
+      <c r="F6" s="11" t="str">
+        <f>if(ISBLANK(fig!F6),"",F1&amp;","&amp;$A6&amp;","&amp;fig!F6)</f>
         <v/>
       </c>
-      <c r="G6" s="2" t="str">
-        <f>if(fig!G6=1,G1&amp;","&amp;$A6,"")</f>
+      <c r="G6" s="11" t="str">
+        <f>if(ISBLANK(fig!G6),"",G1&amp;","&amp;$A6&amp;","&amp;fig!G6)</f>
         <v/>
       </c>
-      <c r="H6" s="2" t="str">
-        <f>if(fig!H6=1,H1&amp;","&amp;$A6,"")</f>
+      <c r="H6" s="11" t="str">
+        <f>if(ISBLANK(fig!H6),"",H1&amp;","&amp;$A6&amp;","&amp;fig!H6)</f>
         <v/>
       </c>
-      <c r="I6" s="2" t="str">
-        <f>if(fig!I6=1,I1&amp;","&amp;$A6,"")</f>
+      <c r="I6" s="11" t="str">
+        <f>if(ISBLANK(fig!I6),"",I1&amp;","&amp;$A6&amp;","&amp;fig!I6)</f>
         <v/>
       </c>
-      <c r="J6" s="2" t="str">
-        <f>if(fig!J6=1,J1&amp;","&amp;$A6,"")</f>
+      <c r="J6" s="11" t="str">
+        <f>if(ISBLANK(fig!J6),"",J1&amp;","&amp;$A6&amp;","&amp;fig!J6)</f>
         <v/>
       </c>
-      <c r="K6" s="2" t="str">
-        <f>if(fig!K6=1,K1&amp;","&amp;$A6,"")</f>
+      <c r="K6" s="11" t="str">
+        <f>if(ISBLANK(fig!K6),"",K1&amp;","&amp;$A6&amp;","&amp;fig!K6)</f>
         <v/>
       </c>
-      <c r="L6" s="2" t="str">
-        <f>if(fig!L6=1,L1&amp;","&amp;$A6,"")</f>
+      <c r="L6" s="11" t="str">
+        <f>if(ISBLANK(fig!L6),"",L1&amp;","&amp;$A6&amp;","&amp;fig!L6)</f>
         <v/>
       </c>
-      <c r="M6" s="2" t="str">
-        <f>if(fig!M6=1,M1&amp;","&amp;$A6,"")</f>
+      <c r="M6" s="11" t="str">
+        <f>if(ISBLANK(fig!M6),"",M1&amp;","&amp;$A6&amp;","&amp;fig!M6)</f>
         <v/>
       </c>
-      <c r="N6" s="2" t="str">
-        <f>if(fig!N6=1,N1&amp;","&amp;$A6,"")</f>
+      <c r="N6" s="11" t="str">
+        <f>if(ISBLANK(fig!N6),"",N1&amp;","&amp;$A6&amp;","&amp;fig!N6)</f>
         <v/>
       </c>
-      <c r="O6" s="2" t="str">
-        <f>if(fig!O6=1,O1&amp;","&amp;$A6,"")</f>
+      <c r="O6" s="11" t="str">
+        <f>if(ISBLANK(fig!O6),"",O1&amp;","&amp;$A6&amp;","&amp;fig!O6)</f>
         <v/>
       </c>
-      <c r="P6" s="2" t="str">
-        <f>if(fig!P6=1,P1&amp;","&amp;$A6,"")</f>
+      <c r="P6" s="11" t="str">
+        <f>if(ISBLANK(fig!P6),"",P1&amp;","&amp;$A6&amp;","&amp;fig!P6)</f>
         <v/>
       </c>
-      <c r="Q6" s="2" t="str">
-        <f>if(fig!Q6=1,Q1&amp;","&amp;$A6,"")</f>
+      <c r="Q6" s="11" t="str">
+        <f>if(ISBLANK(fig!Q6),"",Q1&amp;","&amp;$A6&amp;","&amp;fig!Q6)</f>
         <v/>
       </c>
-      <c r="R6" s="2" t="str">
-        <f>if(fig!R6=1,R1&amp;","&amp;$A6,"")</f>
+      <c r="R6" s="11" t="str">
+        <f>if(ISBLANK(fig!R6),"",R1&amp;","&amp;$A6&amp;","&amp;fig!R6)</f>
         <v/>
       </c>
-      <c r="S6" s="2" t="str">
-        <f>if(fig!S6=1,S1&amp;","&amp;$A6,"")</f>
+      <c r="S6" s="11" t="str">
+        <f>if(ISBLANK(fig!S6),"",S1&amp;","&amp;$A6&amp;","&amp;fig!S6)</f>
         <v/>
       </c>
-      <c r="T6" s="2" t="str">
-        <f>if(fig!T6=1,T1&amp;","&amp;$A6,"")</f>
+      <c r="T6" s="11" t="str">
+        <f>if(ISBLANK(fig!T6),"",T1&amp;","&amp;$A6&amp;","&amp;fig!T6)</f>
         <v/>
       </c>
-      <c r="U6" s="2" t="str">
-        <f>if(fig!U6=1,U1&amp;","&amp;$A6,"")</f>
+      <c r="U6" s="11" t="str">
+        <f>if(ISBLANK(fig!U6),"",U1&amp;","&amp;$A6&amp;","&amp;fig!U6)</f>
         <v/>
       </c>
-      <c r="V6" s="2" t="str">
-        <f>if(fig!V6=1,V1&amp;","&amp;$A6,"")</f>
+      <c r="V6" s="11" t="str">
+        <f>if(ISBLANK(fig!V6),"",V1&amp;","&amp;$A6&amp;","&amp;fig!V6)</f>
         <v/>
       </c>
-      <c r="W6" s="2" t="str">
-        <f>if(fig!W6=1,W1&amp;","&amp;$A6,"")</f>
+      <c r="W6" s="11" t="str">
+        <f>if(ISBLANK(fig!W6),"",W1&amp;","&amp;$A6&amp;","&amp;fig!W6)</f>
         <v/>
       </c>
-      <c r="X6" s="2" t="str">
-        <f>if(fig!X6=1,X1&amp;","&amp;$A6,"")</f>
+      <c r="X6" s="11" t="str">
+        <f>if(ISBLANK(fig!X6),"",X1&amp;","&amp;$A6&amp;","&amp;fig!X6)</f>
         <v/>
       </c>
-      <c r="Y6" s="2" t="str">
-        <f>if(fig!Y6=1,Y1&amp;","&amp;$A6,"")</f>
+      <c r="Y6" s="11" t="str">
+        <f>if(ISBLANK(fig!Y6),"",Y1&amp;","&amp;$A6&amp;","&amp;fig!Y6)</f>
         <v/>
       </c>
-      <c r="Z6" s="2" t="str">
-        <f>if(fig!Z6=1,Z1&amp;","&amp;$A6,"")</f>
+      <c r="Z6" s="11" t="str">
+        <f>if(ISBLANK(fig!Z6),"",Z1&amp;","&amp;$A6&amp;","&amp;fig!Z6)</f>
         <v/>
       </c>
-      <c r="AA6" s="2" t="str">
-        <f>if(fig!AA6=1,AA1&amp;","&amp;$A6,"")</f>
+      <c r="AA6" s="11" t="str">
+        <f>if(ISBLANK(fig!AA6),"",AA1&amp;","&amp;$A6&amp;","&amp;fig!AA6)</f>
         <v/>
       </c>
-      <c r="AB6" s="2" t="str">
-        <f>if(fig!AB6=1,AB1&amp;","&amp;$A6,"")</f>
+      <c r="AB6" s="11" t="str">
+        <f>if(ISBLANK(fig!AB6),"",AB1&amp;","&amp;$A6&amp;","&amp;fig!AB6)</f>
         <v/>
       </c>
-      <c r="AC6" s="2" t="str">
-        <f>if(fig!AC6=1,AC1&amp;","&amp;$A6,"")</f>
+      <c r="AC6" s="11" t="str">
+        <f>if(ISBLANK(fig!AC6),"",AC1&amp;","&amp;$A6&amp;","&amp;fig!AC6)</f>
         <v/>
       </c>
     </row>
@@ -32648,116 +32830,116 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="str">
-        <f>if(fig!B7=1,B1&amp;","&amp;$A7,"")</f>
+      <c r="B7" s="11" t="str">
+        <f>if(ISBLANK(fig!B7),"",B1&amp;","&amp;$A7&amp;","&amp;fig!B7)</f>
         <v/>
       </c>
-      <c r="C7" s="2" t="str">
-        <f>if(fig!C7=1,C1&amp;","&amp;$A7,"")</f>
+      <c r="C7" s="11" t="str">
+        <f>if(ISBLANK(fig!C7),"",C1&amp;","&amp;$A7&amp;","&amp;fig!C7)</f>
         <v/>
       </c>
-      <c r="D7" s="2" t="str">
-        <f>if(fig!D7=1,D1&amp;","&amp;$A7,"")</f>
+      <c r="D7" s="11" t="str">
+        <f>if(ISBLANK(fig!D7),"",D1&amp;","&amp;$A7&amp;","&amp;fig!D7)</f>
         <v/>
       </c>
-      <c r="E7" s="2" t="str">
-        <f>if(fig!E7=1,E1&amp;","&amp;$A7,"")</f>
+      <c r="E7" s="11" t="str">
+        <f>if(ISBLANK(fig!E7),"",E1&amp;","&amp;$A7&amp;","&amp;fig!E7)</f>
         <v/>
       </c>
-      <c r="F7" s="2" t="str">
-        <f>if(fig!F7=1,F1&amp;","&amp;$A7,"")</f>
+      <c r="F7" s="11" t="str">
+        <f>if(ISBLANK(fig!F7),"",F1&amp;","&amp;$A7&amp;","&amp;fig!F7)</f>
         <v/>
       </c>
-      <c r="G7" s="2" t="str">
-        <f>if(fig!G7=1,G1&amp;","&amp;$A7,"")</f>
+      <c r="G7" s="11" t="str">
+        <f>if(ISBLANK(fig!G7),"",G1&amp;","&amp;$A7&amp;","&amp;fig!G7)</f>
         <v/>
       </c>
-      <c r="H7" s="2" t="str">
-        <f>if(fig!H7=1,H1&amp;","&amp;$A7,"")</f>
+      <c r="H7" s="11" t="str">
+        <f>if(ISBLANK(fig!H7),"",H1&amp;","&amp;$A7&amp;","&amp;fig!H7)</f>
         <v/>
       </c>
-      <c r="I7" s="2" t="str">
-        <f>if(fig!I7=1,I1&amp;","&amp;$A7,"")</f>
+      <c r="I7" s="11" t="str">
+        <f>if(ISBLANK(fig!I7),"",I1&amp;","&amp;$A7&amp;","&amp;fig!I7)</f>
         <v/>
       </c>
-      <c r="J7" s="2" t="str">
-        <f>if(fig!J7=1,J1&amp;","&amp;$A7,"")</f>
+      <c r="J7" s="11" t="str">
+        <f>if(ISBLANK(fig!J7),"",J1&amp;","&amp;$A7&amp;","&amp;fig!J7)</f>
         <v/>
       </c>
-      <c r="K7" s="2" t="str">
-        <f>if(fig!K7=1,K1&amp;","&amp;$A7,"")</f>
+      <c r="K7" s="11" t="str">
+        <f>if(ISBLANK(fig!K7),"",K1&amp;","&amp;$A7&amp;","&amp;fig!K7)</f>
         <v/>
       </c>
-      <c r="L7" s="2" t="str">
-        <f>if(fig!L7=1,L1&amp;","&amp;$A7,"")</f>
+      <c r="L7" s="11" t="str">
+        <f>if(ISBLANK(fig!L7),"",L1&amp;","&amp;$A7&amp;","&amp;fig!L7)</f>
         <v/>
       </c>
-      <c r="M7" s="2" t="str">
-        <f>if(fig!M7=1,M1&amp;","&amp;$A7,"")</f>
+      <c r="M7" s="11" t="str">
+        <f>if(ISBLANK(fig!M7),"",M1&amp;","&amp;$A7&amp;","&amp;fig!M7)</f>
         <v/>
       </c>
-      <c r="N7" s="2" t="str">
-        <f>if(fig!N7=1,N1&amp;","&amp;$A7,"")</f>
+      <c r="N7" s="11" t="str">
+        <f>if(ISBLANK(fig!N7),"",N1&amp;","&amp;$A7&amp;","&amp;fig!N7)</f>
         <v/>
       </c>
-      <c r="O7" s="2" t="str">
-        <f>if(fig!O7=1,O1&amp;","&amp;$A7,"")</f>
+      <c r="O7" s="11" t="str">
+        <f>if(ISBLANK(fig!O7),"",O1&amp;","&amp;$A7&amp;","&amp;fig!O7)</f>
         <v/>
       </c>
-      <c r="P7" s="2" t="str">
-        <f>if(fig!P7=1,P1&amp;","&amp;$A7,"")</f>
+      <c r="P7" s="11" t="str">
+        <f>if(ISBLANK(fig!P7),"",P1&amp;","&amp;$A7&amp;","&amp;fig!P7)</f>
         <v/>
       </c>
-      <c r="Q7" s="2" t="str">
-        <f>if(fig!Q7=1,Q1&amp;","&amp;$A7,"")</f>
+      <c r="Q7" s="11" t="str">
+        <f>if(ISBLANK(fig!Q7),"",Q1&amp;","&amp;$A7&amp;","&amp;fig!Q7)</f>
         <v/>
       </c>
-      <c r="R7" s="2" t="str">
-        <f>if(fig!R7=1,R1&amp;","&amp;$A7,"")</f>
+      <c r="R7" s="11" t="str">
+        <f>if(ISBLANK(fig!R7),"",R1&amp;","&amp;$A7&amp;","&amp;fig!R7)</f>
         <v/>
       </c>
-      <c r="S7" s="2" t="str">
-        <f>if(fig!S7=1,S1&amp;","&amp;$A7,"")</f>
+      <c r="S7" s="11" t="str">
+        <f>if(ISBLANK(fig!S7),"",S1&amp;","&amp;$A7&amp;","&amp;fig!S7)</f>
         <v/>
       </c>
-      <c r="T7" s="2" t="str">
-        <f>if(fig!T7=1,T1&amp;","&amp;$A7,"")</f>
+      <c r="T7" s="11" t="str">
+        <f>if(ISBLANK(fig!T7),"",T1&amp;","&amp;$A7&amp;","&amp;fig!T7)</f>
         <v/>
       </c>
-      <c r="U7" s="2" t="str">
-        <f>if(fig!U7=1,U1&amp;","&amp;$A7,"")</f>
+      <c r="U7" s="11" t="str">
+        <f>if(ISBLANK(fig!U7),"",U1&amp;","&amp;$A7&amp;","&amp;fig!U7)</f>
         <v/>
       </c>
-      <c r="V7" s="2" t="str">
-        <f>if(fig!V7=1,V1&amp;","&amp;$A7,"")</f>
+      <c r="V7" s="11" t="str">
+        <f>if(ISBLANK(fig!V7),"",V1&amp;","&amp;$A7&amp;","&amp;fig!V7)</f>
         <v/>
       </c>
-      <c r="W7" s="2" t="str">
-        <f>if(fig!W7=1,W1&amp;","&amp;$A7,"")</f>
+      <c r="W7" s="11" t="str">
+        <f>if(ISBLANK(fig!W7),"",W1&amp;","&amp;$A7&amp;","&amp;fig!W7)</f>
         <v/>
       </c>
-      <c r="X7" s="2" t="str">
-        <f>if(fig!X7=1,X1&amp;","&amp;$A7,"")</f>
+      <c r="X7" s="11" t="str">
+        <f>if(ISBLANK(fig!X7),"",X1&amp;","&amp;$A7&amp;","&amp;fig!X7)</f>
         <v/>
       </c>
-      <c r="Y7" s="2" t="str">
-        <f>if(fig!Y7=1,Y1&amp;","&amp;$A7,"")</f>
+      <c r="Y7" s="11" t="str">
+        <f>if(ISBLANK(fig!Y7),"",Y1&amp;","&amp;$A7&amp;","&amp;fig!Y7)</f>
         <v/>
       </c>
-      <c r="Z7" s="2" t="str">
-        <f>if(fig!Z7=1,Z1&amp;","&amp;$A7,"")</f>
+      <c r="Z7" s="11" t="str">
+        <f>if(ISBLANK(fig!Z7),"",Z1&amp;","&amp;$A7&amp;","&amp;fig!Z7)</f>
         <v/>
       </c>
-      <c r="AA7" s="2" t="str">
-        <f>if(fig!AA7=1,AA1&amp;","&amp;$A7,"")</f>
+      <c r="AA7" s="11" t="str">
+        <f>if(ISBLANK(fig!AA7),"",AA1&amp;","&amp;$A7&amp;","&amp;fig!AA7)</f>
         <v/>
       </c>
-      <c r="AB7" s="2" t="str">
-        <f>if(fig!AB7=1,AB1&amp;","&amp;$A7,"")</f>
+      <c r="AB7" s="11" t="str">
+        <f>if(ISBLANK(fig!AB7),"",AB1&amp;","&amp;$A7&amp;","&amp;fig!AB7)</f>
         <v/>
       </c>
-      <c r="AC7" s="2" t="str">
-        <f>if(fig!AC7=1,AC1&amp;","&amp;$A7,"")</f>
+      <c r="AC7" s="11" t="str">
+        <f>if(ISBLANK(fig!AC7),"",AC1&amp;","&amp;$A7&amp;","&amp;fig!AC7)</f>
         <v/>
       </c>
     </row>
@@ -32766,116 +32948,116 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="str">
-        <f>if(fig!B8=1,B1&amp;","&amp;$A8,"")</f>
+      <c r="B8" s="11" t="str">
+        <f>if(ISBLANK(fig!B8),"",B1&amp;","&amp;$A8&amp;","&amp;fig!B8)</f>
         <v/>
       </c>
-      <c r="C8" s="2" t="str">
-        <f>if(fig!C8=1,C1&amp;","&amp;$A8,"")</f>
+      <c r="C8" s="11" t="str">
+        <f>if(ISBLANK(fig!C8),"",C1&amp;","&amp;$A8&amp;","&amp;fig!C8)</f>
         <v/>
       </c>
-      <c r="D8" s="2" t="str">
-        <f>if(fig!D8=1,D1&amp;","&amp;$A8,"")</f>
+      <c r="D8" s="11" t="str">
+        <f>if(ISBLANK(fig!D8),"",D1&amp;","&amp;$A8&amp;","&amp;fig!D8)</f>
         <v/>
       </c>
-      <c r="E8" s="2" t="str">
-        <f>if(fig!E8=1,E1&amp;","&amp;$A8,"")</f>
+      <c r="E8" s="11" t="str">
+        <f>if(ISBLANK(fig!E8),"",E1&amp;","&amp;$A8&amp;","&amp;fig!E8)</f>
         <v/>
       </c>
-      <c r="F8" s="2" t="str">
-        <f>if(fig!F8=1,F1&amp;","&amp;$A8,"")</f>
+      <c r="F8" s="11" t="str">
+        <f>if(ISBLANK(fig!F8),"",F1&amp;","&amp;$A8&amp;","&amp;fig!F8)</f>
         <v/>
       </c>
-      <c r="G8" s="2" t="str">
-        <f>if(fig!G8=1,G1&amp;","&amp;$A8,"")</f>
+      <c r="G8" s="11" t="str">
+        <f>if(ISBLANK(fig!G8),"",G1&amp;","&amp;$A8&amp;","&amp;fig!G8)</f>
         <v/>
       </c>
-      <c r="H8" s="2" t="str">
-        <f>if(fig!H8=1,H1&amp;","&amp;$A8,"")</f>
+      <c r="H8" s="11" t="str">
+        <f>if(ISBLANK(fig!H8),"",H1&amp;","&amp;$A8&amp;","&amp;fig!H8)</f>
         <v/>
       </c>
-      <c r="I8" s="2" t="str">
-        <f>if(fig!I8=1,I1&amp;","&amp;$A8,"")</f>
+      <c r="I8" s="11" t="str">
+        <f>if(ISBLANK(fig!I8),"",I1&amp;","&amp;$A8&amp;","&amp;fig!I8)</f>
         <v/>
       </c>
-      <c r="J8" s="2" t="str">
-        <f>if(fig!J8=1,J1&amp;","&amp;$A8,"")</f>
+      <c r="J8" s="11" t="str">
+        <f>if(ISBLANK(fig!J8),"",J1&amp;","&amp;$A8&amp;","&amp;fig!J8)</f>
         <v/>
       </c>
-      <c r="K8" s="2" t="str">
-        <f>if(fig!K8=1,K1&amp;","&amp;$A8,"")</f>
+      <c r="K8" s="11" t="str">
+        <f>if(ISBLANK(fig!K8),"",K1&amp;","&amp;$A8&amp;","&amp;fig!K8)</f>
         <v/>
       </c>
-      <c r="L8" s="2" t="str">
-        <f>if(fig!L8=1,L1&amp;","&amp;$A8,"")</f>
+      <c r="L8" s="11" t="str">
+        <f>if(ISBLANK(fig!L8),"",L1&amp;","&amp;$A8&amp;","&amp;fig!L8)</f>
         <v/>
       </c>
-      <c r="M8" s="2" t="str">
-        <f>if(fig!M8=1,M1&amp;","&amp;$A8,"")</f>
+      <c r="M8" s="11" t="str">
+        <f>if(ISBLANK(fig!M8),"",M1&amp;","&amp;$A8&amp;","&amp;fig!M8)</f>
         <v/>
       </c>
-      <c r="N8" s="2" t="str">
-        <f>if(fig!N8=1,N1&amp;","&amp;$A8,"")</f>
+      <c r="N8" s="11" t="str">
+        <f>if(ISBLANK(fig!N8),"",N1&amp;","&amp;$A8&amp;","&amp;fig!N8)</f>
         <v/>
       </c>
-      <c r="O8" s="2" t="str">
-        <f>if(fig!O8=1,O1&amp;","&amp;$A8,"")</f>
+      <c r="O8" s="11" t="str">
+        <f>if(ISBLANK(fig!O8),"",O1&amp;","&amp;$A8&amp;","&amp;fig!O8)</f>
         <v/>
       </c>
-      <c r="P8" s="2" t="str">
-        <f>if(fig!P8=1,P1&amp;","&amp;$A8,"")</f>
+      <c r="P8" s="11" t="str">
+        <f>if(ISBLANK(fig!P8),"",P1&amp;","&amp;$A8&amp;","&amp;fig!P8)</f>
         <v/>
       </c>
-      <c r="Q8" s="2" t="str">
-        <f>if(fig!Q8=1,Q1&amp;","&amp;$A8,"")</f>
+      <c r="Q8" s="11" t="str">
+        <f>if(ISBLANK(fig!Q8),"",Q1&amp;","&amp;$A8&amp;","&amp;fig!Q8)</f>
         <v/>
       </c>
-      <c r="R8" s="2" t="str">
-        <f>if(fig!R8=1,R1&amp;","&amp;$A8,"")</f>
+      <c r="R8" s="11" t="str">
+        <f>if(ISBLANK(fig!R8),"",R1&amp;","&amp;$A8&amp;","&amp;fig!R8)</f>
         <v/>
       </c>
-      <c r="S8" s="2" t="str">
-        <f>if(fig!S8=1,S1&amp;","&amp;$A8,"")</f>
+      <c r="S8" s="11" t="str">
+        <f>if(ISBLANK(fig!S8),"",S1&amp;","&amp;$A8&amp;","&amp;fig!S8)</f>
         <v/>
       </c>
-      <c r="T8" s="2" t="str">
-        <f>if(fig!T8=1,T1&amp;","&amp;$A8,"")</f>
+      <c r="T8" s="11" t="str">
+        <f>if(ISBLANK(fig!T8),"",T1&amp;","&amp;$A8&amp;","&amp;fig!T8)</f>
         <v/>
       </c>
-      <c r="U8" s="2" t="str">
-        <f>if(fig!U8=1,U1&amp;","&amp;$A8,"")</f>
+      <c r="U8" s="11" t="str">
+        <f>if(ISBLANK(fig!U8),"",U1&amp;","&amp;$A8&amp;","&amp;fig!U8)</f>
         <v/>
       </c>
-      <c r="V8" s="2" t="str">
-        <f>if(fig!V8=1,V1&amp;","&amp;$A8,"")</f>
+      <c r="V8" s="11" t="str">
+        <f>if(ISBLANK(fig!V8),"",V1&amp;","&amp;$A8&amp;","&amp;fig!V8)</f>
         <v/>
       </c>
-      <c r="W8" s="2" t="str">
-        <f>if(fig!W8=1,W1&amp;","&amp;$A8,"")</f>
+      <c r="W8" s="11" t="str">
+        <f>if(ISBLANK(fig!W8),"",W1&amp;","&amp;$A8&amp;","&amp;fig!W8)</f>
         <v/>
       </c>
-      <c r="X8" s="2" t="str">
-        <f>if(fig!X8=1,X1&amp;","&amp;$A8,"")</f>
+      <c r="X8" s="11" t="str">
+        <f>if(ISBLANK(fig!X8),"",X1&amp;","&amp;$A8&amp;","&amp;fig!X8)</f>
         <v/>
       </c>
-      <c r="Y8" s="2" t="str">
-        <f>if(fig!Y8=1,Y1&amp;","&amp;$A8,"")</f>
+      <c r="Y8" s="11" t="str">
+        <f>if(ISBLANK(fig!Y8),"",Y1&amp;","&amp;$A8&amp;","&amp;fig!Y8)</f>
         <v/>
       </c>
-      <c r="Z8" s="2" t="str">
-        <f>if(fig!Z8=1,Z1&amp;","&amp;$A8,"")</f>
+      <c r="Z8" s="11" t="str">
+        <f>if(ISBLANK(fig!Z8),"",Z1&amp;","&amp;$A8&amp;","&amp;fig!Z8)</f>
         <v/>
       </c>
-      <c r="AA8" s="2" t="str">
-        <f>if(fig!AA8=1,AA1&amp;","&amp;$A8,"")</f>
+      <c r="AA8" s="11" t="str">
+        <f>if(ISBLANK(fig!AA8),"",AA1&amp;","&amp;$A8&amp;","&amp;fig!AA8)</f>
         <v/>
       </c>
-      <c r="AB8" s="2" t="str">
-        <f>if(fig!AB8=1,AB1&amp;","&amp;$A8,"")</f>
+      <c r="AB8" s="11" t="str">
+        <f>if(ISBLANK(fig!AB8),"",AB1&amp;","&amp;$A8&amp;","&amp;fig!AB8)</f>
         <v/>
       </c>
-      <c r="AC8" s="2" t="str">
-        <f>if(fig!AC8=1,AC1&amp;","&amp;$A8,"")</f>
+      <c r="AC8" s="11" t="str">
+        <f>if(ISBLANK(fig!AC8),"",AC1&amp;","&amp;$A8&amp;","&amp;fig!AC8)</f>
         <v/>
       </c>
     </row>
@@ -32884,116 +33066,116 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="str">
-        <f>if(fig!B9=1,B1&amp;","&amp;$A9,"")</f>
+      <c r="B9" s="11" t="str">
+        <f>if(ISBLANK(fig!B9),"",B1&amp;","&amp;$A9&amp;","&amp;fig!B9)</f>
         <v/>
       </c>
-      <c r="C9" s="2" t="str">
-        <f>if(fig!C9=1,C1&amp;","&amp;$A9,"")</f>
+      <c r="C9" s="11" t="str">
+        <f>if(ISBLANK(fig!C9),"",C1&amp;","&amp;$A9&amp;","&amp;fig!C9)</f>
         <v/>
       </c>
-      <c r="D9" s="2" t="str">
-        <f>if(fig!D9=1,D1&amp;","&amp;$A9,"")</f>
+      <c r="D9" s="11" t="str">
+        <f>if(ISBLANK(fig!D9),"",D1&amp;","&amp;$A9&amp;","&amp;fig!D9)</f>
         <v/>
       </c>
-      <c r="E9" s="2" t="str">
-        <f>if(fig!E9=1,E1&amp;","&amp;$A9,"")</f>
+      <c r="E9" s="11" t="str">
+        <f>if(ISBLANK(fig!E9),"",E1&amp;","&amp;$A9&amp;","&amp;fig!E9)</f>
         <v/>
       </c>
-      <c r="F9" s="2" t="str">
-        <f>if(fig!F9=1,F1&amp;","&amp;$A9,"")</f>
+      <c r="F9" s="11" t="str">
+        <f>if(ISBLANK(fig!F9),"",F1&amp;","&amp;$A9&amp;","&amp;fig!F9)</f>
         <v/>
       </c>
-      <c r="G9" s="2" t="str">
-        <f>if(fig!G9=1,G1&amp;","&amp;$A9,"")</f>
+      <c r="G9" s="11" t="str">
+        <f>if(ISBLANK(fig!G9),"",G1&amp;","&amp;$A9&amp;","&amp;fig!G9)</f>
         <v/>
       </c>
-      <c r="H9" s="2" t="str">
-        <f>if(fig!H9=1,H1&amp;","&amp;$A9,"")</f>
+      <c r="H9" s="11" t="str">
+        <f>if(ISBLANK(fig!H9),"",H1&amp;","&amp;$A9&amp;","&amp;fig!H9)</f>
         <v/>
       </c>
-      <c r="I9" s="2" t="str">
-        <f>if(fig!I9=1,I1&amp;","&amp;$A9,"")</f>
+      <c r="I9" s="11" t="str">
+        <f>if(ISBLANK(fig!I9),"",I1&amp;","&amp;$A9&amp;","&amp;fig!I9)</f>
         <v/>
       </c>
-      <c r="J9" s="2" t="str">
-        <f>if(fig!J9=1,J1&amp;","&amp;$A9,"")</f>
+      <c r="J9" s="11" t="str">
+        <f>if(ISBLANK(fig!J9),"",J1&amp;","&amp;$A9&amp;","&amp;fig!J9)</f>
         <v/>
       </c>
-      <c r="K9" s="2" t="str">
-        <f>if(fig!K9=1,K1&amp;","&amp;$A9,"")</f>
+      <c r="K9" s="11" t="str">
+        <f>if(ISBLANK(fig!K9),"",K1&amp;","&amp;$A9&amp;","&amp;fig!K9)</f>
         <v/>
       </c>
-      <c r="L9" s="2" t="str">
-        <f>if(fig!L9=1,L1&amp;","&amp;$A9,"")</f>
+      <c r="L9" s="11" t="str">
+        <f>if(ISBLANK(fig!L9),"",L1&amp;","&amp;$A9&amp;","&amp;fig!L9)</f>
         <v/>
       </c>
-      <c r="M9" s="2" t="str">
-        <f>if(fig!M9=1,M1&amp;","&amp;$A9,"")</f>
+      <c r="M9" s="11" t="str">
+        <f>if(ISBLANK(fig!M9),"",M1&amp;","&amp;$A9&amp;","&amp;fig!M9)</f>
         <v/>
       </c>
-      <c r="N9" s="2" t="str">
-        <f>if(fig!N9=1,N1&amp;","&amp;$A9,"")</f>
+      <c r="N9" s="11" t="str">
+        <f>if(ISBLANK(fig!N9),"",N1&amp;","&amp;$A9&amp;","&amp;fig!N9)</f>
         <v/>
       </c>
-      <c r="O9" s="2" t="str">
-        <f>if(fig!O9=1,O1&amp;","&amp;$A9,"")</f>
+      <c r="O9" s="11" t="str">
+        <f>if(ISBLANK(fig!O9),"",O1&amp;","&amp;$A9&amp;","&amp;fig!O9)</f>
         <v/>
       </c>
-      <c r="P9" s="2" t="str">
-        <f>if(fig!P9=1,P1&amp;","&amp;$A9,"")</f>
+      <c r="P9" s="11" t="str">
+        <f>if(ISBLANK(fig!P9),"",P1&amp;","&amp;$A9&amp;","&amp;fig!P9)</f>
+        <v>0,18,1</v>
+      </c>
+      <c r="Q9" s="11" t="str">
+        <f>if(ISBLANK(fig!Q9),"",Q1&amp;","&amp;$A9&amp;","&amp;fig!Q9)</f>
         <v/>
       </c>
-      <c r="Q9" s="2" t="str">
-        <f>if(fig!Q9=1,Q1&amp;","&amp;$A9,"")</f>
+      <c r="R9" s="11" t="str">
+        <f>if(ISBLANK(fig!R9),"",R1&amp;","&amp;$A9&amp;","&amp;fig!R9)</f>
         <v/>
       </c>
-      <c r="R9" s="2" t="str">
-        <f>if(fig!R9=1,R1&amp;","&amp;$A9,"")</f>
+      <c r="S9" s="11" t="str">
+        <f>if(ISBLANK(fig!S9),"",S1&amp;","&amp;$A9&amp;","&amp;fig!S9)</f>
         <v/>
       </c>
-      <c r="S9" s="2" t="str">
-        <f>if(fig!S9=1,S1&amp;","&amp;$A9,"")</f>
+      <c r="T9" s="11" t="str">
+        <f>if(ISBLANK(fig!T9),"",T1&amp;","&amp;$A9&amp;","&amp;fig!T9)</f>
         <v/>
       </c>
-      <c r="T9" s="2" t="str">
-        <f>if(fig!T9=1,T1&amp;","&amp;$A9,"")</f>
+      <c r="U9" s="11" t="str">
+        <f>if(ISBLANK(fig!U9),"",U1&amp;","&amp;$A9&amp;","&amp;fig!U9)</f>
         <v/>
       </c>
-      <c r="U9" s="2" t="str">
-        <f>if(fig!U9=1,U1&amp;","&amp;$A9,"")</f>
+      <c r="V9" s="11" t="str">
+        <f>if(ISBLANK(fig!V9),"",V1&amp;","&amp;$A9&amp;","&amp;fig!V9)</f>
         <v/>
       </c>
-      <c r="V9" s="2" t="str">
-        <f>if(fig!V9=1,V1&amp;","&amp;$A9,"")</f>
+      <c r="W9" s="11" t="str">
+        <f>if(ISBLANK(fig!W9),"",W1&amp;","&amp;$A9&amp;","&amp;fig!W9)</f>
         <v/>
       </c>
-      <c r="W9" s="2" t="str">
-        <f>if(fig!W9=1,W1&amp;","&amp;$A9,"")</f>
+      <c r="X9" s="11" t="str">
+        <f>if(ISBLANK(fig!X9),"",X1&amp;","&amp;$A9&amp;","&amp;fig!X9)</f>
         <v/>
       </c>
-      <c r="X9" s="2" t="str">
-        <f>if(fig!X9=1,X1&amp;","&amp;$A9,"")</f>
+      <c r="Y9" s="11" t="str">
+        <f>if(ISBLANK(fig!Y9),"",Y1&amp;","&amp;$A9&amp;","&amp;fig!Y9)</f>
         <v/>
       </c>
-      <c r="Y9" s="2" t="str">
-        <f>if(fig!Y9=1,Y1&amp;","&amp;$A9,"")</f>
+      <c r="Z9" s="11" t="str">
+        <f>if(ISBLANK(fig!Z9),"",Z1&amp;","&amp;$A9&amp;","&amp;fig!Z9)</f>
         <v/>
       </c>
-      <c r="Z9" s="2" t="str">
-        <f>if(fig!Z9=1,Z1&amp;","&amp;$A9,"")</f>
+      <c r="AA9" s="11" t="str">
+        <f>if(ISBLANK(fig!AA9),"",AA1&amp;","&amp;$A9&amp;","&amp;fig!AA9)</f>
         <v/>
       </c>
-      <c r="AA9" s="2" t="str">
-        <f>if(fig!AA9=1,AA1&amp;","&amp;$A9,"")</f>
+      <c r="AB9" s="11" t="str">
+        <f>if(ISBLANK(fig!AB9),"",AB1&amp;","&amp;$A9&amp;","&amp;fig!AB9)</f>
         <v/>
       </c>
-      <c r="AB9" s="2" t="str">
-        <f>if(fig!AB9=1,AB1&amp;","&amp;$A9,"")</f>
-        <v/>
-      </c>
-      <c r="AC9" s="2" t="str">
-        <f>if(fig!AC9=1,AC1&amp;","&amp;$A9,"")</f>
+      <c r="AC9" s="11" t="str">
+        <f>if(ISBLANK(fig!AC9),"",AC1&amp;","&amp;$A9&amp;","&amp;fig!AC9)</f>
         <v/>
       </c>
     </row>
@@ -33002,116 +33184,116 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="str">
-        <f>if(fig!B10=1,B1&amp;","&amp;$A10,"")</f>
+      <c r="B10" s="11" t="str">
+        <f>if(ISBLANK(fig!B10),"",B1&amp;","&amp;$A10&amp;","&amp;fig!B10)</f>
         <v/>
       </c>
-      <c r="C10" s="2" t="str">
-        <f>if(fig!C10=1,C1&amp;","&amp;$A10,"")</f>
+      <c r="C10" s="11" t="str">
+        <f>if(ISBLANK(fig!C10),"",C1&amp;","&amp;$A10&amp;","&amp;fig!C10)</f>
         <v/>
       </c>
-      <c r="D10" s="2" t="str">
-        <f>if(fig!D10=1,D1&amp;","&amp;$A10,"")</f>
+      <c r="D10" s="11" t="str">
+        <f>if(ISBLANK(fig!D10),"",D1&amp;","&amp;$A10&amp;","&amp;fig!D10)</f>
         <v/>
       </c>
-      <c r="E10" s="2" t="str">
-        <f>if(fig!E10=1,E1&amp;","&amp;$A10,"")</f>
+      <c r="E10" s="11" t="str">
+        <f>if(ISBLANK(fig!E10),"",E1&amp;","&amp;$A10&amp;","&amp;fig!E10)</f>
         <v/>
       </c>
-      <c r="F10" s="2" t="str">
-        <f>if(fig!F10=1,F1&amp;","&amp;$A10,"")</f>
+      <c r="F10" s="11" t="str">
+        <f>if(ISBLANK(fig!F10),"",F1&amp;","&amp;$A10&amp;","&amp;fig!F10)</f>
         <v/>
       </c>
-      <c r="G10" s="2" t="str">
-        <f>if(fig!G10=1,G1&amp;","&amp;$A10,"")</f>
+      <c r="G10" s="11" t="str">
+        <f>if(ISBLANK(fig!G10),"",G1&amp;","&amp;$A10&amp;","&amp;fig!G10)</f>
         <v/>
       </c>
-      <c r="H10" s="2" t="str">
-        <f>if(fig!H10=1,H1&amp;","&amp;$A10,"")</f>
+      <c r="H10" s="11" t="str">
+        <f>if(ISBLANK(fig!H10),"",H1&amp;","&amp;$A10&amp;","&amp;fig!H10)</f>
         <v/>
       </c>
-      <c r="I10" s="2" t="str">
-        <f>if(fig!I10=1,I1&amp;","&amp;$A10,"")</f>
+      <c r="I10" s="11" t="str">
+        <f>if(ISBLANK(fig!I10),"",I1&amp;","&amp;$A10&amp;","&amp;fig!I10)</f>
         <v/>
       </c>
-      <c r="J10" s="2" t="str">
-        <f>if(fig!J10=1,J1&amp;","&amp;$A10,"")</f>
+      <c r="J10" s="11" t="str">
+        <f>if(ISBLANK(fig!J10),"",J1&amp;","&amp;$A10&amp;","&amp;fig!J10)</f>
         <v/>
       </c>
-      <c r="K10" s="2" t="str">
-        <f>if(fig!K10=1,K1&amp;","&amp;$A10,"")</f>
+      <c r="K10" s="11" t="str">
+        <f>if(ISBLANK(fig!K10),"",K1&amp;","&amp;$A10&amp;","&amp;fig!K10)</f>
         <v/>
       </c>
-      <c r="L10" s="2" t="str">
-        <f>if(fig!L10=1,L1&amp;","&amp;$A10,"")</f>
+      <c r="L10" s="11" t="str">
+        <f>if(ISBLANK(fig!L10),"",L1&amp;","&amp;$A10&amp;","&amp;fig!L10)</f>
         <v/>
       </c>
-      <c r="M10" s="2" t="str">
-        <f>if(fig!M10=1,M1&amp;","&amp;$A10,"")</f>
+      <c r="M10" s="11" t="str">
+        <f>if(ISBLANK(fig!M10),"",M1&amp;","&amp;$A10&amp;","&amp;fig!M10)</f>
         <v/>
       </c>
-      <c r="N10" s="2" t="str">
-        <f>if(fig!N10=1,N1&amp;","&amp;$A10,"")</f>
+      <c r="N10" s="11" t="str">
+        <f>if(ISBLANK(fig!N10),"",N1&amp;","&amp;$A10&amp;","&amp;fig!N10)</f>
         <v/>
       </c>
-      <c r="O10" s="2" t="str">
-        <f>if(fig!O10=1,O1&amp;","&amp;$A10,"")</f>
+      <c r="O10" s="11" t="str">
+        <f>if(ISBLANK(fig!O10),"",O1&amp;","&amp;$A10&amp;","&amp;fig!O10)</f>
+        <v>-1,17,1</v>
+      </c>
+      <c r="P10" s="11" t="str">
+        <f>if(ISBLANK(fig!P10),"",P1&amp;","&amp;$A10&amp;","&amp;fig!P10)</f>
+        <v>0,17,4</v>
+      </c>
+      <c r="Q10" s="11" t="str">
+        <f>if(ISBLANK(fig!Q10),"",Q1&amp;","&amp;$A10&amp;","&amp;fig!Q10)</f>
+        <v>1,17,1</v>
+      </c>
+      <c r="R10" s="11" t="str">
+        <f>if(ISBLANK(fig!R10),"",R1&amp;","&amp;$A10&amp;","&amp;fig!R10)</f>
         <v/>
       </c>
-      <c r="P10" s="2" t="str">
-        <f>if(fig!P10=1,P1&amp;","&amp;$A10,"")</f>
-        <v>0,17</v>
-      </c>
-      <c r="Q10" s="2" t="str">
-        <f>if(fig!Q10=1,Q1&amp;","&amp;$A10,"")</f>
+      <c r="S10" s="11" t="str">
+        <f>if(ISBLANK(fig!S10),"",S1&amp;","&amp;$A10&amp;","&amp;fig!S10)</f>
         <v/>
       </c>
-      <c r="R10" s="2" t="str">
-        <f>if(fig!R10=1,R1&amp;","&amp;$A10,"")</f>
+      <c r="T10" s="11" t="str">
+        <f>if(ISBLANK(fig!T10),"",T1&amp;","&amp;$A10&amp;","&amp;fig!T10)</f>
         <v/>
       </c>
-      <c r="S10" s="2" t="str">
-        <f>if(fig!S10=1,S1&amp;","&amp;$A10,"")</f>
+      <c r="U10" s="11" t="str">
+        <f>if(ISBLANK(fig!U10),"",U1&amp;","&amp;$A10&amp;","&amp;fig!U10)</f>
         <v/>
       </c>
-      <c r="T10" s="2" t="str">
-        <f>if(fig!T10=1,T1&amp;","&amp;$A10,"")</f>
+      <c r="V10" s="11" t="str">
+        <f>if(ISBLANK(fig!V10),"",V1&amp;","&amp;$A10&amp;","&amp;fig!V10)</f>
         <v/>
       </c>
-      <c r="U10" s="2" t="str">
-        <f>if(fig!U10=1,U1&amp;","&amp;$A10,"")</f>
+      <c r="W10" s="11" t="str">
+        <f>if(ISBLANK(fig!W10),"",W1&amp;","&amp;$A10&amp;","&amp;fig!W10)</f>
         <v/>
       </c>
-      <c r="V10" s="2" t="str">
-        <f>if(fig!V10=1,V1&amp;","&amp;$A10,"")</f>
+      <c r="X10" s="11" t="str">
+        <f>if(ISBLANK(fig!X10),"",X1&amp;","&amp;$A10&amp;","&amp;fig!X10)</f>
         <v/>
       </c>
-      <c r="W10" s="2" t="str">
-        <f>if(fig!W10=1,W1&amp;","&amp;$A10,"")</f>
+      <c r="Y10" s="11" t="str">
+        <f>if(ISBLANK(fig!Y10),"",Y1&amp;","&amp;$A10&amp;","&amp;fig!Y10)</f>
         <v/>
       </c>
-      <c r="X10" s="2" t="str">
-        <f>if(fig!X10=1,X1&amp;","&amp;$A10,"")</f>
+      <c r="Z10" s="11" t="str">
+        <f>if(ISBLANK(fig!Z10),"",Z1&amp;","&amp;$A10&amp;","&amp;fig!Z10)</f>
         <v/>
       </c>
-      <c r="Y10" s="2" t="str">
-        <f>if(fig!Y10=1,Y1&amp;","&amp;$A10,"")</f>
+      <c r="AA10" s="11" t="str">
+        <f>if(ISBLANK(fig!AA10),"",AA1&amp;","&amp;$A10&amp;","&amp;fig!AA10)</f>
         <v/>
       </c>
-      <c r="Z10" s="2" t="str">
-        <f>if(fig!Z10=1,Z1&amp;","&amp;$A10,"")</f>
+      <c r="AB10" s="11" t="str">
+        <f>if(ISBLANK(fig!AB10),"",AB1&amp;","&amp;$A10&amp;","&amp;fig!AB10)</f>
         <v/>
       </c>
-      <c r="AA10" s="2" t="str">
-        <f>if(fig!AA10=1,AA1&amp;","&amp;$A10,"")</f>
-        <v/>
-      </c>
-      <c r="AB10" s="2" t="str">
-        <f>if(fig!AB10=1,AB1&amp;","&amp;$A10,"")</f>
-        <v/>
-      </c>
-      <c r="AC10" s="2" t="str">
-        <f>if(fig!AC10=1,AC1&amp;","&amp;$A10,"")</f>
+      <c r="AC10" s="11" t="str">
+        <f>if(ISBLANK(fig!AC10),"",AC1&amp;","&amp;$A10&amp;","&amp;fig!AC10)</f>
         <v/>
       </c>
     </row>
@@ -33120,116 +33302,116 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="str">
-        <f>if(fig!B11=1,B1&amp;","&amp;$A11,"")</f>
+      <c r="B11" s="11" t="str">
+        <f>if(ISBLANK(fig!B11),"",B1&amp;","&amp;$A11&amp;","&amp;fig!B11)</f>
         <v/>
       </c>
-      <c r="C11" s="2" t="str">
-        <f>if(fig!C11=1,C1&amp;","&amp;$A11,"")</f>
+      <c r="C11" s="11" t="str">
+        <f>if(ISBLANK(fig!C11),"",C1&amp;","&amp;$A11&amp;","&amp;fig!C11)</f>
         <v/>
       </c>
-      <c r="D11" s="2" t="str">
-        <f>if(fig!D11=1,D1&amp;","&amp;$A11,"")</f>
+      <c r="D11" s="11" t="str">
+        <f>if(ISBLANK(fig!D11),"",D1&amp;","&amp;$A11&amp;","&amp;fig!D11)</f>
         <v/>
       </c>
-      <c r="E11" s="2" t="str">
-        <f>if(fig!E11=1,E1&amp;","&amp;$A11,"")</f>
+      <c r="E11" s="11" t="str">
+        <f>if(ISBLANK(fig!E11),"",E1&amp;","&amp;$A11&amp;","&amp;fig!E11)</f>
         <v/>
       </c>
-      <c r="F11" s="2" t="str">
-        <f>if(fig!F11=1,F1&amp;","&amp;$A11,"")</f>
+      <c r="F11" s="11" t="str">
+        <f>if(ISBLANK(fig!F11),"",F1&amp;","&amp;$A11&amp;","&amp;fig!F11)</f>
         <v/>
       </c>
-      <c r="G11" s="2" t="str">
-        <f>if(fig!G11=1,G1&amp;","&amp;$A11,"")</f>
+      <c r="G11" s="11" t="str">
+        <f>if(ISBLANK(fig!G11),"",G1&amp;","&amp;$A11&amp;","&amp;fig!G11)</f>
         <v/>
       </c>
-      <c r="H11" s="2" t="str">
-        <f>if(fig!H11=1,H1&amp;","&amp;$A11,"")</f>
+      <c r="H11" s="11" t="str">
+        <f>if(ISBLANK(fig!H11),"",H1&amp;","&amp;$A11&amp;","&amp;fig!H11)</f>
         <v/>
       </c>
-      <c r="I11" s="2" t="str">
-        <f>if(fig!I11=1,I1&amp;","&amp;$A11,"")</f>
+      <c r="I11" s="11" t="str">
+        <f>if(ISBLANK(fig!I11),"",I1&amp;","&amp;$A11&amp;","&amp;fig!I11)</f>
         <v/>
       </c>
-      <c r="J11" s="2" t="str">
-        <f>if(fig!J11=1,J1&amp;","&amp;$A11,"")</f>
+      <c r="J11" s="11" t="str">
+        <f>if(ISBLANK(fig!J11),"",J1&amp;","&amp;$A11&amp;","&amp;fig!J11)</f>
         <v/>
       </c>
-      <c r="K11" s="2" t="str">
-        <f>if(fig!K11=1,K1&amp;","&amp;$A11,"")</f>
+      <c r="K11" s="11" t="str">
+        <f>if(ISBLANK(fig!K11),"",K1&amp;","&amp;$A11&amp;","&amp;fig!K11)</f>
         <v/>
       </c>
-      <c r="L11" s="2" t="str">
-        <f>if(fig!L11=1,L1&amp;","&amp;$A11,"")</f>
+      <c r="L11" s="11" t="str">
+        <f>if(ISBLANK(fig!L11),"",L1&amp;","&amp;$A11&amp;","&amp;fig!L11)</f>
         <v/>
       </c>
-      <c r="M11" s="2" t="str">
-        <f>if(fig!M11=1,M1&amp;","&amp;$A11,"")</f>
+      <c r="M11" s="11" t="str">
+        <f>if(ISBLANK(fig!M11),"",M1&amp;","&amp;$A11&amp;","&amp;fig!M11)</f>
         <v/>
       </c>
-      <c r="N11" s="2" t="str">
-        <f>if(fig!N11=1,N1&amp;","&amp;$A11,"")</f>
+      <c r="N11" s="11" t="str">
+        <f>if(ISBLANK(fig!N11),"",N1&amp;","&amp;$A11&amp;","&amp;fig!N11)</f>
         <v/>
       </c>
-      <c r="O11" s="2" t="str">
-        <f>if(fig!O11=1,O1&amp;","&amp;$A11,"")</f>
-        <v>-1,16</v>
-      </c>
-      <c r="P11" s="2" t="str">
-        <f>if(fig!P11=1,P1&amp;","&amp;$A11,"")</f>
-        <v>0,16</v>
-      </c>
-      <c r="Q11" s="2" t="str">
-        <f>if(fig!Q11=1,Q1&amp;","&amp;$A11,"")</f>
-        <v>1,16</v>
-      </c>
-      <c r="R11" s="2" t="str">
-        <f>if(fig!R11=1,R1&amp;","&amp;$A11,"")</f>
+      <c r="O11" s="11" t="str">
+        <f>if(ISBLANK(fig!O11),"",O1&amp;","&amp;$A11&amp;","&amp;fig!O11)</f>
+        <v>-1,16,1</v>
+      </c>
+      <c r="P11" s="11" t="str">
+        <f>if(ISBLANK(fig!P11),"",P1&amp;","&amp;$A11&amp;","&amp;fig!P11)</f>
+        <v>0,16,4</v>
+      </c>
+      <c r="Q11" s="11" t="str">
+        <f>if(ISBLANK(fig!Q11),"",Q1&amp;","&amp;$A11&amp;","&amp;fig!Q11)</f>
+        <v>1,16,1</v>
+      </c>
+      <c r="R11" s="11" t="str">
+        <f>if(ISBLANK(fig!R11),"",R1&amp;","&amp;$A11&amp;","&amp;fig!R11)</f>
         <v/>
       </c>
-      <c r="S11" s="2" t="str">
-        <f>if(fig!S11=1,S1&amp;","&amp;$A11,"")</f>
+      <c r="S11" s="11" t="str">
+        <f>if(ISBLANK(fig!S11),"",S1&amp;","&amp;$A11&amp;","&amp;fig!S11)</f>
         <v/>
       </c>
-      <c r="T11" s="2" t="str">
-        <f>if(fig!T11=1,T1&amp;","&amp;$A11,"")</f>
+      <c r="T11" s="11" t="str">
+        <f>if(ISBLANK(fig!T11),"",T1&amp;","&amp;$A11&amp;","&amp;fig!T11)</f>
         <v/>
       </c>
-      <c r="U11" s="2" t="str">
-        <f>if(fig!U11=1,U1&amp;","&amp;$A11,"")</f>
+      <c r="U11" s="11" t="str">
+        <f>if(ISBLANK(fig!U11),"",U1&amp;","&amp;$A11&amp;","&amp;fig!U11)</f>
         <v/>
       </c>
-      <c r="V11" s="2" t="str">
-        <f>if(fig!V11=1,V1&amp;","&amp;$A11,"")</f>
+      <c r="V11" s="11" t="str">
+        <f>if(ISBLANK(fig!V11),"",V1&amp;","&amp;$A11&amp;","&amp;fig!V11)</f>
         <v/>
       </c>
-      <c r="W11" s="2" t="str">
-        <f>if(fig!W11=1,W1&amp;","&amp;$A11,"")</f>
+      <c r="W11" s="11" t="str">
+        <f>if(ISBLANK(fig!W11),"",W1&amp;","&amp;$A11&amp;","&amp;fig!W11)</f>
         <v/>
       </c>
-      <c r="X11" s="2" t="str">
-        <f>if(fig!X11=1,X1&amp;","&amp;$A11,"")</f>
+      <c r="X11" s="11" t="str">
+        <f>if(ISBLANK(fig!X11),"",X1&amp;","&amp;$A11&amp;","&amp;fig!X11)</f>
         <v/>
       </c>
-      <c r="Y11" s="2" t="str">
-        <f>if(fig!Y11=1,Y1&amp;","&amp;$A11,"")</f>
+      <c r="Y11" s="11" t="str">
+        <f>if(ISBLANK(fig!Y11),"",Y1&amp;","&amp;$A11&amp;","&amp;fig!Y11)</f>
         <v/>
       </c>
-      <c r="Z11" s="2" t="str">
-        <f>if(fig!Z11=1,Z1&amp;","&amp;$A11,"")</f>
+      <c r="Z11" s="11" t="str">
+        <f>if(ISBLANK(fig!Z11),"",Z1&amp;","&amp;$A11&amp;","&amp;fig!Z11)</f>
         <v/>
       </c>
-      <c r="AA11" s="2" t="str">
-        <f>if(fig!AA11=1,AA1&amp;","&amp;$A11,"")</f>
+      <c r="AA11" s="11" t="str">
+        <f>if(ISBLANK(fig!AA11),"",AA1&amp;","&amp;$A11&amp;","&amp;fig!AA11)</f>
         <v/>
       </c>
-      <c r="AB11" s="2" t="str">
-        <f>if(fig!AB11=1,AB1&amp;","&amp;$A11,"")</f>
+      <c r="AB11" s="11" t="str">
+        <f>if(ISBLANK(fig!AB11),"",AB1&amp;","&amp;$A11&amp;","&amp;fig!AB11)</f>
         <v/>
       </c>
-      <c r="AC11" s="2" t="str">
-        <f>if(fig!AC11=1,AC1&amp;","&amp;$A11,"")</f>
+      <c r="AC11" s="11" t="str">
+        <f>if(ISBLANK(fig!AC11),"",AC1&amp;","&amp;$A11&amp;","&amp;fig!AC11)</f>
         <v/>
       </c>
     </row>
@@ -33238,116 +33420,116 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B12" s="2" t="str">
-        <f>if(fig!B12=1,B1&amp;","&amp;$A12,"")</f>
+      <c r="B12" s="11" t="str">
+        <f>if(ISBLANK(fig!B12),"",B1&amp;","&amp;$A12&amp;","&amp;fig!B12)</f>
         <v/>
       </c>
-      <c r="C12" s="2" t="str">
-        <f>if(fig!C12=1,C1&amp;","&amp;$A12,"")</f>
+      <c r="C12" s="11" t="str">
+        <f>if(ISBLANK(fig!C12),"",C1&amp;","&amp;$A12&amp;","&amp;fig!C12)</f>
         <v/>
       </c>
-      <c r="D12" s="2" t="str">
-        <f>if(fig!D12=1,D1&amp;","&amp;$A12,"")</f>
+      <c r="D12" s="11" t="str">
+        <f>if(ISBLANK(fig!D12),"",D1&amp;","&amp;$A12&amp;","&amp;fig!D12)</f>
         <v/>
       </c>
-      <c r="E12" s="2" t="str">
-        <f>if(fig!E12=1,E1&amp;","&amp;$A12,"")</f>
+      <c r="E12" s="11" t="str">
+        <f>if(ISBLANK(fig!E12),"",E1&amp;","&amp;$A12&amp;","&amp;fig!E12)</f>
         <v/>
       </c>
-      <c r="F12" s="2" t="str">
-        <f>if(fig!F12=1,F1&amp;","&amp;$A12,"")</f>
+      <c r="F12" s="11" t="str">
+        <f>if(ISBLANK(fig!F12),"",F1&amp;","&amp;$A12&amp;","&amp;fig!F12)</f>
         <v/>
       </c>
-      <c r="G12" s="2" t="str">
-        <f>if(fig!G12=1,G1&amp;","&amp;$A12,"")</f>
+      <c r="G12" s="11" t="str">
+        <f>if(ISBLANK(fig!G12),"",G1&amp;","&amp;$A12&amp;","&amp;fig!G12)</f>
         <v/>
       </c>
-      <c r="H12" s="2" t="str">
-        <f>if(fig!H12=1,H1&amp;","&amp;$A12,"")</f>
+      <c r="H12" s="11" t="str">
+        <f>if(ISBLANK(fig!H12),"",H1&amp;","&amp;$A12&amp;","&amp;fig!H12)</f>
         <v/>
       </c>
-      <c r="I12" s="2" t="str">
-        <f>if(fig!I12=1,I1&amp;","&amp;$A12,"")</f>
+      <c r="I12" s="11" t="str">
+        <f>if(ISBLANK(fig!I12),"",I1&amp;","&amp;$A12&amp;","&amp;fig!I12)</f>
         <v/>
       </c>
-      <c r="J12" s="2" t="str">
-        <f>if(fig!J12=1,J1&amp;","&amp;$A12,"")</f>
+      <c r="J12" s="11" t="str">
+        <f>if(ISBLANK(fig!J12),"",J1&amp;","&amp;$A12&amp;","&amp;fig!J12)</f>
         <v/>
       </c>
-      <c r="K12" s="2" t="str">
-        <f>if(fig!K12=1,K1&amp;","&amp;$A12,"")</f>
+      <c r="K12" s="11" t="str">
+        <f>if(ISBLANK(fig!K12),"",K1&amp;","&amp;$A12&amp;","&amp;fig!K12)</f>
         <v/>
       </c>
-      <c r="L12" s="2" t="str">
-        <f>if(fig!L12=1,L1&amp;","&amp;$A12,"")</f>
+      <c r="L12" s="11" t="str">
+        <f>if(ISBLANK(fig!L12),"",L1&amp;","&amp;$A12&amp;","&amp;fig!L12)</f>
         <v/>
       </c>
-      <c r="M12" s="2" t="str">
-        <f>if(fig!M12=1,M1&amp;","&amp;$A12,"")</f>
+      <c r="M12" s="11" t="str">
+        <f>if(ISBLANK(fig!M12),"",M1&amp;","&amp;$A12&amp;","&amp;fig!M12)</f>
         <v/>
       </c>
-      <c r="N12" s="2" t="str">
-        <f>if(fig!N12=1,N1&amp;","&amp;$A12,"")</f>
+      <c r="N12" s="11" t="str">
+        <f>if(ISBLANK(fig!N12),"",N1&amp;","&amp;$A12&amp;","&amp;fig!N12)</f>
+        <v>-2,15,1</v>
+      </c>
+      <c r="O12" s="11" t="str">
+        <f>if(ISBLANK(fig!O12),"",O1&amp;","&amp;$A12&amp;","&amp;fig!O12)</f>
+        <v>-1,15,4</v>
+      </c>
+      <c r="P12" s="11" t="str">
+        <f>if(ISBLANK(fig!P12),"",P1&amp;","&amp;$A12&amp;","&amp;fig!P12)</f>
+        <v>0,15,4</v>
+      </c>
+      <c r="Q12" s="11" t="str">
+        <f>if(ISBLANK(fig!Q12),"",Q1&amp;","&amp;$A12&amp;","&amp;fig!Q12)</f>
+        <v>1,15,4</v>
+      </c>
+      <c r="R12" s="11" t="str">
+        <f>if(ISBLANK(fig!R12),"",R1&amp;","&amp;$A12&amp;","&amp;fig!R12)</f>
+        <v>2,15,1</v>
+      </c>
+      <c r="S12" s="11" t="str">
+        <f>if(ISBLANK(fig!S12),"",S1&amp;","&amp;$A12&amp;","&amp;fig!S12)</f>
         <v/>
       </c>
-      <c r="O12" s="2" t="str">
-        <f>if(fig!O12=1,O1&amp;","&amp;$A12,"")</f>
-        <v>-1,15</v>
-      </c>
-      <c r="P12" s="2" t="str">
-        <f>if(fig!P12=1,P1&amp;","&amp;$A12,"")</f>
-        <v>0,15</v>
-      </c>
-      <c r="Q12" s="2" t="str">
-        <f>if(fig!Q12=1,Q1&amp;","&amp;$A12,"")</f>
-        <v>1,15</v>
-      </c>
-      <c r="R12" s="2" t="str">
-        <f>if(fig!R12=1,R1&amp;","&amp;$A12,"")</f>
+      <c r="T12" s="11" t="str">
+        <f>if(ISBLANK(fig!T12),"",T1&amp;","&amp;$A12&amp;","&amp;fig!T12)</f>
         <v/>
       </c>
-      <c r="S12" s="2" t="str">
-        <f>if(fig!S12=1,S1&amp;","&amp;$A12,"")</f>
+      <c r="U12" s="11" t="str">
+        <f>if(ISBLANK(fig!U12),"",U1&amp;","&amp;$A12&amp;","&amp;fig!U12)</f>
         <v/>
       </c>
-      <c r="T12" s="2" t="str">
-        <f>if(fig!T12=1,T1&amp;","&amp;$A12,"")</f>
+      <c r="V12" s="11" t="str">
+        <f>if(ISBLANK(fig!V12),"",V1&amp;","&amp;$A12&amp;","&amp;fig!V12)</f>
         <v/>
       </c>
-      <c r="U12" s="2" t="str">
-        <f>if(fig!U12=1,U1&amp;","&amp;$A12,"")</f>
+      <c r="W12" s="11" t="str">
+        <f>if(ISBLANK(fig!W12),"",W1&amp;","&amp;$A12&amp;","&amp;fig!W12)</f>
         <v/>
       </c>
-      <c r="V12" s="2" t="str">
-        <f>if(fig!V12=1,V1&amp;","&amp;$A12,"")</f>
+      <c r="X12" s="11" t="str">
+        <f>if(ISBLANK(fig!X12),"",X1&amp;","&amp;$A12&amp;","&amp;fig!X12)</f>
         <v/>
       </c>
-      <c r="W12" s="2" t="str">
-        <f>if(fig!W12=1,W1&amp;","&amp;$A12,"")</f>
+      <c r="Y12" s="11" t="str">
+        <f>if(ISBLANK(fig!Y12),"",Y1&amp;","&amp;$A12&amp;","&amp;fig!Y12)</f>
         <v/>
       </c>
-      <c r="X12" s="2" t="str">
-        <f>if(fig!X12=1,X1&amp;","&amp;$A12,"")</f>
+      <c r="Z12" s="11" t="str">
+        <f>if(ISBLANK(fig!Z12),"",Z1&amp;","&amp;$A12&amp;","&amp;fig!Z12)</f>
         <v/>
       </c>
-      <c r="Y12" s="2" t="str">
-        <f>if(fig!Y12=1,Y1&amp;","&amp;$A12,"")</f>
+      <c r="AA12" s="11" t="str">
+        <f>if(ISBLANK(fig!AA12),"",AA1&amp;","&amp;$A12&amp;","&amp;fig!AA12)</f>
         <v/>
       </c>
-      <c r="Z12" s="2" t="str">
-        <f>if(fig!Z12=1,Z1&amp;","&amp;$A12,"")</f>
+      <c r="AB12" s="11" t="str">
+        <f>if(ISBLANK(fig!AB12),"",AB1&amp;","&amp;$A12&amp;","&amp;fig!AB12)</f>
         <v/>
       </c>
-      <c r="AA12" s="2" t="str">
-        <f>if(fig!AA12=1,AA1&amp;","&amp;$A12,"")</f>
-        <v/>
-      </c>
-      <c r="AB12" s="2" t="str">
-        <f>if(fig!AB12=1,AB1&amp;","&amp;$A12,"")</f>
-        <v/>
-      </c>
-      <c r="AC12" s="2" t="str">
-        <f>if(fig!AC12=1,AC1&amp;","&amp;$A12,"")</f>
+      <c r="AC12" s="11" t="str">
+        <f>if(ISBLANK(fig!AC12),"",AC1&amp;","&amp;$A12&amp;","&amp;fig!AC12)</f>
         <v/>
       </c>
     </row>
@@ -33356,116 +33538,116 @@
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B13" s="2" t="str">
-        <f>if(fig!B13=1,B1&amp;","&amp;$A13,"")</f>
+      <c r="B13" s="11" t="str">
+        <f>if(ISBLANK(fig!B13),"",B1&amp;","&amp;$A13&amp;","&amp;fig!B13)</f>
         <v/>
       </c>
-      <c r="C13" s="2" t="str">
-        <f>if(fig!C13=1,C1&amp;","&amp;$A13,"")</f>
+      <c r="C13" s="11" t="str">
+        <f>if(ISBLANK(fig!C13),"",C1&amp;","&amp;$A13&amp;","&amp;fig!C13)</f>
         <v/>
       </c>
-      <c r="D13" s="2" t="str">
-        <f>if(fig!D13=1,D1&amp;","&amp;$A13,"")</f>
+      <c r="D13" s="11" t="str">
+        <f>if(ISBLANK(fig!D13),"",D1&amp;","&amp;$A13&amp;","&amp;fig!D13)</f>
         <v/>
       </c>
-      <c r="E13" s="2" t="str">
-        <f>if(fig!E13=1,E1&amp;","&amp;$A13,"")</f>
+      <c r="E13" s="11" t="str">
+        <f>if(ISBLANK(fig!E13),"",E1&amp;","&amp;$A13&amp;","&amp;fig!E13)</f>
         <v/>
       </c>
-      <c r="F13" s="2" t="str">
-        <f>if(fig!F13=1,F1&amp;","&amp;$A13,"")</f>
+      <c r="F13" s="11" t="str">
+        <f>if(ISBLANK(fig!F13),"",F1&amp;","&amp;$A13&amp;","&amp;fig!F13)</f>
         <v/>
       </c>
-      <c r="G13" s="2" t="str">
-        <f>if(fig!G13=1,G1&amp;","&amp;$A13,"")</f>
+      <c r="G13" s="11" t="str">
+        <f>if(ISBLANK(fig!G13),"",G1&amp;","&amp;$A13&amp;","&amp;fig!G13)</f>
         <v/>
       </c>
-      <c r="H13" s="2" t="str">
-        <f>if(fig!H13=1,H1&amp;","&amp;$A13,"")</f>
+      <c r="H13" s="11" t="str">
+        <f>if(ISBLANK(fig!H13),"",H1&amp;","&amp;$A13&amp;","&amp;fig!H13)</f>
         <v/>
       </c>
-      <c r="I13" s="2" t="str">
-        <f>if(fig!I13=1,I1&amp;","&amp;$A13,"")</f>
+      <c r="I13" s="11" t="str">
+        <f>if(ISBLANK(fig!I13),"",I1&amp;","&amp;$A13&amp;","&amp;fig!I13)</f>
         <v/>
       </c>
-      <c r="J13" s="2" t="str">
-        <f>if(fig!J13=1,J1&amp;","&amp;$A13,"")</f>
+      <c r="J13" s="11" t="str">
+        <f>if(ISBLANK(fig!J13),"",J1&amp;","&amp;$A13&amp;","&amp;fig!J13)</f>
         <v/>
       </c>
-      <c r="K13" s="2" t="str">
-        <f>if(fig!K13=1,K1&amp;","&amp;$A13,"")</f>
+      <c r="K13" s="11" t="str">
+        <f>if(ISBLANK(fig!K13),"",K1&amp;","&amp;$A13&amp;","&amp;fig!K13)</f>
         <v/>
       </c>
-      <c r="L13" s="2" t="str">
-        <f>if(fig!L13=1,L1&amp;","&amp;$A13,"")</f>
+      <c r="L13" s="11" t="str">
+        <f>if(ISBLANK(fig!L13),"",L1&amp;","&amp;$A13&amp;","&amp;fig!L13)</f>
         <v/>
       </c>
-      <c r="M13" s="2" t="str">
-        <f>if(fig!M13=1,M1&amp;","&amp;$A13,"")</f>
+      <c r="M13" s="11" t="str">
+        <f>if(ISBLANK(fig!M13),"",M1&amp;","&amp;$A13&amp;","&amp;fig!M13)</f>
         <v/>
       </c>
-      <c r="N13" s="2" t="str">
-        <f>if(fig!N13=1,N1&amp;","&amp;$A13,"")</f>
-        <v>-2,14</v>
-      </c>
-      <c r="O13" s="2" t="str">
-        <f>if(fig!O13=1,O1&amp;","&amp;$A13,"")</f>
-        <v>-1,14</v>
-      </c>
-      <c r="P13" s="2" t="str">
-        <f>if(fig!P13=1,P1&amp;","&amp;$A13,"")</f>
-        <v>0,14</v>
-      </c>
-      <c r="Q13" s="2" t="str">
-        <f>if(fig!Q13=1,Q1&amp;","&amp;$A13,"")</f>
-        <v>1,14</v>
-      </c>
-      <c r="R13" s="2" t="str">
-        <f>if(fig!R13=1,R1&amp;","&amp;$A13,"")</f>
-        <v>2,14</v>
-      </c>
-      <c r="S13" s="2" t="str">
-        <f>if(fig!S13=1,S1&amp;","&amp;$A13,"")</f>
+      <c r="N13" s="11" t="str">
+        <f>if(ISBLANK(fig!N13),"",N1&amp;","&amp;$A13&amp;","&amp;fig!N13)</f>
+        <v>-2,14,1</v>
+      </c>
+      <c r="O13" s="11" t="str">
+        <f>if(ISBLANK(fig!O13),"",O1&amp;","&amp;$A13&amp;","&amp;fig!O13)</f>
+        <v>-1,14,4</v>
+      </c>
+      <c r="P13" s="11" t="str">
+        <f>if(ISBLANK(fig!P13),"",P1&amp;","&amp;$A13&amp;","&amp;fig!P13)</f>
+        <v>0,14,4</v>
+      </c>
+      <c r="Q13" s="11" t="str">
+        <f>if(ISBLANK(fig!Q13),"",Q1&amp;","&amp;$A13&amp;","&amp;fig!Q13)</f>
+        <v>1,14,4</v>
+      </c>
+      <c r="R13" s="11" t="str">
+        <f>if(ISBLANK(fig!R13),"",R1&amp;","&amp;$A13&amp;","&amp;fig!R13)</f>
+        <v>2,14,1</v>
+      </c>
+      <c r="S13" s="11" t="str">
+        <f>if(ISBLANK(fig!S13),"",S1&amp;","&amp;$A13&amp;","&amp;fig!S13)</f>
         <v/>
       </c>
-      <c r="T13" s="2" t="str">
-        <f>if(fig!T13=1,T1&amp;","&amp;$A13,"")</f>
+      <c r="T13" s="11" t="str">
+        <f>if(ISBLANK(fig!T13),"",T1&amp;","&amp;$A13&amp;","&amp;fig!T13)</f>
         <v/>
       </c>
-      <c r="U13" s="2" t="str">
-        <f>if(fig!U13=1,U1&amp;","&amp;$A13,"")</f>
+      <c r="U13" s="11" t="str">
+        <f>if(ISBLANK(fig!U13),"",U1&amp;","&amp;$A13&amp;","&amp;fig!U13)</f>
         <v/>
       </c>
-      <c r="V13" s="2" t="str">
-        <f>if(fig!V13=1,V1&amp;","&amp;$A13,"")</f>
+      <c r="V13" s="11" t="str">
+        <f>if(ISBLANK(fig!V13),"",V1&amp;","&amp;$A13&amp;","&amp;fig!V13)</f>
         <v/>
       </c>
-      <c r="W13" s="2" t="str">
-        <f>if(fig!W13=1,W1&amp;","&amp;$A13,"")</f>
+      <c r="W13" s="11" t="str">
+        <f>if(ISBLANK(fig!W13),"",W1&amp;","&amp;$A13&amp;","&amp;fig!W13)</f>
         <v/>
       </c>
-      <c r="X13" s="2" t="str">
-        <f>if(fig!X13=1,X1&amp;","&amp;$A13,"")</f>
+      <c r="X13" s="11" t="str">
+        <f>if(ISBLANK(fig!X13),"",X1&amp;","&amp;$A13&amp;","&amp;fig!X13)</f>
         <v/>
       </c>
-      <c r="Y13" s="2" t="str">
-        <f>if(fig!Y13=1,Y1&amp;","&amp;$A13,"")</f>
+      <c r="Y13" s="11" t="str">
+        <f>if(ISBLANK(fig!Y13),"",Y1&amp;","&amp;$A13&amp;","&amp;fig!Y13)</f>
         <v/>
       </c>
-      <c r="Z13" s="2" t="str">
-        <f>if(fig!Z13=1,Z1&amp;","&amp;$A13,"")</f>
+      <c r="Z13" s="11" t="str">
+        <f>if(ISBLANK(fig!Z13),"",Z1&amp;","&amp;$A13&amp;","&amp;fig!Z13)</f>
         <v/>
       </c>
-      <c r="AA13" s="2" t="str">
-        <f>if(fig!AA13=1,AA1&amp;","&amp;$A13,"")</f>
+      <c r="AA13" s="11" t="str">
+        <f>if(ISBLANK(fig!AA13),"",AA1&amp;","&amp;$A13&amp;","&amp;fig!AA13)</f>
         <v/>
       </c>
-      <c r="AB13" s="2" t="str">
-        <f>if(fig!AB13=1,AB1&amp;","&amp;$A13,"")</f>
+      <c r="AB13" s="11" t="str">
+        <f>if(ISBLANK(fig!AB13),"",AB1&amp;","&amp;$A13&amp;","&amp;fig!AB13)</f>
         <v/>
       </c>
-      <c r="AC13" s="2" t="str">
-        <f>if(fig!AC13=1,AC1&amp;","&amp;$A13,"")</f>
+      <c r="AC13" s="11" t="str">
+        <f>if(ISBLANK(fig!AC13),"",AC1&amp;","&amp;$A13&amp;","&amp;fig!AC13)</f>
         <v/>
       </c>
     </row>
@@ -33474,116 +33656,116 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="str">
-        <f>if(fig!B14=1,B1&amp;","&amp;$A14,"")</f>
+      <c r="B14" s="11" t="str">
+        <f>if(ISBLANK(fig!B14),"",B1&amp;","&amp;$A14&amp;","&amp;fig!B14)</f>
         <v/>
       </c>
-      <c r="C14" s="2" t="str">
-        <f>if(fig!C14=1,C1&amp;","&amp;$A14,"")</f>
+      <c r="C14" s="11" t="str">
+        <f>if(ISBLANK(fig!C14),"",C1&amp;","&amp;$A14&amp;","&amp;fig!C14)</f>
         <v/>
       </c>
-      <c r="D14" s="2" t="str">
-        <f>if(fig!D14=1,D1&amp;","&amp;$A14,"")</f>
+      <c r="D14" s="11" t="str">
+        <f>if(ISBLANK(fig!D14),"",D1&amp;","&amp;$A14&amp;","&amp;fig!D14)</f>
         <v/>
       </c>
-      <c r="E14" s="2" t="str">
-        <f>if(fig!E14=1,E1&amp;","&amp;$A14,"")</f>
+      <c r="E14" s="11" t="str">
+        <f>if(ISBLANK(fig!E14),"",E1&amp;","&amp;$A14&amp;","&amp;fig!E14)</f>
         <v/>
       </c>
-      <c r="F14" s="2" t="str">
-        <f>if(fig!F14=1,F1&amp;","&amp;$A14,"")</f>
+      <c r="F14" s="11" t="str">
+        <f>if(ISBLANK(fig!F14),"",F1&amp;","&amp;$A14&amp;","&amp;fig!F14)</f>
         <v/>
       </c>
-      <c r="G14" s="2" t="str">
-        <f>if(fig!G14=1,G1&amp;","&amp;$A14,"")</f>
+      <c r="G14" s="11" t="str">
+        <f>if(ISBLANK(fig!G14),"",G1&amp;","&amp;$A14&amp;","&amp;fig!G14)</f>
         <v/>
       </c>
-      <c r="H14" s="2" t="str">
-        <f>if(fig!H14=1,H1&amp;","&amp;$A14,"")</f>
+      <c r="H14" s="11" t="str">
+        <f>if(ISBLANK(fig!H14),"",H1&amp;","&amp;$A14&amp;","&amp;fig!H14)</f>
         <v/>
       </c>
-      <c r="I14" s="2" t="str">
-        <f>if(fig!I14=1,I1&amp;","&amp;$A14,"")</f>
+      <c r="I14" s="11" t="str">
+        <f>if(ISBLANK(fig!I14),"",I1&amp;","&amp;$A14&amp;","&amp;fig!I14)</f>
         <v/>
       </c>
-      <c r="J14" s="2" t="str">
-        <f>if(fig!J14=1,J1&amp;","&amp;$A14,"")</f>
+      <c r="J14" s="11" t="str">
+        <f>if(ISBLANK(fig!J14),"",J1&amp;","&amp;$A14&amp;","&amp;fig!J14)</f>
         <v/>
       </c>
-      <c r="K14" s="2" t="str">
-        <f>if(fig!K14=1,K1&amp;","&amp;$A14,"")</f>
+      <c r="K14" s="11" t="str">
+        <f>if(ISBLANK(fig!K14),"",K1&amp;","&amp;$A14&amp;","&amp;fig!K14)</f>
         <v/>
       </c>
-      <c r="L14" s="2" t="str">
-        <f>if(fig!L14=1,L1&amp;","&amp;$A14,"")</f>
+      <c r="L14" s="11" t="str">
+        <f>if(ISBLANK(fig!L14),"",L1&amp;","&amp;$A14&amp;","&amp;fig!L14)</f>
         <v/>
       </c>
-      <c r="M14" s="2" t="str">
-        <f>if(fig!M14=1,M1&amp;","&amp;$A14,"")</f>
+      <c r="M14" s="11" t="str">
+        <f>if(ISBLANK(fig!M14),"",M1&amp;","&amp;$A14&amp;","&amp;fig!M14)</f>
+        <v>-3,13,1</v>
+      </c>
+      <c r="N14" s="11" t="str">
+        <f>if(ISBLANK(fig!N14),"",N1&amp;","&amp;$A14&amp;","&amp;fig!N14)</f>
+        <v>-2,13,1</v>
+      </c>
+      <c r="O14" s="11" t="str">
+        <f>if(ISBLANK(fig!O14),"",O1&amp;","&amp;$A14&amp;","&amp;fig!O14)</f>
+        <v>-1,13,4</v>
+      </c>
+      <c r="P14" s="11" t="str">
+        <f>if(ISBLANK(fig!P14),"",P1&amp;","&amp;$A14&amp;","&amp;fig!P14)</f>
+        <v>0,13,4</v>
+      </c>
+      <c r="Q14" s="11" t="str">
+        <f>if(ISBLANK(fig!Q14),"",Q1&amp;","&amp;$A14&amp;","&amp;fig!Q14)</f>
+        <v>1,13,4</v>
+      </c>
+      <c r="R14" s="11" t="str">
+        <f>if(ISBLANK(fig!R14),"",R1&amp;","&amp;$A14&amp;","&amp;fig!R14)</f>
+        <v>2,13,4</v>
+      </c>
+      <c r="S14" s="11" t="str">
+        <f>if(ISBLANK(fig!S14),"",S1&amp;","&amp;$A14&amp;","&amp;fig!S14)</f>
+        <v>3,13,1</v>
+      </c>
+      <c r="T14" s="11" t="str">
+        <f>if(ISBLANK(fig!T14),"",T1&amp;","&amp;$A14&amp;","&amp;fig!T14)</f>
         <v/>
       </c>
-      <c r="N14" s="2" t="str">
-        <f>if(fig!N14=1,N1&amp;","&amp;$A14,"")</f>
-        <v>-2,13</v>
-      </c>
-      <c r="O14" s="2" t="str">
-        <f>if(fig!O14=1,O1&amp;","&amp;$A14,"")</f>
-        <v>-1,13</v>
-      </c>
-      <c r="P14" s="2" t="str">
-        <f>if(fig!P14=1,P1&amp;","&amp;$A14,"")</f>
-        <v>0,13</v>
-      </c>
-      <c r="Q14" s="2" t="str">
-        <f>if(fig!Q14=1,Q1&amp;","&amp;$A14,"")</f>
-        <v>1,13</v>
-      </c>
-      <c r="R14" s="2" t="str">
-        <f>if(fig!R14=1,R1&amp;","&amp;$A14,"")</f>
-        <v>2,13</v>
-      </c>
-      <c r="S14" s="2" t="str">
-        <f>if(fig!S14=1,S1&amp;","&amp;$A14,"")</f>
+      <c r="U14" s="11" t="str">
+        <f>if(ISBLANK(fig!U14),"",U1&amp;","&amp;$A14&amp;","&amp;fig!U14)</f>
         <v/>
       </c>
-      <c r="T14" s="2" t="str">
-        <f>if(fig!T14=1,T1&amp;","&amp;$A14,"")</f>
+      <c r="V14" s="11" t="str">
+        <f>if(ISBLANK(fig!V14),"",V1&amp;","&amp;$A14&amp;","&amp;fig!V14)</f>
         <v/>
       </c>
-      <c r="U14" s="2" t="str">
-        <f>if(fig!U14=1,U1&amp;","&amp;$A14,"")</f>
+      <c r="W14" s="11" t="str">
+        <f>if(ISBLANK(fig!W14),"",W1&amp;","&amp;$A14&amp;","&amp;fig!W14)</f>
         <v/>
       </c>
-      <c r="V14" s="2" t="str">
-        <f>if(fig!V14=1,V1&amp;","&amp;$A14,"")</f>
+      <c r="X14" s="11" t="str">
+        <f>if(ISBLANK(fig!X14),"",X1&amp;","&amp;$A14&amp;","&amp;fig!X14)</f>
         <v/>
       </c>
-      <c r="W14" s="2" t="str">
-        <f>if(fig!W14=1,W1&amp;","&amp;$A14,"")</f>
+      <c r="Y14" s="11" t="str">
+        <f>if(ISBLANK(fig!Y14),"",Y1&amp;","&amp;$A14&amp;","&amp;fig!Y14)</f>
         <v/>
       </c>
-      <c r="X14" s="2" t="str">
-        <f>if(fig!X14=1,X1&amp;","&amp;$A14,"")</f>
+      <c r="Z14" s="11" t="str">
+        <f>if(ISBLANK(fig!Z14),"",Z1&amp;","&amp;$A14&amp;","&amp;fig!Z14)</f>
         <v/>
       </c>
-      <c r="Y14" s="2" t="str">
-        <f>if(fig!Y14=1,Y1&amp;","&amp;$A14,"")</f>
+      <c r="AA14" s="11" t="str">
+        <f>if(ISBLANK(fig!AA14),"",AA1&amp;","&amp;$A14&amp;","&amp;fig!AA14)</f>
         <v/>
       </c>
-      <c r="Z14" s="2" t="str">
-        <f>if(fig!Z14=1,Z1&amp;","&amp;$A14,"")</f>
+      <c r="AB14" s="11" t="str">
+        <f>if(ISBLANK(fig!AB14),"",AB1&amp;","&amp;$A14&amp;","&amp;fig!AB14)</f>
         <v/>
       </c>
-      <c r="AA14" s="2" t="str">
-        <f>if(fig!AA14=1,AA1&amp;","&amp;$A14,"")</f>
-        <v/>
-      </c>
-      <c r="AB14" s="2" t="str">
-        <f>if(fig!AB14=1,AB1&amp;","&amp;$A14,"")</f>
-        <v/>
-      </c>
-      <c r="AC14" s="2" t="str">
-        <f>if(fig!AC14=1,AC1&amp;","&amp;$A14,"")</f>
+      <c r="AC14" s="11" t="str">
+        <f>if(ISBLANK(fig!AC14),"",AC1&amp;","&amp;$A14&amp;","&amp;fig!AC14)</f>
         <v/>
       </c>
     </row>
@@ -33592,116 +33774,116 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B15" s="2" t="str">
-        <f>if(fig!B15=1,B1&amp;","&amp;$A15,"")</f>
+      <c r="B15" s="11" t="str">
+        <f>if(ISBLANK(fig!B15),"",B1&amp;","&amp;$A15&amp;","&amp;fig!B15)</f>
         <v/>
       </c>
-      <c r="C15" s="2" t="str">
-        <f>if(fig!C15=1,C1&amp;","&amp;$A15,"")</f>
+      <c r="C15" s="11" t="str">
+        <f>if(ISBLANK(fig!C15),"",C1&amp;","&amp;$A15&amp;","&amp;fig!C15)</f>
         <v/>
       </c>
-      <c r="D15" s="2" t="str">
-        <f>if(fig!D15=1,D1&amp;","&amp;$A15,"")</f>
+      <c r="D15" s="11" t="str">
+        <f>if(ISBLANK(fig!D15),"",D1&amp;","&amp;$A15&amp;","&amp;fig!D15)</f>
         <v/>
       </c>
-      <c r="E15" s="2" t="str">
-        <f>if(fig!E15=1,E1&amp;","&amp;$A15,"")</f>
+      <c r="E15" s="11" t="str">
+        <f>if(ISBLANK(fig!E15),"",E1&amp;","&amp;$A15&amp;","&amp;fig!E15)</f>
         <v/>
       </c>
-      <c r="F15" s="2" t="str">
-        <f>if(fig!F15=1,F1&amp;","&amp;$A15,"")</f>
+      <c r="F15" s="11" t="str">
+        <f>if(ISBLANK(fig!F15),"",F1&amp;","&amp;$A15&amp;","&amp;fig!F15)</f>
         <v/>
       </c>
-      <c r="G15" s="2" t="str">
-        <f>if(fig!G15=1,G1&amp;","&amp;$A15,"")</f>
+      <c r="G15" s="11" t="str">
+        <f>if(ISBLANK(fig!G15),"",G1&amp;","&amp;$A15&amp;","&amp;fig!G15)</f>
         <v/>
       </c>
-      <c r="H15" s="2" t="str">
-        <f>if(fig!H15=1,H1&amp;","&amp;$A15,"")</f>
+      <c r="H15" s="11" t="str">
+        <f>if(ISBLANK(fig!H15),"",H1&amp;","&amp;$A15&amp;","&amp;fig!H15)</f>
+        <v>-8,12,1</v>
+      </c>
+      <c r="I15" s="11" t="str">
+        <f>if(ISBLANK(fig!I15),"",I1&amp;","&amp;$A15&amp;","&amp;fig!I15)</f>
+        <v>-7,12,1</v>
+      </c>
+      <c r="J15" s="11" t="str">
+        <f>if(ISBLANK(fig!J15),"",J1&amp;","&amp;$A15&amp;","&amp;fig!J15)</f>
+        <v>-6,12,1</v>
+      </c>
+      <c r="K15" s="11" t="str">
+        <f>if(ISBLANK(fig!K15),"",K1&amp;","&amp;$A15&amp;","&amp;fig!K15)</f>
+        <v>-5,12,1</v>
+      </c>
+      <c r="L15" s="11" t="str">
+        <f>if(ISBLANK(fig!L15),"",L1&amp;","&amp;$A15&amp;","&amp;fig!L15)</f>
+        <v>-4,12,1</v>
+      </c>
+      <c r="M15" s="11" t="str">
+        <f>if(ISBLANK(fig!M15),"",M1&amp;","&amp;$A15&amp;","&amp;fig!M15)</f>
+        <v>-3,12,1</v>
+      </c>
+      <c r="N15" s="11" t="str">
+        <f>if(ISBLANK(fig!N15),"",N1&amp;","&amp;$A15&amp;","&amp;fig!N15)</f>
+        <v>-2,12,4</v>
+      </c>
+      <c r="O15" s="11" t="str">
+        <f>if(ISBLANK(fig!O15),"",O1&amp;","&amp;$A15&amp;","&amp;fig!O15)</f>
+        <v>-1,12,4</v>
+      </c>
+      <c r="P15" s="11" t="str">
+        <f>if(ISBLANK(fig!P15),"",P1&amp;","&amp;$A15&amp;","&amp;fig!P15)</f>
+        <v>0,12,4</v>
+      </c>
+      <c r="Q15" s="11" t="str">
+        <f>if(ISBLANK(fig!Q15),"",Q1&amp;","&amp;$A15&amp;","&amp;fig!Q15)</f>
+        <v>1,12,4</v>
+      </c>
+      <c r="R15" s="11" t="str">
+        <f>if(ISBLANK(fig!R15),"",R1&amp;","&amp;$A15&amp;","&amp;fig!R15)</f>
+        <v>2,12,4</v>
+      </c>
+      <c r="S15" s="11" t="str">
+        <f>if(ISBLANK(fig!S15),"",S1&amp;","&amp;$A15&amp;","&amp;fig!S15)</f>
+        <v>3,12,1</v>
+      </c>
+      <c r="T15" s="11" t="str">
+        <f>if(ISBLANK(fig!T15),"",T1&amp;","&amp;$A15&amp;","&amp;fig!T15)</f>
+        <v>4,12,1</v>
+      </c>
+      <c r="U15" s="11" t="str">
+        <f>if(ISBLANK(fig!U15),"",U1&amp;","&amp;$A15&amp;","&amp;fig!U15)</f>
+        <v>5,12,1</v>
+      </c>
+      <c r="V15" s="11" t="str">
+        <f>if(ISBLANK(fig!V15),"",V1&amp;","&amp;$A15&amp;","&amp;fig!V15)</f>
+        <v>6,12,1</v>
+      </c>
+      <c r="W15" s="11" t="str">
+        <f>if(ISBLANK(fig!W15),"",W1&amp;","&amp;$A15&amp;","&amp;fig!W15)</f>
+        <v>7,12,1</v>
+      </c>
+      <c r="X15" s="11" t="str">
+        <f>if(ISBLANK(fig!X15),"",X1&amp;","&amp;$A15&amp;","&amp;fig!X15)</f>
+        <v>8,12,1</v>
+      </c>
+      <c r="Y15" s="11" t="str">
+        <f>if(ISBLANK(fig!Y15),"",Y1&amp;","&amp;$A15&amp;","&amp;fig!Y15)</f>
         <v/>
       </c>
-      <c r="I15" s="2" t="str">
-        <f>if(fig!I15=1,I1&amp;","&amp;$A15,"")</f>
+      <c r="Z15" s="11" t="str">
+        <f>if(ISBLANK(fig!Z15),"",Z1&amp;","&amp;$A15&amp;","&amp;fig!Z15)</f>
         <v/>
       </c>
-      <c r="J15" s="2" t="str">
-        <f>if(fig!J15=1,J1&amp;","&amp;$A15,"")</f>
+      <c r="AA15" s="11" t="str">
+        <f>if(ISBLANK(fig!AA15),"",AA1&amp;","&amp;$A15&amp;","&amp;fig!AA15)</f>
         <v/>
       </c>
-      <c r="K15" s="2" t="str">
-        <f>if(fig!K15=1,K1&amp;","&amp;$A15,"")</f>
+      <c r="AB15" s="11" t="str">
+        <f>if(ISBLANK(fig!AB15),"",AB1&amp;","&amp;$A15&amp;","&amp;fig!AB15)</f>
         <v/>
       </c>
-      <c r="L15" s="2" t="str">
-        <f>if(fig!L15=1,L1&amp;","&amp;$A15,"")</f>
-        <v/>
-      </c>
-      <c r="M15" s="2" t="str">
-        <f>if(fig!M15=1,M1&amp;","&amp;$A15,"")</f>
-        <v>-3,12</v>
-      </c>
-      <c r="N15" s="2" t="str">
-        <f>if(fig!N15=1,N1&amp;","&amp;$A15,"")</f>
-        <v>-2,12</v>
-      </c>
-      <c r="O15" s="2" t="str">
-        <f>if(fig!O15=1,O1&amp;","&amp;$A15,"")</f>
-        <v>-1,12</v>
-      </c>
-      <c r="P15" s="2" t="str">
-        <f>if(fig!P15=1,P1&amp;","&amp;$A15,"")</f>
-        <v>0,12</v>
-      </c>
-      <c r="Q15" s="2" t="str">
-        <f>if(fig!Q15=1,Q1&amp;","&amp;$A15,"")</f>
-        <v>1,12</v>
-      </c>
-      <c r="R15" s="2" t="str">
-        <f>if(fig!R15=1,R1&amp;","&amp;$A15,"")</f>
-        <v>2,12</v>
-      </c>
-      <c r="S15" s="2" t="str">
-        <f>if(fig!S15=1,S1&amp;","&amp;$A15,"")</f>
-        <v>3,12</v>
-      </c>
-      <c r="T15" s="2" t="str">
-        <f>if(fig!T15=1,T1&amp;","&amp;$A15,"")</f>
-        <v/>
-      </c>
-      <c r="U15" s="2" t="str">
-        <f>if(fig!U15=1,U1&amp;","&amp;$A15,"")</f>
-        <v/>
-      </c>
-      <c r="V15" s="2" t="str">
-        <f>if(fig!V15=1,V1&amp;","&amp;$A15,"")</f>
-        <v/>
-      </c>
-      <c r="W15" s="2" t="str">
-        <f>if(fig!W15=1,W1&amp;","&amp;$A15,"")</f>
-        <v/>
-      </c>
-      <c r="X15" s="2" t="str">
-        <f>if(fig!X15=1,X1&amp;","&amp;$A15,"")</f>
-        <v/>
-      </c>
-      <c r="Y15" s="2" t="str">
-        <f>if(fig!Y15=1,Y1&amp;","&amp;$A15,"")</f>
-        <v/>
-      </c>
-      <c r="Z15" s="2" t="str">
-        <f>if(fig!Z15=1,Z1&amp;","&amp;$A15,"")</f>
-        <v/>
-      </c>
-      <c r="AA15" s="2" t="str">
-        <f>if(fig!AA15=1,AA1&amp;","&amp;$A15,"")</f>
-        <v/>
-      </c>
-      <c r="AB15" s="2" t="str">
-        <f>if(fig!AB15=1,AB1&amp;","&amp;$A15,"")</f>
-        <v/>
-      </c>
-      <c r="AC15" s="2" t="str">
-        <f>if(fig!AC15=1,AC1&amp;","&amp;$A15,"")</f>
+      <c r="AC15" s="11" t="str">
+        <f>if(ISBLANK(fig!AC15),"",AC1&amp;","&amp;$A15&amp;","&amp;fig!AC15)</f>
         <v/>
       </c>
     </row>
@@ -33710,116 +33892,116 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B16" s="2" t="str">
-        <f>if(fig!B16=1,B1&amp;","&amp;$A16,"")</f>
+      <c r="B16" s="11" t="str">
+        <f>if(ISBLANK(fig!B16),"",B1&amp;","&amp;$A16&amp;","&amp;fig!B16)</f>
         <v/>
       </c>
-      <c r="C16" s="2" t="str">
-        <f>if(fig!C16=1,C1&amp;","&amp;$A16,"")</f>
+      <c r="C16" s="11" t="str">
+        <f>if(ISBLANK(fig!C16),"",C1&amp;","&amp;$A16&amp;","&amp;fig!C16)</f>
         <v/>
       </c>
-      <c r="D16" s="2" t="str">
-        <f>if(fig!D16=1,D1&amp;","&amp;$A16,"")</f>
+      <c r="D16" s="11" t="str">
+        <f>if(ISBLANK(fig!D16),"",D1&amp;","&amp;$A16&amp;","&amp;fig!D16)</f>
         <v/>
       </c>
-      <c r="E16" s="2" t="str">
-        <f>if(fig!E16=1,E1&amp;","&amp;$A16,"")</f>
+      <c r="E16" s="11" t="str">
+        <f>if(ISBLANK(fig!E16),"",E1&amp;","&amp;$A16&amp;","&amp;fig!E16)</f>
         <v/>
       </c>
-      <c r="F16" s="2" t="str">
-        <f>if(fig!F16=1,F1&amp;","&amp;$A16,"")</f>
+      <c r="F16" s="11" t="str">
+        <f>if(ISBLANK(fig!F16),"",F1&amp;","&amp;$A16&amp;","&amp;fig!F16)</f>
         <v/>
       </c>
-      <c r="G16" s="2" t="str">
-        <f>if(fig!G16=1,G1&amp;","&amp;$A16,"")</f>
+      <c r="G16" s="11" t="str">
+        <f>if(ISBLANK(fig!G16),"",G1&amp;","&amp;$A16&amp;","&amp;fig!G16)</f>
         <v/>
       </c>
-      <c r="H16" s="2" t="str">
-        <f>if(fig!H16=1,H1&amp;","&amp;$A16,"")</f>
-        <v>-8,11</v>
-      </c>
-      <c r="I16" s="2" t="str">
-        <f>if(fig!I16=1,I1&amp;","&amp;$A16,"")</f>
-        <v>-7,11</v>
-      </c>
-      <c r="J16" s="2" t="str">
-        <f>if(fig!J16=1,J1&amp;","&amp;$A16,"")</f>
-        <v>-6,11</v>
-      </c>
-      <c r="K16" s="2" t="str">
-        <f>if(fig!K16=1,K1&amp;","&amp;$A16,"")</f>
-        <v>-5,11</v>
-      </c>
-      <c r="L16" s="2" t="str">
-        <f>if(fig!L16=1,L1&amp;","&amp;$A16,"")</f>
-        <v>-4,11</v>
-      </c>
-      <c r="M16" s="2" t="str">
-        <f>if(fig!M16=1,M1&amp;","&amp;$A16,"")</f>
-        <v>-3,11</v>
-      </c>
-      <c r="N16" s="2" t="str">
-        <f>if(fig!N16=1,N1&amp;","&amp;$A16,"")</f>
-        <v>-2,11</v>
-      </c>
-      <c r="O16" s="2" t="str">
-        <f>if(fig!O16=1,O1&amp;","&amp;$A16,"")</f>
-        <v>-1,11</v>
-      </c>
-      <c r="P16" s="2" t="str">
-        <f>if(fig!P16=1,P1&amp;","&amp;$A16,"")</f>
-        <v>0,11</v>
-      </c>
-      <c r="Q16" s="2" t="str">
-        <f>if(fig!Q16=1,Q1&amp;","&amp;$A16,"")</f>
-        <v>1,11</v>
-      </c>
-      <c r="R16" s="2" t="str">
-        <f>if(fig!R16=1,R1&amp;","&amp;$A16,"")</f>
-        <v>2,11</v>
-      </c>
-      <c r="S16" s="2" t="str">
-        <f>if(fig!S16=1,S1&amp;","&amp;$A16,"")</f>
-        <v>3,11</v>
-      </c>
-      <c r="T16" s="2" t="str">
-        <f>if(fig!T16=1,T1&amp;","&amp;$A16,"")</f>
-        <v>4,11</v>
-      </c>
-      <c r="U16" s="2" t="str">
-        <f>if(fig!U16=1,U1&amp;","&amp;$A16,"")</f>
-        <v>5,11</v>
-      </c>
-      <c r="V16" s="2" t="str">
-        <f>if(fig!V16=1,V1&amp;","&amp;$A16,"")</f>
-        <v>6,11</v>
-      </c>
-      <c r="W16" s="2" t="str">
-        <f>if(fig!W16=1,W1&amp;","&amp;$A16,"")</f>
-        <v>7,11</v>
-      </c>
-      <c r="X16" s="2" t="str">
-        <f>if(fig!X16=1,X1&amp;","&amp;$A16,"")</f>
-        <v>8,11</v>
-      </c>
-      <c r="Y16" s="2" t="str">
-        <f>if(fig!Y16=1,Y1&amp;","&amp;$A16,"")</f>
+      <c r="H16" s="11" t="str">
+        <f>if(ISBLANK(fig!H16),"",H1&amp;","&amp;$A16&amp;","&amp;fig!H16)</f>
         <v/>
       </c>
-      <c r="Z16" s="2" t="str">
-        <f>if(fig!Z16=1,Z1&amp;","&amp;$A16,"")</f>
+      <c r="I16" s="11" t="str">
+        <f>if(ISBLANK(fig!I16),"",I1&amp;","&amp;$A16&amp;","&amp;fig!I16)</f>
+        <v>-7,11,1</v>
+      </c>
+      <c r="J16" s="11" t="str">
+        <f>if(ISBLANK(fig!J16),"",J1&amp;","&amp;$A16&amp;","&amp;fig!J16)</f>
+        <v>-6,11,4</v>
+      </c>
+      <c r="K16" s="11" t="str">
+        <f>if(ISBLANK(fig!K16),"",K1&amp;","&amp;$A16&amp;","&amp;fig!K16)</f>
+        <v>-5,11,4</v>
+      </c>
+      <c r="L16" s="11" t="str">
+        <f>if(ISBLANK(fig!L16),"",L1&amp;","&amp;$A16&amp;","&amp;fig!L16)</f>
+        <v>-4,11,4</v>
+      </c>
+      <c r="M16" s="11" t="str">
+        <f>if(ISBLANK(fig!M16),"",M1&amp;","&amp;$A16&amp;","&amp;fig!M16)</f>
+        <v>-3,11,4</v>
+      </c>
+      <c r="N16" s="11" t="str">
+        <f>if(ISBLANK(fig!N16),"",N1&amp;","&amp;$A16&amp;","&amp;fig!N16)</f>
+        <v>-2,11,7</v>
+      </c>
+      <c r="O16" s="11" t="str">
+        <f>if(ISBLANK(fig!O16),"",O1&amp;","&amp;$A16&amp;","&amp;fig!O16)</f>
+        <v>-1,11,4</v>
+      </c>
+      <c r="P16" s="11" t="str">
+        <f>if(ISBLANK(fig!P16),"",P1&amp;","&amp;$A16&amp;","&amp;fig!P16)</f>
+        <v>0,11,4</v>
+      </c>
+      <c r="Q16" s="11" t="str">
+        <f>if(ISBLANK(fig!Q16),"",Q1&amp;","&amp;$A16&amp;","&amp;fig!Q16)</f>
+        <v>1,11,4</v>
+      </c>
+      <c r="R16" s="11" t="str">
+        <f>if(ISBLANK(fig!R16),"",R1&amp;","&amp;$A16&amp;","&amp;fig!R16)</f>
+        <v>2,11,7</v>
+      </c>
+      <c r="S16" s="11" t="str">
+        <f>if(ISBLANK(fig!S16),"",S1&amp;","&amp;$A16&amp;","&amp;fig!S16)</f>
+        <v>3,11,4</v>
+      </c>
+      <c r="T16" s="11" t="str">
+        <f>if(ISBLANK(fig!T16),"",T1&amp;","&amp;$A16&amp;","&amp;fig!T16)</f>
+        <v>4,11,4</v>
+      </c>
+      <c r="U16" s="11" t="str">
+        <f>if(ISBLANK(fig!U16),"",U1&amp;","&amp;$A16&amp;","&amp;fig!U16)</f>
+        <v>5,11,4</v>
+      </c>
+      <c r="V16" s="11" t="str">
+        <f>if(ISBLANK(fig!V16),"",V1&amp;","&amp;$A16&amp;","&amp;fig!V16)</f>
+        <v>6,11,4</v>
+      </c>
+      <c r="W16" s="11" t="str">
+        <f>if(ISBLANK(fig!W16),"",W1&amp;","&amp;$A16&amp;","&amp;fig!W16)</f>
+        <v>7,11,1</v>
+      </c>
+      <c r="X16" s="11" t="str">
+        <f>if(ISBLANK(fig!X16),"",X1&amp;","&amp;$A16&amp;","&amp;fig!X16)</f>
         <v/>
       </c>
-      <c r="AA16" s="2" t="str">
-        <f>if(fig!AA16=1,AA1&amp;","&amp;$A16,"")</f>
+      <c r="Y16" s="11" t="str">
+        <f>if(ISBLANK(fig!Y16),"",Y1&amp;","&amp;$A16&amp;","&amp;fig!Y16)</f>
         <v/>
       </c>
-      <c r="AB16" s="2" t="str">
-        <f>if(fig!AB16=1,AB1&amp;","&amp;$A16,"")</f>
+      <c r="Z16" s="11" t="str">
+        <f>if(ISBLANK(fig!Z16),"",Z1&amp;","&amp;$A16&amp;","&amp;fig!Z16)</f>
         <v/>
       </c>
-      <c r="AC16" s="2" t="str">
-        <f>if(fig!AC16=1,AC1&amp;","&amp;$A16,"")</f>
+      <c r="AA16" s="11" t="str">
+        <f>if(ISBLANK(fig!AA16),"",AA1&amp;","&amp;$A16&amp;","&amp;fig!AA16)</f>
+        <v/>
+      </c>
+      <c r="AB16" s="11" t="str">
+        <f>if(ISBLANK(fig!AB16),"",AB1&amp;","&amp;$A16&amp;","&amp;fig!AB16)</f>
+        <v/>
+      </c>
+      <c r="AC16" s="11" t="str">
+        <f>if(ISBLANK(fig!AC16),"",AC1&amp;","&amp;$A16&amp;","&amp;fig!AC16)</f>
         <v/>
       </c>
     </row>
@@ -33828,116 +34010,116 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B17" s="2" t="str">
-        <f>if(fig!B17=1,B1&amp;","&amp;$A17,"")</f>
+      <c r="B17" s="11" t="str">
+        <f>if(ISBLANK(fig!B17),"",B1&amp;","&amp;$A17&amp;","&amp;fig!B17)</f>
         <v/>
       </c>
-      <c r="C17" s="2" t="str">
-        <f>if(fig!C17=1,C1&amp;","&amp;$A17,"")</f>
+      <c r="C17" s="11" t="str">
+        <f>if(ISBLANK(fig!C17),"",C1&amp;","&amp;$A17&amp;","&amp;fig!C17)</f>
         <v/>
       </c>
-      <c r="D17" s="2" t="str">
-        <f>if(fig!D17=1,D1&amp;","&amp;$A17,"")</f>
+      <c r="D17" s="11" t="str">
+        <f>if(ISBLANK(fig!D17),"",D1&amp;","&amp;$A17&amp;","&amp;fig!D17)</f>
         <v/>
       </c>
-      <c r="E17" s="2" t="str">
-        <f>if(fig!E17=1,E1&amp;","&amp;$A17,"")</f>
+      <c r="E17" s="11" t="str">
+        <f>if(ISBLANK(fig!E17),"",E1&amp;","&amp;$A17&amp;","&amp;fig!E17)</f>
         <v/>
       </c>
-      <c r="F17" s="2" t="str">
-        <f>if(fig!F17=1,F1&amp;","&amp;$A17,"")</f>
+      <c r="F17" s="11" t="str">
+        <f>if(ISBLANK(fig!F17),"",F1&amp;","&amp;$A17&amp;","&amp;fig!F17)</f>
         <v/>
       </c>
-      <c r="G17" s="2" t="str">
-        <f>if(fig!G17=1,G1&amp;","&amp;$A17,"")</f>
+      <c r="G17" s="11" t="str">
+        <f>if(ISBLANK(fig!G17),"",G1&amp;","&amp;$A17&amp;","&amp;fig!G17)</f>
         <v/>
       </c>
-      <c r="H17" s="2" t="str">
-        <f>if(fig!H17=1,H1&amp;","&amp;$A17,"")</f>
+      <c r="H17" s="11" t="str">
+        <f>if(ISBLANK(fig!H17),"",H1&amp;","&amp;$A17&amp;","&amp;fig!H17)</f>
         <v/>
       </c>
-      <c r="I17" s="2" t="str">
-        <f>if(fig!I17=1,I1&amp;","&amp;$A17,"")</f>
-        <v>-7,10</v>
-      </c>
-      <c r="J17" s="2" t="str">
-        <f>if(fig!J17=1,J1&amp;","&amp;$A17,"")</f>
-        <v>-6,10</v>
-      </c>
-      <c r="K17" s="2" t="str">
-        <f>if(fig!K17=1,K1&amp;","&amp;$A17,"")</f>
-        <v>-5,10</v>
-      </c>
-      <c r="L17" s="2" t="str">
-        <f>if(fig!L17=1,L1&amp;","&amp;$A17,"")</f>
-        <v>-4,10</v>
-      </c>
-      <c r="M17" s="2" t="str">
-        <f>if(fig!M17=1,M1&amp;","&amp;$A17,"")</f>
-        <v>-3,10</v>
-      </c>
-      <c r="N17" s="2" t="str">
-        <f>if(fig!N17=1,N1&amp;","&amp;$A17,"")</f>
+      <c r="I17" s="11" t="str">
+        <f>if(ISBLANK(fig!I17),"",I1&amp;","&amp;$A17&amp;","&amp;fig!I17)</f>
         <v/>
       </c>
-      <c r="O17" s="2" t="str">
-        <f>if(fig!O17=1,O1&amp;","&amp;$A17,"")</f>
-        <v>-1,10</v>
-      </c>
-      <c r="P17" s="2" t="str">
-        <f>if(fig!P17=1,P1&amp;","&amp;$A17,"")</f>
-        <v>0,10</v>
-      </c>
-      <c r="Q17" s="2" t="str">
-        <f>if(fig!Q17=1,Q1&amp;","&amp;$A17,"")</f>
-        <v>1,10</v>
-      </c>
-      <c r="R17" s="2" t="str">
-        <f>if(fig!R17=1,R1&amp;","&amp;$A17,"")</f>
+      <c r="J17" s="11" t="str">
+        <f>if(ISBLANK(fig!J17),"",J1&amp;","&amp;$A17&amp;","&amp;fig!J17)</f>
+        <v>-6,10,1</v>
+      </c>
+      <c r="K17" s="11" t="str">
+        <f>if(ISBLANK(fig!K17),"",K1&amp;","&amp;$A17&amp;","&amp;fig!K17)</f>
+        <v>-5,10,4</v>
+      </c>
+      <c r="L17" s="11" t="str">
+        <f>if(ISBLANK(fig!L17),"",L1&amp;","&amp;$A17&amp;","&amp;fig!L17)</f>
+        <v>-4,10,4</v>
+      </c>
+      <c r="M17" s="11" t="str">
+        <f>if(ISBLANK(fig!M17),"",M1&amp;","&amp;$A17&amp;","&amp;fig!M17)</f>
+        <v>-3,10,4</v>
+      </c>
+      <c r="N17" s="11" t="str">
+        <f>if(ISBLANK(fig!N17),"",N1&amp;","&amp;$A17&amp;","&amp;fig!N17)</f>
+        <v>-2,10,7</v>
+      </c>
+      <c r="O17" s="11" t="str">
+        <f>if(ISBLANK(fig!O17),"",O1&amp;","&amp;$A17&amp;","&amp;fig!O17)</f>
+        <v>-1,10,4</v>
+      </c>
+      <c r="P17" s="11" t="str">
+        <f>if(ISBLANK(fig!P17),"",P1&amp;","&amp;$A17&amp;","&amp;fig!P17)</f>
+        <v>0,10,4</v>
+      </c>
+      <c r="Q17" s="11" t="str">
+        <f>if(ISBLANK(fig!Q17),"",Q1&amp;","&amp;$A17&amp;","&amp;fig!Q17)</f>
+        <v>1,10,4</v>
+      </c>
+      <c r="R17" s="11" t="str">
+        <f>if(ISBLANK(fig!R17),"",R1&amp;","&amp;$A17&amp;","&amp;fig!R17)</f>
+        <v>2,10,7</v>
+      </c>
+      <c r="S17" s="11" t="str">
+        <f>if(ISBLANK(fig!S17),"",S1&amp;","&amp;$A17&amp;","&amp;fig!S17)</f>
+        <v>3,10,4</v>
+      </c>
+      <c r="T17" s="11" t="str">
+        <f>if(ISBLANK(fig!T17),"",T1&amp;","&amp;$A17&amp;","&amp;fig!T17)</f>
+        <v>4,10,4</v>
+      </c>
+      <c r="U17" s="11" t="str">
+        <f>if(ISBLANK(fig!U17),"",U1&amp;","&amp;$A17&amp;","&amp;fig!U17)</f>
+        <v>5,10,4</v>
+      </c>
+      <c r="V17" s="11" t="str">
+        <f>if(ISBLANK(fig!V17),"",V1&amp;","&amp;$A17&amp;","&amp;fig!V17)</f>
+        <v>6,10,1</v>
+      </c>
+      <c r="W17" s="11" t="str">
+        <f>if(ISBLANK(fig!W17),"",W1&amp;","&amp;$A17&amp;","&amp;fig!W17)</f>
         <v/>
       </c>
-      <c r="S17" s="2" t="str">
-        <f>if(fig!S17=1,S1&amp;","&amp;$A17,"")</f>
-        <v>3,10</v>
-      </c>
-      <c r="T17" s="2" t="str">
-        <f>if(fig!T17=1,T1&amp;","&amp;$A17,"")</f>
-        <v>4,10</v>
-      </c>
-      <c r="U17" s="2" t="str">
-        <f>if(fig!U17=1,U1&amp;","&amp;$A17,"")</f>
-        <v>5,10</v>
-      </c>
-      <c r="V17" s="2" t="str">
-        <f>if(fig!V17=1,V1&amp;","&amp;$A17,"")</f>
-        <v>6,10</v>
-      </c>
-      <c r="W17" s="2" t="str">
-        <f>if(fig!W17=1,W1&amp;","&amp;$A17,"")</f>
-        <v>7,10</v>
-      </c>
-      <c r="X17" s="2" t="str">
-        <f>if(fig!X17=1,X1&amp;","&amp;$A17,"")</f>
+      <c r="X17" s="11" t="str">
+        <f>if(ISBLANK(fig!X17),"",X1&amp;","&amp;$A17&amp;","&amp;fig!X17)</f>
         <v/>
       </c>
-      <c r="Y17" s="2" t="str">
-        <f>if(fig!Y17=1,Y1&amp;","&amp;$A17,"")</f>
+      <c r="Y17" s="11" t="str">
+        <f>if(ISBLANK(fig!Y17),"",Y1&amp;","&amp;$A17&amp;","&amp;fig!Y17)</f>
         <v/>
       </c>
-      <c r="Z17" s="2" t="str">
-        <f>if(fig!Z17=1,Z1&amp;","&amp;$A17,"")</f>
+      <c r="Z17" s="11" t="str">
+        <f>if(ISBLANK(fig!Z17),"",Z1&amp;","&amp;$A17&amp;","&amp;fig!Z17)</f>
         <v/>
       </c>
-      <c r="AA17" s="2" t="str">
-        <f>if(fig!AA17=1,AA1&amp;","&amp;$A17,"")</f>
+      <c r="AA17" s="11" t="str">
+        <f>if(ISBLANK(fig!AA17),"",AA1&amp;","&amp;$A17&amp;","&amp;fig!AA17)</f>
         <v/>
       </c>
-      <c r="AB17" s="2" t="str">
-        <f>if(fig!AB17=1,AB1&amp;","&amp;$A17,"")</f>
+      <c r="AB17" s="11" t="str">
+        <f>if(ISBLANK(fig!AB17),"",AB1&amp;","&amp;$A17&amp;","&amp;fig!AB17)</f>
         <v/>
       </c>
-      <c r="AC17" s="2" t="str">
-        <f>if(fig!AC17=1,AC1&amp;","&amp;$A17,"")</f>
+      <c r="AC17" s="11" t="str">
+        <f>if(ISBLANK(fig!AC17),"",AC1&amp;","&amp;$A17&amp;","&amp;fig!AC17)</f>
         <v/>
       </c>
     </row>
@@ -33946,116 +34128,116 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B18" s="2" t="str">
-        <f>if(fig!B18=1,B1&amp;","&amp;$A18,"")</f>
+      <c r="B18" s="11" t="str">
+        <f>if(ISBLANK(fig!B18),"",B1&amp;","&amp;$A18&amp;","&amp;fig!B18)</f>
         <v/>
       </c>
-      <c r="C18" s="2" t="str">
-        <f>if(fig!C18=1,C1&amp;","&amp;$A18,"")</f>
+      <c r="C18" s="11" t="str">
+        <f>if(ISBLANK(fig!C18),"",C1&amp;","&amp;$A18&amp;","&amp;fig!C18)</f>
         <v/>
       </c>
-      <c r="D18" s="2" t="str">
-        <f>if(fig!D18=1,D1&amp;","&amp;$A18,"")</f>
+      <c r="D18" s="11" t="str">
+        <f>if(ISBLANK(fig!D18),"",D1&amp;","&amp;$A18&amp;","&amp;fig!D18)</f>
         <v/>
       </c>
-      <c r="E18" s="2" t="str">
-        <f>if(fig!E18=1,E1&amp;","&amp;$A18,"")</f>
+      <c r="E18" s="11" t="str">
+        <f>if(ISBLANK(fig!E18),"",E1&amp;","&amp;$A18&amp;","&amp;fig!E18)</f>
         <v/>
       </c>
-      <c r="F18" s="2" t="str">
-        <f>if(fig!F18=1,F1&amp;","&amp;$A18,"")</f>
+      <c r="F18" s="11" t="str">
+        <f>if(ISBLANK(fig!F18),"",F1&amp;","&amp;$A18&amp;","&amp;fig!F18)</f>
         <v/>
       </c>
-      <c r="G18" s="2" t="str">
-        <f>if(fig!G18=1,G1&amp;","&amp;$A18,"")</f>
+      <c r="G18" s="11" t="str">
+        <f>if(ISBLANK(fig!G18),"",G1&amp;","&amp;$A18&amp;","&amp;fig!G18)</f>
         <v/>
       </c>
-      <c r="H18" s="2" t="str">
-        <f>if(fig!H18=1,H1&amp;","&amp;$A18,"")</f>
+      <c r="H18" s="11" t="str">
+        <f>if(ISBLANK(fig!H18),"",H1&amp;","&amp;$A18&amp;","&amp;fig!H18)</f>
         <v/>
       </c>
-      <c r="I18" s="2" t="str">
-        <f>if(fig!I18=1,I1&amp;","&amp;$A18,"")</f>
+      <c r="I18" s="11" t="str">
+        <f>if(ISBLANK(fig!I18),"",I1&amp;","&amp;$A18&amp;","&amp;fig!I18)</f>
         <v/>
       </c>
-      <c r="J18" s="2" t="str">
-        <f>if(fig!J18=1,J1&amp;","&amp;$A18,"")</f>
-        <v>-6,9</v>
-      </c>
-      <c r="K18" s="2" t="str">
-        <f>if(fig!K18=1,K1&amp;","&amp;$A18,"")</f>
-        <v>-5,9</v>
-      </c>
-      <c r="L18" s="2" t="str">
-        <f>if(fig!L18=1,L1&amp;","&amp;$A18,"")</f>
-        <v>-4,9</v>
-      </c>
-      <c r="M18" s="2" t="str">
-        <f>if(fig!M18=1,M1&amp;","&amp;$A18,"")</f>
-        <v>-3,9</v>
-      </c>
-      <c r="N18" s="2" t="str">
-        <f>if(fig!N18=1,N1&amp;","&amp;$A18,"")</f>
+      <c r="J18" s="11" t="str">
+        <f>if(ISBLANK(fig!J18),"",J1&amp;","&amp;$A18&amp;","&amp;fig!J18)</f>
         <v/>
       </c>
-      <c r="O18" s="2" t="str">
-        <f>if(fig!O18=1,O1&amp;","&amp;$A18,"")</f>
-        <v>-1,9</v>
-      </c>
-      <c r="P18" s="2" t="str">
-        <f>if(fig!P18=1,P1&amp;","&amp;$A18,"")</f>
-        <v>0,9</v>
-      </c>
-      <c r="Q18" s="2" t="str">
-        <f>if(fig!Q18=1,Q1&amp;","&amp;$A18,"")</f>
-        <v>1,9</v>
-      </c>
-      <c r="R18" s="2" t="str">
-        <f>if(fig!R18=1,R1&amp;","&amp;$A18,"")</f>
+      <c r="K18" s="11" t="str">
+        <f>if(ISBLANK(fig!K18),"",K1&amp;","&amp;$A18&amp;","&amp;fig!K18)</f>
+        <v>-5,9,1</v>
+      </c>
+      <c r="L18" s="11" t="str">
+        <f>if(ISBLANK(fig!L18),"",L1&amp;","&amp;$A18&amp;","&amp;fig!L18)</f>
+        <v>-4,9,4</v>
+      </c>
+      <c r="M18" s="11" t="str">
+        <f>if(ISBLANK(fig!M18),"",M1&amp;","&amp;$A18&amp;","&amp;fig!M18)</f>
+        <v>-3,9,4</v>
+      </c>
+      <c r="N18" s="11" t="str">
+        <f>if(ISBLANK(fig!N18),"",N1&amp;","&amp;$A18&amp;","&amp;fig!N18)</f>
+        <v>-2,9,7</v>
+      </c>
+      <c r="O18" s="11" t="str">
+        <f>if(ISBLANK(fig!O18),"",O1&amp;","&amp;$A18&amp;","&amp;fig!O18)</f>
+        <v>-1,9,4</v>
+      </c>
+      <c r="P18" s="11" t="str">
+        <f>if(ISBLANK(fig!P18),"",P1&amp;","&amp;$A18&amp;","&amp;fig!P18)</f>
+        <v>0,9,4</v>
+      </c>
+      <c r="Q18" s="11" t="str">
+        <f>if(ISBLANK(fig!Q18),"",Q1&amp;","&amp;$A18&amp;","&amp;fig!Q18)</f>
+        <v>1,9,4</v>
+      </c>
+      <c r="R18" s="11" t="str">
+        <f>if(ISBLANK(fig!R18),"",R1&amp;","&amp;$A18&amp;","&amp;fig!R18)</f>
+        <v>2,9,7</v>
+      </c>
+      <c r="S18" s="11" t="str">
+        <f>if(ISBLANK(fig!S18),"",S1&amp;","&amp;$A18&amp;","&amp;fig!S18)</f>
+        <v>3,9,4</v>
+      </c>
+      <c r="T18" s="11" t="str">
+        <f>if(ISBLANK(fig!T18),"",T1&amp;","&amp;$A18&amp;","&amp;fig!T18)</f>
+        <v>4,9,4</v>
+      </c>
+      <c r="U18" s="11" t="str">
+        <f>if(ISBLANK(fig!U18),"",U1&amp;","&amp;$A18&amp;","&amp;fig!U18)</f>
+        <v>5,9,1</v>
+      </c>
+      <c r="V18" s="11" t="str">
+        <f>if(ISBLANK(fig!V18),"",V1&amp;","&amp;$A18&amp;","&amp;fig!V18)</f>
         <v/>
       </c>
-      <c r="S18" s="2" t="str">
-        <f>if(fig!S18=1,S1&amp;","&amp;$A18,"")</f>
-        <v>3,9</v>
-      </c>
-      <c r="T18" s="2" t="str">
-        <f>if(fig!T18=1,T1&amp;","&amp;$A18,"")</f>
-        <v>4,9</v>
-      </c>
-      <c r="U18" s="2" t="str">
-        <f>if(fig!U18=1,U1&amp;","&amp;$A18,"")</f>
-        <v>5,9</v>
-      </c>
-      <c r="V18" s="2" t="str">
-        <f>if(fig!V18=1,V1&amp;","&amp;$A18,"")</f>
-        <v>6,9</v>
-      </c>
-      <c r="W18" s="2" t="str">
-        <f>if(fig!W18=1,W1&amp;","&amp;$A18,"")</f>
+      <c r="W18" s="11" t="str">
+        <f>if(ISBLANK(fig!W18),"",W1&amp;","&amp;$A18&amp;","&amp;fig!W18)</f>
         <v/>
       </c>
-      <c r="X18" s="2" t="str">
-        <f>if(fig!X18=1,X1&amp;","&amp;$A18,"")</f>
+      <c r="X18" s="11" t="str">
+        <f>if(ISBLANK(fig!X18),"",X1&amp;","&amp;$A18&amp;","&amp;fig!X18)</f>
         <v/>
       </c>
-      <c r="Y18" s="2" t="str">
-        <f>if(fig!Y18=1,Y1&amp;","&amp;$A18,"")</f>
+      <c r="Y18" s="11" t="str">
+        <f>if(ISBLANK(fig!Y18),"",Y1&amp;","&amp;$A18&amp;","&amp;fig!Y18)</f>
         <v/>
       </c>
-      <c r="Z18" s="2" t="str">
-        <f>if(fig!Z18=1,Z1&amp;","&amp;$A18,"")</f>
+      <c r="Z18" s="11" t="str">
+        <f>if(ISBLANK(fig!Z18),"",Z1&amp;","&amp;$A18&amp;","&amp;fig!Z18)</f>
         <v/>
       </c>
-      <c r="AA18" s="2" t="str">
-        <f>if(fig!AA18=1,AA1&amp;","&amp;$A18,"")</f>
+      <c r="AA18" s="11" t="str">
+        <f>if(ISBLANK(fig!AA18),"",AA1&amp;","&amp;$A18&amp;","&amp;fig!AA18)</f>
         <v/>
       </c>
-      <c r="AB18" s="2" t="str">
-        <f>if(fig!AB18=1,AB1&amp;","&amp;$A18,"")</f>
+      <c r="AB18" s="11" t="str">
+        <f>if(ISBLANK(fig!AB18),"",AB1&amp;","&amp;$A18&amp;","&amp;fig!AB18)</f>
         <v/>
       </c>
-      <c r="AC18" s="2" t="str">
-        <f>if(fig!AC18=1,AC1&amp;","&amp;$A18,"")</f>
+      <c r="AC18" s="11" t="str">
+        <f>if(ISBLANK(fig!AC18),"",AC1&amp;","&amp;$A18&amp;","&amp;fig!AC18)</f>
         <v/>
       </c>
     </row>
@@ -34064,116 +34246,116 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B19" s="2" t="str">
-        <f>if(fig!B19=1,B1&amp;","&amp;$A19,"")</f>
+      <c r="B19" s="11" t="str">
+        <f>if(ISBLANK(fig!B19),"",B1&amp;","&amp;$A19&amp;","&amp;fig!B19)</f>
         <v/>
       </c>
-      <c r="C19" s="2" t="str">
-        <f>if(fig!C19=1,C1&amp;","&amp;$A19,"")</f>
+      <c r="C19" s="11" t="str">
+        <f>if(ISBLANK(fig!C19),"",C1&amp;","&amp;$A19&amp;","&amp;fig!C19)</f>
         <v/>
       </c>
-      <c r="D19" s="2" t="str">
-        <f>if(fig!D19=1,D1&amp;","&amp;$A19,"")</f>
+      <c r="D19" s="11" t="str">
+        <f>if(ISBLANK(fig!D19),"",D1&amp;","&amp;$A19&amp;","&amp;fig!D19)</f>
         <v/>
       </c>
-      <c r="E19" s="2" t="str">
-        <f>if(fig!E19=1,E1&amp;","&amp;$A19,"")</f>
+      <c r="E19" s="11" t="str">
+        <f>if(ISBLANK(fig!E19),"",E1&amp;","&amp;$A19&amp;","&amp;fig!E19)</f>
         <v/>
       </c>
-      <c r="F19" s="2" t="str">
-        <f>if(fig!F19=1,F1&amp;","&amp;$A19,"")</f>
+      <c r="F19" s="11" t="str">
+        <f>if(ISBLANK(fig!F19),"",F1&amp;","&amp;$A19&amp;","&amp;fig!F19)</f>
         <v/>
       </c>
-      <c r="G19" s="2" t="str">
-        <f>if(fig!G19=1,G1&amp;","&amp;$A19,"")</f>
+      <c r="G19" s="11" t="str">
+        <f>if(ISBLANK(fig!G19),"",G1&amp;","&amp;$A19&amp;","&amp;fig!G19)</f>
         <v/>
       </c>
-      <c r="H19" s="2" t="str">
-        <f>if(fig!H19=1,H1&amp;","&amp;$A19,"")</f>
+      <c r="H19" s="11" t="str">
+        <f>if(ISBLANK(fig!H19),"",H1&amp;","&amp;$A19&amp;","&amp;fig!H19)</f>
         <v/>
       </c>
-      <c r="I19" s="2" t="str">
-        <f>if(fig!I19=1,I1&amp;","&amp;$A19,"")</f>
+      <c r="I19" s="11" t="str">
+        <f>if(ISBLANK(fig!I19),"",I1&amp;","&amp;$A19&amp;","&amp;fig!I19)</f>
         <v/>
       </c>
-      <c r="J19" s="2" t="str">
-        <f>if(fig!J19=1,J1&amp;","&amp;$A19,"")</f>
+      <c r="J19" s="11" t="str">
+        <f>if(ISBLANK(fig!J19),"",J1&amp;","&amp;$A19&amp;","&amp;fig!J19)</f>
         <v/>
       </c>
-      <c r="K19" s="2" t="str">
-        <f>if(fig!K19=1,K1&amp;","&amp;$A19,"")</f>
-        <v>-5,8</v>
-      </c>
-      <c r="L19" s="2" t="str">
-        <f>if(fig!L19=1,L1&amp;","&amp;$A19,"")</f>
-        <v>-4,8</v>
-      </c>
-      <c r="M19" s="2" t="str">
-        <f>if(fig!M19=1,M1&amp;","&amp;$A19,"")</f>
-        <v>-3,8</v>
-      </c>
-      <c r="N19" s="2" t="str">
-        <f>if(fig!N19=1,N1&amp;","&amp;$A19,"")</f>
+      <c r="K19" s="11" t="str">
+        <f>if(ISBLANK(fig!K19),"",K1&amp;","&amp;$A19&amp;","&amp;fig!K19)</f>
         <v/>
       </c>
-      <c r="O19" s="2" t="str">
-        <f>if(fig!O19=1,O1&amp;","&amp;$A19,"")</f>
-        <v>-1,8</v>
-      </c>
-      <c r="P19" s="2" t="str">
-        <f>if(fig!P19=1,P1&amp;","&amp;$A19,"")</f>
-        <v>0,8</v>
-      </c>
-      <c r="Q19" s="2" t="str">
-        <f>if(fig!Q19=1,Q1&amp;","&amp;$A19,"")</f>
-        <v>1,8</v>
-      </c>
-      <c r="R19" s="2" t="str">
-        <f>if(fig!R19=1,R1&amp;","&amp;$A19,"")</f>
+      <c r="L19" s="11" t="str">
+        <f>if(ISBLANK(fig!L19),"",L1&amp;","&amp;$A19&amp;","&amp;fig!L19)</f>
+        <v>-4,8,1</v>
+      </c>
+      <c r="M19" s="11" t="str">
+        <f>if(ISBLANK(fig!M19),"",M1&amp;","&amp;$A19&amp;","&amp;fig!M19)</f>
+        <v>-3,8,4</v>
+      </c>
+      <c r="N19" s="11" t="str">
+        <f>if(ISBLANK(fig!N19),"",N1&amp;","&amp;$A19&amp;","&amp;fig!N19)</f>
+        <v>-2,8,4</v>
+      </c>
+      <c r="O19" s="11" t="str">
+        <f>if(ISBLANK(fig!O19),"",O1&amp;","&amp;$A19&amp;","&amp;fig!O19)</f>
+        <v>-1,8,4</v>
+      </c>
+      <c r="P19" s="11" t="str">
+        <f>if(ISBLANK(fig!P19),"",P1&amp;","&amp;$A19&amp;","&amp;fig!P19)</f>
+        <v>0,8,4</v>
+      </c>
+      <c r="Q19" s="11" t="str">
+        <f>if(ISBLANK(fig!Q19),"",Q1&amp;","&amp;$A19&amp;","&amp;fig!Q19)</f>
+        <v>1,8,4</v>
+      </c>
+      <c r="R19" s="11" t="str">
+        <f>if(ISBLANK(fig!R19),"",R1&amp;","&amp;$A19&amp;","&amp;fig!R19)</f>
+        <v>2,8,4</v>
+      </c>
+      <c r="S19" s="11" t="str">
+        <f>if(ISBLANK(fig!S19),"",S1&amp;","&amp;$A19&amp;","&amp;fig!S19)</f>
+        <v>3,8,4</v>
+      </c>
+      <c r="T19" s="11" t="str">
+        <f>if(ISBLANK(fig!T19),"",T1&amp;","&amp;$A19&amp;","&amp;fig!T19)</f>
+        <v>4,8,1</v>
+      </c>
+      <c r="U19" s="11" t="str">
+        <f>if(ISBLANK(fig!U19),"",U1&amp;","&amp;$A19&amp;","&amp;fig!U19)</f>
         <v/>
       </c>
-      <c r="S19" s="2" t="str">
-        <f>if(fig!S19=1,S1&amp;","&amp;$A19,"")</f>
-        <v>3,8</v>
-      </c>
-      <c r="T19" s="2" t="str">
-        <f>if(fig!T19=1,T1&amp;","&amp;$A19,"")</f>
-        <v>4,8</v>
-      </c>
-      <c r="U19" s="2" t="str">
-        <f>if(fig!U19=1,U1&amp;","&amp;$A19,"")</f>
-        <v>5,8</v>
-      </c>
-      <c r="V19" s="2" t="str">
-        <f>if(fig!V19=1,V1&amp;","&amp;$A19,"")</f>
+      <c r="V19" s="11" t="str">
+        <f>if(ISBLANK(fig!V19),"",V1&amp;","&amp;$A19&amp;","&amp;fig!V19)</f>
         <v/>
       </c>
-      <c r="W19" s="2" t="str">
-        <f>if(fig!W19=1,W1&amp;","&amp;$A19,"")</f>
+      <c r="W19" s="11" t="str">
+        <f>if(ISBLANK(fig!W19),"",W1&amp;","&amp;$A19&amp;","&amp;fig!W19)</f>
         <v/>
       </c>
-      <c r="X19" s="2" t="str">
-        <f>if(fig!X19=1,X1&amp;","&amp;$A19,"")</f>
+      <c r="X19" s="11" t="str">
+        <f>if(ISBLANK(fig!X19),"",X1&amp;","&amp;$A19&amp;","&amp;fig!X19)</f>
         <v/>
       </c>
-      <c r="Y19" s="2" t="str">
-        <f>if(fig!Y19=1,Y1&amp;","&amp;$A19,"")</f>
+      <c r="Y19" s="11" t="str">
+        <f>if(ISBLANK(fig!Y19),"",Y1&amp;","&amp;$A19&amp;","&amp;fig!Y19)</f>
         <v/>
       </c>
-      <c r="Z19" s="2" t="str">
-        <f>if(fig!Z19=1,Z1&amp;","&amp;$A19,"")</f>
+      <c r="Z19" s="11" t="str">
+        <f>if(ISBLANK(fig!Z19),"",Z1&amp;","&amp;$A19&amp;","&amp;fig!Z19)</f>
         <v/>
       </c>
-      <c r="AA19" s="2" t="str">
-        <f>if(fig!AA19=1,AA1&amp;","&amp;$A19,"")</f>
+      <c r="AA19" s="11" t="str">
+        <f>if(ISBLANK(fig!AA19),"",AA1&amp;","&amp;$A19&amp;","&amp;fig!AA19)</f>
         <v/>
       </c>
-      <c r="AB19" s="2" t="str">
-        <f>if(fig!AB19=1,AB1&amp;","&amp;$A19,"")</f>
+      <c r="AB19" s="11" t="str">
+        <f>if(ISBLANK(fig!AB19),"",AB1&amp;","&amp;$A19&amp;","&amp;fig!AB19)</f>
         <v/>
       </c>
-      <c r="AC19" s="2" t="str">
-        <f>if(fig!AC19=1,AC1&amp;","&amp;$A19,"")</f>
+      <c r="AC19" s="11" t="str">
+        <f>if(ISBLANK(fig!AC19),"",AC1&amp;","&amp;$A19&amp;","&amp;fig!AC19)</f>
         <v/>
       </c>
     </row>
@@ -34182,116 +34364,116 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B20" s="2" t="str">
-        <f>if(fig!B20=1,B1&amp;","&amp;$A20,"")</f>
+      <c r="B20" s="11" t="str">
+        <f>if(ISBLANK(fig!B20),"",B1&amp;","&amp;$A20&amp;","&amp;fig!B20)</f>
         <v/>
       </c>
-      <c r="C20" s="2" t="str">
-        <f>if(fig!C20=1,C1&amp;","&amp;$A20,"")</f>
+      <c r="C20" s="11" t="str">
+        <f>if(ISBLANK(fig!C20),"",C1&amp;","&amp;$A20&amp;","&amp;fig!C20)</f>
         <v/>
       </c>
-      <c r="D20" s="2" t="str">
-        <f>if(fig!D20=1,D1&amp;","&amp;$A20,"")</f>
+      <c r="D20" s="11" t="str">
+        <f>if(ISBLANK(fig!D20),"",D1&amp;","&amp;$A20&amp;","&amp;fig!D20)</f>
         <v/>
       </c>
-      <c r="E20" s="2" t="str">
-        <f>if(fig!E20=1,E1&amp;","&amp;$A20,"")</f>
+      <c r="E20" s="11" t="str">
+        <f>if(ISBLANK(fig!E20),"",E1&amp;","&amp;$A20&amp;","&amp;fig!E20)</f>
         <v/>
       </c>
-      <c r="F20" s="2" t="str">
-        <f>if(fig!F20=1,F1&amp;","&amp;$A20,"")</f>
+      <c r="F20" s="11" t="str">
+        <f>if(ISBLANK(fig!F20),"",F1&amp;","&amp;$A20&amp;","&amp;fig!F20)</f>
         <v/>
       </c>
-      <c r="G20" s="2" t="str">
-        <f>if(fig!G20=1,G1&amp;","&amp;$A20,"")</f>
+      <c r="G20" s="11" t="str">
+        <f>if(ISBLANK(fig!G20),"",G1&amp;","&amp;$A20&amp;","&amp;fig!G20)</f>
         <v/>
       </c>
-      <c r="H20" s="2" t="str">
-        <f>if(fig!H20=1,H1&amp;","&amp;$A20,"")</f>
+      <c r="H20" s="11" t="str">
+        <f>if(ISBLANK(fig!H20),"",H1&amp;","&amp;$A20&amp;","&amp;fig!H20)</f>
         <v/>
       </c>
-      <c r="I20" s="2" t="str">
-        <f>if(fig!I20=1,I1&amp;","&amp;$A20,"")</f>
+      <c r="I20" s="11" t="str">
+        <f>if(ISBLANK(fig!I20),"",I1&amp;","&amp;$A20&amp;","&amp;fig!I20)</f>
         <v/>
       </c>
-      <c r="J20" s="2" t="str">
-        <f>if(fig!J20=1,J1&amp;","&amp;$A20,"")</f>
+      <c r="J20" s="11" t="str">
+        <f>if(ISBLANK(fig!J20),"",J1&amp;","&amp;$A20&amp;","&amp;fig!J20)</f>
         <v/>
       </c>
-      <c r="K20" s="2" t="str">
-        <f>if(fig!K20=1,K1&amp;","&amp;$A20,"")</f>
+      <c r="K20" s="11" t="str">
+        <f>if(ISBLANK(fig!K20),"",K1&amp;","&amp;$A20&amp;","&amp;fig!K20)</f>
         <v/>
       </c>
-      <c r="L20" s="2" t="str">
-        <f>if(fig!L20=1,L1&amp;","&amp;$A20,"")</f>
-        <v>-4,7</v>
-      </c>
-      <c r="M20" s="2" t="str">
-        <f>if(fig!M20=1,M1&amp;","&amp;$A20,"")</f>
-        <v>-3,7</v>
-      </c>
-      <c r="N20" s="2" t="str">
-        <f>if(fig!N20=1,N1&amp;","&amp;$A20,"")</f>
-        <v>-2,7</v>
-      </c>
-      <c r="O20" s="2" t="str">
-        <f>if(fig!O20=1,O1&amp;","&amp;$A20,"")</f>
-        <v>-1,7</v>
-      </c>
-      <c r="P20" s="2" t="str">
-        <f>if(fig!P20=1,P1&amp;","&amp;$A20,"")</f>
-        <v>0,7</v>
-      </c>
-      <c r="Q20" s="2" t="str">
-        <f>if(fig!Q20=1,Q1&amp;","&amp;$A20,"")</f>
-        <v>1,7</v>
-      </c>
-      <c r="R20" s="2" t="str">
-        <f>if(fig!R20=1,R1&amp;","&amp;$A20,"")</f>
-        <v>2,7</v>
-      </c>
-      <c r="S20" s="2" t="str">
-        <f>if(fig!S20=1,S1&amp;","&amp;$A20,"")</f>
-        <v>3,7</v>
-      </c>
-      <c r="T20" s="2" t="str">
-        <f>if(fig!T20=1,T1&amp;","&amp;$A20,"")</f>
-        <v>4,7</v>
-      </c>
-      <c r="U20" s="2" t="str">
-        <f>if(fig!U20=1,U1&amp;","&amp;$A20,"")</f>
+      <c r="L20" s="11" t="str">
+        <f>if(ISBLANK(fig!L20),"",L1&amp;","&amp;$A20&amp;","&amp;fig!L20)</f>
         <v/>
       </c>
-      <c r="V20" s="2" t="str">
-        <f>if(fig!V20=1,V1&amp;","&amp;$A20,"")</f>
+      <c r="M20" s="11" t="str">
+        <f>if(ISBLANK(fig!M20),"",M1&amp;","&amp;$A20&amp;","&amp;fig!M20)</f>
+        <v>-3,7,1</v>
+      </c>
+      <c r="N20" s="11" t="str">
+        <f>if(ISBLANK(fig!N20),"",N1&amp;","&amp;$A20&amp;","&amp;fig!N20)</f>
+        <v>-2,7,4</v>
+      </c>
+      <c r="O20" s="11" t="str">
+        <f>if(ISBLANK(fig!O20),"",O1&amp;","&amp;$A20&amp;","&amp;fig!O20)</f>
+        <v>-1,7,4</v>
+      </c>
+      <c r="P20" s="11" t="str">
+        <f>if(ISBLANK(fig!P20),"",P1&amp;","&amp;$A20&amp;","&amp;fig!P20)</f>
+        <v>0,7,4</v>
+      </c>
+      <c r="Q20" s="11" t="str">
+        <f>if(ISBLANK(fig!Q20),"",Q1&amp;","&amp;$A20&amp;","&amp;fig!Q20)</f>
+        <v>1,7,4</v>
+      </c>
+      <c r="R20" s="11" t="str">
+        <f>if(ISBLANK(fig!R20),"",R1&amp;","&amp;$A20&amp;","&amp;fig!R20)</f>
+        <v>2,7,4</v>
+      </c>
+      <c r="S20" s="11" t="str">
+        <f>if(ISBLANK(fig!S20),"",S1&amp;","&amp;$A20&amp;","&amp;fig!S20)</f>
+        <v>3,7,1</v>
+      </c>
+      <c r="T20" s="11" t="str">
+        <f>if(ISBLANK(fig!T20),"",T1&amp;","&amp;$A20&amp;","&amp;fig!T20)</f>
         <v/>
       </c>
-      <c r="W20" s="2" t="str">
-        <f>if(fig!W20=1,W1&amp;","&amp;$A20,"")</f>
+      <c r="U20" s="11" t="str">
+        <f>if(ISBLANK(fig!U20),"",U1&amp;","&amp;$A20&amp;","&amp;fig!U20)</f>
         <v/>
       </c>
-      <c r="X20" s="2" t="str">
-        <f>if(fig!X20=1,X1&amp;","&amp;$A20,"")</f>
+      <c r="V20" s="11" t="str">
+        <f>if(ISBLANK(fig!V20),"",V1&amp;","&amp;$A20&amp;","&amp;fig!V20)</f>
         <v/>
       </c>
-      <c r="Y20" s="2" t="str">
-        <f>if(fig!Y20=1,Y1&amp;","&amp;$A20,"")</f>
+      <c r="W20" s="11" t="str">
+        <f>if(ISBLANK(fig!W20),"",W1&amp;","&amp;$A20&amp;","&amp;fig!W20)</f>
         <v/>
       </c>
-      <c r="Z20" s="2" t="str">
-        <f>if(fig!Z20=1,Z1&amp;","&amp;$A20,"")</f>
+      <c r="X20" s="11" t="str">
+        <f>if(ISBLANK(fig!X20),"",X1&amp;","&amp;$A20&amp;","&amp;fig!X20)</f>
         <v/>
       </c>
-      <c r="AA20" s="2" t="str">
-        <f>if(fig!AA20=1,AA1&amp;","&amp;$A20,"")</f>
+      <c r="Y20" s="11" t="str">
+        <f>if(ISBLANK(fig!Y20),"",Y1&amp;","&amp;$A20&amp;","&amp;fig!Y20)</f>
         <v/>
       </c>
-      <c r="AB20" s="2" t="str">
-        <f>if(fig!AB20=1,AB1&amp;","&amp;$A20,"")</f>
+      <c r="Z20" s="11" t="str">
+        <f>if(ISBLANK(fig!Z20),"",Z1&amp;","&amp;$A20&amp;","&amp;fig!Z20)</f>
         <v/>
       </c>
-      <c r="AC20" s="2" t="str">
-        <f>if(fig!AC20=1,AC1&amp;","&amp;$A20,"")</f>
+      <c r="AA20" s="11" t="str">
+        <f>if(ISBLANK(fig!AA20),"",AA1&amp;","&amp;$A20&amp;","&amp;fig!AA20)</f>
+        <v/>
+      </c>
+      <c r="AB20" s="11" t="str">
+        <f>if(ISBLANK(fig!AB20),"",AB1&amp;","&amp;$A20&amp;","&amp;fig!AB20)</f>
+        <v/>
+      </c>
+      <c r="AC20" s="11" t="str">
+        <f>if(ISBLANK(fig!AC20),"",AC1&amp;","&amp;$A20&amp;","&amp;fig!AC20)</f>
         <v/>
       </c>
     </row>
@@ -34300,116 +34482,116 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B21" s="2" t="str">
-        <f>if(fig!B21=1,B1&amp;","&amp;$A21,"")</f>
+      <c r="B21" s="11" t="str">
+        <f>if(ISBLANK(fig!B21),"",B1&amp;","&amp;$A21&amp;","&amp;fig!B21)</f>
         <v/>
       </c>
-      <c r="C21" s="2" t="str">
-        <f>if(fig!C21=1,C1&amp;","&amp;$A21,"")</f>
+      <c r="C21" s="11" t="str">
+        <f>if(ISBLANK(fig!C21),"",C1&amp;","&amp;$A21&amp;","&amp;fig!C21)</f>
         <v/>
       </c>
-      <c r="D21" s="2" t="str">
-        <f>if(fig!D21=1,D1&amp;","&amp;$A21,"")</f>
+      <c r="D21" s="11" t="str">
+        <f>if(ISBLANK(fig!D21),"",D1&amp;","&amp;$A21&amp;","&amp;fig!D21)</f>
         <v/>
       </c>
-      <c r="E21" s="2" t="str">
-        <f>if(fig!E21=1,E1&amp;","&amp;$A21,"")</f>
+      <c r="E21" s="11" t="str">
+        <f>if(ISBLANK(fig!E21),"",E1&amp;","&amp;$A21&amp;","&amp;fig!E21)</f>
         <v/>
       </c>
-      <c r="F21" s="2" t="str">
-        <f>if(fig!F21=1,F1&amp;","&amp;$A21,"")</f>
+      <c r="F21" s="11" t="str">
+        <f>if(ISBLANK(fig!F21),"",F1&amp;","&amp;$A21&amp;","&amp;fig!F21)</f>
         <v/>
       </c>
-      <c r="G21" s="2" t="str">
-        <f>if(fig!G21=1,G1&amp;","&amp;$A21,"")</f>
+      <c r="G21" s="11" t="str">
+        <f>if(ISBLANK(fig!G21),"",G1&amp;","&amp;$A21&amp;","&amp;fig!G21)</f>
         <v/>
       </c>
-      <c r="H21" s="2" t="str">
-        <f>if(fig!H21=1,H1&amp;","&amp;$A21,"")</f>
+      <c r="H21" s="11" t="str">
+        <f>if(ISBLANK(fig!H21),"",H1&amp;","&amp;$A21&amp;","&amp;fig!H21)</f>
         <v/>
       </c>
-      <c r="I21" s="2" t="str">
-        <f>if(fig!I21=1,I1&amp;","&amp;$A21,"")</f>
+      <c r="I21" s="11" t="str">
+        <f>if(ISBLANK(fig!I21),"",I1&amp;","&amp;$A21&amp;","&amp;fig!I21)</f>
         <v/>
       </c>
-      <c r="J21" s="2" t="str">
-        <f>if(fig!J21=1,J1&amp;","&amp;$A21,"")</f>
+      <c r="J21" s="11" t="str">
+        <f>if(ISBLANK(fig!J21),"",J1&amp;","&amp;$A21&amp;","&amp;fig!J21)</f>
         <v/>
       </c>
-      <c r="K21" s="2" t="str">
-        <f>if(fig!K21=1,K1&amp;","&amp;$A21,"")</f>
+      <c r="K21" s="11" t="str">
+        <f>if(ISBLANK(fig!K21),"",K1&amp;","&amp;$A21&amp;","&amp;fig!K21)</f>
         <v/>
       </c>
-      <c r="L21" s="2" t="str">
-        <f>if(fig!L21=1,L1&amp;","&amp;$A21,"")</f>
+      <c r="L21" s="11" t="str">
+        <f>if(ISBLANK(fig!L21),"",L1&amp;","&amp;$A21&amp;","&amp;fig!L21)</f>
+        <v>-4,6,1</v>
+      </c>
+      <c r="M21" s="11" t="str">
+        <f>if(ISBLANK(fig!M21),"",M1&amp;","&amp;$A21&amp;","&amp;fig!M21)</f>
+        <v>-3,6,4</v>
+      </c>
+      <c r="N21" s="11" t="str">
+        <f>if(ISBLANK(fig!N21),"",N1&amp;","&amp;$A21&amp;","&amp;fig!N21)</f>
+        <v>-2,6,4</v>
+      </c>
+      <c r="O21" s="11" t="str">
+        <f>if(ISBLANK(fig!O21),"",O1&amp;","&amp;$A21&amp;","&amp;fig!O21)</f>
+        <v>-1,6,4</v>
+      </c>
+      <c r="P21" s="11" t="str">
+        <f>if(ISBLANK(fig!P21),"",P1&amp;","&amp;$A21&amp;","&amp;fig!P21)</f>
+        <v>0,6,4</v>
+      </c>
+      <c r="Q21" s="11" t="str">
+        <f>if(ISBLANK(fig!Q21),"",Q1&amp;","&amp;$A21&amp;","&amp;fig!Q21)</f>
+        <v>1,6,4</v>
+      </c>
+      <c r="R21" s="11" t="str">
+        <f>if(ISBLANK(fig!R21),"",R1&amp;","&amp;$A21&amp;","&amp;fig!R21)</f>
+        <v>2,6,4</v>
+      </c>
+      <c r="S21" s="11" t="str">
+        <f>if(ISBLANK(fig!S21),"",S1&amp;","&amp;$A21&amp;","&amp;fig!S21)</f>
+        <v>3,6,4</v>
+      </c>
+      <c r="T21" s="11" t="str">
+        <f>if(ISBLANK(fig!T21),"",T1&amp;","&amp;$A21&amp;","&amp;fig!T21)</f>
+        <v>4,6,1</v>
+      </c>
+      <c r="U21" s="11" t="str">
+        <f>if(ISBLANK(fig!U21),"",U1&amp;","&amp;$A21&amp;","&amp;fig!U21)</f>
         <v/>
       </c>
-      <c r="M21" s="2" t="str">
-        <f>if(fig!M21=1,M1&amp;","&amp;$A21,"")</f>
-        <v>-3,6</v>
-      </c>
-      <c r="N21" s="2" t="str">
-        <f>if(fig!N21=1,N1&amp;","&amp;$A21,"")</f>
-        <v>-2,6</v>
-      </c>
-      <c r="O21" s="2" t="str">
-        <f>if(fig!O21=1,O1&amp;","&amp;$A21,"")</f>
-        <v>-1,6</v>
-      </c>
-      <c r="P21" s="2" t="str">
-        <f>if(fig!P21=1,P1&amp;","&amp;$A21,"")</f>
-        <v>0,6</v>
-      </c>
-      <c r="Q21" s="2" t="str">
-        <f>if(fig!Q21=1,Q1&amp;","&amp;$A21,"")</f>
-        <v>1,6</v>
-      </c>
-      <c r="R21" s="2" t="str">
-        <f>if(fig!R21=1,R1&amp;","&amp;$A21,"")</f>
-        <v>2,6</v>
-      </c>
-      <c r="S21" s="2" t="str">
-        <f>if(fig!S21=1,S1&amp;","&amp;$A21,"")</f>
-        <v>3,6</v>
-      </c>
-      <c r="T21" s="2" t="str">
-        <f>if(fig!T21=1,T1&amp;","&amp;$A21,"")</f>
+      <c r="V21" s="11" t="str">
+        <f>if(ISBLANK(fig!V21),"",V1&amp;","&amp;$A21&amp;","&amp;fig!V21)</f>
         <v/>
       </c>
-      <c r="U21" s="2" t="str">
-        <f>if(fig!U21=1,U1&amp;","&amp;$A21,"")</f>
+      <c r="W21" s="11" t="str">
+        <f>if(ISBLANK(fig!W21),"",W1&amp;","&amp;$A21&amp;","&amp;fig!W21)</f>
         <v/>
       </c>
-      <c r="V21" s="2" t="str">
-        <f>if(fig!V21=1,V1&amp;","&amp;$A21,"")</f>
+      <c r="X21" s="11" t="str">
+        <f>if(ISBLANK(fig!X21),"",X1&amp;","&amp;$A21&amp;","&amp;fig!X21)</f>
         <v/>
       </c>
-      <c r="W21" s="2" t="str">
-        <f>if(fig!W21=1,W1&amp;","&amp;$A21,"")</f>
+      <c r="Y21" s="11" t="str">
+        <f>if(ISBLANK(fig!Y21),"",Y1&amp;","&amp;$A21&amp;","&amp;fig!Y21)</f>
         <v/>
       </c>
-      <c r="X21" s="2" t="str">
-        <f>if(fig!X21=1,X1&amp;","&amp;$A21,"")</f>
+      <c r="Z21" s="11" t="str">
+        <f>if(ISBLANK(fig!Z21),"",Z1&amp;","&amp;$A21&amp;","&amp;fig!Z21)</f>
         <v/>
       </c>
-      <c r="Y21" s="2" t="str">
-        <f>if(fig!Y21=1,Y1&amp;","&amp;$A21,"")</f>
+      <c r="AA21" s="11" t="str">
+        <f>if(ISBLANK(fig!AA21),"",AA1&amp;","&amp;$A21&amp;","&amp;fig!AA21)</f>
         <v/>
       </c>
-      <c r="Z21" s="2" t="str">
-        <f>if(fig!Z21=1,Z1&amp;","&amp;$A21,"")</f>
+      <c r="AB21" s="11" t="str">
+        <f>if(ISBLANK(fig!AB21),"",AB1&amp;","&amp;$A21&amp;","&amp;fig!AB21)</f>
         <v/>
       </c>
-      <c r="AA21" s="2" t="str">
-        <f>if(fig!AA21=1,AA1&amp;","&amp;$A21,"")</f>
-        <v/>
-      </c>
-      <c r="AB21" s="2" t="str">
-        <f>if(fig!AB21=1,AB1&amp;","&amp;$A21,"")</f>
-        <v/>
-      </c>
-      <c r="AC21" s="2" t="str">
-        <f>if(fig!AC21=1,AC1&amp;","&amp;$A21,"")</f>
+      <c r="AC21" s="11" t="str">
+        <f>if(ISBLANK(fig!AC21),"",AC1&amp;","&amp;$A21&amp;","&amp;fig!AC21)</f>
         <v/>
       </c>
     </row>
@@ -34418,116 +34600,116 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B22" s="2" t="str">
-        <f>if(fig!B22=1,B1&amp;","&amp;$A22,"")</f>
+      <c r="B22" s="11" t="str">
+        <f>if(ISBLANK(fig!B22),"",B1&amp;","&amp;$A22&amp;","&amp;fig!B22)</f>
         <v/>
       </c>
-      <c r="C22" s="2" t="str">
-        <f>if(fig!C22=1,C1&amp;","&amp;$A22,"")</f>
+      <c r="C22" s="11" t="str">
+        <f>if(ISBLANK(fig!C22),"",C1&amp;","&amp;$A22&amp;","&amp;fig!C22)</f>
         <v/>
       </c>
-      <c r="D22" s="2" t="str">
-        <f>if(fig!D22=1,D1&amp;","&amp;$A22,"")</f>
+      <c r="D22" s="11" t="str">
+        <f>if(ISBLANK(fig!D22),"",D1&amp;","&amp;$A22&amp;","&amp;fig!D22)</f>
         <v/>
       </c>
-      <c r="E22" s="2" t="str">
-        <f>if(fig!E22=1,E1&amp;","&amp;$A22,"")</f>
+      <c r="E22" s="11" t="str">
+        <f>if(ISBLANK(fig!E22),"",E1&amp;","&amp;$A22&amp;","&amp;fig!E22)</f>
         <v/>
       </c>
-      <c r="F22" s="2" t="str">
-        <f>if(fig!F22=1,F1&amp;","&amp;$A22,"")</f>
+      <c r="F22" s="11" t="str">
+        <f>if(ISBLANK(fig!F22),"",F1&amp;","&amp;$A22&amp;","&amp;fig!F22)</f>
         <v/>
       </c>
-      <c r="G22" s="2" t="str">
-        <f>if(fig!G22=1,G1&amp;","&amp;$A22,"")</f>
+      <c r="G22" s="11" t="str">
+        <f>if(ISBLANK(fig!G22),"",G1&amp;","&amp;$A22&amp;","&amp;fig!G22)</f>
         <v/>
       </c>
-      <c r="H22" s="2" t="str">
-        <f>if(fig!H22=1,H1&amp;","&amp;$A22,"")</f>
+      <c r="H22" s="11" t="str">
+        <f>if(ISBLANK(fig!H22),"",H1&amp;","&amp;$A22&amp;","&amp;fig!H22)</f>
         <v/>
       </c>
-      <c r="I22" s="2" t="str">
-        <f>if(fig!I22=1,I1&amp;","&amp;$A22,"")</f>
+      <c r="I22" s="11" t="str">
+        <f>if(ISBLANK(fig!I22),"",I1&amp;","&amp;$A22&amp;","&amp;fig!I22)</f>
         <v/>
       </c>
-      <c r="J22" s="2" t="str">
-        <f>if(fig!J22=1,J1&amp;","&amp;$A22,"")</f>
+      <c r="J22" s="11" t="str">
+        <f>if(ISBLANK(fig!J22),"",J1&amp;","&amp;$A22&amp;","&amp;fig!J22)</f>
         <v/>
       </c>
-      <c r="K22" s="2" t="str">
-        <f>if(fig!K22=1,K1&amp;","&amp;$A22,"")</f>
+      <c r="K22" s="11" t="str">
+        <f>if(ISBLANK(fig!K22),"",K1&amp;","&amp;$A22&amp;","&amp;fig!K22)</f>
+        <v>-5,5,1</v>
+      </c>
+      <c r="L22" s="11" t="str">
+        <f>if(ISBLANK(fig!L22),"",L1&amp;","&amp;$A22&amp;","&amp;fig!L22)</f>
+        <v>-4,5,4</v>
+      </c>
+      <c r="M22" s="11" t="str">
+        <f>if(ISBLANK(fig!M22),"",M1&amp;","&amp;$A22&amp;","&amp;fig!M22)</f>
+        <v>-3,5,4</v>
+      </c>
+      <c r="N22" s="11" t="str">
+        <f>if(ISBLANK(fig!N22),"",N1&amp;","&amp;$A22&amp;","&amp;fig!N22)</f>
+        <v>-2,5,4</v>
+      </c>
+      <c r="O22" s="11" t="str">
+        <f>if(ISBLANK(fig!O22),"",O1&amp;","&amp;$A22&amp;","&amp;fig!O22)</f>
+        <v>-1,5,4</v>
+      </c>
+      <c r="P22" s="11" t="str">
+        <f>if(ISBLANK(fig!P22),"",P1&amp;","&amp;$A22&amp;","&amp;fig!P22)</f>
+        <v>0,5,4</v>
+      </c>
+      <c r="Q22" s="11" t="str">
+        <f>if(ISBLANK(fig!Q22),"",Q1&amp;","&amp;$A22&amp;","&amp;fig!Q22)</f>
+        <v>1,5,4</v>
+      </c>
+      <c r="R22" s="11" t="str">
+        <f>if(ISBLANK(fig!R22),"",R1&amp;","&amp;$A22&amp;","&amp;fig!R22)</f>
+        <v>2,5,4</v>
+      </c>
+      <c r="S22" s="11" t="str">
+        <f>if(ISBLANK(fig!S22),"",S1&amp;","&amp;$A22&amp;","&amp;fig!S22)</f>
+        <v>3,5,4</v>
+      </c>
+      <c r="T22" s="11" t="str">
+        <f>if(ISBLANK(fig!T22),"",T1&amp;","&amp;$A22&amp;","&amp;fig!T22)</f>
+        <v>4,5,4</v>
+      </c>
+      <c r="U22" s="11" t="str">
+        <f>if(ISBLANK(fig!U22),"",U1&amp;","&amp;$A22&amp;","&amp;fig!U22)</f>
+        <v>5,5,1</v>
+      </c>
+      <c r="V22" s="11" t="str">
+        <f>if(ISBLANK(fig!V22),"",V1&amp;","&amp;$A22&amp;","&amp;fig!V22)</f>
         <v/>
       </c>
-      <c r="L22" s="2" t="str">
-        <f>if(fig!L22=1,L1&amp;","&amp;$A22,"")</f>
-        <v>-4,5</v>
-      </c>
-      <c r="M22" s="2" t="str">
-        <f>if(fig!M22=1,M1&amp;","&amp;$A22,"")</f>
-        <v>-3,5</v>
-      </c>
-      <c r="N22" s="2" t="str">
-        <f>if(fig!N22=1,N1&amp;","&amp;$A22,"")</f>
-        <v>-2,5</v>
-      </c>
-      <c r="O22" s="2" t="str">
-        <f>if(fig!O22=1,O1&amp;","&amp;$A22,"")</f>
-        <v>-1,5</v>
-      </c>
-      <c r="P22" s="2" t="str">
-        <f>if(fig!P22=1,P1&amp;","&amp;$A22,"")</f>
-        <v>0,5</v>
-      </c>
-      <c r="Q22" s="2" t="str">
-        <f>if(fig!Q22=1,Q1&amp;","&amp;$A22,"")</f>
-        <v>1,5</v>
-      </c>
-      <c r="R22" s="2" t="str">
-        <f>if(fig!R22=1,R1&amp;","&amp;$A22,"")</f>
-        <v>2,5</v>
-      </c>
-      <c r="S22" s="2" t="str">
-        <f>if(fig!S22=1,S1&amp;","&amp;$A22,"")</f>
-        <v>3,5</v>
-      </c>
-      <c r="T22" s="2" t="str">
-        <f>if(fig!T22=1,T1&amp;","&amp;$A22,"")</f>
-        <v>4,5</v>
-      </c>
-      <c r="U22" s="2" t="str">
-        <f>if(fig!U22=1,U1&amp;","&amp;$A22,"")</f>
+      <c r="W22" s="11" t="str">
+        <f>if(ISBLANK(fig!W22),"",W1&amp;","&amp;$A22&amp;","&amp;fig!W22)</f>
         <v/>
       </c>
-      <c r="V22" s="2" t="str">
-        <f>if(fig!V22=1,V1&amp;","&amp;$A22,"")</f>
+      <c r="X22" s="11" t="str">
+        <f>if(ISBLANK(fig!X22),"",X1&amp;","&amp;$A22&amp;","&amp;fig!X22)</f>
         <v/>
       </c>
-      <c r="W22" s="2" t="str">
-        <f>if(fig!W22=1,W1&amp;","&amp;$A22,"")</f>
+      <c r="Y22" s="11" t="str">
+        <f>if(ISBLANK(fig!Y22),"",Y1&amp;","&amp;$A22&amp;","&amp;fig!Y22)</f>
         <v/>
       </c>
-      <c r="X22" s="2" t="str">
-        <f>if(fig!X22=1,X1&amp;","&amp;$A22,"")</f>
+      <c r="Z22" s="11" t="str">
+        <f>if(ISBLANK(fig!Z22),"",Z1&amp;","&amp;$A22&amp;","&amp;fig!Z22)</f>
         <v/>
       </c>
-      <c r="Y22" s="2" t="str">
-        <f>if(fig!Y22=1,Y1&amp;","&amp;$A22,"")</f>
+      <c r="AA22" s="11" t="str">
+        <f>if(ISBLANK(fig!AA22),"",AA1&amp;","&amp;$A22&amp;","&amp;fig!AA22)</f>
         <v/>
       </c>
-      <c r="Z22" s="2" t="str">
-        <f>if(fig!Z22=1,Z1&amp;","&amp;$A22,"")</f>
+      <c r="AB22" s="11" t="str">
+        <f>if(ISBLANK(fig!AB22),"",AB1&amp;","&amp;$A22&amp;","&amp;fig!AB22)</f>
         <v/>
       </c>
-      <c r="AA22" s="2" t="str">
-        <f>if(fig!AA22=1,AA1&amp;","&amp;$A22,"")</f>
-        <v/>
-      </c>
-      <c r="AB22" s="2" t="str">
-        <f>if(fig!AB22=1,AB1&amp;","&amp;$A22,"")</f>
-        <v/>
-      </c>
-      <c r="AC22" s="2" t="str">
-        <f>if(fig!AC22=1,AC1&amp;","&amp;$A22,"")</f>
+      <c r="AC22" s="11" t="str">
+        <f>if(ISBLANK(fig!AC22),"",AC1&amp;","&amp;$A22&amp;","&amp;fig!AC22)</f>
         <v/>
       </c>
     </row>
@@ -34536,116 +34718,116 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B23" s="2" t="str">
-        <f>if(fig!B23=1,B1&amp;","&amp;$A23,"")</f>
+      <c r="B23" s="11" t="str">
+        <f>if(ISBLANK(fig!B23),"",B1&amp;","&amp;$A23&amp;","&amp;fig!B23)</f>
         <v/>
       </c>
-      <c r="C23" s="2" t="str">
-        <f>if(fig!C23=1,C1&amp;","&amp;$A23,"")</f>
+      <c r="C23" s="11" t="str">
+        <f>if(ISBLANK(fig!C23),"",C1&amp;","&amp;$A23&amp;","&amp;fig!C23)</f>
         <v/>
       </c>
-      <c r="D23" s="2" t="str">
-        <f>if(fig!D23=1,D1&amp;","&amp;$A23,"")</f>
+      <c r="D23" s="11" t="str">
+        <f>if(ISBLANK(fig!D23),"",D1&amp;","&amp;$A23&amp;","&amp;fig!D23)</f>
         <v/>
       </c>
-      <c r="E23" s="2" t="str">
-        <f>if(fig!E23=1,E1&amp;","&amp;$A23,"")</f>
+      <c r="E23" s="11" t="str">
+        <f>if(ISBLANK(fig!E23),"",E1&amp;","&amp;$A23&amp;","&amp;fig!E23)</f>
         <v/>
       </c>
-      <c r="F23" s="2" t="str">
-        <f>if(fig!F23=1,F1&amp;","&amp;$A23,"")</f>
+      <c r="F23" s="11" t="str">
+        <f>if(ISBLANK(fig!F23),"",F1&amp;","&amp;$A23&amp;","&amp;fig!F23)</f>
         <v/>
       </c>
-      <c r="G23" s="2" t="str">
-        <f>if(fig!G23=1,G1&amp;","&amp;$A23,"")</f>
+      <c r="G23" s="11" t="str">
+        <f>if(ISBLANK(fig!G23),"",G1&amp;","&amp;$A23&amp;","&amp;fig!G23)</f>
         <v/>
       </c>
-      <c r="H23" s="2" t="str">
-        <f>if(fig!H23=1,H1&amp;","&amp;$A23,"")</f>
+      <c r="H23" s="11" t="str">
+        <f>if(ISBLANK(fig!H23),"",H1&amp;","&amp;$A23&amp;","&amp;fig!H23)</f>
         <v/>
       </c>
-      <c r="I23" s="2" t="str">
-        <f>if(fig!I23=1,I1&amp;","&amp;$A23,"")</f>
+      <c r="I23" s="11" t="str">
+        <f>if(ISBLANK(fig!I23),"",I1&amp;","&amp;$A23&amp;","&amp;fig!I23)</f>
         <v/>
       </c>
-      <c r="J23" s="2" t="str">
-        <f>if(fig!J23=1,J1&amp;","&amp;$A23,"")</f>
+      <c r="J23" s="11" t="str">
+        <f>if(ISBLANK(fig!J23),"",J1&amp;","&amp;$A23&amp;","&amp;fig!J23)</f>
+        <v>-6,4,1</v>
+      </c>
+      <c r="K23" s="11" t="str">
+        <f>if(ISBLANK(fig!K23),"",K1&amp;","&amp;$A23&amp;","&amp;fig!K23)</f>
+        <v>-5,4,4</v>
+      </c>
+      <c r="L23" s="11" t="str">
+        <f>if(ISBLANK(fig!L23),"",L1&amp;","&amp;$A23&amp;","&amp;fig!L23)</f>
+        <v>-4,4,4</v>
+      </c>
+      <c r="M23" s="11" t="str">
+        <f>if(ISBLANK(fig!M23),"",M1&amp;","&amp;$A23&amp;","&amp;fig!M23)</f>
+        <v>-3,4,4</v>
+      </c>
+      <c r="N23" s="11" t="str">
+        <f>if(ISBLANK(fig!N23),"",N1&amp;","&amp;$A23&amp;","&amp;fig!N23)</f>
+        <v>-2,4,1</v>
+      </c>
+      <c r="O23" s="11" t="str">
+        <f>if(ISBLANK(fig!O23),"",O1&amp;","&amp;$A23&amp;","&amp;fig!O23)</f>
+        <v>-1,4,1</v>
+      </c>
+      <c r="P23" s="11" t="str">
+        <f>if(ISBLANK(fig!P23),"",P1&amp;","&amp;$A23&amp;","&amp;fig!P23)</f>
+        <v>0,4,1</v>
+      </c>
+      <c r="Q23" s="11" t="str">
+        <f>if(ISBLANK(fig!Q23),"",Q1&amp;","&amp;$A23&amp;","&amp;fig!Q23)</f>
+        <v>1,4,1</v>
+      </c>
+      <c r="R23" s="11" t="str">
+        <f>if(ISBLANK(fig!R23),"",R1&amp;","&amp;$A23&amp;","&amp;fig!R23)</f>
+        <v>2,4,1</v>
+      </c>
+      <c r="S23" s="11" t="str">
+        <f>if(ISBLANK(fig!S23),"",S1&amp;","&amp;$A23&amp;","&amp;fig!S23)</f>
+        <v>3,4,4</v>
+      </c>
+      <c r="T23" s="11" t="str">
+        <f>if(ISBLANK(fig!T23),"",T1&amp;","&amp;$A23&amp;","&amp;fig!T23)</f>
+        <v>4,4,4</v>
+      </c>
+      <c r="U23" s="11" t="str">
+        <f>if(ISBLANK(fig!U23),"",U1&amp;","&amp;$A23&amp;","&amp;fig!U23)</f>
+        <v>5,4,4</v>
+      </c>
+      <c r="V23" s="11" t="str">
+        <f>if(ISBLANK(fig!V23),"",V1&amp;","&amp;$A23&amp;","&amp;fig!V23)</f>
+        <v>6,4,1</v>
+      </c>
+      <c r="W23" s="11" t="str">
+        <f>if(ISBLANK(fig!W23),"",W1&amp;","&amp;$A23&amp;","&amp;fig!W23)</f>
         <v/>
       </c>
-      <c r="K23" s="2" t="str">
-        <f>if(fig!K23=1,K1&amp;","&amp;$A23,"")</f>
-        <v>-5,4</v>
-      </c>
-      <c r="L23" s="2" t="str">
-        <f>if(fig!L23=1,L1&amp;","&amp;$A23,"")</f>
-        <v>-4,4</v>
-      </c>
-      <c r="M23" s="2" t="str">
-        <f>if(fig!M23=1,M1&amp;","&amp;$A23,"")</f>
-        <v>-3,4</v>
-      </c>
-      <c r="N23" s="2" t="str">
-        <f>if(fig!N23=1,N1&amp;","&amp;$A23,"")</f>
-        <v>-2,4</v>
-      </c>
-      <c r="O23" s="2" t="str">
-        <f>if(fig!O23=1,O1&amp;","&amp;$A23,"")</f>
-        <v>-1,4</v>
-      </c>
-      <c r="P23" s="2" t="str">
-        <f>if(fig!P23=1,P1&amp;","&amp;$A23,"")</f>
-        <v>0,4</v>
-      </c>
-      <c r="Q23" s="2" t="str">
-        <f>if(fig!Q23=1,Q1&amp;","&amp;$A23,"")</f>
-        <v>1,4</v>
-      </c>
-      <c r="R23" s="2" t="str">
-        <f>if(fig!R23=1,R1&amp;","&amp;$A23,"")</f>
-        <v>2,4</v>
-      </c>
-      <c r="S23" s="2" t="str">
-        <f>if(fig!S23=1,S1&amp;","&amp;$A23,"")</f>
-        <v>3,4</v>
-      </c>
-      <c r="T23" s="2" t="str">
-        <f>if(fig!T23=1,T1&amp;","&amp;$A23,"")</f>
-        <v>4,4</v>
-      </c>
-      <c r="U23" s="2" t="str">
-        <f>if(fig!U23=1,U1&amp;","&amp;$A23,"")</f>
-        <v>5,4</v>
-      </c>
-      <c r="V23" s="2" t="str">
-        <f>if(fig!V23=1,V1&amp;","&amp;$A23,"")</f>
+      <c r="X23" s="11" t="str">
+        <f>if(ISBLANK(fig!X23),"",X1&amp;","&amp;$A23&amp;","&amp;fig!X23)</f>
         <v/>
       </c>
-      <c r="W23" s="2" t="str">
-        <f>if(fig!W23=1,W1&amp;","&amp;$A23,"")</f>
+      <c r="Y23" s="11" t="str">
+        <f>if(ISBLANK(fig!Y23),"",Y1&amp;","&amp;$A23&amp;","&amp;fig!Y23)</f>
         <v/>
       </c>
-      <c r="X23" s="2" t="str">
-        <f>if(fig!X23=1,X1&amp;","&amp;$A23,"")</f>
+      <c r="Z23" s="11" t="str">
+        <f>if(ISBLANK(fig!Z23),"",Z1&amp;","&amp;$A23&amp;","&amp;fig!Z23)</f>
         <v/>
       </c>
-      <c r="Y23" s="2" t="str">
-        <f>if(fig!Y23=1,Y1&amp;","&amp;$A23,"")</f>
+      <c r="AA23" s="11" t="str">
+        <f>if(ISBLANK(fig!AA23),"",AA1&amp;","&amp;$A23&amp;","&amp;fig!AA23)</f>
         <v/>
       </c>
-      <c r="Z23" s="2" t="str">
-        <f>if(fig!Z23=1,Z1&amp;","&amp;$A23,"")</f>
+      <c r="AB23" s="11" t="str">
+        <f>if(ISBLANK(fig!AB23),"",AB1&amp;","&amp;$A23&amp;","&amp;fig!AB23)</f>
         <v/>
       </c>
-      <c r="AA23" s="2" t="str">
-        <f>if(fig!AA23=1,AA1&amp;","&amp;$A23,"")</f>
-        <v/>
-      </c>
-      <c r="AB23" s="2" t="str">
-        <f>if(fig!AB23=1,AB1&amp;","&amp;$A23,"")</f>
-        <v/>
-      </c>
-      <c r="AC23" s="2" t="str">
-        <f>if(fig!AC23=1,AC1&amp;","&amp;$A23,"")</f>
+      <c r="AC23" s="11" t="str">
+        <f>if(ISBLANK(fig!AC23),"",AC1&amp;","&amp;$A23&amp;","&amp;fig!AC23)</f>
         <v/>
       </c>
     </row>
@@ -34654,116 +34836,116 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="B24" s="2" t="str">
-        <f>if(fig!B24=1,B1&amp;","&amp;$A24,"")</f>
+      <c r="B24" s="11" t="str">
+        <f>if(ISBLANK(fig!B24),"",B1&amp;","&amp;$A24&amp;","&amp;fig!B24)</f>
         <v/>
       </c>
-      <c r="C24" s="2" t="str">
-        <f>if(fig!C24=1,C1&amp;","&amp;$A24,"")</f>
+      <c r="C24" s="11" t="str">
+        <f>if(ISBLANK(fig!C24),"",C1&amp;","&amp;$A24&amp;","&amp;fig!C24)</f>
         <v/>
       </c>
-      <c r="D24" s="2" t="str">
-        <f>if(fig!D24=1,D1&amp;","&amp;$A24,"")</f>
+      <c r="D24" s="11" t="str">
+        <f>if(ISBLANK(fig!D24),"",D1&amp;","&amp;$A24&amp;","&amp;fig!D24)</f>
         <v/>
       </c>
-      <c r="E24" s="2" t="str">
-        <f>if(fig!E24=1,E1&amp;","&amp;$A24,"")</f>
+      <c r="E24" s="11" t="str">
+        <f>if(ISBLANK(fig!E24),"",E1&amp;","&amp;$A24&amp;","&amp;fig!E24)</f>
         <v/>
       </c>
-      <c r="F24" s="2" t="str">
-        <f>if(fig!F24=1,F1&amp;","&amp;$A24,"")</f>
+      <c r="F24" s="11" t="str">
+        <f>if(ISBLANK(fig!F24),"",F1&amp;","&amp;$A24&amp;","&amp;fig!F24)</f>
         <v/>
       </c>
-      <c r="G24" s="2" t="str">
-        <f>if(fig!G24=1,G1&amp;","&amp;$A24,"")</f>
+      <c r="G24" s="11" t="str">
+        <f>if(ISBLANK(fig!G24),"",G1&amp;","&amp;$A24&amp;","&amp;fig!G24)</f>
         <v/>
       </c>
-      <c r="H24" s="2" t="str">
-        <f>if(fig!H24=1,H1&amp;","&amp;$A24,"")</f>
+      <c r="H24" s="11" t="str">
+        <f>if(ISBLANK(fig!H24),"",H1&amp;","&amp;$A24&amp;","&amp;fig!H24)</f>
         <v/>
       </c>
-      <c r="I24" s="2" t="str">
-        <f>if(fig!I24=1,I1&amp;","&amp;$A24,"")</f>
+      <c r="I24" s="11" t="str">
+        <f>if(ISBLANK(fig!I24),"",I1&amp;","&amp;$A24&amp;","&amp;fig!I24)</f>
+        <v>-7,3,1</v>
+      </c>
+      <c r="J24" s="11" t="str">
+        <f>if(ISBLANK(fig!J24),"",J1&amp;","&amp;$A24&amp;","&amp;fig!J24)</f>
+        <v>-6,3,4</v>
+      </c>
+      <c r="K24" s="11" t="str">
+        <f>if(ISBLANK(fig!K24),"",K1&amp;","&amp;$A24&amp;","&amp;fig!K24)</f>
+        <v>-5,3,1</v>
+      </c>
+      <c r="L24" s="11" t="str">
+        <f>if(ISBLANK(fig!L24),"",L1&amp;","&amp;$A24&amp;","&amp;fig!L24)</f>
+        <v>-4,3,1</v>
+      </c>
+      <c r="M24" s="11" t="str">
+        <f>if(ISBLANK(fig!M24),"",M1&amp;","&amp;$A24&amp;","&amp;fig!M24)</f>
+        <v>-3,3,1</v>
+      </c>
+      <c r="N24" s="11" t="str">
+        <f>if(ISBLANK(fig!N24),"",N1&amp;","&amp;$A24&amp;","&amp;fig!N24)</f>
+        <v>-2,3,1</v>
+      </c>
+      <c r="O24" s="11" t="str">
+        <f>if(ISBLANK(fig!O24),"",O1&amp;","&amp;$A24&amp;","&amp;fig!O24)</f>
         <v/>
       </c>
-      <c r="J24" s="2" t="str">
-        <f>if(fig!J24=1,J1&amp;","&amp;$A24,"")</f>
-        <v>-6,3</v>
-      </c>
-      <c r="K24" s="2" t="str">
-        <f>if(fig!K24=1,K1&amp;","&amp;$A24,"")</f>
-        <v>-5,3</v>
-      </c>
-      <c r="L24" s="2" t="str">
-        <f>if(fig!L24=1,L1&amp;","&amp;$A24,"")</f>
-        <v>-4,3</v>
-      </c>
-      <c r="M24" s="2" t="str">
-        <f>if(fig!M24=1,M1&amp;","&amp;$A24,"")</f>
-        <v>-3,3</v>
-      </c>
-      <c r="N24" s="2" t="str">
-        <f>if(fig!N24=1,N1&amp;","&amp;$A24,"")</f>
-        <v>-2,3</v>
-      </c>
-      <c r="O24" s="2" t="str">
-        <f>if(fig!O24=1,O1&amp;","&amp;$A24,"")</f>
-        <v>-1,3</v>
-      </c>
-      <c r="P24" s="2" t="str">
-        <f>if(fig!P24=1,P1&amp;","&amp;$A24,"")</f>
-        <v>0,3</v>
-      </c>
-      <c r="Q24" s="2" t="str">
-        <f>if(fig!Q24=1,Q1&amp;","&amp;$A24,"")</f>
-        <v>1,3</v>
-      </c>
-      <c r="R24" s="2" t="str">
-        <f>if(fig!R24=1,R1&amp;","&amp;$A24,"")</f>
-        <v>2,3</v>
-      </c>
-      <c r="S24" s="2" t="str">
-        <f>if(fig!S24=1,S1&amp;","&amp;$A24,"")</f>
-        <v>3,3</v>
-      </c>
-      <c r="T24" s="2" t="str">
-        <f>if(fig!T24=1,T1&amp;","&amp;$A24,"")</f>
-        <v>4,3</v>
-      </c>
-      <c r="U24" s="2" t="str">
-        <f>if(fig!U24=1,U1&amp;","&amp;$A24,"")</f>
-        <v>5,3</v>
-      </c>
-      <c r="V24" s="2" t="str">
-        <f>if(fig!V24=1,V1&amp;","&amp;$A24,"")</f>
-        <v>6,3</v>
-      </c>
-      <c r="W24" s="2" t="str">
-        <f>if(fig!W24=1,W1&amp;","&amp;$A24,"")</f>
+      <c r="P24" s="11" t="str">
+        <f>if(ISBLANK(fig!P24),"",P1&amp;","&amp;$A24&amp;","&amp;fig!P24)</f>
         <v/>
       </c>
-      <c r="X24" s="2" t="str">
-        <f>if(fig!X24=1,X1&amp;","&amp;$A24,"")</f>
+      <c r="Q24" s="11" t="str">
+        <f>if(ISBLANK(fig!Q24),"",Q1&amp;","&amp;$A24&amp;","&amp;fig!Q24)</f>
         <v/>
       </c>
-      <c r="Y24" s="2" t="str">
-        <f>if(fig!Y24=1,Y1&amp;","&amp;$A24,"")</f>
+      <c r="R24" s="11" t="str">
+        <f>if(ISBLANK(fig!R24),"",R1&amp;","&amp;$A24&amp;","&amp;fig!R24)</f>
+        <v>2,3,1</v>
+      </c>
+      <c r="S24" s="11" t="str">
+        <f>if(ISBLANK(fig!S24),"",S1&amp;","&amp;$A24&amp;","&amp;fig!S24)</f>
+        <v>3,3,1</v>
+      </c>
+      <c r="T24" s="11" t="str">
+        <f>if(ISBLANK(fig!T24),"",T1&amp;","&amp;$A24&amp;","&amp;fig!T24)</f>
+        <v>4,3,1</v>
+      </c>
+      <c r="U24" s="11" t="str">
+        <f>if(ISBLANK(fig!U24),"",U1&amp;","&amp;$A24&amp;","&amp;fig!U24)</f>
+        <v>5,3,1</v>
+      </c>
+      <c r="V24" s="11" t="str">
+        <f>if(ISBLANK(fig!V24),"",V1&amp;","&amp;$A24&amp;","&amp;fig!V24)</f>
+        <v>6,3,4</v>
+      </c>
+      <c r="W24" s="11" t="str">
+        <f>if(ISBLANK(fig!W24),"",W1&amp;","&amp;$A24&amp;","&amp;fig!W24)</f>
+        <v>7,3,1</v>
+      </c>
+      <c r="X24" s="11" t="str">
+        <f>if(ISBLANK(fig!X24),"",X1&amp;","&amp;$A24&amp;","&amp;fig!X24)</f>
         <v/>
       </c>
-      <c r="Z24" s="2" t="str">
-        <f>if(fig!Z24=1,Z1&amp;","&amp;$A24,"")</f>
+      <c r="Y24" s="11" t="str">
+        <f>if(ISBLANK(fig!Y24),"",Y1&amp;","&amp;$A24&amp;","&amp;fig!Y24)</f>
         <v/>
       </c>
-      <c r="AA24" s="2" t="str">
-        <f>if(fig!AA24=1,AA1&amp;","&amp;$A24,"")</f>
+      <c r="Z24" s="11" t="str">
+        <f>if(ISBLANK(fig!Z24),"",Z1&amp;","&amp;$A24&amp;","&amp;fig!Z24)</f>
         <v/>
       </c>
-      <c r="AB24" s="2" t="str">
-        <f>if(fig!AB24=1,AB1&amp;","&amp;$A24,"")</f>
+      <c r="AA24" s="11" t="str">
+        <f>if(ISBLANK(fig!AA24),"",AA1&amp;","&amp;$A24&amp;","&amp;fig!AA24)</f>
         <v/>
       </c>
-      <c r="AC24" s="2" t="str">
-        <f>if(fig!AC24=1,AC1&amp;","&amp;$A24,"")</f>
+      <c r="AB24" s="11" t="str">
+        <f>if(ISBLANK(fig!AB24),"",AB1&amp;","&amp;$A24&amp;","&amp;fig!AB24)</f>
+        <v/>
+      </c>
+      <c r="AC24" s="11" t="str">
+        <f>if(ISBLANK(fig!AC24),"",AC1&amp;","&amp;$A24&amp;","&amp;fig!AC24)</f>
         <v/>
       </c>
     </row>
@@ -34772,116 +34954,116 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="B25" s="2" t="str">
-        <f>if(fig!B25=1,B1&amp;","&amp;$A25,"")</f>
+      <c r="B25" s="11" t="str">
+        <f>if(ISBLANK(fig!B25),"",B1&amp;","&amp;$A25&amp;","&amp;fig!B25)</f>
         <v/>
       </c>
-      <c r="C25" s="2" t="str">
-        <f>if(fig!C25=1,C1&amp;","&amp;$A25,"")</f>
+      <c r="C25" s="11" t="str">
+        <f>if(ISBLANK(fig!C25),"",C1&amp;","&amp;$A25&amp;","&amp;fig!C25)</f>
         <v/>
       </c>
-      <c r="D25" s="2" t="str">
-        <f>if(fig!D25=1,D1&amp;","&amp;$A25,"")</f>
+      <c r="D25" s="11" t="str">
+        <f>if(ISBLANK(fig!D25),"",D1&amp;","&amp;$A25&amp;","&amp;fig!D25)</f>
         <v/>
       </c>
-      <c r="E25" s="2" t="str">
-        <f>if(fig!E25=1,E1&amp;","&amp;$A25,"")</f>
+      <c r="E25" s="11" t="str">
+        <f>if(ISBLANK(fig!E25),"",E1&amp;","&amp;$A25&amp;","&amp;fig!E25)</f>
         <v/>
       </c>
-      <c r="F25" s="2" t="str">
-        <f>if(fig!F25=1,F1&amp;","&amp;$A25,"")</f>
+      <c r="F25" s="11" t="str">
+        <f>if(ISBLANK(fig!F25),"",F1&amp;","&amp;$A25&amp;","&amp;fig!F25)</f>
         <v/>
       </c>
-      <c r="G25" s="2" t="str">
-        <f>if(fig!G25=1,G1&amp;","&amp;$A25,"")</f>
+      <c r="G25" s="11" t="str">
+        <f>if(ISBLANK(fig!G25),"",G1&amp;","&amp;$A25&amp;","&amp;fig!G25)</f>
         <v/>
       </c>
-      <c r="H25" s="2" t="str">
-        <f>if(fig!H25=1,H1&amp;","&amp;$A25,"")</f>
+      <c r="H25" s="11" t="str">
+        <f>if(ISBLANK(fig!H25),"",H1&amp;","&amp;$A25&amp;","&amp;fig!H25)</f>
+        <v>-8,2,1</v>
+      </c>
+      <c r="I25" s="11" t="str">
+        <f>if(ISBLANK(fig!I25),"",I1&amp;","&amp;$A25&amp;","&amp;fig!I25)</f>
+        <v>-7,2,1</v>
+      </c>
+      <c r="J25" s="11" t="str">
+        <f>if(ISBLANK(fig!J25),"",J1&amp;","&amp;$A25&amp;","&amp;fig!J25)</f>
+        <v>-6,2,1</v>
+      </c>
+      <c r="K25" s="11" t="str">
+        <f>if(ISBLANK(fig!K25),"",K1&amp;","&amp;$A25&amp;","&amp;fig!K25)</f>
+        <v>-5,2,1</v>
+      </c>
+      <c r="L25" s="11" t="str">
+        <f>if(ISBLANK(fig!L25),"",L1&amp;","&amp;$A25&amp;","&amp;fig!L25)</f>
         <v/>
       </c>
-      <c r="I25" s="2" t="str">
-        <f>if(fig!I25=1,I1&amp;","&amp;$A25,"")</f>
-        <v>-7,2</v>
-      </c>
-      <c r="J25" s="2" t="str">
-        <f>if(fig!J25=1,J1&amp;","&amp;$A25,"")</f>
-        <v>-6,2</v>
-      </c>
-      <c r="K25" s="2" t="str">
-        <f>if(fig!K25=1,K1&amp;","&amp;$A25,"")</f>
-        <v>-5,2</v>
-      </c>
-      <c r="L25" s="2" t="str">
-        <f>if(fig!L25=1,L1&amp;","&amp;$A25,"")</f>
-        <v>-4,2</v>
-      </c>
-      <c r="M25" s="2" t="str">
-        <f>if(fig!M25=1,M1&amp;","&amp;$A25,"")</f>
-        <v>-3,2</v>
-      </c>
-      <c r="N25" s="2" t="str">
-        <f>if(fig!N25=1,N1&amp;","&amp;$A25,"")</f>
-        <v>-2,2</v>
-      </c>
-      <c r="O25" s="2" t="str">
-        <f>if(fig!O25=1,O1&amp;","&amp;$A25,"")</f>
+      <c r="M25" s="11" t="str">
+        <f>if(ISBLANK(fig!M25),"",M1&amp;","&amp;$A25&amp;","&amp;fig!M25)</f>
         <v/>
       </c>
-      <c r="P25" s="2" t="str">
-        <f>if(fig!P25=1,P1&amp;","&amp;$A25,"")</f>
+      <c r="N25" s="11" t="str">
+        <f>if(ISBLANK(fig!N25),"",N1&amp;","&amp;$A25&amp;","&amp;fig!N25)</f>
         <v/>
       </c>
-      <c r="Q25" s="2" t="str">
-        <f>if(fig!Q25=1,Q1&amp;","&amp;$A25,"")</f>
+      <c r="O25" s="11" t="str">
+        <f>if(ISBLANK(fig!O25),"",O1&amp;","&amp;$A25&amp;","&amp;fig!O25)</f>
         <v/>
       </c>
-      <c r="R25" s="2" t="str">
-        <f>if(fig!R25=1,R1&amp;","&amp;$A25,"")</f>
-        <v>2,2</v>
-      </c>
-      <c r="S25" s="2" t="str">
-        <f>if(fig!S25=1,S1&amp;","&amp;$A25,"")</f>
-        <v>3,2</v>
-      </c>
-      <c r="T25" s="2" t="str">
-        <f>if(fig!T25=1,T1&amp;","&amp;$A25,"")</f>
-        <v>4,2</v>
-      </c>
-      <c r="U25" s="2" t="str">
-        <f>if(fig!U25=1,U1&amp;","&amp;$A25,"")</f>
-        <v>5,2</v>
-      </c>
-      <c r="V25" s="2" t="str">
-        <f>if(fig!V25=1,V1&amp;","&amp;$A25,"")</f>
-        <v>6,2</v>
-      </c>
-      <c r="W25" s="2" t="str">
-        <f>if(fig!W25=1,W1&amp;","&amp;$A25,"")</f>
-        <v>7,2</v>
-      </c>
-      <c r="X25" s="2" t="str">
-        <f>if(fig!X25=1,X1&amp;","&amp;$A25,"")</f>
+      <c r="P25" s="11" t="str">
+        <f>if(ISBLANK(fig!P25),"",P1&amp;","&amp;$A25&amp;","&amp;fig!P25)</f>
         <v/>
       </c>
-      <c r="Y25" s="2" t="str">
-        <f>if(fig!Y25=1,Y1&amp;","&amp;$A25,"")</f>
+      <c r="Q25" s="11" t="str">
+        <f>if(ISBLANK(fig!Q25),"",Q1&amp;","&amp;$A25&amp;","&amp;fig!Q25)</f>
         <v/>
       </c>
-      <c r="Z25" s="2" t="str">
-        <f>if(fig!Z25=1,Z1&amp;","&amp;$A25,"")</f>
+      <c r="R25" s="11" t="str">
+        <f>if(ISBLANK(fig!R25),"",R1&amp;","&amp;$A25&amp;","&amp;fig!R25)</f>
         <v/>
       </c>
-      <c r="AA25" s="2" t="str">
-        <f>if(fig!AA25=1,AA1&amp;","&amp;$A25,"")</f>
+      <c r="S25" s="11" t="str">
+        <f>if(ISBLANK(fig!S25),"",S1&amp;","&amp;$A25&amp;","&amp;fig!S25)</f>
         <v/>
       </c>
-      <c r="AB25" s="2" t="str">
-        <f>if(fig!AB25=1,AB1&amp;","&amp;$A25,"")</f>
+      <c r="T25" s="11" t="str">
+        <f>if(ISBLANK(fig!T25),"",T1&amp;","&amp;$A25&amp;","&amp;fig!T25)</f>
         <v/>
       </c>
-      <c r="AC25" s="2" t="str">
-        <f>if(fig!AC25=1,AC1&amp;","&amp;$A25,"")</f>
+      <c r="U25" s="11" t="str">
+        <f>if(ISBLANK(fig!U25),"",U1&amp;","&amp;$A25&amp;","&amp;fig!U25)</f>
+        <v>5,2,1</v>
+      </c>
+      <c r="V25" s="11" t="str">
+        <f>if(ISBLANK(fig!V25),"",V1&amp;","&amp;$A25&amp;","&amp;fig!V25)</f>
+        <v>6,2,1</v>
+      </c>
+      <c r="W25" s="11" t="str">
+        <f>if(ISBLANK(fig!W25),"",W1&amp;","&amp;$A25&amp;","&amp;fig!W25)</f>
+        <v>7,2,1</v>
+      </c>
+      <c r="X25" s="11" t="str">
+        <f>if(ISBLANK(fig!X25),"",X1&amp;","&amp;$A25&amp;","&amp;fig!X25)</f>
+        <v>8,2,1</v>
+      </c>
+      <c r="Y25" s="11" t="str">
+        <f>if(ISBLANK(fig!Y25),"",Y1&amp;","&amp;$A25&amp;","&amp;fig!Y25)</f>
+        <v/>
+      </c>
+      <c r="Z25" s="11" t="str">
+        <f>if(ISBLANK(fig!Z25),"",Z1&amp;","&amp;$A25&amp;","&amp;fig!Z25)</f>
+        <v/>
+      </c>
+      <c r="AA25" s="11" t="str">
+        <f>if(ISBLANK(fig!AA25),"",AA1&amp;","&amp;$A25&amp;","&amp;fig!AA25)</f>
+        <v/>
+      </c>
+      <c r="AB25" s="11" t="str">
+        <f>if(ISBLANK(fig!AB25),"",AB1&amp;","&amp;$A25&amp;","&amp;fig!AB25)</f>
+        <v/>
+      </c>
+      <c r="AC25" s="11" t="str">
+        <f>if(ISBLANK(fig!AC25),"",AC1&amp;","&amp;$A25&amp;","&amp;fig!AC25)</f>
         <v/>
       </c>
     </row>
@@ -34889,116 +35071,116 @@
       <c r="A26" s="2">
         <v>1.0</v>
       </c>
-      <c r="B26" s="2" t="str">
-        <f>if(fig!B26=1,B1&amp;","&amp;$A26,"")</f>
+      <c r="B26" s="11" t="str">
+        <f>if(ISBLANK(fig!B26),"",B1&amp;","&amp;$A26&amp;","&amp;fig!B26)</f>
         <v/>
       </c>
-      <c r="C26" s="2" t="str">
-        <f>if(fig!C26=1,C1&amp;","&amp;$A26,"")</f>
+      <c r="C26" s="11" t="str">
+        <f>if(ISBLANK(fig!C26),"",C1&amp;","&amp;$A26&amp;","&amp;fig!C26)</f>
         <v/>
       </c>
-      <c r="D26" s="2" t="str">
-        <f>if(fig!D26=1,D1&amp;","&amp;$A26,"")</f>
+      <c r="D26" s="11" t="str">
+        <f>if(ISBLANK(fig!D26),"",D1&amp;","&amp;$A26&amp;","&amp;fig!D26)</f>
         <v/>
       </c>
-      <c r="E26" s="2" t="str">
-        <f>if(fig!E26=1,E1&amp;","&amp;$A26,"")</f>
+      <c r="E26" s="11" t="str">
+        <f>if(ISBLANK(fig!E26),"",E1&amp;","&amp;$A26&amp;","&amp;fig!E26)</f>
         <v/>
       </c>
-      <c r="F26" s="2" t="str">
-        <f>if(fig!F26=1,F1&amp;","&amp;$A26,"")</f>
+      <c r="F26" s="11" t="str">
+        <f>if(ISBLANK(fig!F26),"",F1&amp;","&amp;$A26&amp;","&amp;fig!F26)</f>
         <v/>
       </c>
-      <c r="G26" s="2" t="str">
-        <f>if(fig!G26=1,G1&amp;","&amp;$A26,"")</f>
+      <c r="G26" s="11" t="str">
+        <f>if(ISBLANK(fig!G26),"",G1&amp;","&amp;$A26&amp;","&amp;fig!G26)</f>
         <v/>
       </c>
-      <c r="H26" s="2" t="str">
-        <f>if(fig!H26=1,H1&amp;","&amp;$A26,"")</f>
-        <v>-8,1</v>
-      </c>
-      <c r="I26" s="2" t="str">
-        <f>if(fig!I26=1,I1&amp;","&amp;$A26,"")</f>
-        <v>-7,1</v>
-      </c>
-      <c r="J26" s="2" t="str">
-        <f>if(fig!J26=1,J1&amp;","&amp;$A26,"")</f>
-        <v>-6,1</v>
-      </c>
-      <c r="K26" s="2" t="str">
-        <f>if(fig!K26=1,K1&amp;","&amp;$A26,"")</f>
-        <v>-5,1</v>
-      </c>
-      <c r="L26" s="2" t="str">
-        <f>if(fig!L26=1,L1&amp;","&amp;$A26,"")</f>
+      <c r="H26" s="11" t="str">
+        <f>if(ISBLANK(fig!H26),"",H1&amp;","&amp;$A26&amp;","&amp;fig!H26)</f>
         <v/>
       </c>
-      <c r="M26" s="2" t="str">
-        <f>if(fig!M26=1,M1&amp;","&amp;$A26,"")</f>
+      <c r="I26" s="11" t="str">
+        <f>if(ISBLANK(fig!I26),"",I1&amp;","&amp;$A26&amp;","&amp;fig!I26)</f>
         <v/>
       </c>
-      <c r="N26" s="2" t="str">
-        <f>if(fig!N26=1,N1&amp;","&amp;$A26,"")</f>
+      <c r="J26" s="11" t="str">
+        <f>if(ISBLANK(fig!J26),"",J1&amp;","&amp;$A26&amp;","&amp;fig!J26)</f>
         <v/>
       </c>
-      <c r="O26" s="2" t="str">
-        <f>if(fig!O26=1,O1&amp;","&amp;$A26,"")</f>
+      <c r="K26" s="11" t="str">
+        <f>if(ISBLANK(fig!K26),"",K1&amp;","&amp;$A26&amp;","&amp;fig!K26)</f>
         <v/>
       </c>
-      <c r="P26" s="2" t="str">
-        <f>if(fig!P26=1,P1&amp;","&amp;$A26,"")</f>
+      <c r="L26" s="11" t="str">
+        <f>if(ISBLANK(fig!L26),"",L1&amp;","&amp;$A26&amp;","&amp;fig!L26)</f>
         <v/>
       </c>
-      <c r="Q26" s="2" t="str">
-        <f>if(fig!Q26=1,Q1&amp;","&amp;$A26,"")</f>
+      <c r="M26" s="11" t="str">
+        <f>if(ISBLANK(fig!M26),"",M1&amp;","&amp;$A26&amp;","&amp;fig!M26)</f>
         <v/>
       </c>
-      <c r="R26" s="2" t="str">
-        <f>if(fig!R26=1,R1&amp;","&amp;$A26,"")</f>
+      <c r="N26" s="11" t="str">
+        <f>if(ISBLANK(fig!N26),"",N1&amp;","&amp;$A26&amp;","&amp;fig!N26)</f>
         <v/>
       </c>
-      <c r="S26" s="2" t="str">
-        <f>if(fig!S26=1,S1&amp;","&amp;$A26,"")</f>
+      <c r="O26" s="11" t="str">
+        <f>if(ISBLANK(fig!O26),"",O1&amp;","&amp;$A26&amp;","&amp;fig!O26)</f>
         <v/>
       </c>
-      <c r="T26" s="2" t="str">
-        <f>if(fig!T26=1,T1&amp;","&amp;$A26,"")</f>
+      <c r="P26" s="11" t="str">
+        <f>if(ISBLANK(fig!P26),"",P1&amp;","&amp;$A26&amp;","&amp;fig!P26)</f>
         <v/>
       </c>
-      <c r="U26" s="2" t="str">
-        <f>if(fig!U26=1,U1&amp;","&amp;$A26,"")</f>
-        <v>5,1</v>
-      </c>
-      <c r="V26" s="2" t="str">
-        <f>if(fig!V26=1,V1&amp;","&amp;$A26,"")</f>
-        <v>6,1</v>
-      </c>
-      <c r="W26" s="2" t="str">
-        <f>if(fig!W26=1,W1&amp;","&amp;$A26,"")</f>
-        <v>7,1</v>
-      </c>
-      <c r="X26" s="2" t="str">
-        <f>if(fig!X26=1,X1&amp;","&amp;$A26,"")</f>
-        <v>8,1</v>
-      </c>
-      <c r="Y26" s="2" t="str">
-        <f>if(fig!Y26=1,Y1&amp;","&amp;$A26,"")</f>
+      <c r="Q26" s="11" t="str">
+        <f>if(ISBLANK(fig!Q26),"",Q1&amp;","&amp;$A26&amp;","&amp;fig!Q26)</f>
         <v/>
       </c>
-      <c r="Z26" s="2" t="str">
-        <f>if(fig!Z26=1,Z1&amp;","&amp;$A26,"")</f>
+      <c r="R26" s="11" t="str">
+        <f>if(ISBLANK(fig!R26),"",R1&amp;","&amp;$A26&amp;","&amp;fig!R26)</f>
         <v/>
       </c>
-      <c r="AA26" s="2" t="str">
-        <f>if(fig!AA26=1,AA1&amp;","&amp;$A26,"")</f>
+      <c r="S26" s="11" t="str">
+        <f>if(ISBLANK(fig!S26),"",S1&amp;","&amp;$A26&amp;","&amp;fig!S26)</f>
         <v/>
       </c>
-      <c r="AB26" s="2" t="str">
-        <f>if(fig!AB26=1,AB1&amp;","&amp;$A26,"")</f>
+      <c r="T26" s="11" t="str">
+        <f>if(ISBLANK(fig!T26),"",T1&amp;","&amp;$A26&amp;","&amp;fig!T26)</f>
         <v/>
       </c>
-      <c r="AC26" s="2" t="str">
-        <f>if(fig!AC26=1,AC1&amp;","&amp;$A26,"")</f>
+      <c r="U26" s="11" t="str">
+        <f>if(ISBLANK(fig!U26),"",U1&amp;","&amp;$A26&amp;","&amp;fig!U26)</f>
+        <v/>
+      </c>
+      <c r="V26" s="11" t="str">
+        <f>if(ISBLANK(fig!V26),"",V1&amp;","&amp;$A26&amp;","&amp;fig!V26)</f>
+        <v/>
+      </c>
+      <c r="W26" s="11" t="str">
+        <f>if(ISBLANK(fig!W26),"",W1&amp;","&amp;$A26&amp;","&amp;fig!W26)</f>
+        <v/>
+      </c>
+      <c r="X26" s="11" t="str">
+        <f>if(ISBLANK(fig!X26),"",X1&amp;","&amp;$A26&amp;","&amp;fig!X26)</f>
+        <v/>
+      </c>
+      <c r="Y26" s="11" t="str">
+        <f>if(ISBLANK(fig!Y26),"",Y1&amp;","&amp;$A26&amp;","&amp;fig!Y26)</f>
+        <v/>
+      </c>
+      <c r="Z26" s="11" t="str">
+        <f>if(ISBLANK(fig!Z26),"",Z1&amp;","&amp;$A26&amp;","&amp;fig!Z26)</f>
+        <v/>
+      </c>
+      <c r="AA26" s="11" t="str">
+        <f>if(ISBLANK(fig!AA26),"",AA1&amp;","&amp;$A26&amp;","&amp;fig!AA26)</f>
+        <v/>
+      </c>
+      <c r="AB26" s="11" t="str">
+        <f>if(ISBLANK(fig!AB26),"",AB1&amp;","&amp;$A26&amp;","&amp;fig!AB26)</f>
+        <v/>
+      </c>
+      <c r="AC26" s="11" t="str">
+        <f>if(ISBLANK(fig!AC26),"",AC1&amp;","&amp;$A26&amp;","&amp;fig!AC26)</f>
         <v/>
       </c>
     </row>
@@ -35029,7 +35211,9 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
+      <c r="AA27" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
     </row>
@@ -65216,11 +65400,11 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>2</v>
       </c>
       <c r="C1" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B1,""en"",""zh-tw"")"),"0：白")</f>
@@ -65228,11 +65412,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
+      <c r="A2" s="14">
         <v>35.0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
+      <c r="B2" s="13" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B2,""en"",""zh-tw"")"),"1：橙色")</f>
@@ -65240,8 +65424,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="s">
-        <v>3</v>
+      <c r="B3" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="C3" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B3,""en"",""zh-tw"")"),"2：品紅")</f>
@@ -65249,8 +65433,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="3" t="s">
-        <v>4</v>
+      <c r="B4" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B4,""en"",""zh-tw"")"),"3：淺藍色")</f>
@@ -65258,8 +65442,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="3" t="s">
-        <v>5</v>
+      <c r="B5" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B5,""en"",""zh-tw"")"),"4：黃色")</f>
@@ -65267,8 +65451,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="3" t="s">
-        <v>6</v>
+      <c r="B6" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="C6" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B6,""en"",""zh-tw"")"),"5：石灰")</f>
@@ -65276,8 +65460,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="3" t="s">
-        <v>7</v>
+      <c r="B7" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B7,""en"",""zh-tw"")"),"6：粉色")</f>
@@ -65285,8 +65469,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="3" t="s">
-        <v>8</v>
+      <c r="B8" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B8,""en"",""zh-tw"")"),"7：灰色")</f>
@@ -65294,8 +65478,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="3" t="s">
-        <v>9</v>
+      <c r="B9" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B9,""en"",""zh-tw"")"),"8：淺灰色")</f>
@@ -65303,8 +65487,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="3" t="s">
-        <v>10</v>
+      <c r="B10" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="C10" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B10,""en"",""zh-tw"")"),"9：青色")</f>
@@ -65312,8 +65496,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="3" t="s">
-        <v>11</v>
+      <c r="B11" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="C11" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B11,""en"",""zh-tw"")"),"10：紫")</f>
@@ -65321,8 +65505,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="3" t="s">
-        <v>12</v>
+      <c r="B12" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C12" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B12,""en"",""zh-tw"")"),"11：藍")</f>
@@ -65330,8 +65514,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="3" t="s">
-        <v>13</v>
+      <c r="B13" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="C13" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B13,""en"",""zh-tw"")"),"12：布朗")</f>
@@ -65339,8 +65523,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="3" t="s">
-        <v>14</v>
+      <c r="B14" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="C14" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14,""en"",""zh-tw"")"),"13：綠")</f>
@@ -65348,8 +65532,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="3" t="s">
-        <v>15</v>
+      <c r="B15" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C15" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B15,""en"",""zh-tw"")"),"14：紅色")</f>
@@ -65357,8 +65541,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="3" t="s">
-        <v>16</v>
+      <c r="B16" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C16" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16,""en"",""zh-tw"")"),"15：黑色")</f>
@@ -65366,14 +65550,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6"/>
+      <c r="A18" s="15"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="13" t="s">
         <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="C19" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19,""en"",""zh-tw"")"),"0：橡木（上/下）")</f>
@@ -65381,11 +65565,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5">
+      <c r="A20" s="14">
         <v>17.0</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>19</v>
+      <c r="B20" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B20,""en"",""zh-tw"")"),"1：雲杉（上/下）")</f>
@@ -65393,8 +65577,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="3" t="s">
-        <v>20</v>
+      <c r="B21" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C21" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21,""en"",""zh-tw"")"),"2：樺木（上/下）")</f>
@@ -65402,8 +65586,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="3" t="s">
-        <v>21</v>
+      <c r="B22" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="C22" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22,""en"",""zh-tw"")"),"（下面沒有PI）")</f>
@@ -65411,8 +65595,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="3" t="s">
-        <v>22</v>
+      <c r="B23" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="C23" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B23,""en"",""zh-tw"")"),"3：叢林（上/下）")</f>
@@ -65420,8 +65604,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="3" t="s">
-        <v>23</v>
+      <c r="B24" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="C24" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B24,""en"",""zh-tw"")"),"4：橡木（東/西）")</f>
@@ -65429,8 +65613,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="3" t="s">
-        <v>24</v>
+      <c r="B25" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="C25" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25,""en"",""zh-tw"")"),"5：雲杉（東/西）")</f>
@@ -65438,8 +65622,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="3" t="s">
-        <v>25</v>
+      <c r="B26" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="C26" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26,""en"",""zh-tw"")"),"6：樺木（東/西）")</f>
@@ -65447,8 +65631,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="3" t="s">
-        <v>26</v>
+      <c r="B27" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="C27" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B27,""en"",""zh-tw"")"),"7：叢林（東/西）")</f>
@@ -65456,8 +65640,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="3" t="s">
-        <v>27</v>
+      <c r="B28" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="C28" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28,""en"",""zh-tw"")"),"8：橡木（北/南）")</f>
@@ -65465,8 +65649,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="3" t="s">
-        <v>28</v>
+      <c r="B29" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="C29" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29,""en"",""zh-tw"")"),"9：雲杉（北/南）")</f>
@@ -65474,8 +65658,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="3" t="s">
-        <v>29</v>
+      <c r="B30" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="C30" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30,""en"",""zh-tw"")"),"10：樺木（北/南）")</f>
@@ -65483,8 +65667,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="3" t="s">
-        <v>30</v>
+      <c r="B31" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="C31" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B31,""en"",""zh-tw"")"),"11：叢林（北/南）")</f>
@@ -65492,8 +65676,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="3" t="s">
-        <v>31</v>
+      <c r="B32" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="C32" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B32,""en"",""zh-tw"")"),"12：橡木（僅樹皮）")</f>
@@ -65501,8 +65685,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="3" t="s">
-        <v>32</v>
+      <c r="B33" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="C33" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B33,""en"",""zh-tw"")"),"13：雲杉（僅樹皮）")</f>
@@ -65510,8 +65694,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="3" t="s">
-        <v>33</v>
+      <c r="B34" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="C34" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34,""en"",""zh-tw"")"),"14：樺木（僅樹皮）")</f>
@@ -65519,8 +65703,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="3" t="s">
-        <v>34</v>
+      <c r="B35" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="C35" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B35,""en"",""zh-tw"")"),"15：叢林（只有樹皮）")</f>
@@ -65528,14 +65712,14 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6"/>
+      <c r="A37" s="15"/>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="A38" s="13" t="s">
         <v>36</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="C38" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B38,""en"",""zh-tw"")"),"0：橡木")</f>
@@ -65543,11 +65727,11 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5">
+      <c r="A39" s="14">
         <v>6.0</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>37</v>
+      <c r="B39" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="C39" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39,""en"",""zh-tw"")"),"1：雲杉")</f>
@@ -65555,8 +65739,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="3" t="s">
-        <v>38</v>
+      <c r="B40" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="C40" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40,""en"",""zh-tw"")"),"2：樺木")</f>
@@ -65564,14 +65748,14 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6"/>
+      <c r="A42" s="15"/>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="3" t="s">
+      <c r="A43" s="13" t="s">
         <v>40</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="C43" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43,""en"",""zh-tw"")"),"0：灌木")</f>
@@ -65579,11 +65763,11 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5">
+      <c r="A44" s="14">
         <v>31.0</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>41</v>
+      <c r="B44" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="C44" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44,""en"",""zh-tw"")"),"1：草")</f>
@@ -65591,8 +65775,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" s="3" t="s">
-        <v>42</v>
+      <c r="B45" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="C45" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45,""en"",""zh-tw"")"),"2：蕨")</f>
@@ -65600,14 +65784,14 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6"/>
+      <c r="A47" s="15"/>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="13" t="s">
         <v>44</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="C48" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48,""en"",""zh-tw"")"),"1：指向東")</f>
@@ -65615,11 +65799,11 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5">
+      <c r="A49" s="14">
         <v>50.0</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>45</v>
+      <c r="B49" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="C49" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49,""en"",""zh-tw"")"),"2：指向西")</f>
@@ -65627,8 +65811,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" s="3" t="s">
-        <v>46</v>
+      <c r="B50" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="C50" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50,""en"",""zh-tw"")"),"3：指向南")</f>
@@ -65636,8 +65820,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" s="3" t="s">
-        <v>47</v>
+      <c r="B51" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="C51" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51,""en"",""zh-tw"")"),"4：指向北方")</f>
@@ -65645,8 +65829,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" s="3" t="s">
-        <v>48</v>
+      <c r="B52" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="C52" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52,""en"",""zh-tw"")"),"5：正視")</f>
@@ -65654,14 +65838,14 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6"/>
+      <c r="A54" s="15"/>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" s="3" t="s">
+      <c r="A55" s="13" t="s">
         <v>50</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="C55" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B55,""en"",""zh-tw"")"),"0：石磚")</f>
@@ -65669,8 +65853,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" s="3" t="s">
-        <v>51</v>
+      <c r="B56" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="C56" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B56,""en"",""zh-tw"")"),"1：青苔石磚")</f>
@@ -65678,8 +65862,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" s="3" t="s">
-        <v>52</v>
+      <c r="B57" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C57" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B57,""en"",""zh-tw"")"),"2：破裂的石磚")</f>
@@ -65687,8 +65871,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" s="3" t="s">
-        <v>53</v>
+      <c r="B58" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="C58" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B58,""en"",""zh-tw"")"),"3：鑿刻石磚")</f>
@@ -65696,14 +65880,14 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="6"/>
+      <c r="A60" s="15"/>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" s="3" t="s">
+      <c r="A61" s="13" t="s">
         <v>55</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="C61" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B61,""en"",""zh-tw"")"),"0：石")</f>
@@ -65711,8 +65895,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" s="3" t="s">
-        <v>56</v>
+      <c r="B62" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="C62" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B62,""en"",""zh-tw"")"),"1：砂岩")</f>
@@ -65720,8 +65904,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" s="3" t="s">
-        <v>57</v>
+      <c r="B63" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="C63" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B63,""en"",""zh-tw"")"),"2：木")</f>
@@ -65729,8 +65913,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" s="3" t="s">
-        <v>58</v>
+      <c r="B64" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="C64" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B64,""en"",""zh-tw"")"),"3：鵝卵石")</f>
@@ -65738,8 +65922,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" s="3" t="s">
-        <v>59</v>
+      <c r="B65" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="C65" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B65,""en"",""zh-tw"")"),"4：磚")</f>
@@ -65747,8 +65931,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" s="3" t="s">
-        <v>60</v>
+      <c r="B66" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="C66" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66,""en"",""zh-tw"")"),"5：石磚")</f>
@@ -65756,8 +65940,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" s="3" t="s">
-        <v>61</v>
+      <c r="B67" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="C67" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B67,""en"",""zh-tw"")"),"下面 - 不是在皮")</f>
@@ -65765,8 +65949,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" s="3" t="s">
-        <v>62</v>
+      <c r="B68" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="C68" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B68,""en"",""zh-tw"")"),"6：幽冥磚")</f>
@@ -65774,8 +65958,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" s="3" t="s">
-        <v>63</v>
+      <c r="B69" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="C69" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B69,""en"",""zh-tw"")"),"7：石英")</f>
@@ -65783,14 +65967,14 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="6"/>
+      <c r="A70" s="15"/>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B71" s="3" t="s">
+      <c r="A71" s="13" t="s">
         <v>65</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="C71" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B71,""en"",""zh-tw"")"),"0：無效")</f>
@@ -65798,11 +65982,11 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="5">
+      <c r="A72" s="14">
         <v>46.0</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>66</v>
+      <c r="B72" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="C72" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B72,""en"",""zh-tw"")"),"1：準備爆炸")</f>
@@ -65810,14 +65994,14 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="6"/>
+      <c r="A74" s="15"/>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B75" s="3" t="s">
+      <c r="A75" s="13" t="s">
         <v>68</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="C75" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B75,""en"",""zh-tw"")"),"1：橡樹葉")</f>
@@ -65825,11 +66009,11 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="5">
+      <c r="A76" s="14">
         <v>18.0</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>69</v>
+      <c r="B76" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="C76" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B76,""en"",""zh-tw"")"),"2：雲杉葉")</f>
@@ -65837,8 +66021,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" s="3" t="s">
-        <v>70</v>
+      <c r="B77" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="C77" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B77,""en"",""zh-tw"")"),"3：樺樹葉")</f>
@@ -65846,14 +66030,14 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="6"/>
+      <c r="A79" s="15"/>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B80" s="3" t="s">
+      <c r="A80" s="13" t="s">
         <v>72</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="C80" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B80,""en"",""zh-tw"")"),"0：砂岩")</f>
@@ -65861,11 +66045,11 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="5">
+      <c r="A81" s="14">
         <v>24.0</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>73</v>
+      <c r="B81" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="C81" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B81,""en"",""zh-tw"")"),"1：鑿刻砂岩")</f>
@@ -65873,8 +66057,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" s="3" t="s">
-        <v>74</v>
+      <c r="B82" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="C82" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B82,""en"",""zh-tw"")"),"2：平滑砂岩")</f>
@@ -65882,14 +66066,14 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="6"/>
+      <c r="A84" s="15"/>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B85" s="3" t="s">
+      <c r="A85" s="13" t="s">
         <v>76</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="C85" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B85,""en"",""zh-tw"")"),"0：升序東")</f>
@@ -65897,11 +66081,11 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="5">
+      <c r="A86" s="14">
         <v>67.0</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>77</v>
+      <c r="B86" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="C86" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B86,""en"",""zh-tw"")"),"1：升序西")</f>
@@ -65909,8 +66093,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" s="3" t="s">
-        <v>78</v>
+      <c r="B87" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="C87" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B87,""en"",""zh-tw"")"),"2：升序南")</f>
@@ -65918,8 +66102,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" s="3" t="s">
-        <v>79</v>
+      <c r="B88" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="C88" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B88,""en"",""zh-tw"")"),"3：升序北")</f>
@@ -65927,8 +66111,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" s="3" t="s">
-        <v>80</v>
+      <c r="B89" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="C89" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B89,""en"",""zh-tw"")"),"4：升序東（倒置）")</f>
@@ -65936,8 +66120,8 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" s="3" t="s">
-        <v>81</v>
+      <c r="B90" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="C90" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B90,""en"",""zh-tw"")"),"5：升序西（倒置）")</f>
@@ -65945,8 +66129,8 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" s="3" t="s">
-        <v>82</v>
+      <c r="B91" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="C91" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B91,""en"",""zh-tw"")"),"6：升序南（顛倒）")</f>
@@ -65954,8 +66138,8 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" s="3" t="s">
-        <v>83</v>
+      <c r="B92" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="C92" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B92,""en"",""zh-tw"")"),"7：升序北（倒置）")</f>
@@ -65963,14 +66147,14 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="6"/>
+      <c r="A94" s="15"/>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B95" s="3" t="s">
+      <c r="A95" s="13" t="s">
         <v>85</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="C95" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B95,""en"",""zh-tw"")"),"2：朝北")</f>
@@ -65978,11 +66162,11 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B96" s="3" t="s">
+      <c r="A96" s="14" t="s">
         <v>87</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="C96" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B96,""en"",""zh-tw"")"),"3：坐北朝南")</f>
@@ -65990,8 +66174,8 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" s="3" t="s">
-        <v>88</v>
+      <c r="B97" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="C97" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B97,""en"",""zh-tw"")"),"4：朝西")</f>
@@ -65999,8 +66183,8 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" s="3" t="s">
-        <v>89</v>
+      <c r="B98" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="C98" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B98,""en"",""zh-tw"")"),"5：朝東")</f>
@@ -66008,14 +66192,14 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="6"/>
+      <c r="A100" s="15"/>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B101" s="3" t="s">
+      <c r="A101" s="13" t="s">
         <v>91</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="C101" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B101,""en"",""zh-tw"")"),"0-7：水的級別，0是最高，7最低")</f>
@@ -66023,19 +66207,19 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="7">
+      <c r="A102" s="16">
         <v>44419.0</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="6"/>
+      <c r="A103" s="15"/>
     </row>
     <row r="104">
-      <c r="A104" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B104" s="3" t="s">
+      <c r="A104" s="13" t="s">
         <v>93</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="C104" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B104,""en"",""zh-tw"")"),"0：未使用")</f>
@@ -66043,11 +66227,11 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="5">
+      <c r="A105" s="14">
         <v>247.0</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>94</v>
+      <c r="B105" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="C105" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B105,""en"",""zh-tw"")"),"1：活動")</f>
@@ -66055,8 +66239,8 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" s="3" t="s">
-        <v>95</v>
+      <c r="B106" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="C106" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B106,""en"",""zh-tw"")"),"2：停止/用完")</f>

--- a/09_project/06_picDot/dotPicMineCraft.xlsx
+++ b/09_project/06_picDot/dotPicMineCraft.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="fig" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="fig_add" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="fig_address" sheetId="2" r:id="rId5"/>
     <sheet state="hidden" name="block_function" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
@@ -313,7 +313,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m-d"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -324,39 +324,17 @@
       <name val="Arial"/>
     </font>
     <font>
-      <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF1C232"/>
-        <bgColor rgb="FFF1C232"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
-        <bgColor rgb="FFEFEFEF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -371,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -381,35 +359,14 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -417,7 +374,168 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF00FF"/>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6FA8DC"/>
+          <bgColor rgb="FF6FA8DC"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF1C232"/>
+          <bgColor rgb="FFF1C232"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA64D79"/>
+          <bgColor rgb="FFA64D79"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9900FF"/>
+          <bgColor rgb="FF9900FF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF351C75"/>
+          <bgColor rgb="FF351C75"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF9CB9C"/>
+          <bgColor rgb="FFF9CB9C"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF274E13"/>
+          <bgColor rgb="FF274E13"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -762,1180 +880,1213 @@
         <f t="shared" ref="A2:A25" si="3">A3+1</f>
         <v>25</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="1">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="1">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="1">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="1">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="1">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="1">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="6">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="2">
         <v>1.0</v>
       </c>
-      <c r="P10" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="1">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="8">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="2">
         <v>1.0</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="2">
         <v>4.0</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="2">
         <v>1.0</v>
       </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="6">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="2">
         <v>1.0</v>
       </c>
-      <c r="O12" s="7">
+      <c r="P12" s="2">
         <v>4.0</v>
       </c>
-      <c r="P12" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="R12" s="6">
+      <c r="Q12" s="2">
         <v>1.0</v>
       </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="8">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="2">
         <v>1.0</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="2">
         <v>4.0</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="2">
         <v>4.0</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="2">
         <v>4.0</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R13" s="2">
         <v>1.0</v>
       </c>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="1">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="6">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="2">
         <v>1.0</v>
       </c>
-      <c r="N14" s="8">
+      <c r="O14" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="R14" s="2">
         <v>1.0</v>
       </c>
-      <c r="O14" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="P14" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="R14" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="S14" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="6">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="2">
         <v>1.0</v>
       </c>
-      <c r="I15" s="6">
+      <c r="N15" s="2">
         <v>1.0</v>
       </c>
-      <c r="J15" s="6">
+      <c r="O15" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="S15" s="2">
         <v>1.0</v>
       </c>
-      <c r="K15" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L15" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M15" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="N15" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="O15" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="P15" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="R15" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="S15" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="T15" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="U15" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="V15" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="W15" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="X15" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="8">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
         <v>1.0</v>
       </c>
-      <c r="J16" s="7">
+      <c r="I16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="N16" s="2">
         <v>4.0</v>
       </c>
-      <c r="K16" s="7">
+      <c r="O16" s="2">
         <v>4.0</v>
       </c>
-      <c r="L16" s="7">
+      <c r="P16" s="2">
         <v>4.0</v>
       </c>
-      <c r="M16" s="7">
+      <c r="Q16" s="2">
         <v>4.0</v>
       </c>
-      <c r="N16" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="O16" s="7">
+      <c r="R16" s="2">
         <v>4.0</v>
       </c>
-      <c r="P16" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="R16" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="S16" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="T16" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="U16" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="V16" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="W16" s="8">
+      <c r="S16" s="2">
         <v>1.0</v>
       </c>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
+      <c r="T16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="U16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="V16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="W16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="X16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="8">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="2">
         <v>1.0</v>
       </c>
-      <c r="K17" s="7">
+      <c r="J17" s="2">
         <v>4.0</v>
       </c>
-      <c r="L17" s="7">
+      <c r="K17" s="2">
         <v>4.0</v>
       </c>
-      <c r="M17" s="7">
+      <c r="L17" s="2">
         <v>4.0</v>
       </c>
-      <c r="N17" s="10">
+      <c r="M17" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="N17" s="2">
         <v>7.0</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="2">
         <v>4.0</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="2">
         <v>4.0</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="2">
         <v>4.0</v>
       </c>
-      <c r="R17" s="10">
+      <c r="R17" s="2">
         <v>7.0</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="2">
         <v>4.0</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T17" s="2">
         <v>4.0</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U17" s="2">
         <v>4.0</v>
       </c>
-      <c r="V17" s="8">
+      <c r="V17" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="W17" s="2">
         <v>1.0</v>
       </c>
-      <c r="W17" s="9"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="8">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="2">
         <v>1.0</v>
       </c>
-      <c r="L18" s="7">
+      <c r="K18" s="2">
         <v>4.0</v>
       </c>
-      <c r="M18" s="7">
+      <c r="L18" s="2">
         <v>4.0</v>
       </c>
-      <c r="N18" s="10">
+      <c r="M18" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="N18" s="2">
         <v>7.0</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="2">
         <v>4.0</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="2">
         <v>4.0</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="2">
         <v>4.0</v>
       </c>
-      <c r="R18" s="10">
+      <c r="R18" s="2">
         <v>7.0</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S18" s="2">
         <v>4.0</v>
       </c>
-      <c r="T18" s="7">
+      <c r="T18" s="2">
         <v>4.0</v>
       </c>
-      <c r="U18" s="8">
+      <c r="U18" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="V18" s="2">
         <v>1.0</v>
       </c>
-      <c r="V18" s="9"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="8">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="2">
         <v>1.0</v>
       </c>
-      <c r="M19" s="7">
+      <c r="L19" s="2">
         <v>4.0</v>
       </c>
-      <c r="N19" s="7">
+      <c r="M19" s="2">
         <v>4.0</v>
       </c>
-      <c r="O19" s="7">
+      <c r="N19" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="O19" s="2">
         <v>4.0</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="2">
         <v>4.0</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="2">
         <v>4.0</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="S19" s="2">
         <v>4.0</v>
       </c>
-      <c r="S19" s="7">
+      <c r="T19" s="2">
         <v>4.0</v>
       </c>
-      <c r="T19" s="8">
+      <c r="U19" s="2">
         <v>1.0</v>
       </c>
-      <c r="U19" s="9"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="1">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="8">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="2">
         <v>1.0</v>
       </c>
-      <c r="N20" s="7">
+      <c r="M20" s="2">
         <v>4.0</v>
       </c>
-      <c r="O20" s="7">
+      <c r="N20" s="2">
         <v>4.0</v>
       </c>
-      <c r="P20" s="7">
+      <c r="O20" s="2">
         <v>4.0</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="P20" s="2">
         <v>4.0</v>
       </c>
-      <c r="R20" s="7">
+      <c r="Q20" s="2">
         <v>4.0</v>
       </c>
-      <c r="S20" s="8">
+      <c r="R20" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="S20" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="T20" s="2">
         <v>1.0</v>
       </c>
-      <c r="T20" s="9"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="6">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="2">
         <v>1.0</v>
       </c>
-      <c r="M21" s="7">
+      <c r="N21" s="2">
         <v>4.0</v>
       </c>
-      <c r="N21" s="7">
+      <c r="O21" s="2">
         <v>4.0</v>
       </c>
-      <c r="O21" s="7">
+      <c r="P21" s="2">
         <v>4.0</v>
       </c>
-      <c r="P21" s="7">
+      <c r="Q21" s="2">
         <v>4.0</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="R21" s="2">
         <v>4.0</v>
       </c>
-      <c r="R21" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="S21" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="T21" s="6">
+      <c r="S21" s="2">
         <v>1.0</v>
       </c>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="1">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="6">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="2">
         <v>1.0</v>
       </c>
-      <c r="L22" s="7">
+      <c r="M22" s="2">
         <v>4.0</v>
       </c>
-      <c r="M22" s="7">
+      <c r="N22" s="2">
         <v>4.0</v>
       </c>
-      <c r="N22" s="7">
+      <c r="O22" s="2">
         <v>4.0</v>
       </c>
-      <c r="O22" s="7">
+      <c r="P22" s="2">
         <v>4.0</v>
       </c>
-      <c r="P22" s="7">
+      <c r="Q22" s="2">
         <v>4.0</v>
       </c>
-      <c r="Q22" s="7">
+      <c r="R22" s="2">
         <v>4.0</v>
       </c>
-      <c r="R22" s="7">
+      <c r="S22" s="2">
         <v>4.0</v>
       </c>
-      <c r="S22" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="T22" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="U22" s="6">
+      <c r="T22" s="2">
         <v>1.0</v>
       </c>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" s="1">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="6">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="2">
         <v>1.0</v>
       </c>
-      <c r="K23" s="7">
+      <c r="L23" s="2">
         <v>4.0</v>
       </c>
-      <c r="L23" s="7">
+      <c r="M23" s="2">
         <v>4.0</v>
       </c>
-      <c r="M23" s="7">
+      <c r="N23" s="2">
         <v>4.0</v>
       </c>
-      <c r="N23" s="8">
+      <c r="O23" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="R23" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="S23" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="T23" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="U23" s="2">
         <v>1.0</v>
       </c>
-      <c r="O23" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="P23" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q23" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R23" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="S23" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="T23" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="U23" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="V23" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="1">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="6">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="2">
         <v>1.0</v>
       </c>
-      <c r="J24" s="7">
+      <c r="K24" s="2">
         <v>4.0</v>
       </c>
-      <c r="K24" s="8">
+      <c r="L24" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="N24" s="2">
         <v>1.0</v>
       </c>
-      <c r="L24" s="8">
+      <c r="O24" s="2">
         <v>1.0</v>
       </c>
-      <c r="M24" s="8">
+      <c r="P24" s="2">
         <v>1.0</v>
       </c>
-      <c r="N24" s="8">
+      <c r="Q24" s="2">
         <v>1.0</v>
       </c>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="8">
+      <c r="R24" s="2">
         <v>1.0</v>
       </c>
-      <c r="S24" s="8">
+      <c r="S24" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="T24" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="U24" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="V24" s="2">
         <v>1.0</v>
       </c>
-      <c r="T24" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="U24" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="V24" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="W24" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="1">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="6">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="2">
         <v>1.0</v>
       </c>
-      <c r="I25" s="8">
+      <c r="J25" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="K25" s="2">
         <v>1.0</v>
       </c>
-      <c r="J25" s="8">
+      <c r="L25" s="2">
         <v>1.0</v>
       </c>
-      <c r="K25" s="8">
+      <c r="M25" s="2">
         <v>1.0</v>
       </c>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="8">
+      <c r="N25" s="2">
         <v>1.0</v>
       </c>
-      <c r="V25" s="8">
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="2">
         <v>1.0</v>
       </c>
-      <c r="W25" s="8">
+      <c r="S25" s="2">
         <v>1.0</v>
       </c>
-      <c r="X25" s="6">
+      <c r="T25" s="2">
         <v>1.0</v>
       </c>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
+      <c r="U25" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="V25" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="W25" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="2">
         <v>1.0</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="V26" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="W26" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="X26" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="2">
         <v>0.0</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
+      <c r="B27" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="N27" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
+      <c r="Y27" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1"/>
@@ -32101,6 +32252,86 @@
       <c r="AC1000" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:T27 U2:X26 Y2:Y27 Z2:AC26">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:T27 U2:X26 Y2:Y27 Z2:AC26">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:T27 U2:X26 Y2:Y27 Z2:AC26">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:T27 U2:X26 Y2:Y27 Z2:AC26">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:T27 U2:X26 Y2:Y27 Z2:AC26">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:T27 U2:X26 Y2:Y27 Z2:AC26">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:T27 U2:X26 Y2:Y27 Z2:AC26">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:T27 U2:X26 Y2:Y27 Z2:AC26">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:T27 U2:X26 Y2:Y27 Z2:AC26">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:T27 U2:X26 Y2:Y27 Z2:AC26">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:T27 U2:X26 Y2:Y27 Z2:AC26">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:T27 U2:X26 Y2:Y27 Z2:AC26">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:T27 U2:X26 Y2:Y27 Z2:AC26">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:T27 U2:X26 Y2:Y27 Z2:AC26">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:T27 U2:X26 Y2:Y27 Z2:AC26">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:T27 U2:X26 Y2:Y27 Z2:AC26">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -32240,115 +32471,115 @@
         <f t="shared" ref="A2:A25" si="3">A3+1</f>
         <v>25</v>
       </c>
-      <c r="B2" s="11" t="str">
+      <c r="B2" s="2" t="str">
         <f>if(ISBLANK(fig!B2),"",B1&amp;","&amp;$A2&amp;","&amp;fig!B2)</f>
         <v/>
       </c>
-      <c r="C2" s="11" t="str">
+      <c r="C2" s="2" t="str">
         <f>if(ISBLANK(fig!C2),"",C1&amp;","&amp;$A2&amp;","&amp;fig!C2)</f>
         <v/>
       </c>
-      <c r="D2" s="11" t="str">
+      <c r="D2" s="2" t="str">
         <f>if(ISBLANK(fig!D2),"",D1&amp;","&amp;$A2&amp;","&amp;fig!D2)</f>
         <v/>
       </c>
-      <c r="E2" s="11" t="str">
+      <c r="E2" s="2" t="str">
         <f>if(ISBLANK(fig!E2),"",E1&amp;","&amp;$A2&amp;","&amp;fig!E2)</f>
         <v/>
       </c>
-      <c r="F2" s="11" t="str">
+      <c r="F2" s="2" t="str">
         <f>if(ISBLANK(fig!F2),"",F1&amp;","&amp;$A2&amp;","&amp;fig!F2)</f>
         <v/>
       </c>
-      <c r="G2" s="11" t="str">
+      <c r="G2" s="2" t="str">
         <f>if(ISBLANK(fig!G2),"",G1&amp;","&amp;$A2&amp;","&amp;fig!G2)</f>
         <v/>
       </c>
-      <c r="H2" s="11" t="str">
+      <c r="H2" s="2" t="str">
         <f>if(ISBLANK(fig!H2),"",H1&amp;","&amp;$A2&amp;","&amp;fig!H2)</f>
         <v/>
       </c>
-      <c r="I2" s="11" t="str">
+      <c r="I2" s="2" t="str">
         <f>if(ISBLANK(fig!I2),"",I1&amp;","&amp;$A2&amp;","&amp;fig!I2)</f>
         <v/>
       </c>
-      <c r="J2" s="11" t="str">
+      <c r="J2" s="2" t="str">
         <f>if(ISBLANK(fig!J2),"",J1&amp;","&amp;$A2&amp;","&amp;fig!J2)</f>
         <v/>
       </c>
-      <c r="K2" s="11" t="str">
+      <c r="K2" s="2" t="str">
         <f>if(ISBLANK(fig!K2),"",K1&amp;","&amp;$A2&amp;","&amp;fig!K2)</f>
         <v/>
       </c>
-      <c r="L2" s="11" t="str">
+      <c r="L2" s="2" t="str">
         <f>if(ISBLANK(fig!L2),"",L1&amp;","&amp;$A2&amp;","&amp;fig!L2)</f>
         <v/>
       </c>
-      <c r="M2" s="11" t="str">
+      <c r="M2" s="2" t="str">
         <f>if(ISBLANK(fig!M2),"",M1&amp;","&amp;$A2&amp;","&amp;fig!M2)</f>
         <v/>
       </c>
-      <c r="N2" s="11" t="str">
+      <c r="N2" s="2" t="str">
         <f>if(ISBLANK(fig!N2),"",N1&amp;","&amp;$A2&amp;","&amp;fig!N2)</f>
         <v/>
       </c>
-      <c r="O2" s="11" t="str">
+      <c r="O2" s="2" t="str">
         <f>if(ISBLANK(fig!O2),"",O1&amp;","&amp;$A2&amp;","&amp;fig!O2)</f>
         <v/>
       </c>
-      <c r="P2" s="11" t="str">
+      <c r="P2" s="2" t="str">
         <f>if(ISBLANK(fig!P2),"",P1&amp;","&amp;$A2&amp;","&amp;fig!P2)</f>
         <v/>
       </c>
-      <c r="Q2" s="11" t="str">
+      <c r="Q2" s="2" t="str">
         <f>if(ISBLANK(fig!Q2),"",Q1&amp;","&amp;$A2&amp;","&amp;fig!Q2)</f>
         <v/>
       </c>
-      <c r="R2" s="11" t="str">
+      <c r="R2" s="2" t="str">
         <f>if(ISBLANK(fig!R2),"",R1&amp;","&amp;$A2&amp;","&amp;fig!R2)</f>
         <v/>
       </c>
-      <c r="S2" s="11" t="str">
+      <c r="S2" s="2" t="str">
         <f>if(ISBLANK(fig!S2),"",S1&amp;","&amp;$A2&amp;","&amp;fig!S2)</f>
         <v/>
       </c>
-      <c r="T2" s="11" t="str">
+      <c r="T2" s="2" t="str">
         <f>if(ISBLANK(fig!T2),"",T1&amp;","&amp;$A2&amp;","&amp;fig!T2)</f>
         <v/>
       </c>
-      <c r="U2" s="11" t="str">
+      <c r="U2" s="2" t="str">
         <f>if(ISBLANK(fig!U2),"",U1&amp;","&amp;$A2&amp;","&amp;fig!U2)</f>
         <v/>
       </c>
-      <c r="V2" s="11" t="str">
+      <c r="V2" s="2" t="str">
         <f>if(ISBLANK(fig!V2),"",V1&amp;","&amp;$A2&amp;","&amp;fig!V2)</f>
         <v/>
       </c>
-      <c r="W2" s="11" t="str">
+      <c r="W2" s="2" t="str">
         <f>if(ISBLANK(fig!W2),"",W1&amp;","&amp;$A2&amp;","&amp;fig!W2)</f>
         <v/>
       </c>
-      <c r="X2" s="11" t="str">
+      <c r="X2" s="2" t="str">
         <f>if(ISBLANK(fig!X2),"",X1&amp;","&amp;$A2&amp;","&amp;fig!X2)</f>
         <v/>
       </c>
-      <c r="Y2" s="11" t="str">
+      <c r="Y2" s="2" t="str">
         <f>if(ISBLANK(fig!Y2),"",Y1&amp;","&amp;$A2&amp;","&amp;fig!Y2)</f>
         <v/>
       </c>
-      <c r="Z2" s="11" t="str">
+      <c r="Z2" s="2" t="str">
         <f>if(ISBLANK(fig!Z2),"",Z1&amp;","&amp;$A2&amp;","&amp;fig!Z2)</f>
         <v/>
       </c>
-      <c r="AA2" s="11" t="str">
+      <c r="AA2" s="2" t="str">
         <f>if(ISBLANK(fig!AA2),"",AA1&amp;","&amp;$A2&amp;","&amp;fig!AA2)</f>
         <v/>
       </c>
-      <c r="AB2" s="11" t="str">
+      <c r="AB2" s="2" t="str">
         <f>if(ISBLANK(fig!AB2),"",AB1&amp;","&amp;$A2&amp;","&amp;fig!AB2)</f>
         <v/>
       </c>
-      <c r="AC2" s="11" t="str">
+      <c r="AC2" s="2" t="str">
         <f>if(ISBLANK(fig!AC2),"",AC1&amp;","&amp;$A2&amp;","&amp;fig!AC2)</f>
         <v/>
       </c>
@@ -32358,115 +32589,115 @@
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="B3" s="11" t="str">
+      <c r="B3" s="2" t="str">
         <f>if(ISBLANK(fig!B3),"",B1&amp;","&amp;$A3&amp;","&amp;fig!B3)</f>
         <v/>
       </c>
-      <c r="C3" s="11" t="str">
+      <c r="C3" s="2" t="str">
         <f>if(ISBLANK(fig!C3),"",C1&amp;","&amp;$A3&amp;","&amp;fig!C3)</f>
         <v/>
       </c>
-      <c r="D3" s="11" t="str">
+      <c r="D3" s="2" t="str">
         <f>if(ISBLANK(fig!D3),"",D1&amp;","&amp;$A3&amp;","&amp;fig!D3)</f>
         <v/>
       </c>
-      <c r="E3" s="11" t="str">
+      <c r="E3" s="2" t="str">
         <f>if(ISBLANK(fig!E3),"",E1&amp;","&amp;$A3&amp;","&amp;fig!E3)</f>
         <v/>
       </c>
-      <c r="F3" s="11" t="str">
+      <c r="F3" s="2" t="str">
         <f>if(ISBLANK(fig!F3),"",F1&amp;","&amp;$A3&amp;","&amp;fig!F3)</f>
         <v/>
       </c>
-      <c r="G3" s="11" t="str">
+      <c r="G3" s="2" t="str">
         <f>if(ISBLANK(fig!G3),"",G1&amp;","&amp;$A3&amp;","&amp;fig!G3)</f>
         <v/>
       </c>
-      <c r="H3" s="11" t="str">
+      <c r="H3" s="2" t="str">
         <f>if(ISBLANK(fig!H3),"",H1&amp;","&amp;$A3&amp;","&amp;fig!H3)</f>
         <v/>
       </c>
-      <c r="I3" s="11" t="str">
+      <c r="I3" s="2" t="str">
         <f>if(ISBLANK(fig!I3),"",I1&amp;","&amp;$A3&amp;","&amp;fig!I3)</f>
         <v/>
       </c>
-      <c r="J3" s="11" t="str">
+      <c r="J3" s="2" t="str">
         <f>if(ISBLANK(fig!J3),"",J1&amp;","&amp;$A3&amp;","&amp;fig!J3)</f>
         <v/>
       </c>
-      <c r="K3" s="11" t="str">
+      <c r="K3" s="2" t="str">
         <f>if(ISBLANK(fig!K3),"",K1&amp;","&amp;$A3&amp;","&amp;fig!K3)</f>
         <v/>
       </c>
-      <c r="L3" s="11" t="str">
+      <c r="L3" s="2" t="str">
         <f>if(ISBLANK(fig!L3),"",L1&amp;","&amp;$A3&amp;","&amp;fig!L3)</f>
         <v/>
       </c>
-      <c r="M3" s="11" t="str">
+      <c r="M3" s="2" t="str">
         <f>if(ISBLANK(fig!M3),"",M1&amp;","&amp;$A3&amp;","&amp;fig!M3)</f>
         <v/>
       </c>
-      <c r="N3" s="11" t="str">
+      <c r="N3" s="2" t="str">
         <f>if(ISBLANK(fig!N3),"",N1&amp;","&amp;$A3&amp;","&amp;fig!N3)</f>
         <v/>
       </c>
-      <c r="O3" s="11" t="str">
+      <c r="O3" s="2" t="str">
         <f>if(ISBLANK(fig!O3),"",O1&amp;","&amp;$A3&amp;","&amp;fig!O3)</f>
         <v/>
       </c>
-      <c r="P3" s="11" t="str">
+      <c r="P3" s="2" t="str">
         <f>if(ISBLANK(fig!P3),"",P1&amp;","&amp;$A3&amp;","&amp;fig!P3)</f>
         <v/>
       </c>
-      <c r="Q3" s="11" t="str">
+      <c r="Q3" s="2" t="str">
         <f>if(ISBLANK(fig!Q3),"",Q1&amp;","&amp;$A3&amp;","&amp;fig!Q3)</f>
         <v/>
       </c>
-      <c r="R3" s="11" t="str">
+      <c r="R3" s="2" t="str">
         <f>if(ISBLANK(fig!R3),"",R1&amp;","&amp;$A3&amp;","&amp;fig!R3)</f>
         <v/>
       </c>
-      <c r="S3" s="11" t="str">
+      <c r="S3" s="2" t="str">
         <f>if(ISBLANK(fig!S3),"",S1&amp;","&amp;$A3&amp;","&amp;fig!S3)</f>
         <v/>
       </c>
-      <c r="T3" s="11" t="str">
+      <c r="T3" s="2" t="str">
         <f>if(ISBLANK(fig!T3),"",T1&amp;","&amp;$A3&amp;","&amp;fig!T3)</f>
         <v/>
       </c>
-      <c r="U3" s="11" t="str">
+      <c r="U3" s="2" t="str">
         <f>if(ISBLANK(fig!U3),"",U1&amp;","&amp;$A3&amp;","&amp;fig!U3)</f>
         <v/>
       </c>
-      <c r="V3" s="11" t="str">
+      <c r="V3" s="2" t="str">
         <f>if(ISBLANK(fig!V3),"",V1&amp;","&amp;$A3&amp;","&amp;fig!V3)</f>
         <v/>
       </c>
-      <c r="W3" s="11" t="str">
+      <c r="W3" s="2" t="str">
         <f>if(ISBLANK(fig!W3),"",W1&amp;","&amp;$A3&amp;","&amp;fig!W3)</f>
         <v/>
       </c>
-      <c r="X3" s="11" t="str">
+      <c r="X3" s="2" t="str">
         <f>if(ISBLANK(fig!X3),"",X1&amp;","&amp;$A3&amp;","&amp;fig!X3)</f>
         <v/>
       </c>
-      <c r="Y3" s="11" t="str">
+      <c r="Y3" s="2" t="str">
         <f>if(ISBLANK(fig!Y3),"",Y1&amp;","&amp;$A3&amp;","&amp;fig!Y3)</f>
         <v/>
       </c>
-      <c r="Z3" s="11" t="str">
+      <c r="Z3" s="2" t="str">
         <f>if(ISBLANK(fig!Z3),"",Z1&amp;","&amp;$A3&amp;","&amp;fig!Z3)</f>
         <v/>
       </c>
-      <c r="AA3" s="11" t="str">
+      <c r="AA3" s="2" t="str">
         <f>if(ISBLANK(fig!AA3),"",AA1&amp;","&amp;$A3&amp;","&amp;fig!AA3)</f>
         <v/>
       </c>
-      <c r="AB3" s="11" t="str">
+      <c r="AB3" s="2" t="str">
         <f>if(ISBLANK(fig!AB3),"",AB1&amp;","&amp;$A3&amp;","&amp;fig!AB3)</f>
         <v/>
       </c>
-      <c r="AC3" s="11" t="str">
+      <c r="AC3" s="2" t="str">
         <f>if(ISBLANK(fig!AC3),"",AC1&amp;","&amp;$A3&amp;","&amp;fig!AC3)</f>
         <v/>
       </c>
@@ -32476,115 +32707,115 @@
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="B4" s="11" t="str">
+      <c r="B4" s="2" t="str">
         <f>if(ISBLANK(fig!B4),"",B1&amp;","&amp;$A4&amp;","&amp;fig!B4)</f>
         <v/>
       </c>
-      <c r="C4" s="11" t="str">
+      <c r="C4" s="2" t="str">
         <f>if(ISBLANK(fig!C4),"",C1&amp;","&amp;$A4&amp;","&amp;fig!C4)</f>
         <v/>
       </c>
-      <c r="D4" s="11" t="str">
+      <c r="D4" s="2" t="str">
         <f>if(ISBLANK(fig!D4),"",D1&amp;","&amp;$A4&amp;","&amp;fig!D4)</f>
         <v/>
       </c>
-      <c r="E4" s="11" t="str">
+      <c r="E4" s="2" t="str">
         <f>if(ISBLANK(fig!E4),"",E1&amp;","&amp;$A4&amp;","&amp;fig!E4)</f>
         <v/>
       </c>
-      <c r="F4" s="11" t="str">
+      <c r="F4" s="2" t="str">
         <f>if(ISBLANK(fig!F4),"",F1&amp;","&amp;$A4&amp;","&amp;fig!F4)</f>
         <v/>
       </c>
-      <c r="G4" s="11" t="str">
+      <c r="G4" s="2" t="str">
         <f>if(ISBLANK(fig!G4),"",G1&amp;","&amp;$A4&amp;","&amp;fig!G4)</f>
         <v/>
       </c>
-      <c r="H4" s="11" t="str">
+      <c r="H4" s="2" t="str">
         <f>if(ISBLANK(fig!H4),"",H1&amp;","&amp;$A4&amp;","&amp;fig!H4)</f>
         <v/>
       </c>
-      <c r="I4" s="11" t="str">
+      <c r="I4" s="2" t="str">
         <f>if(ISBLANK(fig!I4),"",I1&amp;","&amp;$A4&amp;","&amp;fig!I4)</f>
         <v/>
       </c>
-      <c r="J4" s="11" t="str">
+      <c r="J4" s="2" t="str">
         <f>if(ISBLANK(fig!J4),"",J1&amp;","&amp;$A4&amp;","&amp;fig!J4)</f>
         <v/>
       </c>
-      <c r="K4" s="11" t="str">
+      <c r="K4" s="2" t="str">
         <f>if(ISBLANK(fig!K4),"",K1&amp;","&amp;$A4&amp;","&amp;fig!K4)</f>
         <v/>
       </c>
-      <c r="L4" s="11" t="str">
+      <c r="L4" s="2" t="str">
         <f>if(ISBLANK(fig!L4),"",L1&amp;","&amp;$A4&amp;","&amp;fig!L4)</f>
         <v/>
       </c>
-      <c r="M4" s="11" t="str">
+      <c r="M4" s="2" t="str">
         <f>if(ISBLANK(fig!M4),"",M1&amp;","&amp;$A4&amp;","&amp;fig!M4)</f>
         <v/>
       </c>
-      <c r="N4" s="11" t="str">
+      <c r="N4" s="2" t="str">
         <f>if(ISBLANK(fig!N4),"",N1&amp;","&amp;$A4&amp;","&amp;fig!N4)</f>
         <v/>
       </c>
-      <c r="O4" s="11" t="str">
+      <c r="O4" s="2" t="str">
         <f>if(ISBLANK(fig!O4),"",O1&amp;","&amp;$A4&amp;","&amp;fig!O4)</f>
         <v/>
       </c>
-      <c r="P4" s="11" t="str">
+      <c r="P4" s="2" t="str">
         <f>if(ISBLANK(fig!P4),"",P1&amp;","&amp;$A4&amp;","&amp;fig!P4)</f>
         <v/>
       </c>
-      <c r="Q4" s="11" t="str">
+      <c r="Q4" s="2" t="str">
         <f>if(ISBLANK(fig!Q4),"",Q1&amp;","&amp;$A4&amp;","&amp;fig!Q4)</f>
         <v/>
       </c>
-      <c r="R4" s="11" t="str">
+      <c r="R4" s="2" t="str">
         <f>if(ISBLANK(fig!R4),"",R1&amp;","&amp;$A4&amp;","&amp;fig!R4)</f>
         <v/>
       </c>
-      <c r="S4" s="11" t="str">
+      <c r="S4" s="2" t="str">
         <f>if(ISBLANK(fig!S4),"",S1&amp;","&amp;$A4&amp;","&amp;fig!S4)</f>
         <v/>
       </c>
-      <c r="T4" s="11" t="str">
+      <c r="T4" s="2" t="str">
         <f>if(ISBLANK(fig!T4),"",T1&amp;","&amp;$A4&amp;","&amp;fig!T4)</f>
         <v/>
       </c>
-      <c r="U4" s="11" t="str">
+      <c r="U4" s="2" t="str">
         <f>if(ISBLANK(fig!U4),"",U1&amp;","&amp;$A4&amp;","&amp;fig!U4)</f>
         <v/>
       </c>
-      <c r="V4" s="11" t="str">
+      <c r="V4" s="2" t="str">
         <f>if(ISBLANK(fig!V4),"",V1&amp;","&amp;$A4&amp;","&amp;fig!V4)</f>
         <v/>
       </c>
-      <c r="W4" s="11" t="str">
+      <c r="W4" s="2" t="str">
         <f>if(ISBLANK(fig!W4),"",W1&amp;","&amp;$A4&amp;","&amp;fig!W4)</f>
         <v/>
       </c>
-      <c r="X4" s="11" t="str">
+      <c r="X4" s="2" t="str">
         <f>if(ISBLANK(fig!X4),"",X1&amp;","&amp;$A4&amp;","&amp;fig!X4)</f>
         <v/>
       </c>
-      <c r="Y4" s="11" t="str">
+      <c r="Y4" s="2" t="str">
         <f>if(ISBLANK(fig!Y4),"",Y1&amp;","&amp;$A4&amp;","&amp;fig!Y4)</f>
         <v/>
       </c>
-      <c r="Z4" s="11" t="str">
+      <c r="Z4" s="2" t="str">
         <f>if(ISBLANK(fig!Z4),"",Z1&amp;","&amp;$A4&amp;","&amp;fig!Z4)</f>
         <v/>
       </c>
-      <c r="AA4" s="11" t="str">
+      <c r="AA4" s="2" t="str">
         <f>if(ISBLANK(fig!AA4),"",AA1&amp;","&amp;$A4&amp;","&amp;fig!AA4)</f>
         <v/>
       </c>
-      <c r="AB4" s="11" t="str">
+      <c r="AB4" s="2" t="str">
         <f>if(ISBLANK(fig!AB4),"",AB1&amp;","&amp;$A4&amp;","&amp;fig!AB4)</f>
         <v/>
       </c>
-      <c r="AC4" s="11" t="str">
+      <c r="AC4" s="2" t="str">
         <f>if(ISBLANK(fig!AC4),"",AC1&amp;","&amp;$A4&amp;","&amp;fig!AC4)</f>
         <v/>
       </c>
@@ -32594,115 +32825,115 @@
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="B5" s="11" t="str">
+      <c r="B5" s="2" t="str">
         <f>if(ISBLANK(fig!B5),"",B1&amp;","&amp;$A5&amp;","&amp;fig!B5)</f>
         <v/>
       </c>
-      <c r="C5" s="11" t="str">
+      <c r="C5" s="2" t="str">
         <f>if(ISBLANK(fig!C5),"",C1&amp;","&amp;$A5&amp;","&amp;fig!C5)</f>
         <v/>
       </c>
-      <c r="D5" s="11" t="str">
+      <c r="D5" s="2" t="str">
         <f>if(ISBLANK(fig!D5),"",D1&amp;","&amp;$A5&amp;","&amp;fig!D5)</f>
         <v/>
       </c>
-      <c r="E5" s="11" t="str">
+      <c r="E5" s="2" t="str">
         <f>if(ISBLANK(fig!E5),"",E1&amp;","&amp;$A5&amp;","&amp;fig!E5)</f>
         <v/>
       </c>
-      <c r="F5" s="11" t="str">
+      <c r="F5" s="2" t="str">
         <f>if(ISBLANK(fig!F5),"",F1&amp;","&amp;$A5&amp;","&amp;fig!F5)</f>
         <v/>
       </c>
-      <c r="G5" s="11" t="str">
+      <c r="G5" s="2" t="str">
         <f>if(ISBLANK(fig!G5),"",G1&amp;","&amp;$A5&amp;","&amp;fig!G5)</f>
         <v/>
       </c>
-      <c r="H5" s="11" t="str">
+      <c r="H5" s="2" t="str">
         <f>if(ISBLANK(fig!H5),"",H1&amp;","&amp;$A5&amp;","&amp;fig!H5)</f>
         <v/>
       </c>
-      <c r="I5" s="11" t="str">
+      <c r="I5" s="2" t="str">
         <f>if(ISBLANK(fig!I5),"",I1&amp;","&amp;$A5&amp;","&amp;fig!I5)</f>
         <v/>
       </c>
-      <c r="J5" s="11" t="str">
+      <c r="J5" s="2" t="str">
         <f>if(ISBLANK(fig!J5),"",J1&amp;","&amp;$A5&amp;","&amp;fig!J5)</f>
         <v/>
       </c>
-      <c r="K5" s="11" t="str">
+      <c r="K5" s="2" t="str">
         <f>if(ISBLANK(fig!K5),"",K1&amp;","&amp;$A5&amp;","&amp;fig!K5)</f>
         <v/>
       </c>
-      <c r="L5" s="11" t="str">
+      <c r="L5" s="2" t="str">
         <f>if(ISBLANK(fig!L5),"",L1&amp;","&amp;$A5&amp;","&amp;fig!L5)</f>
         <v/>
       </c>
-      <c r="M5" s="11" t="str">
+      <c r="M5" s="2" t="str">
         <f>if(ISBLANK(fig!M5),"",M1&amp;","&amp;$A5&amp;","&amp;fig!M5)</f>
         <v/>
       </c>
-      <c r="N5" s="11" t="str">
+      <c r="N5" s="2" t="str">
         <f>if(ISBLANK(fig!N5),"",N1&amp;","&amp;$A5&amp;","&amp;fig!N5)</f>
         <v/>
       </c>
-      <c r="O5" s="11" t="str">
+      <c r="O5" s="2" t="str">
         <f>if(ISBLANK(fig!O5),"",O1&amp;","&amp;$A5&amp;","&amp;fig!O5)</f>
         <v/>
       </c>
-      <c r="P5" s="11" t="str">
+      <c r="P5" s="2" t="str">
         <f>if(ISBLANK(fig!P5),"",P1&amp;","&amp;$A5&amp;","&amp;fig!P5)</f>
         <v/>
       </c>
-      <c r="Q5" s="11" t="str">
+      <c r="Q5" s="2" t="str">
         <f>if(ISBLANK(fig!Q5),"",Q1&amp;","&amp;$A5&amp;","&amp;fig!Q5)</f>
         <v/>
       </c>
-      <c r="R5" s="11" t="str">
+      <c r="R5" s="2" t="str">
         <f>if(ISBLANK(fig!R5),"",R1&amp;","&amp;$A5&amp;","&amp;fig!R5)</f>
         <v/>
       </c>
-      <c r="S5" s="11" t="str">
+      <c r="S5" s="2" t="str">
         <f>if(ISBLANK(fig!S5),"",S1&amp;","&amp;$A5&amp;","&amp;fig!S5)</f>
         <v/>
       </c>
-      <c r="T5" s="11" t="str">
+      <c r="T5" s="2" t="str">
         <f>if(ISBLANK(fig!T5),"",T1&amp;","&amp;$A5&amp;","&amp;fig!T5)</f>
         <v/>
       </c>
-      <c r="U5" s="11" t="str">
+      <c r="U5" s="2" t="str">
         <f>if(ISBLANK(fig!U5),"",U1&amp;","&amp;$A5&amp;","&amp;fig!U5)</f>
         <v/>
       </c>
-      <c r="V5" s="11" t="str">
+      <c r="V5" s="2" t="str">
         <f>if(ISBLANK(fig!V5),"",V1&amp;","&amp;$A5&amp;","&amp;fig!V5)</f>
         <v/>
       </c>
-      <c r="W5" s="11" t="str">
+      <c r="W5" s="2" t="str">
         <f>if(ISBLANK(fig!W5),"",W1&amp;","&amp;$A5&amp;","&amp;fig!W5)</f>
         <v/>
       </c>
-      <c r="X5" s="11" t="str">
+      <c r="X5" s="2" t="str">
         <f>if(ISBLANK(fig!X5),"",X1&amp;","&amp;$A5&amp;","&amp;fig!X5)</f>
         <v/>
       </c>
-      <c r="Y5" s="11" t="str">
+      <c r="Y5" s="2" t="str">
         <f>if(ISBLANK(fig!Y5),"",Y1&amp;","&amp;$A5&amp;","&amp;fig!Y5)</f>
         <v/>
       </c>
-      <c r="Z5" s="11" t="str">
+      <c r="Z5" s="2" t="str">
         <f>if(ISBLANK(fig!Z5),"",Z1&amp;","&amp;$A5&amp;","&amp;fig!Z5)</f>
         <v/>
       </c>
-      <c r="AA5" s="11" t="str">
+      <c r="AA5" s="2" t="str">
         <f>if(ISBLANK(fig!AA5),"",AA1&amp;","&amp;$A5&amp;","&amp;fig!AA5)</f>
         <v/>
       </c>
-      <c r="AB5" s="11" t="str">
+      <c r="AB5" s="2" t="str">
         <f>if(ISBLANK(fig!AB5),"",AB1&amp;","&amp;$A5&amp;","&amp;fig!AB5)</f>
         <v/>
       </c>
-      <c r="AC5" s="11" t="str">
+      <c r="AC5" s="2" t="str">
         <f>if(ISBLANK(fig!AC5),"",AC1&amp;","&amp;$A5&amp;","&amp;fig!AC5)</f>
         <v/>
       </c>
@@ -32712,115 +32943,115 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="B6" s="11" t="str">
+      <c r="B6" s="2" t="str">
         <f>if(ISBLANK(fig!B6),"",B1&amp;","&amp;$A6&amp;","&amp;fig!B6)</f>
         <v/>
       </c>
-      <c r="C6" s="11" t="str">
+      <c r="C6" s="2" t="str">
         <f>if(ISBLANK(fig!C6),"",C1&amp;","&amp;$A6&amp;","&amp;fig!C6)</f>
         <v/>
       </c>
-      <c r="D6" s="11" t="str">
+      <c r="D6" s="2" t="str">
         <f>if(ISBLANK(fig!D6),"",D1&amp;","&amp;$A6&amp;","&amp;fig!D6)</f>
         <v/>
       </c>
-      <c r="E6" s="11" t="str">
+      <c r="E6" s="2" t="str">
         <f>if(ISBLANK(fig!E6),"",E1&amp;","&amp;$A6&amp;","&amp;fig!E6)</f>
         <v/>
       </c>
-      <c r="F6" s="11" t="str">
+      <c r="F6" s="2" t="str">
         <f>if(ISBLANK(fig!F6),"",F1&amp;","&amp;$A6&amp;","&amp;fig!F6)</f>
         <v/>
       </c>
-      <c r="G6" s="11" t="str">
+      <c r="G6" s="2" t="str">
         <f>if(ISBLANK(fig!G6),"",G1&amp;","&amp;$A6&amp;","&amp;fig!G6)</f>
         <v/>
       </c>
-      <c r="H6" s="11" t="str">
+      <c r="H6" s="2" t="str">
         <f>if(ISBLANK(fig!H6),"",H1&amp;","&amp;$A6&amp;","&amp;fig!H6)</f>
         <v/>
       </c>
-      <c r="I6" s="11" t="str">
+      <c r="I6" s="2" t="str">
         <f>if(ISBLANK(fig!I6),"",I1&amp;","&amp;$A6&amp;","&amp;fig!I6)</f>
         <v/>
       </c>
-      <c r="J6" s="11" t="str">
+      <c r="J6" s="2" t="str">
         <f>if(ISBLANK(fig!J6),"",J1&amp;","&amp;$A6&amp;","&amp;fig!J6)</f>
         <v/>
       </c>
-      <c r="K6" s="11" t="str">
+      <c r="K6" s="2" t="str">
         <f>if(ISBLANK(fig!K6),"",K1&amp;","&amp;$A6&amp;","&amp;fig!K6)</f>
         <v/>
       </c>
-      <c r="L6" s="11" t="str">
+      <c r="L6" s="2" t="str">
         <f>if(ISBLANK(fig!L6),"",L1&amp;","&amp;$A6&amp;","&amp;fig!L6)</f>
         <v/>
       </c>
-      <c r="M6" s="11" t="str">
+      <c r="M6" s="2" t="str">
         <f>if(ISBLANK(fig!M6),"",M1&amp;","&amp;$A6&amp;","&amp;fig!M6)</f>
         <v/>
       </c>
-      <c r="N6" s="11" t="str">
+      <c r="N6" s="2" t="str">
         <f>if(ISBLANK(fig!N6),"",N1&amp;","&amp;$A6&amp;","&amp;fig!N6)</f>
         <v/>
       </c>
-      <c r="O6" s="11" t="str">
+      <c r="O6" s="2" t="str">
         <f>if(ISBLANK(fig!O6),"",O1&amp;","&amp;$A6&amp;","&amp;fig!O6)</f>
         <v/>
       </c>
-      <c r="P6" s="11" t="str">
+      <c r="P6" s="2" t="str">
         <f>if(ISBLANK(fig!P6),"",P1&amp;","&amp;$A6&amp;","&amp;fig!P6)</f>
         <v/>
       </c>
-      <c r="Q6" s="11" t="str">
+      <c r="Q6" s="2" t="str">
         <f>if(ISBLANK(fig!Q6),"",Q1&amp;","&amp;$A6&amp;","&amp;fig!Q6)</f>
         <v/>
       </c>
-      <c r="R6" s="11" t="str">
+      <c r="R6" s="2" t="str">
         <f>if(ISBLANK(fig!R6),"",R1&amp;","&amp;$A6&amp;","&amp;fig!R6)</f>
         <v/>
       </c>
-      <c r="S6" s="11" t="str">
+      <c r="S6" s="2" t="str">
         <f>if(ISBLANK(fig!S6),"",S1&amp;","&amp;$A6&amp;","&amp;fig!S6)</f>
         <v/>
       </c>
-      <c r="T6" s="11" t="str">
+      <c r="T6" s="2" t="str">
         <f>if(ISBLANK(fig!T6),"",T1&amp;","&amp;$A6&amp;","&amp;fig!T6)</f>
         <v/>
       </c>
-      <c r="U6" s="11" t="str">
+      <c r="U6" s="2" t="str">
         <f>if(ISBLANK(fig!U6),"",U1&amp;","&amp;$A6&amp;","&amp;fig!U6)</f>
         <v/>
       </c>
-      <c r="V6" s="11" t="str">
+      <c r="V6" s="2" t="str">
         <f>if(ISBLANK(fig!V6),"",V1&amp;","&amp;$A6&amp;","&amp;fig!V6)</f>
         <v/>
       </c>
-      <c r="W6" s="11" t="str">
+      <c r="W6" s="2" t="str">
         <f>if(ISBLANK(fig!W6),"",W1&amp;","&amp;$A6&amp;","&amp;fig!W6)</f>
         <v/>
       </c>
-      <c r="X6" s="11" t="str">
+      <c r="X6" s="2" t="str">
         <f>if(ISBLANK(fig!X6),"",X1&amp;","&amp;$A6&amp;","&amp;fig!X6)</f>
         <v/>
       </c>
-      <c r="Y6" s="11" t="str">
+      <c r="Y6" s="2" t="str">
         <f>if(ISBLANK(fig!Y6),"",Y1&amp;","&amp;$A6&amp;","&amp;fig!Y6)</f>
         <v/>
       </c>
-      <c r="Z6" s="11" t="str">
+      <c r="Z6" s="2" t="str">
         <f>if(ISBLANK(fig!Z6),"",Z1&amp;","&amp;$A6&amp;","&amp;fig!Z6)</f>
         <v/>
       </c>
-      <c r="AA6" s="11" t="str">
+      <c r="AA6" s="2" t="str">
         <f>if(ISBLANK(fig!AA6),"",AA1&amp;","&amp;$A6&amp;","&amp;fig!AA6)</f>
         <v/>
       </c>
-      <c r="AB6" s="11" t="str">
+      <c r="AB6" s="2" t="str">
         <f>if(ISBLANK(fig!AB6),"",AB1&amp;","&amp;$A6&amp;","&amp;fig!AB6)</f>
         <v/>
       </c>
-      <c r="AC6" s="11" t="str">
+      <c r="AC6" s="2" t="str">
         <f>if(ISBLANK(fig!AC6),"",AC1&amp;","&amp;$A6&amp;","&amp;fig!AC6)</f>
         <v/>
       </c>
@@ -32830,115 +33061,115 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="B7" s="11" t="str">
+      <c r="B7" s="2" t="str">
         <f>if(ISBLANK(fig!B7),"",B1&amp;","&amp;$A7&amp;","&amp;fig!B7)</f>
         <v/>
       </c>
-      <c r="C7" s="11" t="str">
+      <c r="C7" s="2" t="str">
         <f>if(ISBLANK(fig!C7),"",C1&amp;","&amp;$A7&amp;","&amp;fig!C7)</f>
         <v/>
       </c>
-      <c r="D7" s="11" t="str">
+      <c r="D7" s="2" t="str">
         <f>if(ISBLANK(fig!D7),"",D1&amp;","&amp;$A7&amp;","&amp;fig!D7)</f>
         <v/>
       </c>
-      <c r="E7" s="11" t="str">
+      <c r="E7" s="2" t="str">
         <f>if(ISBLANK(fig!E7),"",E1&amp;","&amp;$A7&amp;","&amp;fig!E7)</f>
         <v/>
       </c>
-      <c r="F7" s="11" t="str">
+      <c r="F7" s="2" t="str">
         <f>if(ISBLANK(fig!F7),"",F1&amp;","&amp;$A7&amp;","&amp;fig!F7)</f>
         <v/>
       </c>
-      <c r="G7" s="11" t="str">
+      <c r="G7" s="2" t="str">
         <f>if(ISBLANK(fig!G7),"",G1&amp;","&amp;$A7&amp;","&amp;fig!G7)</f>
         <v/>
       </c>
-      <c r="H7" s="11" t="str">
+      <c r="H7" s="2" t="str">
         <f>if(ISBLANK(fig!H7),"",H1&amp;","&amp;$A7&amp;","&amp;fig!H7)</f>
         <v/>
       </c>
-      <c r="I7" s="11" t="str">
+      <c r="I7" s="2" t="str">
         <f>if(ISBLANK(fig!I7),"",I1&amp;","&amp;$A7&amp;","&amp;fig!I7)</f>
         <v/>
       </c>
-      <c r="J7" s="11" t="str">
+      <c r="J7" s="2" t="str">
         <f>if(ISBLANK(fig!J7),"",J1&amp;","&amp;$A7&amp;","&amp;fig!J7)</f>
         <v/>
       </c>
-      <c r="K7" s="11" t="str">
+      <c r="K7" s="2" t="str">
         <f>if(ISBLANK(fig!K7),"",K1&amp;","&amp;$A7&amp;","&amp;fig!K7)</f>
         <v/>
       </c>
-      <c r="L7" s="11" t="str">
+      <c r="L7" s="2" t="str">
         <f>if(ISBLANK(fig!L7),"",L1&amp;","&amp;$A7&amp;","&amp;fig!L7)</f>
         <v/>
       </c>
-      <c r="M7" s="11" t="str">
+      <c r="M7" s="2" t="str">
         <f>if(ISBLANK(fig!M7),"",M1&amp;","&amp;$A7&amp;","&amp;fig!M7)</f>
         <v/>
       </c>
-      <c r="N7" s="11" t="str">
+      <c r="N7" s="2" t="str">
         <f>if(ISBLANK(fig!N7),"",N1&amp;","&amp;$A7&amp;","&amp;fig!N7)</f>
         <v/>
       </c>
-      <c r="O7" s="11" t="str">
+      <c r="O7" s="2" t="str">
         <f>if(ISBLANK(fig!O7),"",O1&amp;","&amp;$A7&amp;","&amp;fig!O7)</f>
         <v/>
       </c>
-      <c r="P7" s="11" t="str">
+      <c r="P7" s="2" t="str">
         <f>if(ISBLANK(fig!P7),"",P1&amp;","&amp;$A7&amp;","&amp;fig!P7)</f>
         <v/>
       </c>
-      <c r="Q7" s="11" t="str">
+      <c r="Q7" s="2" t="str">
         <f>if(ISBLANK(fig!Q7),"",Q1&amp;","&amp;$A7&amp;","&amp;fig!Q7)</f>
         <v/>
       </c>
-      <c r="R7" s="11" t="str">
+      <c r="R7" s="2" t="str">
         <f>if(ISBLANK(fig!R7),"",R1&amp;","&amp;$A7&amp;","&amp;fig!R7)</f>
         <v/>
       </c>
-      <c r="S7" s="11" t="str">
+      <c r="S7" s="2" t="str">
         <f>if(ISBLANK(fig!S7),"",S1&amp;","&amp;$A7&amp;","&amp;fig!S7)</f>
         <v/>
       </c>
-      <c r="T7" s="11" t="str">
+      <c r="T7" s="2" t="str">
         <f>if(ISBLANK(fig!T7),"",T1&amp;","&amp;$A7&amp;","&amp;fig!T7)</f>
         <v/>
       </c>
-      <c r="U7" s="11" t="str">
+      <c r="U7" s="2" t="str">
         <f>if(ISBLANK(fig!U7),"",U1&amp;","&amp;$A7&amp;","&amp;fig!U7)</f>
         <v/>
       </c>
-      <c r="V7" s="11" t="str">
+      <c r="V7" s="2" t="str">
         <f>if(ISBLANK(fig!V7),"",V1&amp;","&amp;$A7&amp;","&amp;fig!V7)</f>
         <v/>
       </c>
-      <c r="W7" s="11" t="str">
+      <c r="W7" s="2" t="str">
         <f>if(ISBLANK(fig!W7),"",W1&amp;","&amp;$A7&amp;","&amp;fig!W7)</f>
         <v/>
       </c>
-      <c r="X7" s="11" t="str">
+      <c r="X7" s="2" t="str">
         <f>if(ISBLANK(fig!X7),"",X1&amp;","&amp;$A7&amp;","&amp;fig!X7)</f>
         <v/>
       </c>
-      <c r="Y7" s="11" t="str">
+      <c r="Y7" s="2" t="str">
         <f>if(ISBLANK(fig!Y7),"",Y1&amp;","&amp;$A7&amp;","&amp;fig!Y7)</f>
         <v/>
       </c>
-      <c r="Z7" s="11" t="str">
+      <c r="Z7" s="2" t="str">
         <f>if(ISBLANK(fig!Z7),"",Z1&amp;","&amp;$A7&amp;","&amp;fig!Z7)</f>
         <v/>
       </c>
-      <c r="AA7" s="11" t="str">
+      <c r="AA7" s="2" t="str">
         <f>if(ISBLANK(fig!AA7),"",AA1&amp;","&amp;$A7&amp;","&amp;fig!AA7)</f>
         <v/>
       </c>
-      <c r="AB7" s="11" t="str">
+      <c r="AB7" s="2" t="str">
         <f>if(ISBLANK(fig!AB7),"",AB1&amp;","&amp;$A7&amp;","&amp;fig!AB7)</f>
         <v/>
       </c>
-      <c r="AC7" s="11" t="str">
+      <c r="AC7" s="2" t="str">
         <f>if(ISBLANK(fig!AC7),"",AC1&amp;","&amp;$A7&amp;","&amp;fig!AC7)</f>
         <v/>
       </c>
@@ -32948,115 +33179,115 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="B8" s="11" t="str">
+      <c r="B8" s="2" t="str">
         <f>if(ISBLANK(fig!B8),"",B1&amp;","&amp;$A8&amp;","&amp;fig!B8)</f>
         <v/>
       </c>
-      <c r="C8" s="11" t="str">
+      <c r="C8" s="2" t="str">
         <f>if(ISBLANK(fig!C8),"",C1&amp;","&amp;$A8&amp;","&amp;fig!C8)</f>
         <v/>
       </c>
-      <c r="D8" s="11" t="str">
+      <c r="D8" s="2" t="str">
         <f>if(ISBLANK(fig!D8),"",D1&amp;","&amp;$A8&amp;","&amp;fig!D8)</f>
         <v/>
       </c>
-      <c r="E8" s="11" t="str">
+      <c r="E8" s="2" t="str">
         <f>if(ISBLANK(fig!E8),"",E1&amp;","&amp;$A8&amp;","&amp;fig!E8)</f>
         <v/>
       </c>
-      <c r="F8" s="11" t="str">
+      <c r="F8" s="2" t="str">
         <f>if(ISBLANK(fig!F8),"",F1&amp;","&amp;$A8&amp;","&amp;fig!F8)</f>
         <v/>
       </c>
-      <c r="G8" s="11" t="str">
+      <c r="G8" s="2" t="str">
         <f>if(ISBLANK(fig!G8),"",G1&amp;","&amp;$A8&amp;","&amp;fig!G8)</f>
         <v/>
       </c>
-      <c r="H8" s="11" t="str">
+      <c r="H8" s="2" t="str">
         <f>if(ISBLANK(fig!H8),"",H1&amp;","&amp;$A8&amp;","&amp;fig!H8)</f>
         <v/>
       </c>
-      <c r="I8" s="11" t="str">
+      <c r="I8" s="2" t="str">
         <f>if(ISBLANK(fig!I8),"",I1&amp;","&amp;$A8&amp;","&amp;fig!I8)</f>
         <v/>
       </c>
-      <c r="J8" s="11" t="str">
+      <c r="J8" s="2" t="str">
         <f>if(ISBLANK(fig!J8),"",J1&amp;","&amp;$A8&amp;","&amp;fig!J8)</f>
         <v/>
       </c>
-      <c r="K8" s="11" t="str">
+      <c r="K8" s="2" t="str">
         <f>if(ISBLANK(fig!K8),"",K1&amp;","&amp;$A8&amp;","&amp;fig!K8)</f>
         <v/>
       </c>
-      <c r="L8" s="11" t="str">
+      <c r="L8" s="2" t="str">
         <f>if(ISBLANK(fig!L8),"",L1&amp;","&amp;$A8&amp;","&amp;fig!L8)</f>
         <v/>
       </c>
-      <c r="M8" s="11" t="str">
+      <c r="M8" s="2" t="str">
         <f>if(ISBLANK(fig!M8),"",M1&amp;","&amp;$A8&amp;","&amp;fig!M8)</f>
         <v/>
       </c>
-      <c r="N8" s="11" t="str">
+      <c r="N8" s="2" t="str">
         <f>if(ISBLANK(fig!N8),"",N1&amp;","&amp;$A8&amp;","&amp;fig!N8)</f>
         <v/>
       </c>
-      <c r="O8" s="11" t="str">
+      <c r="O8" s="2" t="str">
         <f>if(ISBLANK(fig!O8),"",O1&amp;","&amp;$A8&amp;","&amp;fig!O8)</f>
         <v/>
       </c>
-      <c r="P8" s="11" t="str">
+      <c r="P8" s="2" t="str">
         <f>if(ISBLANK(fig!P8),"",P1&amp;","&amp;$A8&amp;","&amp;fig!P8)</f>
         <v/>
       </c>
-      <c r="Q8" s="11" t="str">
+      <c r="Q8" s="2" t="str">
         <f>if(ISBLANK(fig!Q8),"",Q1&amp;","&amp;$A8&amp;","&amp;fig!Q8)</f>
         <v/>
       </c>
-      <c r="R8" s="11" t="str">
+      <c r="R8" s="2" t="str">
         <f>if(ISBLANK(fig!R8),"",R1&amp;","&amp;$A8&amp;","&amp;fig!R8)</f>
         <v/>
       </c>
-      <c r="S8" s="11" t="str">
+      <c r="S8" s="2" t="str">
         <f>if(ISBLANK(fig!S8),"",S1&amp;","&amp;$A8&amp;","&amp;fig!S8)</f>
         <v/>
       </c>
-      <c r="T8" s="11" t="str">
+      <c r="T8" s="2" t="str">
         <f>if(ISBLANK(fig!T8),"",T1&amp;","&amp;$A8&amp;","&amp;fig!T8)</f>
         <v/>
       </c>
-      <c r="U8" s="11" t="str">
+      <c r="U8" s="2" t="str">
         <f>if(ISBLANK(fig!U8),"",U1&amp;","&amp;$A8&amp;","&amp;fig!U8)</f>
         <v/>
       </c>
-      <c r="V8" s="11" t="str">
+      <c r="V8" s="2" t="str">
         <f>if(ISBLANK(fig!V8),"",V1&amp;","&amp;$A8&amp;","&amp;fig!V8)</f>
         <v/>
       </c>
-      <c r="W8" s="11" t="str">
+      <c r="W8" s="2" t="str">
         <f>if(ISBLANK(fig!W8),"",W1&amp;","&amp;$A8&amp;","&amp;fig!W8)</f>
         <v/>
       </c>
-      <c r="X8" s="11" t="str">
+      <c r="X8" s="2" t="str">
         <f>if(ISBLANK(fig!X8),"",X1&amp;","&amp;$A8&amp;","&amp;fig!X8)</f>
         <v/>
       </c>
-      <c r="Y8" s="11" t="str">
+      <c r="Y8" s="2" t="str">
         <f>if(ISBLANK(fig!Y8),"",Y1&amp;","&amp;$A8&amp;","&amp;fig!Y8)</f>
         <v/>
       </c>
-      <c r="Z8" s="11" t="str">
+      <c r="Z8" s="2" t="str">
         <f>if(ISBLANK(fig!Z8),"",Z1&amp;","&amp;$A8&amp;","&amp;fig!Z8)</f>
         <v/>
       </c>
-      <c r="AA8" s="11" t="str">
+      <c r="AA8" s="2" t="str">
         <f>if(ISBLANK(fig!AA8),"",AA1&amp;","&amp;$A8&amp;","&amp;fig!AA8)</f>
         <v/>
       </c>
-      <c r="AB8" s="11" t="str">
+      <c r="AB8" s="2" t="str">
         <f>if(ISBLANK(fig!AB8),"",AB1&amp;","&amp;$A8&amp;","&amp;fig!AB8)</f>
         <v/>
       </c>
-      <c r="AC8" s="11" t="str">
+      <c r="AC8" s="2" t="str">
         <f>if(ISBLANK(fig!AC8),"",AC1&amp;","&amp;$A8&amp;","&amp;fig!AC8)</f>
         <v/>
       </c>
@@ -33066,115 +33297,115 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="B9" s="11" t="str">
+      <c r="B9" s="2" t="str">
         <f>if(ISBLANK(fig!B9),"",B1&amp;","&amp;$A9&amp;","&amp;fig!B9)</f>
         <v/>
       </c>
-      <c r="C9" s="11" t="str">
+      <c r="C9" s="2" t="str">
         <f>if(ISBLANK(fig!C9),"",C1&amp;","&amp;$A9&amp;","&amp;fig!C9)</f>
         <v/>
       </c>
-      <c r="D9" s="11" t="str">
+      <c r="D9" s="2" t="str">
         <f>if(ISBLANK(fig!D9),"",D1&amp;","&amp;$A9&amp;","&amp;fig!D9)</f>
         <v/>
       </c>
-      <c r="E9" s="11" t="str">
+      <c r="E9" s="2" t="str">
         <f>if(ISBLANK(fig!E9),"",E1&amp;","&amp;$A9&amp;","&amp;fig!E9)</f>
         <v/>
       </c>
-      <c r="F9" s="11" t="str">
+      <c r="F9" s="2" t="str">
         <f>if(ISBLANK(fig!F9),"",F1&amp;","&amp;$A9&amp;","&amp;fig!F9)</f>
         <v/>
       </c>
-      <c r="G9" s="11" t="str">
+      <c r="G9" s="2" t="str">
         <f>if(ISBLANK(fig!G9),"",G1&amp;","&amp;$A9&amp;","&amp;fig!G9)</f>
         <v/>
       </c>
-      <c r="H9" s="11" t="str">
+      <c r="H9" s="2" t="str">
         <f>if(ISBLANK(fig!H9),"",H1&amp;","&amp;$A9&amp;","&amp;fig!H9)</f>
         <v/>
       </c>
-      <c r="I9" s="11" t="str">
+      <c r="I9" s="2" t="str">
         <f>if(ISBLANK(fig!I9),"",I1&amp;","&amp;$A9&amp;","&amp;fig!I9)</f>
         <v/>
       </c>
-      <c r="J9" s="11" t="str">
+      <c r="J9" s="2" t="str">
         <f>if(ISBLANK(fig!J9),"",J1&amp;","&amp;$A9&amp;","&amp;fig!J9)</f>
         <v/>
       </c>
-      <c r="K9" s="11" t="str">
+      <c r="K9" s="2" t="str">
         <f>if(ISBLANK(fig!K9),"",K1&amp;","&amp;$A9&amp;","&amp;fig!K9)</f>
         <v/>
       </c>
-      <c r="L9" s="11" t="str">
+      <c r="L9" s="2" t="str">
         <f>if(ISBLANK(fig!L9),"",L1&amp;","&amp;$A9&amp;","&amp;fig!L9)</f>
         <v/>
       </c>
-      <c r="M9" s="11" t="str">
+      <c r="M9" s="2" t="str">
         <f>if(ISBLANK(fig!M9),"",M1&amp;","&amp;$A9&amp;","&amp;fig!M9)</f>
         <v/>
       </c>
-      <c r="N9" s="11" t="str">
+      <c r="N9" s="2" t="str">
         <f>if(ISBLANK(fig!N9),"",N1&amp;","&amp;$A9&amp;","&amp;fig!N9)</f>
         <v/>
       </c>
-      <c r="O9" s="11" t="str">
+      <c r="O9" s="2" t="str">
         <f>if(ISBLANK(fig!O9),"",O1&amp;","&amp;$A9&amp;","&amp;fig!O9)</f>
         <v/>
       </c>
-      <c r="P9" s="11" t="str">
+      <c r="P9" s="2" t="str">
         <f>if(ISBLANK(fig!P9),"",P1&amp;","&amp;$A9&amp;","&amp;fig!P9)</f>
-        <v>0,18,1</v>
-      </c>
-      <c r="Q9" s="11" t="str">
+        <v/>
+      </c>
+      <c r="Q9" s="2" t="str">
         <f>if(ISBLANK(fig!Q9),"",Q1&amp;","&amp;$A9&amp;","&amp;fig!Q9)</f>
         <v/>
       </c>
-      <c r="R9" s="11" t="str">
+      <c r="R9" s="2" t="str">
         <f>if(ISBLANK(fig!R9),"",R1&amp;","&amp;$A9&amp;","&amp;fig!R9)</f>
         <v/>
       </c>
-      <c r="S9" s="11" t="str">
+      <c r="S9" s="2" t="str">
         <f>if(ISBLANK(fig!S9),"",S1&amp;","&amp;$A9&amp;","&amp;fig!S9)</f>
         <v/>
       </c>
-      <c r="T9" s="11" t="str">
+      <c r="T9" s="2" t="str">
         <f>if(ISBLANK(fig!T9),"",T1&amp;","&amp;$A9&amp;","&amp;fig!T9)</f>
         <v/>
       </c>
-      <c r="U9" s="11" t="str">
+      <c r="U9" s="2" t="str">
         <f>if(ISBLANK(fig!U9),"",U1&amp;","&amp;$A9&amp;","&amp;fig!U9)</f>
         <v/>
       </c>
-      <c r="V9" s="11" t="str">
+      <c r="V9" s="2" t="str">
         <f>if(ISBLANK(fig!V9),"",V1&amp;","&amp;$A9&amp;","&amp;fig!V9)</f>
         <v/>
       </c>
-      <c r="W9" s="11" t="str">
+      <c r="W9" s="2" t="str">
         <f>if(ISBLANK(fig!W9),"",W1&amp;","&amp;$A9&amp;","&amp;fig!W9)</f>
         <v/>
       </c>
-      <c r="X9" s="11" t="str">
+      <c r="X9" s="2" t="str">
         <f>if(ISBLANK(fig!X9),"",X1&amp;","&amp;$A9&amp;","&amp;fig!X9)</f>
         <v/>
       </c>
-      <c r="Y9" s="11" t="str">
+      <c r="Y9" s="2" t="str">
         <f>if(ISBLANK(fig!Y9),"",Y1&amp;","&amp;$A9&amp;","&amp;fig!Y9)</f>
         <v/>
       </c>
-      <c r="Z9" s="11" t="str">
+      <c r="Z9" s="2" t="str">
         <f>if(ISBLANK(fig!Z9),"",Z1&amp;","&amp;$A9&amp;","&amp;fig!Z9)</f>
         <v/>
       </c>
-      <c r="AA9" s="11" t="str">
+      <c r="AA9" s="2" t="str">
         <f>if(ISBLANK(fig!AA9),"",AA1&amp;","&amp;$A9&amp;","&amp;fig!AA9)</f>
         <v/>
       </c>
-      <c r="AB9" s="11" t="str">
+      <c r="AB9" s="2" t="str">
         <f>if(ISBLANK(fig!AB9),"",AB1&amp;","&amp;$A9&amp;","&amp;fig!AB9)</f>
         <v/>
       </c>
-      <c r="AC9" s="11" t="str">
+      <c r="AC9" s="2" t="str">
         <f>if(ISBLANK(fig!AC9),"",AC1&amp;","&amp;$A9&amp;","&amp;fig!AC9)</f>
         <v/>
       </c>
@@ -33184,115 +33415,115 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="B10" s="11" t="str">
+      <c r="B10" s="2" t="str">
         <f>if(ISBLANK(fig!B10),"",B1&amp;","&amp;$A10&amp;","&amp;fig!B10)</f>
         <v/>
       </c>
-      <c r="C10" s="11" t="str">
+      <c r="C10" s="2" t="str">
         <f>if(ISBLANK(fig!C10),"",C1&amp;","&amp;$A10&amp;","&amp;fig!C10)</f>
         <v/>
       </c>
-      <c r="D10" s="11" t="str">
+      <c r="D10" s="2" t="str">
         <f>if(ISBLANK(fig!D10),"",D1&amp;","&amp;$A10&amp;","&amp;fig!D10)</f>
         <v/>
       </c>
-      <c r="E10" s="11" t="str">
+      <c r="E10" s="2" t="str">
         <f>if(ISBLANK(fig!E10),"",E1&amp;","&amp;$A10&amp;","&amp;fig!E10)</f>
         <v/>
       </c>
-      <c r="F10" s="11" t="str">
+      <c r="F10" s="2" t="str">
         <f>if(ISBLANK(fig!F10),"",F1&amp;","&amp;$A10&amp;","&amp;fig!F10)</f>
         <v/>
       </c>
-      <c r="G10" s="11" t="str">
+      <c r="G10" s="2" t="str">
         <f>if(ISBLANK(fig!G10),"",G1&amp;","&amp;$A10&amp;","&amp;fig!G10)</f>
         <v/>
       </c>
-      <c r="H10" s="11" t="str">
+      <c r="H10" s="2" t="str">
         <f>if(ISBLANK(fig!H10),"",H1&amp;","&amp;$A10&amp;","&amp;fig!H10)</f>
         <v/>
       </c>
-      <c r="I10" s="11" t="str">
+      <c r="I10" s="2" t="str">
         <f>if(ISBLANK(fig!I10),"",I1&amp;","&amp;$A10&amp;","&amp;fig!I10)</f>
         <v/>
       </c>
-      <c r="J10" s="11" t="str">
+      <c r="J10" s="2" t="str">
         <f>if(ISBLANK(fig!J10),"",J1&amp;","&amp;$A10&amp;","&amp;fig!J10)</f>
         <v/>
       </c>
-      <c r="K10" s="11" t="str">
+      <c r="K10" s="2" t="str">
         <f>if(ISBLANK(fig!K10),"",K1&amp;","&amp;$A10&amp;","&amp;fig!K10)</f>
         <v/>
       </c>
-      <c r="L10" s="11" t="str">
+      <c r="L10" s="2" t="str">
         <f>if(ISBLANK(fig!L10),"",L1&amp;","&amp;$A10&amp;","&amp;fig!L10)</f>
         <v/>
       </c>
-      <c r="M10" s="11" t="str">
+      <c r="M10" s="2" t="str">
         <f>if(ISBLANK(fig!M10),"",M1&amp;","&amp;$A10&amp;","&amp;fig!M10)</f>
         <v/>
       </c>
-      <c r="N10" s="11" t="str">
+      <c r="N10" s="2" t="str">
         <f>if(ISBLANK(fig!N10),"",N1&amp;","&amp;$A10&amp;","&amp;fig!N10)</f>
         <v/>
       </c>
-      <c r="O10" s="11" t="str">
+      <c r="O10" s="2" t="str">
         <f>if(ISBLANK(fig!O10),"",O1&amp;","&amp;$A10&amp;","&amp;fig!O10)</f>
-        <v>-1,17,1</v>
-      </c>
-      <c r="P10" s="11" t="str">
+        <v/>
+      </c>
+      <c r="P10" s="2" t="str">
         <f>if(ISBLANK(fig!P10),"",P1&amp;","&amp;$A10&amp;","&amp;fig!P10)</f>
-        <v>0,17,4</v>
-      </c>
-      <c r="Q10" s="11" t="str">
+        <v>0,17,1</v>
+      </c>
+      <c r="Q10" s="2" t="str">
         <f>if(ISBLANK(fig!Q10),"",Q1&amp;","&amp;$A10&amp;","&amp;fig!Q10)</f>
-        <v>1,17,1</v>
-      </c>
-      <c r="R10" s="11" t="str">
+        <v/>
+      </c>
+      <c r="R10" s="2" t="str">
         <f>if(ISBLANK(fig!R10),"",R1&amp;","&amp;$A10&amp;","&amp;fig!R10)</f>
         <v/>
       </c>
-      <c r="S10" s="11" t="str">
+      <c r="S10" s="2" t="str">
         <f>if(ISBLANK(fig!S10),"",S1&amp;","&amp;$A10&amp;","&amp;fig!S10)</f>
         <v/>
       </c>
-      <c r="T10" s="11" t="str">
+      <c r="T10" s="2" t="str">
         <f>if(ISBLANK(fig!T10),"",T1&amp;","&amp;$A10&amp;","&amp;fig!T10)</f>
         <v/>
       </c>
-      <c r="U10" s="11" t="str">
+      <c r="U10" s="2" t="str">
         <f>if(ISBLANK(fig!U10),"",U1&amp;","&amp;$A10&amp;","&amp;fig!U10)</f>
         <v/>
       </c>
-      <c r="V10" s="11" t="str">
+      <c r="V10" s="2" t="str">
         <f>if(ISBLANK(fig!V10),"",V1&amp;","&amp;$A10&amp;","&amp;fig!V10)</f>
         <v/>
       </c>
-      <c r="W10" s="11" t="str">
+      <c r="W10" s="2" t="str">
         <f>if(ISBLANK(fig!W10),"",W1&amp;","&amp;$A10&amp;","&amp;fig!W10)</f>
         <v/>
       </c>
-      <c r="X10" s="11" t="str">
+      <c r="X10" s="2" t="str">
         <f>if(ISBLANK(fig!X10),"",X1&amp;","&amp;$A10&amp;","&amp;fig!X10)</f>
         <v/>
       </c>
-      <c r="Y10" s="11" t="str">
+      <c r="Y10" s="2" t="str">
         <f>if(ISBLANK(fig!Y10),"",Y1&amp;","&amp;$A10&amp;","&amp;fig!Y10)</f>
         <v/>
       </c>
-      <c r="Z10" s="11" t="str">
+      <c r="Z10" s="2" t="str">
         <f>if(ISBLANK(fig!Z10),"",Z1&amp;","&amp;$A10&amp;","&amp;fig!Z10)</f>
         <v/>
       </c>
-      <c r="AA10" s="11" t="str">
+      <c r="AA10" s="2" t="str">
         <f>if(ISBLANK(fig!AA10),"",AA1&amp;","&amp;$A10&amp;","&amp;fig!AA10)</f>
         <v/>
       </c>
-      <c r="AB10" s="11" t="str">
+      <c r="AB10" s="2" t="str">
         <f>if(ISBLANK(fig!AB10),"",AB1&amp;","&amp;$A10&amp;","&amp;fig!AB10)</f>
         <v/>
       </c>
-      <c r="AC10" s="11" t="str">
+      <c r="AC10" s="2" t="str">
         <f>if(ISBLANK(fig!AC10),"",AC1&amp;","&amp;$A10&amp;","&amp;fig!AC10)</f>
         <v/>
       </c>
@@ -33302,115 +33533,115 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="B11" s="11" t="str">
+      <c r="B11" s="2" t="str">
         <f>if(ISBLANK(fig!B11),"",B1&amp;","&amp;$A11&amp;","&amp;fig!B11)</f>
         <v/>
       </c>
-      <c r="C11" s="11" t="str">
+      <c r="C11" s="2" t="str">
         <f>if(ISBLANK(fig!C11),"",C1&amp;","&amp;$A11&amp;","&amp;fig!C11)</f>
         <v/>
       </c>
-      <c r="D11" s="11" t="str">
+      <c r="D11" s="2" t="str">
         <f>if(ISBLANK(fig!D11),"",D1&amp;","&amp;$A11&amp;","&amp;fig!D11)</f>
         <v/>
       </c>
-      <c r="E11" s="11" t="str">
+      <c r="E11" s="2" t="str">
         <f>if(ISBLANK(fig!E11),"",E1&amp;","&amp;$A11&amp;","&amp;fig!E11)</f>
         <v/>
       </c>
-      <c r="F11" s="11" t="str">
+      <c r="F11" s="2" t="str">
         <f>if(ISBLANK(fig!F11),"",F1&amp;","&amp;$A11&amp;","&amp;fig!F11)</f>
         <v/>
       </c>
-      <c r="G11" s="11" t="str">
+      <c r="G11" s="2" t="str">
         <f>if(ISBLANK(fig!G11),"",G1&amp;","&amp;$A11&amp;","&amp;fig!G11)</f>
         <v/>
       </c>
-      <c r="H11" s="11" t="str">
+      <c r="H11" s="2" t="str">
         <f>if(ISBLANK(fig!H11),"",H1&amp;","&amp;$A11&amp;","&amp;fig!H11)</f>
         <v/>
       </c>
-      <c r="I11" s="11" t="str">
+      <c r="I11" s="2" t="str">
         <f>if(ISBLANK(fig!I11),"",I1&amp;","&amp;$A11&amp;","&amp;fig!I11)</f>
         <v/>
       </c>
-      <c r="J11" s="11" t="str">
+      <c r="J11" s="2" t="str">
         <f>if(ISBLANK(fig!J11),"",J1&amp;","&amp;$A11&amp;","&amp;fig!J11)</f>
         <v/>
       </c>
-      <c r="K11" s="11" t="str">
+      <c r="K11" s="2" t="str">
         <f>if(ISBLANK(fig!K11),"",K1&amp;","&amp;$A11&amp;","&amp;fig!K11)</f>
         <v/>
       </c>
-      <c r="L11" s="11" t="str">
+      <c r="L11" s="2" t="str">
         <f>if(ISBLANK(fig!L11),"",L1&amp;","&amp;$A11&amp;","&amp;fig!L11)</f>
         <v/>
       </c>
-      <c r="M11" s="11" t="str">
+      <c r="M11" s="2" t="str">
         <f>if(ISBLANK(fig!M11),"",M1&amp;","&amp;$A11&amp;","&amp;fig!M11)</f>
         <v/>
       </c>
-      <c r="N11" s="11" t="str">
+      <c r="N11" s="2" t="str">
         <f>if(ISBLANK(fig!N11),"",N1&amp;","&amp;$A11&amp;","&amp;fig!N11)</f>
         <v/>
       </c>
-      <c r="O11" s="11" t="str">
+      <c r="O11" s="2" t="str">
         <f>if(ISBLANK(fig!O11),"",O1&amp;","&amp;$A11&amp;","&amp;fig!O11)</f>
         <v>-1,16,1</v>
       </c>
-      <c r="P11" s="11" t="str">
+      <c r="P11" s="2" t="str">
         <f>if(ISBLANK(fig!P11),"",P1&amp;","&amp;$A11&amp;","&amp;fig!P11)</f>
         <v>0,16,4</v>
       </c>
-      <c r="Q11" s="11" t="str">
+      <c r="Q11" s="2" t="str">
         <f>if(ISBLANK(fig!Q11),"",Q1&amp;","&amp;$A11&amp;","&amp;fig!Q11)</f>
         <v>1,16,1</v>
       </c>
-      <c r="R11" s="11" t="str">
+      <c r="R11" s="2" t="str">
         <f>if(ISBLANK(fig!R11),"",R1&amp;","&amp;$A11&amp;","&amp;fig!R11)</f>
         <v/>
       </c>
-      <c r="S11" s="11" t="str">
+      <c r="S11" s="2" t="str">
         <f>if(ISBLANK(fig!S11),"",S1&amp;","&amp;$A11&amp;","&amp;fig!S11)</f>
         <v/>
       </c>
-      <c r="T11" s="11" t="str">
+      <c r="T11" s="2" t="str">
         <f>if(ISBLANK(fig!T11),"",T1&amp;","&amp;$A11&amp;","&amp;fig!T11)</f>
         <v/>
       </c>
-      <c r="U11" s="11" t="str">
+      <c r="U11" s="2" t="str">
         <f>if(ISBLANK(fig!U11),"",U1&amp;","&amp;$A11&amp;","&amp;fig!U11)</f>
         <v/>
       </c>
-      <c r="V11" s="11" t="str">
+      <c r="V11" s="2" t="str">
         <f>if(ISBLANK(fig!V11),"",V1&amp;","&amp;$A11&amp;","&amp;fig!V11)</f>
         <v/>
       </c>
-      <c r="W11" s="11" t="str">
+      <c r="W11" s="2" t="str">
         <f>if(ISBLANK(fig!W11),"",W1&amp;","&amp;$A11&amp;","&amp;fig!W11)</f>
         <v/>
       </c>
-      <c r="X11" s="11" t="str">
+      <c r="X11" s="2" t="str">
         <f>if(ISBLANK(fig!X11),"",X1&amp;","&amp;$A11&amp;","&amp;fig!X11)</f>
         <v/>
       </c>
-      <c r="Y11" s="11" t="str">
+      <c r="Y11" s="2" t="str">
         <f>if(ISBLANK(fig!Y11),"",Y1&amp;","&amp;$A11&amp;","&amp;fig!Y11)</f>
         <v/>
       </c>
-      <c r="Z11" s="11" t="str">
+      <c r="Z11" s="2" t="str">
         <f>if(ISBLANK(fig!Z11),"",Z1&amp;","&amp;$A11&amp;","&amp;fig!Z11)</f>
         <v/>
       </c>
-      <c r="AA11" s="11" t="str">
+      <c r="AA11" s="2" t="str">
         <f>if(ISBLANK(fig!AA11),"",AA1&amp;","&amp;$A11&amp;","&amp;fig!AA11)</f>
         <v/>
       </c>
-      <c r="AB11" s="11" t="str">
+      <c r="AB11" s="2" t="str">
         <f>if(ISBLANK(fig!AB11),"",AB1&amp;","&amp;$A11&amp;","&amp;fig!AB11)</f>
         <v/>
       </c>
-      <c r="AC11" s="11" t="str">
+      <c r="AC11" s="2" t="str">
         <f>if(ISBLANK(fig!AC11),"",AC1&amp;","&amp;$A11&amp;","&amp;fig!AC11)</f>
         <v/>
       </c>
@@ -33420,115 +33651,115 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B12" s="11" t="str">
+      <c r="B12" s="2" t="str">
         <f>if(ISBLANK(fig!B12),"",B1&amp;","&amp;$A12&amp;","&amp;fig!B12)</f>
         <v/>
       </c>
-      <c r="C12" s="11" t="str">
+      <c r="C12" s="2" t="str">
         <f>if(ISBLANK(fig!C12),"",C1&amp;","&amp;$A12&amp;","&amp;fig!C12)</f>
         <v/>
       </c>
-      <c r="D12" s="11" t="str">
+      <c r="D12" s="2" t="str">
         <f>if(ISBLANK(fig!D12),"",D1&amp;","&amp;$A12&amp;","&amp;fig!D12)</f>
         <v/>
       </c>
-      <c r="E12" s="11" t="str">
+      <c r="E12" s="2" t="str">
         <f>if(ISBLANK(fig!E12),"",E1&amp;","&amp;$A12&amp;","&amp;fig!E12)</f>
         <v/>
       </c>
-      <c r="F12" s="11" t="str">
+      <c r="F12" s="2" t="str">
         <f>if(ISBLANK(fig!F12),"",F1&amp;","&amp;$A12&amp;","&amp;fig!F12)</f>
         <v/>
       </c>
-      <c r="G12" s="11" t="str">
+      <c r="G12" s="2" t="str">
         <f>if(ISBLANK(fig!G12),"",G1&amp;","&amp;$A12&amp;","&amp;fig!G12)</f>
         <v/>
       </c>
-      <c r="H12" s="11" t="str">
+      <c r="H12" s="2" t="str">
         <f>if(ISBLANK(fig!H12),"",H1&amp;","&amp;$A12&amp;","&amp;fig!H12)</f>
         <v/>
       </c>
-      <c r="I12" s="11" t="str">
+      <c r="I12" s="2" t="str">
         <f>if(ISBLANK(fig!I12),"",I1&amp;","&amp;$A12&amp;","&amp;fig!I12)</f>
         <v/>
       </c>
-      <c r="J12" s="11" t="str">
+      <c r="J12" s="2" t="str">
         <f>if(ISBLANK(fig!J12),"",J1&amp;","&amp;$A12&amp;","&amp;fig!J12)</f>
         <v/>
       </c>
-      <c r="K12" s="11" t="str">
+      <c r="K12" s="2" t="str">
         <f>if(ISBLANK(fig!K12),"",K1&amp;","&amp;$A12&amp;","&amp;fig!K12)</f>
         <v/>
       </c>
-      <c r="L12" s="11" t="str">
+      <c r="L12" s="2" t="str">
         <f>if(ISBLANK(fig!L12),"",L1&amp;","&amp;$A12&amp;","&amp;fig!L12)</f>
         <v/>
       </c>
-      <c r="M12" s="11" t="str">
+      <c r="M12" s="2" t="str">
         <f>if(ISBLANK(fig!M12),"",M1&amp;","&amp;$A12&amp;","&amp;fig!M12)</f>
         <v/>
       </c>
-      <c r="N12" s="11" t="str">
+      <c r="N12" s="2" t="str">
         <f>if(ISBLANK(fig!N12),"",N1&amp;","&amp;$A12&amp;","&amp;fig!N12)</f>
-        <v>-2,15,1</v>
-      </c>
-      <c r="O12" s="11" t="str">
+        <v/>
+      </c>
+      <c r="O12" s="2" t="str">
         <f>if(ISBLANK(fig!O12),"",O1&amp;","&amp;$A12&amp;","&amp;fig!O12)</f>
-        <v>-1,15,4</v>
-      </c>
-      <c r="P12" s="11" t="str">
+        <v>-1,15,1</v>
+      </c>
+      <c r="P12" s="2" t="str">
         <f>if(ISBLANK(fig!P12),"",P1&amp;","&amp;$A12&amp;","&amp;fig!P12)</f>
         <v>0,15,4</v>
       </c>
-      <c r="Q12" s="11" t="str">
+      <c r="Q12" s="2" t="str">
         <f>if(ISBLANK(fig!Q12),"",Q1&amp;","&amp;$A12&amp;","&amp;fig!Q12)</f>
-        <v>1,15,4</v>
-      </c>
-      <c r="R12" s="11" t="str">
+        <v>1,15,1</v>
+      </c>
+      <c r="R12" s="2" t="str">
         <f>if(ISBLANK(fig!R12),"",R1&amp;","&amp;$A12&amp;","&amp;fig!R12)</f>
-        <v>2,15,1</v>
-      </c>
-      <c r="S12" s="11" t="str">
+        <v/>
+      </c>
+      <c r="S12" s="2" t="str">
         <f>if(ISBLANK(fig!S12),"",S1&amp;","&amp;$A12&amp;","&amp;fig!S12)</f>
         <v/>
       </c>
-      <c r="T12" s="11" t="str">
+      <c r="T12" s="2" t="str">
         <f>if(ISBLANK(fig!T12),"",T1&amp;","&amp;$A12&amp;","&amp;fig!T12)</f>
         <v/>
       </c>
-      <c r="U12" s="11" t="str">
+      <c r="U12" s="2" t="str">
         <f>if(ISBLANK(fig!U12),"",U1&amp;","&amp;$A12&amp;","&amp;fig!U12)</f>
         <v/>
       </c>
-      <c r="V12" s="11" t="str">
+      <c r="V12" s="2" t="str">
         <f>if(ISBLANK(fig!V12),"",V1&amp;","&amp;$A12&amp;","&amp;fig!V12)</f>
         <v/>
       </c>
-      <c r="W12" s="11" t="str">
+      <c r="W12" s="2" t="str">
         <f>if(ISBLANK(fig!W12),"",W1&amp;","&amp;$A12&amp;","&amp;fig!W12)</f>
         <v/>
       </c>
-      <c r="X12" s="11" t="str">
+      <c r="X12" s="2" t="str">
         <f>if(ISBLANK(fig!X12),"",X1&amp;","&amp;$A12&amp;","&amp;fig!X12)</f>
         <v/>
       </c>
-      <c r="Y12" s="11" t="str">
+      <c r="Y12" s="2" t="str">
         <f>if(ISBLANK(fig!Y12),"",Y1&amp;","&amp;$A12&amp;","&amp;fig!Y12)</f>
         <v/>
       </c>
-      <c r="Z12" s="11" t="str">
+      <c r="Z12" s="2" t="str">
         <f>if(ISBLANK(fig!Z12),"",Z1&amp;","&amp;$A12&amp;","&amp;fig!Z12)</f>
         <v/>
       </c>
-      <c r="AA12" s="11" t="str">
+      <c r="AA12" s="2" t="str">
         <f>if(ISBLANK(fig!AA12),"",AA1&amp;","&amp;$A12&amp;","&amp;fig!AA12)</f>
         <v/>
       </c>
-      <c r="AB12" s="11" t="str">
+      <c r="AB12" s="2" t="str">
         <f>if(ISBLANK(fig!AB12),"",AB1&amp;","&amp;$A12&amp;","&amp;fig!AB12)</f>
         <v/>
       </c>
-      <c r="AC12" s="11" t="str">
+      <c r="AC12" s="2" t="str">
         <f>if(ISBLANK(fig!AC12),"",AC1&amp;","&amp;$A12&amp;","&amp;fig!AC12)</f>
         <v/>
       </c>
@@ -33538,115 +33769,115 @@
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B13" s="11" t="str">
+      <c r="B13" s="2" t="str">
         <f>if(ISBLANK(fig!B13),"",B1&amp;","&amp;$A13&amp;","&amp;fig!B13)</f>
         <v/>
       </c>
-      <c r="C13" s="11" t="str">
+      <c r="C13" s="2" t="str">
         <f>if(ISBLANK(fig!C13),"",C1&amp;","&amp;$A13&amp;","&amp;fig!C13)</f>
         <v/>
       </c>
-      <c r="D13" s="11" t="str">
+      <c r="D13" s="2" t="str">
         <f>if(ISBLANK(fig!D13),"",D1&amp;","&amp;$A13&amp;","&amp;fig!D13)</f>
         <v/>
       </c>
-      <c r="E13" s="11" t="str">
+      <c r="E13" s="2" t="str">
         <f>if(ISBLANK(fig!E13),"",E1&amp;","&amp;$A13&amp;","&amp;fig!E13)</f>
         <v/>
       </c>
-      <c r="F13" s="11" t="str">
+      <c r="F13" s="2" t="str">
         <f>if(ISBLANK(fig!F13),"",F1&amp;","&amp;$A13&amp;","&amp;fig!F13)</f>
         <v/>
       </c>
-      <c r="G13" s="11" t="str">
+      <c r="G13" s="2" t="str">
         <f>if(ISBLANK(fig!G13),"",G1&amp;","&amp;$A13&amp;","&amp;fig!G13)</f>
         <v/>
       </c>
-      <c r="H13" s="11" t="str">
+      <c r="H13" s="2" t="str">
         <f>if(ISBLANK(fig!H13),"",H1&amp;","&amp;$A13&amp;","&amp;fig!H13)</f>
         <v/>
       </c>
-      <c r="I13" s="11" t="str">
+      <c r="I13" s="2" t="str">
         <f>if(ISBLANK(fig!I13),"",I1&amp;","&amp;$A13&amp;","&amp;fig!I13)</f>
         <v/>
       </c>
-      <c r="J13" s="11" t="str">
+      <c r="J13" s="2" t="str">
         <f>if(ISBLANK(fig!J13),"",J1&amp;","&amp;$A13&amp;","&amp;fig!J13)</f>
         <v/>
       </c>
-      <c r="K13" s="11" t="str">
+      <c r="K13" s="2" t="str">
         <f>if(ISBLANK(fig!K13),"",K1&amp;","&amp;$A13&amp;","&amp;fig!K13)</f>
         <v/>
       </c>
-      <c r="L13" s="11" t="str">
+      <c r="L13" s="2" t="str">
         <f>if(ISBLANK(fig!L13),"",L1&amp;","&amp;$A13&amp;","&amp;fig!L13)</f>
         <v/>
       </c>
-      <c r="M13" s="11" t="str">
+      <c r="M13" s="2" t="str">
         <f>if(ISBLANK(fig!M13),"",M1&amp;","&amp;$A13&amp;","&amp;fig!M13)</f>
         <v/>
       </c>
-      <c r="N13" s="11" t="str">
+      <c r="N13" s="2" t="str">
         <f>if(ISBLANK(fig!N13),"",N1&amp;","&amp;$A13&amp;","&amp;fig!N13)</f>
         <v>-2,14,1</v>
       </c>
-      <c r="O13" s="11" t="str">
+      <c r="O13" s="2" t="str">
         <f>if(ISBLANK(fig!O13),"",O1&amp;","&amp;$A13&amp;","&amp;fig!O13)</f>
         <v>-1,14,4</v>
       </c>
-      <c r="P13" s="11" t="str">
+      <c r="P13" s="2" t="str">
         <f>if(ISBLANK(fig!P13),"",P1&amp;","&amp;$A13&amp;","&amp;fig!P13)</f>
         <v>0,14,4</v>
       </c>
-      <c r="Q13" s="11" t="str">
+      <c r="Q13" s="2" t="str">
         <f>if(ISBLANK(fig!Q13),"",Q1&amp;","&amp;$A13&amp;","&amp;fig!Q13)</f>
         <v>1,14,4</v>
       </c>
-      <c r="R13" s="11" t="str">
+      <c r="R13" s="2" t="str">
         <f>if(ISBLANK(fig!R13),"",R1&amp;","&amp;$A13&amp;","&amp;fig!R13)</f>
         <v>2,14,1</v>
       </c>
-      <c r="S13" s="11" t="str">
+      <c r="S13" s="2" t="str">
         <f>if(ISBLANK(fig!S13),"",S1&amp;","&amp;$A13&amp;","&amp;fig!S13)</f>
         <v/>
       </c>
-      <c r="T13" s="11" t="str">
+      <c r="T13" s="2" t="str">
         <f>if(ISBLANK(fig!T13),"",T1&amp;","&amp;$A13&amp;","&amp;fig!T13)</f>
         <v/>
       </c>
-      <c r="U13" s="11" t="str">
+      <c r="U13" s="2" t="str">
         <f>if(ISBLANK(fig!U13),"",U1&amp;","&amp;$A13&amp;","&amp;fig!U13)</f>
         <v/>
       </c>
-      <c r="V13" s="11" t="str">
+      <c r="V13" s="2" t="str">
         <f>if(ISBLANK(fig!V13),"",V1&amp;","&amp;$A13&amp;","&amp;fig!V13)</f>
         <v/>
       </c>
-      <c r="W13" s="11" t="str">
+      <c r="W13" s="2" t="str">
         <f>if(ISBLANK(fig!W13),"",W1&amp;","&amp;$A13&amp;","&amp;fig!W13)</f>
         <v/>
       </c>
-      <c r="X13" s="11" t="str">
+      <c r="X13" s="2" t="str">
         <f>if(ISBLANK(fig!X13),"",X1&amp;","&amp;$A13&amp;","&amp;fig!X13)</f>
         <v/>
       </c>
-      <c r="Y13" s="11" t="str">
+      <c r="Y13" s="2" t="str">
         <f>if(ISBLANK(fig!Y13),"",Y1&amp;","&amp;$A13&amp;","&amp;fig!Y13)</f>
         <v/>
       </c>
-      <c r="Z13" s="11" t="str">
+      <c r="Z13" s="2" t="str">
         <f>if(ISBLANK(fig!Z13),"",Z1&amp;","&amp;$A13&amp;","&amp;fig!Z13)</f>
         <v/>
       </c>
-      <c r="AA13" s="11" t="str">
+      <c r="AA13" s="2" t="str">
         <f>if(ISBLANK(fig!AA13),"",AA1&amp;","&amp;$A13&amp;","&amp;fig!AA13)</f>
         <v/>
       </c>
-      <c r="AB13" s="11" t="str">
+      <c r="AB13" s="2" t="str">
         <f>if(ISBLANK(fig!AB13),"",AB1&amp;","&amp;$A13&amp;","&amp;fig!AB13)</f>
         <v/>
       </c>
-      <c r="AC13" s="11" t="str">
+      <c r="AC13" s="2" t="str">
         <f>if(ISBLANK(fig!AC13),"",AC1&amp;","&amp;$A13&amp;","&amp;fig!AC13)</f>
         <v/>
       </c>
@@ -33656,115 +33887,115 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="str">
+      <c r="B14" s="2" t="str">
         <f>if(ISBLANK(fig!B14),"",B1&amp;","&amp;$A14&amp;","&amp;fig!B14)</f>
         <v/>
       </c>
-      <c r="C14" s="11" t="str">
+      <c r="C14" s="2" t="str">
         <f>if(ISBLANK(fig!C14),"",C1&amp;","&amp;$A14&amp;","&amp;fig!C14)</f>
         <v/>
       </c>
-      <c r="D14" s="11" t="str">
+      <c r="D14" s="2" t="str">
         <f>if(ISBLANK(fig!D14),"",D1&amp;","&amp;$A14&amp;","&amp;fig!D14)</f>
         <v/>
       </c>
-      <c r="E14" s="11" t="str">
+      <c r="E14" s="2" t="str">
         <f>if(ISBLANK(fig!E14),"",E1&amp;","&amp;$A14&amp;","&amp;fig!E14)</f>
         <v/>
       </c>
-      <c r="F14" s="11" t="str">
+      <c r="F14" s="2" t="str">
         <f>if(ISBLANK(fig!F14),"",F1&amp;","&amp;$A14&amp;","&amp;fig!F14)</f>
         <v/>
       </c>
-      <c r="G14" s="11" t="str">
+      <c r="G14" s="2" t="str">
         <f>if(ISBLANK(fig!G14),"",G1&amp;","&amp;$A14&amp;","&amp;fig!G14)</f>
         <v/>
       </c>
-      <c r="H14" s="11" t="str">
+      <c r="H14" s="2" t="str">
         <f>if(ISBLANK(fig!H14),"",H1&amp;","&amp;$A14&amp;","&amp;fig!H14)</f>
         <v/>
       </c>
-      <c r="I14" s="11" t="str">
+      <c r="I14" s="2" t="str">
         <f>if(ISBLANK(fig!I14),"",I1&amp;","&amp;$A14&amp;","&amp;fig!I14)</f>
         <v/>
       </c>
-      <c r="J14" s="11" t="str">
+      <c r="J14" s="2" t="str">
         <f>if(ISBLANK(fig!J14),"",J1&amp;","&amp;$A14&amp;","&amp;fig!J14)</f>
         <v/>
       </c>
-      <c r="K14" s="11" t="str">
+      <c r="K14" s="2" t="str">
         <f>if(ISBLANK(fig!K14),"",K1&amp;","&amp;$A14&amp;","&amp;fig!K14)</f>
         <v/>
       </c>
-      <c r="L14" s="11" t="str">
+      <c r="L14" s="2" t="str">
         <f>if(ISBLANK(fig!L14),"",L1&amp;","&amp;$A14&amp;","&amp;fig!L14)</f>
         <v/>
       </c>
-      <c r="M14" s="11" t="str">
+      <c r="M14" s="2" t="str">
         <f>if(ISBLANK(fig!M14),"",M1&amp;","&amp;$A14&amp;","&amp;fig!M14)</f>
-        <v>-3,13,1</v>
-      </c>
-      <c r="N14" s="11" t="str">
+        <v/>
+      </c>
+      <c r="N14" s="2" t="str">
         <f>if(ISBLANK(fig!N14),"",N1&amp;","&amp;$A14&amp;","&amp;fig!N14)</f>
         <v>-2,13,1</v>
       </c>
-      <c r="O14" s="11" t="str">
+      <c r="O14" s="2" t="str">
         <f>if(ISBLANK(fig!O14),"",O1&amp;","&amp;$A14&amp;","&amp;fig!O14)</f>
         <v>-1,13,4</v>
       </c>
-      <c r="P14" s="11" t="str">
+      <c r="P14" s="2" t="str">
         <f>if(ISBLANK(fig!P14),"",P1&amp;","&amp;$A14&amp;","&amp;fig!P14)</f>
         <v>0,13,4</v>
       </c>
-      <c r="Q14" s="11" t="str">
+      <c r="Q14" s="2" t="str">
         <f>if(ISBLANK(fig!Q14),"",Q1&amp;","&amp;$A14&amp;","&amp;fig!Q14)</f>
         <v>1,13,4</v>
       </c>
-      <c r="R14" s="11" t="str">
+      <c r="R14" s="2" t="str">
         <f>if(ISBLANK(fig!R14),"",R1&amp;","&amp;$A14&amp;","&amp;fig!R14)</f>
-        <v>2,13,4</v>
-      </c>
-      <c r="S14" s="11" t="str">
+        <v>2,13,1</v>
+      </c>
+      <c r="S14" s="2" t="str">
         <f>if(ISBLANK(fig!S14),"",S1&amp;","&amp;$A14&amp;","&amp;fig!S14)</f>
-        <v>3,13,1</v>
-      </c>
-      <c r="T14" s="11" t="str">
+        <v/>
+      </c>
+      <c r="T14" s="2" t="str">
         <f>if(ISBLANK(fig!T14),"",T1&amp;","&amp;$A14&amp;","&amp;fig!T14)</f>
         <v/>
       </c>
-      <c r="U14" s="11" t="str">
+      <c r="U14" s="2" t="str">
         <f>if(ISBLANK(fig!U14),"",U1&amp;","&amp;$A14&amp;","&amp;fig!U14)</f>
         <v/>
       </c>
-      <c r="V14" s="11" t="str">
+      <c r="V14" s="2" t="str">
         <f>if(ISBLANK(fig!V14),"",V1&amp;","&amp;$A14&amp;","&amp;fig!V14)</f>
         <v/>
       </c>
-      <c r="W14" s="11" t="str">
+      <c r="W14" s="2" t="str">
         <f>if(ISBLANK(fig!W14),"",W1&amp;","&amp;$A14&amp;","&amp;fig!W14)</f>
         <v/>
       </c>
-      <c r="X14" s="11" t="str">
+      <c r="X14" s="2" t="str">
         <f>if(ISBLANK(fig!X14),"",X1&amp;","&amp;$A14&amp;","&amp;fig!X14)</f>
         <v/>
       </c>
-      <c r="Y14" s="11" t="str">
+      <c r="Y14" s="2" t="str">
         <f>if(ISBLANK(fig!Y14),"",Y1&amp;","&amp;$A14&amp;","&amp;fig!Y14)</f>
         <v/>
       </c>
-      <c r="Z14" s="11" t="str">
+      <c r="Z14" s="2" t="str">
         <f>if(ISBLANK(fig!Z14),"",Z1&amp;","&amp;$A14&amp;","&amp;fig!Z14)</f>
         <v/>
       </c>
-      <c r="AA14" s="11" t="str">
+      <c r="AA14" s="2" t="str">
         <f>if(ISBLANK(fig!AA14),"",AA1&amp;","&amp;$A14&amp;","&amp;fig!AA14)</f>
         <v/>
       </c>
-      <c r="AB14" s="11" t="str">
+      <c r="AB14" s="2" t="str">
         <f>if(ISBLANK(fig!AB14),"",AB1&amp;","&amp;$A14&amp;","&amp;fig!AB14)</f>
         <v/>
       </c>
-      <c r="AC14" s="11" t="str">
+      <c r="AC14" s="2" t="str">
         <f>if(ISBLANK(fig!AC14),"",AC1&amp;","&amp;$A14&amp;","&amp;fig!AC14)</f>
         <v/>
       </c>
@@ -33774,115 +34005,115 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B15" s="11" t="str">
+      <c r="B15" s="2" t="str">
         <f>if(ISBLANK(fig!B15),"",B1&amp;","&amp;$A15&amp;","&amp;fig!B15)</f>
         <v/>
       </c>
-      <c r="C15" s="11" t="str">
+      <c r="C15" s="2" t="str">
         <f>if(ISBLANK(fig!C15),"",C1&amp;","&amp;$A15&amp;","&amp;fig!C15)</f>
         <v/>
       </c>
-      <c r="D15" s="11" t="str">
+      <c r="D15" s="2" t="str">
         <f>if(ISBLANK(fig!D15),"",D1&amp;","&amp;$A15&amp;","&amp;fig!D15)</f>
         <v/>
       </c>
-      <c r="E15" s="11" t="str">
+      <c r="E15" s="2" t="str">
         <f>if(ISBLANK(fig!E15),"",E1&amp;","&amp;$A15&amp;","&amp;fig!E15)</f>
         <v/>
       </c>
-      <c r="F15" s="11" t="str">
+      <c r="F15" s="2" t="str">
         <f>if(ISBLANK(fig!F15),"",F1&amp;","&amp;$A15&amp;","&amp;fig!F15)</f>
         <v/>
       </c>
-      <c r="G15" s="11" t="str">
+      <c r="G15" s="2" t="str">
         <f>if(ISBLANK(fig!G15),"",G1&amp;","&amp;$A15&amp;","&amp;fig!G15)</f>
         <v/>
       </c>
-      <c r="H15" s="11" t="str">
+      <c r="H15" s="2" t="str">
         <f>if(ISBLANK(fig!H15),"",H1&amp;","&amp;$A15&amp;","&amp;fig!H15)</f>
-        <v>-8,12,1</v>
-      </c>
-      <c r="I15" s="11" t="str">
+        <v/>
+      </c>
+      <c r="I15" s="2" t="str">
         <f>if(ISBLANK(fig!I15),"",I1&amp;","&amp;$A15&amp;","&amp;fig!I15)</f>
-        <v>-7,12,1</v>
-      </c>
-      <c r="J15" s="11" t="str">
+        <v/>
+      </c>
+      <c r="J15" s="2" t="str">
         <f>if(ISBLANK(fig!J15),"",J1&amp;","&amp;$A15&amp;","&amp;fig!J15)</f>
-        <v>-6,12,1</v>
-      </c>
-      <c r="K15" s="11" t="str">
+        <v/>
+      </c>
+      <c r="K15" s="2" t="str">
         <f>if(ISBLANK(fig!K15),"",K1&amp;","&amp;$A15&amp;","&amp;fig!K15)</f>
-        <v>-5,12,1</v>
-      </c>
-      <c r="L15" s="11" t="str">
+        <v/>
+      </c>
+      <c r="L15" s="2" t="str">
         <f>if(ISBLANK(fig!L15),"",L1&amp;","&amp;$A15&amp;","&amp;fig!L15)</f>
-        <v>-4,12,1</v>
-      </c>
-      <c r="M15" s="11" t="str">
+        <v/>
+      </c>
+      <c r="M15" s="2" t="str">
         <f>if(ISBLANK(fig!M15),"",M1&amp;","&amp;$A15&amp;","&amp;fig!M15)</f>
         <v>-3,12,1</v>
       </c>
-      <c r="N15" s="11" t="str">
+      <c r="N15" s="2" t="str">
         <f>if(ISBLANK(fig!N15),"",N1&amp;","&amp;$A15&amp;","&amp;fig!N15)</f>
-        <v>-2,12,4</v>
-      </c>
-      <c r="O15" s="11" t="str">
+        <v>-2,12,1</v>
+      </c>
+      <c r="O15" s="2" t="str">
         <f>if(ISBLANK(fig!O15),"",O1&amp;","&amp;$A15&amp;","&amp;fig!O15)</f>
         <v>-1,12,4</v>
       </c>
-      <c r="P15" s="11" t="str">
+      <c r="P15" s="2" t="str">
         <f>if(ISBLANK(fig!P15),"",P1&amp;","&amp;$A15&amp;","&amp;fig!P15)</f>
         <v>0,12,4</v>
       </c>
-      <c r="Q15" s="11" t="str">
+      <c r="Q15" s="2" t="str">
         <f>if(ISBLANK(fig!Q15),"",Q1&amp;","&amp;$A15&amp;","&amp;fig!Q15)</f>
         <v>1,12,4</v>
       </c>
-      <c r="R15" s="11" t="str">
+      <c r="R15" s="2" t="str">
         <f>if(ISBLANK(fig!R15),"",R1&amp;","&amp;$A15&amp;","&amp;fig!R15)</f>
         <v>2,12,4</v>
       </c>
-      <c r="S15" s="11" t="str">
+      <c r="S15" s="2" t="str">
         <f>if(ISBLANK(fig!S15),"",S1&amp;","&amp;$A15&amp;","&amp;fig!S15)</f>
         <v>3,12,1</v>
       </c>
-      <c r="T15" s="11" t="str">
+      <c r="T15" s="2" t="str">
         <f>if(ISBLANK(fig!T15),"",T1&amp;","&amp;$A15&amp;","&amp;fig!T15)</f>
-        <v>4,12,1</v>
-      </c>
-      <c r="U15" s="11" t="str">
+        <v/>
+      </c>
+      <c r="U15" s="2" t="str">
         <f>if(ISBLANK(fig!U15),"",U1&amp;","&amp;$A15&amp;","&amp;fig!U15)</f>
-        <v>5,12,1</v>
-      </c>
-      <c r="V15" s="11" t="str">
+        <v/>
+      </c>
+      <c r="V15" s="2" t="str">
         <f>if(ISBLANK(fig!V15),"",V1&amp;","&amp;$A15&amp;","&amp;fig!V15)</f>
-        <v>6,12,1</v>
-      </c>
-      <c r="W15" s="11" t="str">
+        <v/>
+      </c>
+      <c r="W15" s="2" t="str">
         <f>if(ISBLANK(fig!W15),"",W1&amp;","&amp;$A15&amp;","&amp;fig!W15)</f>
-        <v>7,12,1</v>
-      </c>
-      <c r="X15" s="11" t="str">
+        <v/>
+      </c>
+      <c r="X15" s="2" t="str">
         <f>if(ISBLANK(fig!X15),"",X1&amp;","&amp;$A15&amp;","&amp;fig!X15)</f>
-        <v>8,12,1</v>
-      </c>
-      <c r="Y15" s="11" t="str">
+        <v/>
+      </c>
+      <c r="Y15" s="2" t="str">
         <f>if(ISBLANK(fig!Y15),"",Y1&amp;","&amp;$A15&amp;","&amp;fig!Y15)</f>
         <v/>
       </c>
-      <c r="Z15" s="11" t="str">
+      <c r="Z15" s="2" t="str">
         <f>if(ISBLANK(fig!Z15),"",Z1&amp;","&amp;$A15&amp;","&amp;fig!Z15)</f>
         <v/>
       </c>
-      <c r="AA15" s="11" t="str">
+      <c r="AA15" s="2" t="str">
         <f>if(ISBLANK(fig!AA15),"",AA1&amp;","&amp;$A15&amp;","&amp;fig!AA15)</f>
         <v/>
       </c>
-      <c r="AB15" s="11" t="str">
+      <c r="AB15" s="2" t="str">
         <f>if(ISBLANK(fig!AB15),"",AB1&amp;","&amp;$A15&amp;","&amp;fig!AB15)</f>
         <v/>
       </c>
-      <c r="AC15" s="11" t="str">
+      <c r="AC15" s="2" t="str">
         <f>if(ISBLANK(fig!AC15),"",AC1&amp;","&amp;$A15&amp;","&amp;fig!AC15)</f>
         <v/>
       </c>
@@ -33892,115 +34123,115 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B16" s="11" t="str">
+      <c r="B16" s="2" t="str">
         <f>if(ISBLANK(fig!B16),"",B1&amp;","&amp;$A16&amp;","&amp;fig!B16)</f>
         <v/>
       </c>
-      <c r="C16" s="11" t="str">
+      <c r="C16" s="2" t="str">
         <f>if(ISBLANK(fig!C16),"",C1&amp;","&amp;$A16&amp;","&amp;fig!C16)</f>
         <v/>
       </c>
-      <c r="D16" s="11" t="str">
+      <c r="D16" s="2" t="str">
         <f>if(ISBLANK(fig!D16),"",D1&amp;","&amp;$A16&amp;","&amp;fig!D16)</f>
         <v/>
       </c>
-      <c r="E16" s="11" t="str">
+      <c r="E16" s="2" t="str">
         <f>if(ISBLANK(fig!E16),"",E1&amp;","&amp;$A16&amp;","&amp;fig!E16)</f>
         <v/>
       </c>
-      <c r="F16" s="11" t="str">
+      <c r="F16" s="2" t="str">
         <f>if(ISBLANK(fig!F16),"",F1&amp;","&amp;$A16&amp;","&amp;fig!F16)</f>
         <v/>
       </c>
-      <c r="G16" s="11" t="str">
+      <c r="G16" s="2" t="str">
         <f>if(ISBLANK(fig!G16),"",G1&amp;","&amp;$A16&amp;","&amp;fig!G16)</f>
         <v/>
       </c>
-      <c r="H16" s="11" t="str">
+      <c r="H16" s="2" t="str">
         <f>if(ISBLANK(fig!H16),"",H1&amp;","&amp;$A16&amp;","&amp;fig!H16)</f>
-        <v/>
-      </c>
-      <c r="I16" s="11" t="str">
+        <v>-8,11,1</v>
+      </c>
+      <c r="I16" s="2" t="str">
         <f>if(ISBLANK(fig!I16),"",I1&amp;","&amp;$A16&amp;","&amp;fig!I16)</f>
         <v>-7,11,1</v>
       </c>
-      <c r="J16" s="11" t="str">
+      <c r="J16" s="2" t="str">
         <f>if(ISBLANK(fig!J16),"",J1&amp;","&amp;$A16&amp;","&amp;fig!J16)</f>
-        <v>-6,11,4</v>
-      </c>
-      <c r="K16" s="11" t="str">
+        <v>-6,11,1</v>
+      </c>
+      <c r="K16" s="2" t="str">
         <f>if(ISBLANK(fig!K16),"",K1&amp;","&amp;$A16&amp;","&amp;fig!K16)</f>
-        <v>-5,11,4</v>
-      </c>
-      <c r="L16" s="11" t="str">
+        <v>-5,11,1</v>
+      </c>
+      <c r="L16" s="2" t="str">
         <f>if(ISBLANK(fig!L16),"",L1&amp;","&amp;$A16&amp;","&amp;fig!L16)</f>
-        <v>-4,11,4</v>
-      </c>
-      <c r="M16" s="11" t="str">
+        <v>-4,11,1</v>
+      </c>
+      <c r="M16" s="2" t="str">
         <f>if(ISBLANK(fig!M16),"",M1&amp;","&amp;$A16&amp;","&amp;fig!M16)</f>
-        <v>-3,11,4</v>
-      </c>
-      <c r="N16" s="11" t="str">
+        <v>-3,11,1</v>
+      </c>
+      <c r="N16" s="2" t="str">
         <f>if(ISBLANK(fig!N16),"",N1&amp;","&amp;$A16&amp;","&amp;fig!N16)</f>
-        <v>-2,11,7</v>
-      </c>
-      <c r="O16" s="11" t="str">
+        <v>-2,11,4</v>
+      </c>
+      <c r="O16" s="2" t="str">
         <f>if(ISBLANK(fig!O16),"",O1&amp;","&amp;$A16&amp;","&amp;fig!O16)</f>
         <v>-1,11,4</v>
       </c>
-      <c r="P16" s="11" t="str">
+      <c r="P16" s="2" t="str">
         <f>if(ISBLANK(fig!P16),"",P1&amp;","&amp;$A16&amp;","&amp;fig!P16)</f>
         <v>0,11,4</v>
       </c>
-      <c r="Q16" s="11" t="str">
+      <c r="Q16" s="2" t="str">
         <f>if(ISBLANK(fig!Q16),"",Q1&amp;","&amp;$A16&amp;","&amp;fig!Q16)</f>
         <v>1,11,4</v>
       </c>
-      <c r="R16" s="11" t="str">
+      <c r="R16" s="2" t="str">
         <f>if(ISBLANK(fig!R16),"",R1&amp;","&amp;$A16&amp;","&amp;fig!R16)</f>
-        <v>2,11,7</v>
-      </c>
-      <c r="S16" s="11" t="str">
+        <v>2,11,4</v>
+      </c>
+      <c r="S16" s="2" t="str">
         <f>if(ISBLANK(fig!S16),"",S1&amp;","&amp;$A16&amp;","&amp;fig!S16)</f>
-        <v>3,11,4</v>
-      </c>
-      <c r="T16" s="11" t="str">
+        <v>3,11,1</v>
+      </c>
+      <c r="T16" s="2" t="str">
         <f>if(ISBLANK(fig!T16),"",T1&amp;","&amp;$A16&amp;","&amp;fig!T16)</f>
-        <v>4,11,4</v>
-      </c>
-      <c r="U16" s="11" t="str">
+        <v>4,11,1</v>
+      </c>
+      <c r="U16" s="2" t="str">
         <f>if(ISBLANK(fig!U16),"",U1&amp;","&amp;$A16&amp;","&amp;fig!U16)</f>
-        <v>5,11,4</v>
-      </c>
-      <c r="V16" s="11" t="str">
+        <v>5,11,1</v>
+      </c>
+      <c r="V16" s="2" t="str">
         <f>if(ISBLANK(fig!V16),"",V1&amp;","&amp;$A16&amp;","&amp;fig!V16)</f>
-        <v>6,11,4</v>
-      </c>
-      <c r="W16" s="11" t="str">
+        <v>6,11,1</v>
+      </c>
+      <c r="W16" s="2" t="str">
         <f>if(ISBLANK(fig!W16),"",W1&amp;","&amp;$A16&amp;","&amp;fig!W16)</f>
         <v>7,11,1</v>
       </c>
-      <c r="X16" s="11" t="str">
+      <c r="X16" s="2" t="str">
         <f>if(ISBLANK(fig!X16),"",X1&amp;","&amp;$A16&amp;","&amp;fig!X16)</f>
-        <v/>
-      </c>
-      <c r="Y16" s="11" t="str">
+        <v>8,11,1</v>
+      </c>
+      <c r="Y16" s="2" t="str">
         <f>if(ISBLANK(fig!Y16),"",Y1&amp;","&amp;$A16&amp;","&amp;fig!Y16)</f>
         <v/>
       </c>
-      <c r="Z16" s="11" t="str">
+      <c r="Z16" s="2" t="str">
         <f>if(ISBLANK(fig!Z16),"",Z1&amp;","&amp;$A16&amp;","&amp;fig!Z16)</f>
         <v/>
       </c>
-      <c r="AA16" s="11" t="str">
+      <c r="AA16" s="2" t="str">
         <f>if(ISBLANK(fig!AA16),"",AA1&amp;","&amp;$A16&amp;","&amp;fig!AA16)</f>
         <v/>
       </c>
-      <c r="AB16" s="11" t="str">
+      <c r="AB16" s="2" t="str">
         <f>if(ISBLANK(fig!AB16),"",AB1&amp;","&amp;$A16&amp;","&amp;fig!AB16)</f>
         <v/>
       </c>
-      <c r="AC16" s="11" t="str">
+      <c r="AC16" s="2" t="str">
         <f>if(ISBLANK(fig!AC16),"",AC1&amp;","&amp;$A16&amp;","&amp;fig!AC16)</f>
         <v/>
       </c>
@@ -34010,115 +34241,115 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B17" s="11" t="str">
+      <c r="B17" s="2" t="str">
         <f>if(ISBLANK(fig!B17),"",B1&amp;","&amp;$A17&amp;","&amp;fig!B17)</f>
         <v/>
       </c>
-      <c r="C17" s="11" t="str">
+      <c r="C17" s="2" t="str">
         <f>if(ISBLANK(fig!C17),"",C1&amp;","&amp;$A17&amp;","&amp;fig!C17)</f>
         <v/>
       </c>
-      <c r="D17" s="11" t="str">
+      <c r="D17" s="2" t="str">
         <f>if(ISBLANK(fig!D17),"",D1&amp;","&amp;$A17&amp;","&amp;fig!D17)</f>
         <v/>
       </c>
-      <c r="E17" s="11" t="str">
+      <c r="E17" s="2" t="str">
         <f>if(ISBLANK(fig!E17),"",E1&amp;","&amp;$A17&amp;","&amp;fig!E17)</f>
         <v/>
       </c>
-      <c r="F17" s="11" t="str">
+      <c r="F17" s="2" t="str">
         <f>if(ISBLANK(fig!F17),"",F1&amp;","&amp;$A17&amp;","&amp;fig!F17)</f>
         <v/>
       </c>
-      <c r="G17" s="11" t="str">
+      <c r="G17" s="2" t="str">
         <f>if(ISBLANK(fig!G17),"",G1&amp;","&amp;$A17&amp;","&amp;fig!G17)</f>
         <v/>
       </c>
-      <c r="H17" s="11" t="str">
+      <c r="H17" s="2" t="str">
         <f>if(ISBLANK(fig!H17),"",H1&amp;","&amp;$A17&amp;","&amp;fig!H17)</f>
         <v/>
       </c>
-      <c r="I17" s="11" t="str">
+      <c r="I17" s="2" t="str">
         <f>if(ISBLANK(fig!I17),"",I1&amp;","&amp;$A17&amp;","&amp;fig!I17)</f>
-        <v/>
-      </c>
-      <c r="J17" s="11" t="str">
+        <v>-7,10,1</v>
+      </c>
+      <c r="J17" s="2" t="str">
         <f>if(ISBLANK(fig!J17),"",J1&amp;","&amp;$A17&amp;","&amp;fig!J17)</f>
-        <v>-6,10,1</v>
-      </c>
-      <c r="K17" s="11" t="str">
+        <v>-6,10,4</v>
+      </c>
+      <c r="K17" s="2" t="str">
         <f>if(ISBLANK(fig!K17),"",K1&amp;","&amp;$A17&amp;","&amp;fig!K17)</f>
         <v>-5,10,4</v>
       </c>
-      <c r="L17" s="11" t="str">
+      <c r="L17" s="2" t="str">
         <f>if(ISBLANK(fig!L17),"",L1&amp;","&amp;$A17&amp;","&amp;fig!L17)</f>
         <v>-4,10,4</v>
       </c>
-      <c r="M17" s="11" t="str">
+      <c r="M17" s="2" t="str">
         <f>if(ISBLANK(fig!M17),"",M1&amp;","&amp;$A17&amp;","&amp;fig!M17)</f>
         <v>-3,10,4</v>
       </c>
-      <c r="N17" s="11" t="str">
+      <c r="N17" s="2" t="str">
         <f>if(ISBLANK(fig!N17),"",N1&amp;","&amp;$A17&amp;","&amp;fig!N17)</f>
         <v>-2,10,7</v>
       </c>
-      <c r="O17" s="11" t="str">
+      <c r="O17" s="2" t="str">
         <f>if(ISBLANK(fig!O17),"",O1&amp;","&amp;$A17&amp;","&amp;fig!O17)</f>
         <v>-1,10,4</v>
       </c>
-      <c r="P17" s="11" t="str">
+      <c r="P17" s="2" t="str">
         <f>if(ISBLANK(fig!P17),"",P1&amp;","&amp;$A17&amp;","&amp;fig!P17)</f>
         <v>0,10,4</v>
       </c>
-      <c r="Q17" s="11" t="str">
+      <c r="Q17" s="2" t="str">
         <f>if(ISBLANK(fig!Q17),"",Q1&amp;","&amp;$A17&amp;","&amp;fig!Q17)</f>
         <v>1,10,4</v>
       </c>
-      <c r="R17" s="11" t="str">
+      <c r="R17" s="2" t="str">
         <f>if(ISBLANK(fig!R17),"",R1&amp;","&amp;$A17&amp;","&amp;fig!R17)</f>
         <v>2,10,7</v>
       </c>
-      <c r="S17" s="11" t="str">
+      <c r="S17" s="2" t="str">
         <f>if(ISBLANK(fig!S17),"",S1&amp;","&amp;$A17&amp;","&amp;fig!S17)</f>
         <v>3,10,4</v>
       </c>
-      <c r="T17" s="11" t="str">
+      <c r="T17" s="2" t="str">
         <f>if(ISBLANK(fig!T17),"",T1&amp;","&amp;$A17&amp;","&amp;fig!T17)</f>
         <v>4,10,4</v>
       </c>
-      <c r="U17" s="11" t="str">
+      <c r="U17" s="2" t="str">
         <f>if(ISBLANK(fig!U17),"",U1&amp;","&amp;$A17&amp;","&amp;fig!U17)</f>
         <v>5,10,4</v>
       </c>
-      <c r="V17" s="11" t="str">
+      <c r="V17" s="2" t="str">
         <f>if(ISBLANK(fig!V17),"",V1&amp;","&amp;$A17&amp;","&amp;fig!V17)</f>
-        <v>6,10,1</v>
-      </c>
-      <c r="W17" s="11" t="str">
+        <v>6,10,4</v>
+      </c>
+      <c r="W17" s="2" t="str">
         <f>if(ISBLANK(fig!W17),"",W1&amp;","&amp;$A17&amp;","&amp;fig!W17)</f>
-        <v/>
-      </c>
-      <c r="X17" s="11" t="str">
+        <v>7,10,1</v>
+      </c>
+      <c r="X17" s="2" t="str">
         <f>if(ISBLANK(fig!X17),"",X1&amp;","&amp;$A17&amp;","&amp;fig!X17)</f>
         <v/>
       </c>
-      <c r="Y17" s="11" t="str">
+      <c r="Y17" s="2" t="str">
         <f>if(ISBLANK(fig!Y17),"",Y1&amp;","&amp;$A17&amp;","&amp;fig!Y17)</f>
         <v/>
       </c>
-      <c r="Z17" s="11" t="str">
+      <c r="Z17" s="2" t="str">
         <f>if(ISBLANK(fig!Z17),"",Z1&amp;","&amp;$A17&amp;","&amp;fig!Z17)</f>
         <v/>
       </c>
-      <c r="AA17" s="11" t="str">
+      <c r="AA17" s="2" t="str">
         <f>if(ISBLANK(fig!AA17),"",AA1&amp;","&amp;$A17&amp;","&amp;fig!AA17)</f>
         <v/>
       </c>
-      <c r="AB17" s="11" t="str">
+      <c r="AB17" s="2" t="str">
         <f>if(ISBLANK(fig!AB17),"",AB1&amp;","&amp;$A17&amp;","&amp;fig!AB17)</f>
         <v/>
       </c>
-      <c r="AC17" s="11" t="str">
+      <c r="AC17" s="2" t="str">
         <f>if(ISBLANK(fig!AC17),"",AC1&amp;","&amp;$A17&amp;","&amp;fig!AC17)</f>
         <v/>
       </c>
@@ -34128,115 +34359,115 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B18" s="11" t="str">
+      <c r="B18" s="2" t="str">
         <f>if(ISBLANK(fig!B18),"",B1&amp;","&amp;$A18&amp;","&amp;fig!B18)</f>
         <v/>
       </c>
-      <c r="C18" s="11" t="str">
+      <c r="C18" s="2" t="str">
         <f>if(ISBLANK(fig!C18),"",C1&amp;","&amp;$A18&amp;","&amp;fig!C18)</f>
         <v/>
       </c>
-      <c r="D18" s="11" t="str">
+      <c r="D18" s="2" t="str">
         <f>if(ISBLANK(fig!D18),"",D1&amp;","&amp;$A18&amp;","&amp;fig!D18)</f>
         <v/>
       </c>
-      <c r="E18" s="11" t="str">
+      <c r="E18" s="2" t="str">
         <f>if(ISBLANK(fig!E18),"",E1&amp;","&amp;$A18&amp;","&amp;fig!E18)</f>
         <v/>
       </c>
-      <c r="F18" s="11" t="str">
+      <c r="F18" s="2" t="str">
         <f>if(ISBLANK(fig!F18),"",F1&amp;","&amp;$A18&amp;","&amp;fig!F18)</f>
         <v/>
       </c>
-      <c r="G18" s="11" t="str">
+      <c r="G18" s="2" t="str">
         <f>if(ISBLANK(fig!G18),"",G1&amp;","&amp;$A18&amp;","&amp;fig!G18)</f>
         <v/>
       </c>
-      <c r="H18" s="11" t="str">
+      <c r="H18" s="2" t="str">
         <f>if(ISBLANK(fig!H18),"",H1&amp;","&amp;$A18&amp;","&amp;fig!H18)</f>
         <v/>
       </c>
-      <c r="I18" s="11" t="str">
+      <c r="I18" s="2" t="str">
         <f>if(ISBLANK(fig!I18),"",I1&amp;","&amp;$A18&amp;","&amp;fig!I18)</f>
         <v/>
       </c>
-      <c r="J18" s="11" t="str">
+      <c r="J18" s="2" t="str">
         <f>if(ISBLANK(fig!J18),"",J1&amp;","&amp;$A18&amp;","&amp;fig!J18)</f>
-        <v/>
-      </c>
-      <c r="K18" s="11" t="str">
+        <v>-6,9,1</v>
+      </c>
+      <c r="K18" s="2" t="str">
         <f>if(ISBLANK(fig!K18),"",K1&amp;","&amp;$A18&amp;","&amp;fig!K18)</f>
-        <v>-5,9,1</v>
-      </c>
-      <c r="L18" s="11" t="str">
+        <v>-5,9,4</v>
+      </c>
+      <c r="L18" s="2" t="str">
         <f>if(ISBLANK(fig!L18),"",L1&amp;","&amp;$A18&amp;","&amp;fig!L18)</f>
         <v>-4,9,4</v>
       </c>
-      <c r="M18" s="11" t="str">
+      <c r="M18" s="2" t="str">
         <f>if(ISBLANK(fig!M18),"",M1&amp;","&amp;$A18&amp;","&amp;fig!M18)</f>
         <v>-3,9,4</v>
       </c>
-      <c r="N18" s="11" t="str">
+      <c r="N18" s="2" t="str">
         <f>if(ISBLANK(fig!N18),"",N1&amp;","&amp;$A18&amp;","&amp;fig!N18)</f>
         <v>-2,9,7</v>
       </c>
-      <c r="O18" s="11" t="str">
+      <c r="O18" s="2" t="str">
         <f>if(ISBLANK(fig!O18),"",O1&amp;","&amp;$A18&amp;","&amp;fig!O18)</f>
         <v>-1,9,4</v>
       </c>
-      <c r="P18" s="11" t="str">
+      <c r="P18" s="2" t="str">
         <f>if(ISBLANK(fig!P18),"",P1&amp;","&amp;$A18&amp;","&amp;fig!P18)</f>
         <v>0,9,4</v>
       </c>
-      <c r="Q18" s="11" t="str">
+      <c r="Q18" s="2" t="str">
         <f>if(ISBLANK(fig!Q18),"",Q1&amp;","&amp;$A18&amp;","&amp;fig!Q18)</f>
         <v>1,9,4</v>
       </c>
-      <c r="R18" s="11" t="str">
+      <c r="R18" s="2" t="str">
         <f>if(ISBLANK(fig!R18),"",R1&amp;","&amp;$A18&amp;","&amp;fig!R18)</f>
         <v>2,9,7</v>
       </c>
-      <c r="S18" s="11" t="str">
+      <c r="S18" s="2" t="str">
         <f>if(ISBLANK(fig!S18),"",S1&amp;","&amp;$A18&amp;","&amp;fig!S18)</f>
         <v>3,9,4</v>
       </c>
-      <c r="T18" s="11" t="str">
+      <c r="T18" s="2" t="str">
         <f>if(ISBLANK(fig!T18),"",T1&amp;","&amp;$A18&amp;","&amp;fig!T18)</f>
         <v>4,9,4</v>
       </c>
-      <c r="U18" s="11" t="str">
+      <c r="U18" s="2" t="str">
         <f>if(ISBLANK(fig!U18),"",U1&amp;","&amp;$A18&amp;","&amp;fig!U18)</f>
-        <v>5,9,1</v>
-      </c>
-      <c r="V18" s="11" t="str">
+        <v>5,9,4</v>
+      </c>
+      <c r="V18" s="2" t="str">
         <f>if(ISBLANK(fig!V18),"",V1&amp;","&amp;$A18&amp;","&amp;fig!V18)</f>
-        <v/>
-      </c>
-      <c r="W18" s="11" t="str">
+        <v>6,9,1</v>
+      </c>
+      <c r="W18" s="2" t="str">
         <f>if(ISBLANK(fig!W18),"",W1&amp;","&amp;$A18&amp;","&amp;fig!W18)</f>
         <v/>
       </c>
-      <c r="X18" s="11" t="str">
+      <c r="X18" s="2" t="str">
         <f>if(ISBLANK(fig!X18),"",X1&amp;","&amp;$A18&amp;","&amp;fig!X18)</f>
         <v/>
       </c>
-      <c r="Y18" s="11" t="str">
+      <c r="Y18" s="2" t="str">
         <f>if(ISBLANK(fig!Y18),"",Y1&amp;","&amp;$A18&amp;","&amp;fig!Y18)</f>
         <v/>
       </c>
-      <c r="Z18" s="11" t="str">
+      <c r="Z18" s="2" t="str">
         <f>if(ISBLANK(fig!Z18),"",Z1&amp;","&amp;$A18&amp;","&amp;fig!Z18)</f>
         <v/>
       </c>
-      <c r="AA18" s="11" t="str">
+      <c r="AA18" s="2" t="str">
         <f>if(ISBLANK(fig!AA18),"",AA1&amp;","&amp;$A18&amp;","&amp;fig!AA18)</f>
         <v/>
       </c>
-      <c r="AB18" s="11" t="str">
+      <c r="AB18" s="2" t="str">
         <f>if(ISBLANK(fig!AB18),"",AB1&amp;","&amp;$A18&amp;","&amp;fig!AB18)</f>
         <v/>
       </c>
-      <c r="AC18" s="11" t="str">
+      <c r="AC18" s="2" t="str">
         <f>if(ISBLANK(fig!AC18),"",AC1&amp;","&amp;$A18&amp;","&amp;fig!AC18)</f>
         <v/>
       </c>
@@ -34246,115 +34477,115 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B19" s="11" t="str">
+      <c r="B19" s="2" t="str">
         <f>if(ISBLANK(fig!B19),"",B1&amp;","&amp;$A19&amp;","&amp;fig!B19)</f>
         <v/>
       </c>
-      <c r="C19" s="11" t="str">
+      <c r="C19" s="2" t="str">
         <f>if(ISBLANK(fig!C19),"",C1&amp;","&amp;$A19&amp;","&amp;fig!C19)</f>
         <v/>
       </c>
-      <c r="D19" s="11" t="str">
+      <c r="D19" s="2" t="str">
         <f>if(ISBLANK(fig!D19),"",D1&amp;","&amp;$A19&amp;","&amp;fig!D19)</f>
         <v/>
       </c>
-      <c r="E19" s="11" t="str">
+      <c r="E19" s="2" t="str">
         <f>if(ISBLANK(fig!E19),"",E1&amp;","&amp;$A19&amp;","&amp;fig!E19)</f>
         <v/>
       </c>
-      <c r="F19" s="11" t="str">
+      <c r="F19" s="2" t="str">
         <f>if(ISBLANK(fig!F19),"",F1&amp;","&amp;$A19&amp;","&amp;fig!F19)</f>
         <v/>
       </c>
-      <c r="G19" s="11" t="str">
+      <c r="G19" s="2" t="str">
         <f>if(ISBLANK(fig!G19),"",G1&amp;","&amp;$A19&amp;","&amp;fig!G19)</f>
         <v/>
       </c>
-      <c r="H19" s="11" t="str">
+      <c r="H19" s="2" t="str">
         <f>if(ISBLANK(fig!H19),"",H1&amp;","&amp;$A19&amp;","&amp;fig!H19)</f>
         <v/>
       </c>
-      <c r="I19" s="11" t="str">
+      <c r="I19" s="2" t="str">
         <f>if(ISBLANK(fig!I19),"",I1&amp;","&amp;$A19&amp;","&amp;fig!I19)</f>
         <v/>
       </c>
-      <c r="J19" s="11" t="str">
+      <c r="J19" s="2" t="str">
         <f>if(ISBLANK(fig!J19),"",J1&amp;","&amp;$A19&amp;","&amp;fig!J19)</f>
         <v/>
       </c>
-      <c r="K19" s="11" t="str">
+      <c r="K19" s="2" t="str">
         <f>if(ISBLANK(fig!K19),"",K1&amp;","&amp;$A19&amp;","&amp;fig!K19)</f>
-        <v/>
-      </c>
-      <c r="L19" s="11" t="str">
+        <v>-5,8,1</v>
+      </c>
+      <c r="L19" s="2" t="str">
         <f>if(ISBLANK(fig!L19),"",L1&amp;","&amp;$A19&amp;","&amp;fig!L19)</f>
-        <v>-4,8,1</v>
-      </c>
-      <c r="M19" s="11" t="str">
+        <v>-4,8,4</v>
+      </c>
+      <c r="M19" s="2" t="str">
         <f>if(ISBLANK(fig!M19),"",M1&amp;","&amp;$A19&amp;","&amp;fig!M19)</f>
         <v>-3,8,4</v>
       </c>
-      <c r="N19" s="11" t="str">
+      <c r="N19" s="2" t="str">
         <f>if(ISBLANK(fig!N19),"",N1&amp;","&amp;$A19&amp;","&amp;fig!N19)</f>
-        <v>-2,8,4</v>
-      </c>
-      <c r="O19" s="11" t="str">
+        <v>-2,8,7</v>
+      </c>
+      <c r="O19" s="2" t="str">
         <f>if(ISBLANK(fig!O19),"",O1&amp;","&amp;$A19&amp;","&amp;fig!O19)</f>
         <v>-1,8,4</v>
       </c>
-      <c r="P19" s="11" t="str">
+      <c r="P19" s="2" t="str">
         <f>if(ISBLANK(fig!P19),"",P1&amp;","&amp;$A19&amp;","&amp;fig!P19)</f>
         <v>0,8,4</v>
       </c>
-      <c r="Q19" s="11" t="str">
+      <c r="Q19" s="2" t="str">
         <f>if(ISBLANK(fig!Q19),"",Q1&amp;","&amp;$A19&amp;","&amp;fig!Q19)</f>
         <v>1,8,4</v>
       </c>
-      <c r="R19" s="11" t="str">
+      <c r="R19" s="2" t="str">
         <f>if(ISBLANK(fig!R19),"",R1&amp;","&amp;$A19&amp;","&amp;fig!R19)</f>
-        <v>2,8,4</v>
-      </c>
-      <c r="S19" s="11" t="str">
+        <v>2,8,7</v>
+      </c>
+      <c r="S19" s="2" t="str">
         <f>if(ISBLANK(fig!S19),"",S1&amp;","&amp;$A19&amp;","&amp;fig!S19)</f>
         <v>3,8,4</v>
       </c>
-      <c r="T19" s="11" t="str">
+      <c r="T19" s="2" t="str">
         <f>if(ISBLANK(fig!T19),"",T1&amp;","&amp;$A19&amp;","&amp;fig!T19)</f>
-        <v>4,8,1</v>
-      </c>
-      <c r="U19" s="11" t="str">
+        <v>4,8,4</v>
+      </c>
+      <c r="U19" s="2" t="str">
         <f>if(ISBLANK(fig!U19),"",U1&amp;","&amp;$A19&amp;","&amp;fig!U19)</f>
-        <v/>
-      </c>
-      <c r="V19" s="11" t="str">
+        <v>5,8,1</v>
+      </c>
+      <c r="V19" s="2" t="str">
         <f>if(ISBLANK(fig!V19),"",V1&amp;","&amp;$A19&amp;","&amp;fig!V19)</f>
         <v/>
       </c>
-      <c r="W19" s="11" t="str">
+      <c r="W19" s="2" t="str">
         <f>if(ISBLANK(fig!W19),"",W1&amp;","&amp;$A19&amp;","&amp;fig!W19)</f>
         <v/>
       </c>
-      <c r="X19" s="11" t="str">
+      <c r="X19" s="2" t="str">
         <f>if(ISBLANK(fig!X19),"",X1&amp;","&amp;$A19&amp;","&amp;fig!X19)</f>
         <v/>
       </c>
-      <c r="Y19" s="11" t="str">
+      <c r="Y19" s="2" t="str">
         <f>if(ISBLANK(fig!Y19),"",Y1&amp;","&amp;$A19&amp;","&amp;fig!Y19)</f>
         <v/>
       </c>
-      <c r="Z19" s="11" t="str">
+      <c r="Z19" s="2" t="str">
         <f>if(ISBLANK(fig!Z19),"",Z1&amp;","&amp;$A19&amp;","&amp;fig!Z19)</f>
         <v/>
       </c>
-      <c r="AA19" s="11" t="str">
+      <c r="AA19" s="2" t="str">
         <f>if(ISBLANK(fig!AA19),"",AA1&amp;","&amp;$A19&amp;","&amp;fig!AA19)</f>
         <v/>
       </c>
-      <c r="AB19" s="11" t="str">
+      <c r="AB19" s="2" t="str">
         <f>if(ISBLANK(fig!AB19),"",AB1&amp;","&amp;$A19&amp;","&amp;fig!AB19)</f>
         <v/>
       </c>
-      <c r="AC19" s="11" t="str">
+      <c r="AC19" s="2" t="str">
         <f>if(ISBLANK(fig!AC19),"",AC1&amp;","&amp;$A19&amp;","&amp;fig!AC19)</f>
         <v/>
       </c>
@@ -34364,115 +34595,115 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B20" s="11" t="str">
+      <c r="B20" s="2" t="str">
         <f>if(ISBLANK(fig!B20),"",B1&amp;","&amp;$A20&amp;","&amp;fig!B20)</f>
         <v/>
       </c>
-      <c r="C20" s="11" t="str">
+      <c r="C20" s="2" t="str">
         <f>if(ISBLANK(fig!C20),"",C1&amp;","&amp;$A20&amp;","&amp;fig!C20)</f>
         <v/>
       </c>
-      <c r="D20" s="11" t="str">
+      <c r="D20" s="2" t="str">
         <f>if(ISBLANK(fig!D20),"",D1&amp;","&amp;$A20&amp;","&amp;fig!D20)</f>
         <v/>
       </c>
-      <c r="E20" s="11" t="str">
+      <c r="E20" s="2" t="str">
         <f>if(ISBLANK(fig!E20),"",E1&amp;","&amp;$A20&amp;","&amp;fig!E20)</f>
         <v/>
       </c>
-      <c r="F20" s="11" t="str">
+      <c r="F20" s="2" t="str">
         <f>if(ISBLANK(fig!F20),"",F1&amp;","&amp;$A20&amp;","&amp;fig!F20)</f>
         <v/>
       </c>
-      <c r="G20" s="11" t="str">
+      <c r="G20" s="2" t="str">
         <f>if(ISBLANK(fig!G20),"",G1&amp;","&amp;$A20&amp;","&amp;fig!G20)</f>
         <v/>
       </c>
-      <c r="H20" s="11" t="str">
+      <c r="H20" s="2" t="str">
         <f>if(ISBLANK(fig!H20),"",H1&amp;","&amp;$A20&amp;","&amp;fig!H20)</f>
         <v/>
       </c>
-      <c r="I20" s="11" t="str">
+      <c r="I20" s="2" t="str">
         <f>if(ISBLANK(fig!I20),"",I1&amp;","&amp;$A20&amp;","&amp;fig!I20)</f>
         <v/>
       </c>
-      <c r="J20" s="11" t="str">
+      <c r="J20" s="2" t="str">
         <f>if(ISBLANK(fig!J20),"",J1&amp;","&amp;$A20&amp;","&amp;fig!J20)</f>
         <v/>
       </c>
-      <c r="K20" s="11" t="str">
+      <c r="K20" s="2" t="str">
         <f>if(ISBLANK(fig!K20),"",K1&amp;","&amp;$A20&amp;","&amp;fig!K20)</f>
         <v/>
       </c>
-      <c r="L20" s="11" t="str">
+      <c r="L20" s="2" t="str">
         <f>if(ISBLANK(fig!L20),"",L1&amp;","&amp;$A20&amp;","&amp;fig!L20)</f>
-        <v/>
-      </c>
-      <c r="M20" s="11" t="str">
+        <v>-4,7,1</v>
+      </c>
+      <c r="M20" s="2" t="str">
         <f>if(ISBLANK(fig!M20),"",M1&amp;","&amp;$A20&amp;","&amp;fig!M20)</f>
-        <v>-3,7,1</v>
-      </c>
-      <c r="N20" s="11" t="str">
+        <v>-3,7,4</v>
+      </c>
+      <c r="N20" s="2" t="str">
         <f>if(ISBLANK(fig!N20),"",N1&amp;","&amp;$A20&amp;","&amp;fig!N20)</f>
         <v>-2,7,4</v>
       </c>
-      <c r="O20" s="11" t="str">
+      <c r="O20" s="2" t="str">
         <f>if(ISBLANK(fig!O20),"",O1&amp;","&amp;$A20&amp;","&amp;fig!O20)</f>
         <v>-1,7,4</v>
       </c>
-      <c r="P20" s="11" t="str">
+      <c r="P20" s="2" t="str">
         <f>if(ISBLANK(fig!P20),"",P1&amp;","&amp;$A20&amp;","&amp;fig!P20)</f>
         <v>0,7,4</v>
       </c>
-      <c r="Q20" s="11" t="str">
+      <c r="Q20" s="2" t="str">
         <f>if(ISBLANK(fig!Q20),"",Q1&amp;","&amp;$A20&amp;","&amp;fig!Q20)</f>
         <v>1,7,4</v>
       </c>
-      <c r="R20" s="11" t="str">
+      <c r="R20" s="2" t="str">
         <f>if(ISBLANK(fig!R20),"",R1&amp;","&amp;$A20&amp;","&amp;fig!R20)</f>
         <v>2,7,4</v>
       </c>
-      <c r="S20" s="11" t="str">
+      <c r="S20" s="2" t="str">
         <f>if(ISBLANK(fig!S20),"",S1&amp;","&amp;$A20&amp;","&amp;fig!S20)</f>
-        <v>3,7,1</v>
-      </c>
-      <c r="T20" s="11" t="str">
+        <v>3,7,4</v>
+      </c>
+      <c r="T20" s="2" t="str">
         <f>if(ISBLANK(fig!T20),"",T1&amp;","&amp;$A20&amp;","&amp;fig!T20)</f>
-        <v/>
-      </c>
-      <c r="U20" s="11" t="str">
+        <v>4,7,1</v>
+      </c>
+      <c r="U20" s="2" t="str">
         <f>if(ISBLANK(fig!U20),"",U1&amp;","&amp;$A20&amp;","&amp;fig!U20)</f>
         <v/>
       </c>
-      <c r="V20" s="11" t="str">
+      <c r="V20" s="2" t="str">
         <f>if(ISBLANK(fig!V20),"",V1&amp;","&amp;$A20&amp;","&amp;fig!V20)</f>
         <v/>
       </c>
-      <c r="W20" s="11" t="str">
+      <c r="W20" s="2" t="str">
         <f>if(ISBLANK(fig!W20),"",W1&amp;","&amp;$A20&amp;","&amp;fig!W20)</f>
         <v/>
       </c>
-      <c r="X20" s="11" t="str">
+      <c r="X20" s="2" t="str">
         <f>if(ISBLANK(fig!X20),"",X1&amp;","&amp;$A20&amp;","&amp;fig!X20)</f>
         <v/>
       </c>
-      <c r="Y20" s="11" t="str">
+      <c r="Y20" s="2" t="str">
         <f>if(ISBLANK(fig!Y20),"",Y1&amp;","&amp;$A20&amp;","&amp;fig!Y20)</f>
         <v/>
       </c>
-      <c r="Z20" s="11" t="str">
+      <c r="Z20" s="2" t="str">
         <f>if(ISBLANK(fig!Z20),"",Z1&amp;","&amp;$A20&amp;","&amp;fig!Z20)</f>
         <v/>
       </c>
-      <c r="AA20" s="11" t="str">
+      <c r="AA20" s="2" t="str">
         <f>if(ISBLANK(fig!AA20),"",AA1&amp;","&amp;$A20&amp;","&amp;fig!AA20)</f>
         <v/>
       </c>
-      <c r="AB20" s="11" t="str">
+      <c r="AB20" s="2" t="str">
         <f>if(ISBLANK(fig!AB20),"",AB1&amp;","&amp;$A20&amp;","&amp;fig!AB20)</f>
         <v/>
       </c>
-      <c r="AC20" s="11" t="str">
+      <c r="AC20" s="2" t="str">
         <f>if(ISBLANK(fig!AC20),"",AC1&amp;","&amp;$A20&amp;","&amp;fig!AC20)</f>
         <v/>
       </c>
@@ -34482,115 +34713,115 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B21" s="11" t="str">
+      <c r="B21" s="2" t="str">
         <f>if(ISBLANK(fig!B21),"",B1&amp;","&amp;$A21&amp;","&amp;fig!B21)</f>
         <v/>
       </c>
-      <c r="C21" s="11" t="str">
+      <c r="C21" s="2" t="str">
         <f>if(ISBLANK(fig!C21),"",C1&amp;","&amp;$A21&amp;","&amp;fig!C21)</f>
         <v/>
       </c>
-      <c r="D21" s="11" t="str">
+      <c r="D21" s="2" t="str">
         <f>if(ISBLANK(fig!D21),"",D1&amp;","&amp;$A21&amp;","&amp;fig!D21)</f>
         <v/>
       </c>
-      <c r="E21" s="11" t="str">
+      <c r="E21" s="2" t="str">
         <f>if(ISBLANK(fig!E21),"",E1&amp;","&amp;$A21&amp;","&amp;fig!E21)</f>
         <v/>
       </c>
-      <c r="F21" s="11" t="str">
+      <c r="F21" s="2" t="str">
         <f>if(ISBLANK(fig!F21),"",F1&amp;","&amp;$A21&amp;","&amp;fig!F21)</f>
         <v/>
       </c>
-      <c r="G21" s="11" t="str">
+      <c r="G21" s="2" t="str">
         <f>if(ISBLANK(fig!G21),"",G1&amp;","&amp;$A21&amp;","&amp;fig!G21)</f>
         <v/>
       </c>
-      <c r="H21" s="11" t="str">
+      <c r="H21" s="2" t="str">
         <f>if(ISBLANK(fig!H21),"",H1&amp;","&amp;$A21&amp;","&amp;fig!H21)</f>
         <v/>
       </c>
-      <c r="I21" s="11" t="str">
+      <c r="I21" s="2" t="str">
         <f>if(ISBLANK(fig!I21),"",I1&amp;","&amp;$A21&amp;","&amp;fig!I21)</f>
         <v/>
       </c>
-      <c r="J21" s="11" t="str">
+      <c r="J21" s="2" t="str">
         <f>if(ISBLANK(fig!J21),"",J1&amp;","&amp;$A21&amp;","&amp;fig!J21)</f>
         <v/>
       </c>
-      <c r="K21" s="11" t="str">
+      <c r="K21" s="2" t="str">
         <f>if(ISBLANK(fig!K21),"",K1&amp;","&amp;$A21&amp;","&amp;fig!K21)</f>
         <v/>
       </c>
-      <c r="L21" s="11" t="str">
+      <c r="L21" s="2" t="str">
         <f>if(ISBLANK(fig!L21),"",L1&amp;","&amp;$A21&amp;","&amp;fig!L21)</f>
-        <v>-4,6,1</v>
-      </c>
-      <c r="M21" s="11" t="str">
+        <v/>
+      </c>
+      <c r="M21" s="2" t="str">
         <f>if(ISBLANK(fig!M21),"",M1&amp;","&amp;$A21&amp;","&amp;fig!M21)</f>
-        <v>-3,6,4</v>
-      </c>
-      <c r="N21" s="11" t="str">
+        <v>-3,6,1</v>
+      </c>
+      <c r="N21" s="2" t="str">
         <f>if(ISBLANK(fig!N21),"",N1&amp;","&amp;$A21&amp;","&amp;fig!N21)</f>
         <v>-2,6,4</v>
       </c>
-      <c r="O21" s="11" t="str">
+      <c r="O21" s="2" t="str">
         <f>if(ISBLANK(fig!O21),"",O1&amp;","&amp;$A21&amp;","&amp;fig!O21)</f>
         <v>-1,6,4</v>
       </c>
-      <c r="P21" s="11" t="str">
+      <c r="P21" s="2" t="str">
         <f>if(ISBLANK(fig!P21),"",P1&amp;","&amp;$A21&amp;","&amp;fig!P21)</f>
         <v>0,6,4</v>
       </c>
-      <c r="Q21" s="11" t="str">
+      <c r="Q21" s="2" t="str">
         <f>if(ISBLANK(fig!Q21),"",Q1&amp;","&amp;$A21&amp;","&amp;fig!Q21)</f>
         <v>1,6,4</v>
       </c>
-      <c r="R21" s="11" t="str">
+      <c r="R21" s="2" t="str">
         <f>if(ISBLANK(fig!R21),"",R1&amp;","&amp;$A21&amp;","&amp;fig!R21)</f>
         <v>2,6,4</v>
       </c>
-      <c r="S21" s="11" t="str">
+      <c r="S21" s="2" t="str">
         <f>if(ISBLANK(fig!S21),"",S1&amp;","&amp;$A21&amp;","&amp;fig!S21)</f>
-        <v>3,6,4</v>
-      </c>
-      <c r="T21" s="11" t="str">
+        <v>3,6,1</v>
+      </c>
+      <c r="T21" s="2" t="str">
         <f>if(ISBLANK(fig!T21),"",T1&amp;","&amp;$A21&amp;","&amp;fig!T21)</f>
-        <v>4,6,1</v>
-      </c>
-      <c r="U21" s="11" t="str">
+        <v/>
+      </c>
+      <c r="U21" s="2" t="str">
         <f>if(ISBLANK(fig!U21),"",U1&amp;","&amp;$A21&amp;","&amp;fig!U21)</f>
         <v/>
       </c>
-      <c r="V21" s="11" t="str">
+      <c r="V21" s="2" t="str">
         <f>if(ISBLANK(fig!V21),"",V1&amp;","&amp;$A21&amp;","&amp;fig!V21)</f>
         <v/>
       </c>
-      <c r="W21" s="11" t="str">
+      <c r="W21" s="2" t="str">
         <f>if(ISBLANK(fig!W21),"",W1&amp;","&amp;$A21&amp;","&amp;fig!W21)</f>
         <v/>
       </c>
-      <c r="X21" s="11" t="str">
+      <c r="X21" s="2" t="str">
         <f>if(ISBLANK(fig!X21),"",X1&amp;","&amp;$A21&amp;","&amp;fig!X21)</f>
         <v/>
       </c>
-      <c r="Y21" s="11" t="str">
+      <c r="Y21" s="2" t="str">
         <f>if(ISBLANK(fig!Y21),"",Y1&amp;","&amp;$A21&amp;","&amp;fig!Y21)</f>
         <v/>
       </c>
-      <c r="Z21" s="11" t="str">
+      <c r="Z21" s="2" t="str">
         <f>if(ISBLANK(fig!Z21),"",Z1&amp;","&amp;$A21&amp;","&amp;fig!Z21)</f>
         <v/>
       </c>
-      <c r="AA21" s="11" t="str">
+      <c r="AA21" s="2" t="str">
         <f>if(ISBLANK(fig!AA21),"",AA1&amp;","&amp;$A21&amp;","&amp;fig!AA21)</f>
         <v/>
       </c>
-      <c r="AB21" s="11" t="str">
+      <c r="AB21" s="2" t="str">
         <f>if(ISBLANK(fig!AB21),"",AB1&amp;","&amp;$A21&amp;","&amp;fig!AB21)</f>
         <v/>
       </c>
-      <c r="AC21" s="11" t="str">
+      <c r="AC21" s="2" t="str">
         <f>if(ISBLANK(fig!AC21),"",AC1&amp;","&amp;$A21&amp;","&amp;fig!AC21)</f>
         <v/>
       </c>
@@ -34600,115 +34831,115 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B22" s="11" t="str">
+      <c r="B22" s="2" t="str">
         <f>if(ISBLANK(fig!B22),"",B1&amp;","&amp;$A22&amp;","&amp;fig!B22)</f>
         <v/>
       </c>
-      <c r="C22" s="11" t="str">
+      <c r="C22" s="2" t="str">
         <f>if(ISBLANK(fig!C22),"",C1&amp;","&amp;$A22&amp;","&amp;fig!C22)</f>
         <v/>
       </c>
-      <c r="D22" s="11" t="str">
+      <c r="D22" s="2" t="str">
         <f>if(ISBLANK(fig!D22),"",D1&amp;","&amp;$A22&amp;","&amp;fig!D22)</f>
         <v/>
       </c>
-      <c r="E22" s="11" t="str">
+      <c r="E22" s="2" t="str">
         <f>if(ISBLANK(fig!E22),"",E1&amp;","&amp;$A22&amp;","&amp;fig!E22)</f>
         <v/>
       </c>
-      <c r="F22" s="11" t="str">
+      <c r="F22" s="2" t="str">
         <f>if(ISBLANK(fig!F22),"",F1&amp;","&amp;$A22&amp;","&amp;fig!F22)</f>
         <v/>
       </c>
-      <c r="G22" s="11" t="str">
+      <c r="G22" s="2" t="str">
         <f>if(ISBLANK(fig!G22),"",G1&amp;","&amp;$A22&amp;","&amp;fig!G22)</f>
         <v/>
       </c>
-      <c r="H22" s="11" t="str">
+      <c r="H22" s="2" t="str">
         <f>if(ISBLANK(fig!H22),"",H1&amp;","&amp;$A22&amp;","&amp;fig!H22)</f>
         <v/>
       </c>
-      <c r="I22" s="11" t="str">
+      <c r="I22" s="2" t="str">
         <f>if(ISBLANK(fig!I22),"",I1&amp;","&amp;$A22&amp;","&amp;fig!I22)</f>
         <v/>
       </c>
-      <c r="J22" s="11" t="str">
+      <c r="J22" s="2" t="str">
         <f>if(ISBLANK(fig!J22),"",J1&amp;","&amp;$A22&amp;","&amp;fig!J22)</f>
         <v/>
       </c>
-      <c r="K22" s="11" t="str">
+      <c r="K22" s="2" t="str">
         <f>if(ISBLANK(fig!K22),"",K1&amp;","&amp;$A22&amp;","&amp;fig!K22)</f>
-        <v>-5,5,1</v>
-      </c>
-      <c r="L22" s="11" t="str">
+        <v/>
+      </c>
+      <c r="L22" s="2" t="str">
         <f>if(ISBLANK(fig!L22),"",L1&amp;","&amp;$A22&amp;","&amp;fig!L22)</f>
-        <v>-4,5,4</v>
-      </c>
-      <c r="M22" s="11" t="str">
+        <v>-4,5,1</v>
+      </c>
+      <c r="M22" s="2" t="str">
         <f>if(ISBLANK(fig!M22),"",M1&amp;","&amp;$A22&amp;","&amp;fig!M22)</f>
         <v>-3,5,4</v>
       </c>
-      <c r="N22" s="11" t="str">
+      <c r="N22" s="2" t="str">
         <f>if(ISBLANK(fig!N22),"",N1&amp;","&amp;$A22&amp;","&amp;fig!N22)</f>
         <v>-2,5,4</v>
       </c>
-      <c r="O22" s="11" t="str">
+      <c r="O22" s="2" t="str">
         <f>if(ISBLANK(fig!O22),"",O1&amp;","&amp;$A22&amp;","&amp;fig!O22)</f>
         <v>-1,5,4</v>
       </c>
-      <c r="P22" s="11" t="str">
+      <c r="P22" s="2" t="str">
         <f>if(ISBLANK(fig!P22),"",P1&amp;","&amp;$A22&amp;","&amp;fig!P22)</f>
         <v>0,5,4</v>
       </c>
-      <c r="Q22" s="11" t="str">
+      <c r="Q22" s="2" t="str">
         <f>if(ISBLANK(fig!Q22),"",Q1&amp;","&amp;$A22&amp;","&amp;fig!Q22)</f>
         <v>1,5,4</v>
       </c>
-      <c r="R22" s="11" t="str">
+      <c r="R22" s="2" t="str">
         <f>if(ISBLANK(fig!R22),"",R1&amp;","&amp;$A22&amp;","&amp;fig!R22)</f>
         <v>2,5,4</v>
       </c>
-      <c r="S22" s="11" t="str">
+      <c r="S22" s="2" t="str">
         <f>if(ISBLANK(fig!S22),"",S1&amp;","&amp;$A22&amp;","&amp;fig!S22)</f>
         <v>3,5,4</v>
       </c>
-      <c r="T22" s="11" t="str">
+      <c r="T22" s="2" t="str">
         <f>if(ISBLANK(fig!T22),"",T1&amp;","&amp;$A22&amp;","&amp;fig!T22)</f>
-        <v>4,5,4</v>
-      </c>
-      <c r="U22" s="11" t="str">
+        <v>4,5,1</v>
+      </c>
+      <c r="U22" s="2" t="str">
         <f>if(ISBLANK(fig!U22),"",U1&amp;","&amp;$A22&amp;","&amp;fig!U22)</f>
-        <v>5,5,1</v>
-      </c>
-      <c r="V22" s="11" t="str">
+        <v/>
+      </c>
+      <c r="V22" s="2" t="str">
         <f>if(ISBLANK(fig!V22),"",V1&amp;","&amp;$A22&amp;","&amp;fig!V22)</f>
         <v/>
       </c>
-      <c r="W22" s="11" t="str">
+      <c r="W22" s="2" t="str">
         <f>if(ISBLANK(fig!W22),"",W1&amp;","&amp;$A22&amp;","&amp;fig!W22)</f>
         <v/>
       </c>
-      <c r="X22" s="11" t="str">
+      <c r="X22" s="2" t="str">
         <f>if(ISBLANK(fig!X22),"",X1&amp;","&amp;$A22&amp;","&amp;fig!X22)</f>
         <v/>
       </c>
-      <c r="Y22" s="11" t="str">
+      <c r="Y22" s="2" t="str">
         <f>if(ISBLANK(fig!Y22),"",Y1&amp;","&amp;$A22&amp;","&amp;fig!Y22)</f>
         <v/>
       </c>
-      <c r="Z22" s="11" t="str">
+      <c r="Z22" s="2" t="str">
         <f>if(ISBLANK(fig!Z22),"",Z1&amp;","&amp;$A22&amp;","&amp;fig!Z22)</f>
         <v/>
       </c>
-      <c r="AA22" s="11" t="str">
+      <c r="AA22" s="2" t="str">
         <f>if(ISBLANK(fig!AA22),"",AA1&amp;","&amp;$A22&amp;","&amp;fig!AA22)</f>
         <v/>
       </c>
-      <c r="AB22" s="11" t="str">
+      <c r="AB22" s="2" t="str">
         <f>if(ISBLANK(fig!AB22),"",AB1&amp;","&amp;$A22&amp;","&amp;fig!AB22)</f>
         <v/>
       </c>
-      <c r="AC22" s="11" t="str">
+      <c r="AC22" s="2" t="str">
         <f>if(ISBLANK(fig!AC22),"",AC1&amp;","&amp;$A22&amp;","&amp;fig!AC22)</f>
         <v/>
       </c>
@@ -34718,115 +34949,115 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B23" s="11" t="str">
+      <c r="B23" s="2" t="str">
         <f>if(ISBLANK(fig!B23),"",B1&amp;","&amp;$A23&amp;","&amp;fig!B23)</f>
         <v/>
       </c>
-      <c r="C23" s="11" t="str">
+      <c r="C23" s="2" t="str">
         <f>if(ISBLANK(fig!C23),"",C1&amp;","&amp;$A23&amp;","&amp;fig!C23)</f>
         <v/>
       </c>
-      <c r="D23" s="11" t="str">
+      <c r="D23" s="2" t="str">
         <f>if(ISBLANK(fig!D23),"",D1&amp;","&amp;$A23&amp;","&amp;fig!D23)</f>
         <v/>
       </c>
-      <c r="E23" s="11" t="str">
+      <c r="E23" s="2" t="str">
         <f>if(ISBLANK(fig!E23),"",E1&amp;","&amp;$A23&amp;","&amp;fig!E23)</f>
         <v/>
       </c>
-      <c r="F23" s="11" t="str">
+      <c r="F23" s="2" t="str">
         <f>if(ISBLANK(fig!F23),"",F1&amp;","&amp;$A23&amp;","&amp;fig!F23)</f>
         <v/>
       </c>
-      <c r="G23" s="11" t="str">
+      <c r="G23" s="2" t="str">
         <f>if(ISBLANK(fig!G23),"",G1&amp;","&amp;$A23&amp;","&amp;fig!G23)</f>
         <v/>
       </c>
-      <c r="H23" s="11" t="str">
+      <c r="H23" s="2" t="str">
         <f>if(ISBLANK(fig!H23),"",H1&amp;","&amp;$A23&amp;","&amp;fig!H23)</f>
         <v/>
       </c>
-      <c r="I23" s="11" t="str">
+      <c r="I23" s="2" t="str">
         <f>if(ISBLANK(fig!I23),"",I1&amp;","&amp;$A23&amp;","&amp;fig!I23)</f>
         <v/>
       </c>
-      <c r="J23" s="11" t="str">
+      <c r="J23" s="2" t="str">
         <f>if(ISBLANK(fig!J23),"",J1&amp;","&amp;$A23&amp;","&amp;fig!J23)</f>
-        <v>-6,4,1</v>
-      </c>
-      <c r="K23" s="11" t="str">
+        <v/>
+      </c>
+      <c r="K23" s="2" t="str">
         <f>if(ISBLANK(fig!K23),"",K1&amp;","&amp;$A23&amp;","&amp;fig!K23)</f>
-        <v>-5,4,4</v>
-      </c>
-      <c r="L23" s="11" t="str">
+        <v>-5,4,1</v>
+      </c>
+      <c r="L23" s="2" t="str">
         <f>if(ISBLANK(fig!L23),"",L1&amp;","&amp;$A23&amp;","&amp;fig!L23)</f>
         <v>-4,4,4</v>
       </c>
-      <c r="M23" s="11" t="str">
+      <c r="M23" s="2" t="str">
         <f>if(ISBLANK(fig!M23),"",M1&amp;","&amp;$A23&amp;","&amp;fig!M23)</f>
         <v>-3,4,4</v>
       </c>
-      <c r="N23" s="11" t="str">
+      <c r="N23" s="2" t="str">
         <f>if(ISBLANK(fig!N23),"",N1&amp;","&amp;$A23&amp;","&amp;fig!N23)</f>
-        <v>-2,4,1</v>
-      </c>
-      <c r="O23" s="11" t="str">
+        <v>-2,4,4</v>
+      </c>
+      <c r="O23" s="2" t="str">
         <f>if(ISBLANK(fig!O23),"",O1&amp;","&amp;$A23&amp;","&amp;fig!O23)</f>
-        <v>-1,4,1</v>
-      </c>
-      <c r="P23" s="11" t="str">
+        <v>-1,4,4</v>
+      </c>
+      <c r="P23" s="2" t="str">
         <f>if(ISBLANK(fig!P23),"",P1&amp;","&amp;$A23&amp;","&amp;fig!P23)</f>
-        <v>0,4,1</v>
-      </c>
-      <c r="Q23" s="11" t="str">
+        <v>0,4,4</v>
+      </c>
+      <c r="Q23" s="2" t="str">
         <f>if(ISBLANK(fig!Q23),"",Q1&amp;","&amp;$A23&amp;","&amp;fig!Q23)</f>
-        <v>1,4,1</v>
-      </c>
-      <c r="R23" s="11" t="str">
+        <v>1,4,4</v>
+      </c>
+      <c r="R23" s="2" t="str">
         <f>if(ISBLANK(fig!R23),"",R1&amp;","&amp;$A23&amp;","&amp;fig!R23)</f>
-        <v>2,4,1</v>
-      </c>
-      <c r="S23" s="11" t="str">
+        <v>2,4,4</v>
+      </c>
+      <c r="S23" s="2" t="str">
         <f>if(ISBLANK(fig!S23),"",S1&amp;","&amp;$A23&amp;","&amp;fig!S23)</f>
         <v>3,4,4</v>
       </c>
-      <c r="T23" s="11" t="str">
+      <c r="T23" s="2" t="str">
         <f>if(ISBLANK(fig!T23),"",T1&amp;","&amp;$A23&amp;","&amp;fig!T23)</f>
         <v>4,4,4</v>
       </c>
-      <c r="U23" s="11" t="str">
+      <c r="U23" s="2" t="str">
         <f>if(ISBLANK(fig!U23),"",U1&amp;","&amp;$A23&amp;","&amp;fig!U23)</f>
-        <v>5,4,4</v>
-      </c>
-      <c r="V23" s="11" t="str">
+        <v>5,4,1</v>
+      </c>
+      <c r="V23" s="2" t="str">
         <f>if(ISBLANK(fig!V23),"",V1&amp;","&amp;$A23&amp;","&amp;fig!V23)</f>
-        <v>6,4,1</v>
-      </c>
-      <c r="W23" s="11" t="str">
+        <v/>
+      </c>
+      <c r="W23" s="2" t="str">
         <f>if(ISBLANK(fig!W23),"",W1&amp;","&amp;$A23&amp;","&amp;fig!W23)</f>
         <v/>
       </c>
-      <c r="X23" s="11" t="str">
+      <c r="X23" s="2" t="str">
         <f>if(ISBLANK(fig!X23),"",X1&amp;","&amp;$A23&amp;","&amp;fig!X23)</f>
         <v/>
       </c>
-      <c r="Y23" s="11" t="str">
+      <c r="Y23" s="2" t="str">
         <f>if(ISBLANK(fig!Y23),"",Y1&amp;","&amp;$A23&amp;","&amp;fig!Y23)</f>
         <v/>
       </c>
-      <c r="Z23" s="11" t="str">
+      <c r="Z23" s="2" t="str">
         <f>if(ISBLANK(fig!Z23),"",Z1&amp;","&amp;$A23&amp;","&amp;fig!Z23)</f>
         <v/>
       </c>
-      <c r="AA23" s="11" t="str">
+      <c r="AA23" s="2" t="str">
         <f>if(ISBLANK(fig!AA23),"",AA1&amp;","&amp;$A23&amp;","&amp;fig!AA23)</f>
         <v/>
       </c>
-      <c r="AB23" s="11" t="str">
+      <c r="AB23" s="2" t="str">
         <f>if(ISBLANK(fig!AB23),"",AB1&amp;","&amp;$A23&amp;","&amp;fig!AB23)</f>
         <v/>
       </c>
-      <c r="AC23" s="11" t="str">
+      <c r="AC23" s="2" t="str">
         <f>if(ISBLANK(fig!AC23),"",AC1&amp;","&amp;$A23&amp;","&amp;fig!AC23)</f>
         <v/>
       </c>
@@ -34836,115 +35067,115 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="B24" s="11" t="str">
+      <c r="B24" s="2" t="str">
         <f>if(ISBLANK(fig!B24),"",B1&amp;","&amp;$A24&amp;","&amp;fig!B24)</f>
         <v/>
       </c>
-      <c r="C24" s="11" t="str">
+      <c r="C24" s="2" t="str">
         <f>if(ISBLANK(fig!C24),"",C1&amp;","&amp;$A24&amp;","&amp;fig!C24)</f>
         <v/>
       </c>
-      <c r="D24" s="11" t="str">
+      <c r="D24" s="2" t="str">
         <f>if(ISBLANK(fig!D24),"",D1&amp;","&amp;$A24&amp;","&amp;fig!D24)</f>
         <v/>
       </c>
-      <c r="E24" s="11" t="str">
+      <c r="E24" s="2" t="str">
         <f>if(ISBLANK(fig!E24),"",E1&amp;","&amp;$A24&amp;","&amp;fig!E24)</f>
         <v/>
       </c>
-      <c r="F24" s="11" t="str">
+      <c r="F24" s="2" t="str">
         <f>if(ISBLANK(fig!F24),"",F1&amp;","&amp;$A24&amp;","&amp;fig!F24)</f>
         <v/>
       </c>
-      <c r="G24" s="11" t="str">
+      <c r="G24" s="2" t="str">
         <f>if(ISBLANK(fig!G24),"",G1&amp;","&amp;$A24&amp;","&amp;fig!G24)</f>
         <v/>
       </c>
-      <c r="H24" s="11" t="str">
+      <c r="H24" s="2" t="str">
         <f>if(ISBLANK(fig!H24),"",H1&amp;","&amp;$A24&amp;","&amp;fig!H24)</f>
         <v/>
       </c>
-      <c r="I24" s="11" t="str">
+      <c r="I24" s="2" t="str">
         <f>if(ISBLANK(fig!I24),"",I1&amp;","&amp;$A24&amp;","&amp;fig!I24)</f>
-        <v>-7,3,1</v>
-      </c>
-      <c r="J24" s="11" t="str">
+        <v/>
+      </c>
+      <c r="J24" s="2" t="str">
         <f>if(ISBLANK(fig!J24),"",J1&amp;","&amp;$A24&amp;","&amp;fig!J24)</f>
-        <v>-6,3,4</v>
-      </c>
-      <c r="K24" s="11" t="str">
+        <v>-6,3,1</v>
+      </c>
+      <c r="K24" s="2" t="str">
         <f>if(ISBLANK(fig!K24),"",K1&amp;","&amp;$A24&amp;","&amp;fig!K24)</f>
-        <v>-5,3,1</v>
-      </c>
-      <c r="L24" s="11" t="str">
+        <v>-5,3,4</v>
+      </c>
+      <c r="L24" s="2" t="str">
         <f>if(ISBLANK(fig!L24),"",L1&amp;","&amp;$A24&amp;","&amp;fig!L24)</f>
-        <v>-4,3,1</v>
-      </c>
-      <c r="M24" s="11" t="str">
+        <v>-4,3,4</v>
+      </c>
+      <c r="M24" s="2" t="str">
         <f>if(ISBLANK(fig!M24),"",M1&amp;","&amp;$A24&amp;","&amp;fig!M24)</f>
-        <v>-3,3,1</v>
-      </c>
-      <c r="N24" s="11" t="str">
+        <v>-3,3,4</v>
+      </c>
+      <c r="N24" s="2" t="str">
         <f>if(ISBLANK(fig!N24),"",N1&amp;","&amp;$A24&amp;","&amp;fig!N24)</f>
         <v>-2,3,1</v>
       </c>
-      <c r="O24" s="11" t="str">
+      <c r="O24" s="2" t="str">
         <f>if(ISBLANK(fig!O24),"",O1&amp;","&amp;$A24&amp;","&amp;fig!O24)</f>
-        <v/>
-      </c>
-      <c r="P24" s="11" t="str">
+        <v>-1,3,1</v>
+      </c>
+      <c r="P24" s="2" t="str">
         <f>if(ISBLANK(fig!P24),"",P1&amp;","&amp;$A24&amp;","&amp;fig!P24)</f>
-        <v/>
-      </c>
-      <c r="Q24" s="11" t="str">
+        <v>0,3,1</v>
+      </c>
+      <c r="Q24" s="2" t="str">
         <f>if(ISBLANK(fig!Q24),"",Q1&amp;","&amp;$A24&amp;","&amp;fig!Q24)</f>
-        <v/>
-      </c>
-      <c r="R24" s="11" t="str">
+        <v>1,3,1</v>
+      </c>
+      <c r="R24" s="2" t="str">
         <f>if(ISBLANK(fig!R24),"",R1&amp;","&amp;$A24&amp;","&amp;fig!R24)</f>
         <v>2,3,1</v>
       </c>
-      <c r="S24" s="11" t="str">
+      <c r="S24" s="2" t="str">
         <f>if(ISBLANK(fig!S24),"",S1&amp;","&amp;$A24&amp;","&amp;fig!S24)</f>
-        <v>3,3,1</v>
-      </c>
-      <c r="T24" s="11" t="str">
+        <v>3,3,4</v>
+      </c>
+      <c r="T24" s="2" t="str">
         <f>if(ISBLANK(fig!T24),"",T1&amp;","&amp;$A24&amp;","&amp;fig!T24)</f>
-        <v>4,3,1</v>
-      </c>
-      <c r="U24" s="11" t="str">
+        <v>4,3,4</v>
+      </c>
+      <c r="U24" s="2" t="str">
         <f>if(ISBLANK(fig!U24),"",U1&amp;","&amp;$A24&amp;","&amp;fig!U24)</f>
-        <v>5,3,1</v>
-      </c>
-      <c r="V24" s="11" t="str">
+        <v>5,3,4</v>
+      </c>
+      <c r="V24" s="2" t="str">
         <f>if(ISBLANK(fig!V24),"",V1&amp;","&amp;$A24&amp;","&amp;fig!V24)</f>
-        <v>6,3,4</v>
-      </c>
-      <c r="W24" s="11" t="str">
+        <v>6,3,1</v>
+      </c>
+      <c r="W24" s="2" t="str">
         <f>if(ISBLANK(fig!W24),"",W1&amp;","&amp;$A24&amp;","&amp;fig!W24)</f>
-        <v>7,3,1</v>
-      </c>
-      <c r="X24" s="11" t="str">
+        <v/>
+      </c>
+      <c r="X24" s="2" t="str">
         <f>if(ISBLANK(fig!X24),"",X1&amp;","&amp;$A24&amp;","&amp;fig!X24)</f>
         <v/>
       </c>
-      <c r="Y24" s="11" t="str">
+      <c r="Y24" s="2" t="str">
         <f>if(ISBLANK(fig!Y24),"",Y1&amp;","&amp;$A24&amp;","&amp;fig!Y24)</f>
         <v/>
       </c>
-      <c r="Z24" s="11" t="str">
+      <c r="Z24" s="2" t="str">
         <f>if(ISBLANK(fig!Z24),"",Z1&amp;","&amp;$A24&amp;","&amp;fig!Z24)</f>
         <v/>
       </c>
-      <c r="AA24" s="11" t="str">
+      <c r="AA24" s="2" t="str">
         <f>if(ISBLANK(fig!AA24),"",AA1&amp;","&amp;$A24&amp;","&amp;fig!AA24)</f>
         <v/>
       </c>
-      <c r="AB24" s="11" t="str">
+      <c r="AB24" s="2" t="str">
         <f>if(ISBLANK(fig!AB24),"",AB1&amp;","&amp;$A24&amp;","&amp;fig!AB24)</f>
         <v/>
       </c>
-      <c r="AC24" s="11" t="str">
+      <c r="AC24" s="2" t="str">
         <f>if(ISBLANK(fig!AC24),"",AC1&amp;","&amp;$A24&amp;","&amp;fig!AC24)</f>
         <v/>
       </c>
@@ -34954,115 +35185,115 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="B25" s="11" t="str">
+      <c r="B25" s="2" t="str">
         <f>if(ISBLANK(fig!B25),"",B1&amp;","&amp;$A25&amp;","&amp;fig!B25)</f>
         <v/>
       </c>
-      <c r="C25" s="11" t="str">
+      <c r="C25" s="2" t="str">
         <f>if(ISBLANK(fig!C25),"",C1&amp;","&amp;$A25&amp;","&amp;fig!C25)</f>
         <v/>
       </c>
-      <c r="D25" s="11" t="str">
+      <c r="D25" s="2" t="str">
         <f>if(ISBLANK(fig!D25),"",D1&amp;","&amp;$A25&amp;","&amp;fig!D25)</f>
         <v/>
       </c>
-      <c r="E25" s="11" t="str">
+      <c r="E25" s="2" t="str">
         <f>if(ISBLANK(fig!E25),"",E1&amp;","&amp;$A25&amp;","&amp;fig!E25)</f>
         <v/>
       </c>
-      <c r="F25" s="11" t="str">
+      <c r="F25" s="2" t="str">
         <f>if(ISBLANK(fig!F25),"",F1&amp;","&amp;$A25&amp;","&amp;fig!F25)</f>
         <v/>
       </c>
-      <c r="G25" s="11" t="str">
+      <c r="G25" s="2" t="str">
         <f>if(ISBLANK(fig!G25),"",G1&amp;","&amp;$A25&amp;","&amp;fig!G25)</f>
         <v/>
       </c>
-      <c r="H25" s="11" t="str">
+      <c r="H25" s="2" t="str">
         <f>if(ISBLANK(fig!H25),"",H1&amp;","&amp;$A25&amp;","&amp;fig!H25)</f>
-        <v>-8,2,1</v>
-      </c>
-      <c r="I25" s="11" t="str">
+        <v/>
+      </c>
+      <c r="I25" s="2" t="str">
         <f>if(ISBLANK(fig!I25),"",I1&amp;","&amp;$A25&amp;","&amp;fig!I25)</f>
         <v>-7,2,1</v>
       </c>
-      <c r="J25" s="11" t="str">
+      <c r="J25" s="2" t="str">
         <f>if(ISBLANK(fig!J25),"",J1&amp;","&amp;$A25&amp;","&amp;fig!J25)</f>
-        <v>-6,2,1</v>
-      </c>
-      <c r="K25" s="11" t="str">
+        <v>-6,2,4</v>
+      </c>
+      <c r="K25" s="2" t="str">
         <f>if(ISBLANK(fig!K25),"",K1&amp;","&amp;$A25&amp;","&amp;fig!K25)</f>
         <v>-5,2,1</v>
       </c>
-      <c r="L25" s="11" t="str">
+      <c r="L25" s="2" t="str">
         <f>if(ISBLANK(fig!L25),"",L1&amp;","&amp;$A25&amp;","&amp;fig!L25)</f>
-        <v/>
-      </c>
-      <c r="M25" s="11" t="str">
+        <v>-4,2,1</v>
+      </c>
+      <c r="M25" s="2" t="str">
         <f>if(ISBLANK(fig!M25),"",M1&amp;","&amp;$A25&amp;","&amp;fig!M25)</f>
-        <v/>
-      </c>
-      <c r="N25" s="11" t="str">
+        <v>-3,2,1</v>
+      </c>
+      <c r="N25" s="2" t="str">
         <f>if(ISBLANK(fig!N25),"",N1&amp;","&amp;$A25&amp;","&amp;fig!N25)</f>
-        <v/>
-      </c>
-      <c r="O25" s="11" t="str">
+        <v>-2,2,1</v>
+      </c>
+      <c r="O25" s="2" t="str">
         <f>if(ISBLANK(fig!O25),"",O1&amp;","&amp;$A25&amp;","&amp;fig!O25)</f>
         <v/>
       </c>
-      <c r="P25" s="11" t="str">
+      <c r="P25" s="2" t="str">
         <f>if(ISBLANK(fig!P25),"",P1&amp;","&amp;$A25&amp;","&amp;fig!P25)</f>
         <v/>
       </c>
-      <c r="Q25" s="11" t="str">
+      <c r="Q25" s="2" t="str">
         <f>if(ISBLANK(fig!Q25),"",Q1&amp;","&amp;$A25&amp;","&amp;fig!Q25)</f>
         <v/>
       </c>
-      <c r="R25" s="11" t="str">
+      <c r="R25" s="2" t="str">
         <f>if(ISBLANK(fig!R25),"",R1&amp;","&amp;$A25&amp;","&amp;fig!R25)</f>
-        <v/>
-      </c>
-      <c r="S25" s="11" t="str">
+        <v>2,2,1</v>
+      </c>
+      <c r="S25" s="2" t="str">
         <f>if(ISBLANK(fig!S25),"",S1&amp;","&amp;$A25&amp;","&amp;fig!S25)</f>
-        <v/>
-      </c>
-      <c r="T25" s="11" t="str">
+        <v>3,2,1</v>
+      </c>
+      <c r="T25" s="2" t="str">
         <f>if(ISBLANK(fig!T25),"",T1&amp;","&amp;$A25&amp;","&amp;fig!T25)</f>
-        <v/>
-      </c>
-      <c r="U25" s="11" t="str">
+        <v>4,2,1</v>
+      </c>
+      <c r="U25" s="2" t="str">
         <f>if(ISBLANK(fig!U25),"",U1&amp;","&amp;$A25&amp;","&amp;fig!U25)</f>
         <v>5,2,1</v>
       </c>
-      <c r="V25" s="11" t="str">
+      <c r="V25" s="2" t="str">
         <f>if(ISBLANK(fig!V25),"",V1&amp;","&amp;$A25&amp;","&amp;fig!V25)</f>
-        <v>6,2,1</v>
-      </c>
-      <c r="W25" s="11" t="str">
+        <v>6,2,4</v>
+      </c>
+      <c r="W25" s="2" t="str">
         <f>if(ISBLANK(fig!W25),"",W1&amp;","&amp;$A25&amp;","&amp;fig!W25)</f>
         <v>7,2,1</v>
       </c>
-      <c r="X25" s="11" t="str">
+      <c r="X25" s="2" t="str">
         <f>if(ISBLANK(fig!X25),"",X1&amp;","&amp;$A25&amp;","&amp;fig!X25)</f>
-        <v>8,2,1</v>
-      </c>
-      <c r="Y25" s="11" t="str">
+        <v/>
+      </c>
+      <c r="Y25" s="2" t="str">
         <f>if(ISBLANK(fig!Y25),"",Y1&amp;","&amp;$A25&amp;","&amp;fig!Y25)</f>
         <v/>
       </c>
-      <c r="Z25" s="11" t="str">
+      <c r="Z25" s="2" t="str">
         <f>if(ISBLANK(fig!Z25),"",Z1&amp;","&amp;$A25&amp;","&amp;fig!Z25)</f>
         <v/>
       </c>
-      <c r="AA25" s="11" t="str">
+      <c r="AA25" s="2" t="str">
         <f>if(ISBLANK(fig!AA25),"",AA1&amp;","&amp;$A25&amp;","&amp;fig!AA25)</f>
         <v/>
       </c>
-      <c r="AB25" s="11" t="str">
+      <c r="AB25" s="2" t="str">
         <f>if(ISBLANK(fig!AB25),"",AB1&amp;","&amp;$A25&amp;","&amp;fig!AB25)</f>
         <v/>
       </c>
-      <c r="AC25" s="11" t="str">
+      <c r="AC25" s="2" t="str">
         <f>if(ISBLANK(fig!AC25),"",AC1&amp;","&amp;$A25&amp;","&amp;fig!AC25)</f>
         <v/>
       </c>
@@ -35071,115 +35302,115 @@
       <c r="A26" s="2">
         <v>1.0</v>
       </c>
-      <c r="B26" s="11" t="str">
+      <c r="B26" s="2" t="str">
         <f>if(ISBLANK(fig!B26),"",B1&amp;","&amp;$A26&amp;","&amp;fig!B26)</f>
         <v/>
       </c>
-      <c r="C26" s="11" t="str">
+      <c r="C26" s="2" t="str">
         <f>if(ISBLANK(fig!C26),"",C1&amp;","&amp;$A26&amp;","&amp;fig!C26)</f>
         <v/>
       </c>
-      <c r="D26" s="11" t="str">
+      <c r="D26" s="2" t="str">
         <f>if(ISBLANK(fig!D26),"",D1&amp;","&amp;$A26&amp;","&amp;fig!D26)</f>
         <v/>
       </c>
-      <c r="E26" s="11" t="str">
+      <c r="E26" s="2" t="str">
         <f>if(ISBLANK(fig!E26),"",E1&amp;","&amp;$A26&amp;","&amp;fig!E26)</f>
         <v/>
       </c>
-      <c r="F26" s="11" t="str">
+      <c r="F26" s="2" t="str">
         <f>if(ISBLANK(fig!F26),"",F1&amp;","&amp;$A26&amp;","&amp;fig!F26)</f>
         <v/>
       </c>
-      <c r="G26" s="11" t="str">
+      <c r="G26" s="2" t="str">
         <f>if(ISBLANK(fig!G26),"",G1&amp;","&amp;$A26&amp;","&amp;fig!G26)</f>
         <v/>
       </c>
-      <c r="H26" s="11" t="str">
+      <c r="H26" s="2" t="str">
         <f>if(ISBLANK(fig!H26),"",H1&amp;","&amp;$A26&amp;","&amp;fig!H26)</f>
-        <v/>
-      </c>
-      <c r="I26" s="11" t="str">
+        <v>-8,1,1</v>
+      </c>
+      <c r="I26" s="2" t="str">
         <f>if(ISBLANK(fig!I26),"",I1&amp;","&amp;$A26&amp;","&amp;fig!I26)</f>
-        <v/>
-      </c>
-      <c r="J26" s="11" t="str">
+        <v>-7,1,1</v>
+      </c>
+      <c r="J26" s="2" t="str">
         <f>if(ISBLANK(fig!J26),"",J1&amp;","&amp;$A26&amp;","&amp;fig!J26)</f>
-        <v/>
-      </c>
-      <c r="K26" s="11" t="str">
+        <v>-6,1,1</v>
+      </c>
+      <c r="K26" s="2" t="str">
         <f>if(ISBLANK(fig!K26),"",K1&amp;","&amp;$A26&amp;","&amp;fig!K26)</f>
-        <v/>
-      </c>
-      <c r="L26" s="11" t="str">
+        <v>-5,1,1</v>
+      </c>
+      <c r="L26" s="2" t="str">
         <f>if(ISBLANK(fig!L26),"",L1&amp;","&amp;$A26&amp;","&amp;fig!L26)</f>
         <v/>
       </c>
-      <c r="M26" s="11" t="str">
+      <c r="M26" s="2" t="str">
         <f>if(ISBLANK(fig!M26),"",M1&amp;","&amp;$A26&amp;","&amp;fig!M26)</f>
         <v/>
       </c>
-      <c r="N26" s="11" t="str">
+      <c r="N26" s="2" t="str">
         <f>if(ISBLANK(fig!N26),"",N1&amp;","&amp;$A26&amp;","&amp;fig!N26)</f>
         <v/>
       </c>
-      <c r="O26" s="11" t="str">
+      <c r="O26" s="2" t="str">
         <f>if(ISBLANK(fig!O26),"",O1&amp;","&amp;$A26&amp;","&amp;fig!O26)</f>
         <v/>
       </c>
-      <c r="P26" s="11" t="str">
+      <c r="P26" s="2" t="str">
         <f>if(ISBLANK(fig!P26),"",P1&amp;","&amp;$A26&amp;","&amp;fig!P26)</f>
         <v/>
       </c>
-      <c r="Q26" s="11" t="str">
+      <c r="Q26" s="2" t="str">
         <f>if(ISBLANK(fig!Q26),"",Q1&amp;","&amp;$A26&amp;","&amp;fig!Q26)</f>
         <v/>
       </c>
-      <c r="R26" s="11" t="str">
+      <c r="R26" s="2" t="str">
         <f>if(ISBLANK(fig!R26),"",R1&amp;","&amp;$A26&amp;","&amp;fig!R26)</f>
         <v/>
       </c>
-      <c r="S26" s="11" t="str">
+      <c r="S26" s="2" t="str">
         <f>if(ISBLANK(fig!S26),"",S1&amp;","&amp;$A26&amp;","&amp;fig!S26)</f>
         <v/>
       </c>
-      <c r="T26" s="11" t="str">
+      <c r="T26" s="2" t="str">
         <f>if(ISBLANK(fig!T26),"",T1&amp;","&amp;$A26&amp;","&amp;fig!T26)</f>
         <v/>
       </c>
-      <c r="U26" s="11" t="str">
+      <c r="U26" s="2" t="str">
         <f>if(ISBLANK(fig!U26),"",U1&amp;","&amp;$A26&amp;","&amp;fig!U26)</f>
-        <v/>
-      </c>
-      <c r="V26" s="11" t="str">
+        <v>5,1,1</v>
+      </c>
+      <c r="V26" s="2" t="str">
         <f>if(ISBLANK(fig!V26),"",V1&amp;","&amp;$A26&amp;","&amp;fig!V26)</f>
-        <v/>
-      </c>
-      <c r="W26" s="11" t="str">
+        <v>6,1,1</v>
+      </c>
+      <c r="W26" s="2" t="str">
         <f>if(ISBLANK(fig!W26),"",W1&amp;","&amp;$A26&amp;","&amp;fig!W26)</f>
-        <v/>
-      </c>
-      <c r="X26" s="11" t="str">
+        <v>7,1,1</v>
+      </c>
+      <c r="X26" s="2" t="str">
         <f>if(ISBLANK(fig!X26),"",X1&amp;","&amp;$A26&amp;","&amp;fig!X26)</f>
-        <v/>
-      </c>
-      <c r="Y26" s="11" t="str">
+        <v>8,1,1</v>
+      </c>
+      <c r="Y26" s="2" t="str">
         <f>if(ISBLANK(fig!Y26),"",Y1&amp;","&amp;$A26&amp;","&amp;fig!Y26)</f>
         <v/>
       </c>
-      <c r="Z26" s="11" t="str">
+      <c r="Z26" s="2" t="str">
         <f>if(ISBLANK(fig!Z26),"",Z1&amp;","&amp;$A26&amp;","&amp;fig!Z26)</f>
         <v/>
       </c>
-      <c r="AA26" s="11" t="str">
+      <c r="AA26" s="2" t="str">
         <f>if(ISBLANK(fig!AA26),"",AA1&amp;","&amp;$A26&amp;","&amp;fig!AA26)</f>
         <v/>
       </c>
-      <c r="AB26" s="11" t="str">
+      <c r="AB26" s="2" t="str">
         <f>if(ISBLANK(fig!AB26),"",AB1&amp;","&amp;$A26&amp;","&amp;fig!AB26)</f>
         <v/>
       </c>
-      <c r="AC26" s="11" t="str">
+      <c r="AC26" s="2" t="str">
         <f>if(ISBLANK(fig!AC26),"",AC1&amp;","&amp;$A26&amp;","&amp;fig!AC26)</f>
         <v/>
       </c>
@@ -35211,9 +35442,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
-      <c r="AA27" s="12" t="s">
-        <v>0</v>
-      </c>
+      <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
     </row>
@@ -65400,10 +65629,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="4" t="str">
@@ -65412,10 +65641,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14">
+      <c r="A2" s="5">
         <v>35.0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="4" t="str">
@@ -65424,7 +65653,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4" t="str">
@@ -65433,7 +65662,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4" t="str">
@@ -65442,7 +65671,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="4" t="str">
@@ -65451,7 +65680,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="str">
@@ -65460,7 +65689,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="4" t="str">
@@ -65469,7 +65698,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="4" t="str">
@@ -65478,7 +65707,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="4" t="str">
@@ -65487,7 +65716,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4" t="str">
@@ -65496,7 +65725,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="4" t="str">
@@ -65505,7 +65734,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="4" t="str">
@@ -65514,7 +65743,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="4" t="str">
@@ -65523,7 +65752,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="4" t="str">
@@ -65532,7 +65761,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="4" t="str">
@@ -65541,7 +65770,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="4" t="str">
@@ -65550,13 +65779,13 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="15"/>
+      <c r="A18" s="6"/>
     </row>
     <row r="19">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="4" t="str">
@@ -65565,10 +65794,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="14">
+      <c r="A20" s="5">
         <v>17.0</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="4" t="str">
@@ -65577,7 +65806,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="4" t="str">
@@ -65586,7 +65815,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="4" t="str">
@@ -65595,7 +65824,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="4" t="str">
@@ -65604,7 +65833,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="4" t="str">
@@ -65613,7 +65842,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="4" t="str">
@@ -65622,7 +65851,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="4" t="str">
@@ -65631,7 +65860,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="4" t="str">
@@ -65640,7 +65869,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="4" t="str">
@@ -65649,7 +65878,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="4" t="str">
@@ -65658,7 +65887,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="4" t="str">
@@ -65667,7 +65896,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="4" t="str">
@@ -65676,7 +65905,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="4" t="str">
@@ -65685,7 +65914,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="4" t="str">
@@ -65694,7 +65923,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="4" t="str">
@@ -65703,7 +65932,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="4" t="str">
@@ -65712,13 +65941,13 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="15"/>
+      <c r="A37" s="6"/>
     </row>
     <row r="38">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="4" t="str">
@@ -65727,10 +65956,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="14">
+      <c r="A39" s="5">
         <v>6.0</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="4" t="str">
@@ -65739,7 +65968,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C40" s="4" t="str">
@@ -65748,13 +65977,13 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="15"/>
+      <c r="A42" s="6"/>
     </row>
     <row r="43">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="4" t="str">
@@ -65763,10 +65992,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="14">
+      <c r="A44" s="5">
         <v>31.0</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C44" s="4" t="str">
@@ -65775,7 +66004,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C45" s="4" t="str">
@@ -65784,13 +66013,13 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="15"/>
+      <c r="A47" s="6"/>
     </row>
     <row r="48">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C48" s="4" t="str">
@@ -65799,10 +66028,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="14">
+      <c r="A49" s="5">
         <v>50.0</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C49" s="4" t="str">
@@ -65811,7 +66040,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C50" s="4" t="str">
@@ -65820,7 +66049,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C51" s="4" t="str">
@@ -65829,7 +66058,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C52" s="4" t="str">
@@ -65838,13 +66067,13 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="15"/>
+      <c r="A54" s="6"/>
     </row>
     <row r="55">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C55" s="4" t="str">
@@ -65853,7 +66082,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C56" s="4" t="str">
@@ -65862,7 +66091,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C57" s="4" t="str">
@@ -65871,7 +66100,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C58" s="4" t="str">
@@ -65880,13 +66109,13 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="15"/>
+      <c r="A60" s="6"/>
     </row>
     <row r="61">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C61" s="4" t="str">
@@ -65895,7 +66124,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C62" s="4" t="str">
@@ -65904,7 +66133,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C63" s="4" t="str">
@@ -65913,7 +66142,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C64" s="4" t="str">
@@ -65922,7 +66151,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C65" s="4" t="str">
@@ -65931,7 +66160,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C66" s="4" t="str">
@@ -65940,7 +66169,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C67" s="4" t="str">
@@ -65949,7 +66178,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C68" s="4" t="str">
@@ -65958,7 +66187,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C69" s="4" t="str">
@@ -65967,13 +66196,13 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="15"/>
+      <c r="A70" s="6"/>
     </row>
     <row r="71">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C71" s="4" t="str">
@@ -65982,10 +66211,10 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="14">
+      <c r="A72" s="5">
         <v>46.0</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C72" s="4" t="str">
@@ -65994,13 +66223,13 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="15"/>
+      <c r="A74" s="6"/>
     </row>
     <row r="75">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C75" s="4" t="str">
@@ -66009,10 +66238,10 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="14">
+      <c r="A76" s="5">
         <v>18.0</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C76" s="4" t="str">
@@ -66021,7 +66250,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C77" s="4" t="str">
@@ -66030,13 +66259,13 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="15"/>
+      <c r="A79" s="6"/>
     </row>
     <row r="80">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C80" s="4" t="str">
@@ -66045,10 +66274,10 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="14">
+      <c r="A81" s="5">
         <v>24.0</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C81" s="4" t="str">
@@ -66057,7 +66286,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C82" s="4" t="str">
@@ -66066,13 +66295,13 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="15"/>
+      <c r="A84" s="6"/>
     </row>
     <row r="85">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C85" s="4" t="str">
@@ -66081,10 +66310,10 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="14">
+      <c r="A86" s="5">
         <v>67.0</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C86" s="4" t="str">
@@ -66093,7 +66322,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" s="13" t="s">
+      <c r="B87" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C87" s="4" t="str">
@@ -66102,7 +66331,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C88" s="4" t="str">
@@ -66111,7 +66340,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C89" s="4" t="str">
@@ -66120,7 +66349,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C90" s="4" t="str">
@@ -66129,7 +66358,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" s="13" t="s">
+      <c r="B91" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C91" s="4" t="str">
@@ -66138,7 +66367,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C92" s="4" t="str">
@@ -66147,13 +66376,13 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="15"/>
+      <c r="A94" s="6"/>
     </row>
     <row r="95">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="B95" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C95" s="4" t="str">
@@ -66162,10 +66391,10 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C96" s="4" t="str">
@@ -66174,7 +66403,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" s="13" t="s">
+      <c r="B97" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C97" s="4" t="str">
@@ -66183,7 +66412,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C98" s="4" t="str">
@@ -66192,13 +66421,13 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="15"/>
+      <c r="A100" s="6"/>
     </row>
     <row r="101">
-      <c r="A101" s="13" t="s">
+      <c r="A101" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C101" s="4" t="str">
@@ -66207,18 +66436,18 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="16">
+      <c r="A102" s="7">
         <v>44419.0</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="15"/>
+      <c r="A103" s="6"/>
     </row>
     <row r="104">
-      <c r="A104" s="13" t="s">
+      <c r="A104" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B104" s="13" t="s">
+      <c r="B104" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C104" s="4" t="str">
@@ -66227,10 +66456,10 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="14">
+      <c r="A105" s="5">
         <v>247.0</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C105" s="4" t="str">
@@ -66239,7 +66468,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C106" s="4" t="str">
